--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="11070" windowHeight="9960" tabRatio="575"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="11070" windowHeight="9960" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>Project link</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,6 +1166,12 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -1570,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1723,11 +1732,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1735,9 +1810,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1748,26 +1820,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1777,28 +1834,46 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,83 +1882,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,7 +2204,7 @@
   </sheetPr>
   <dimension ref="B2:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2219,12 +2231,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2241,7 +2253,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="70" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -2256,12 +2268,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2273,19 +2285,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2297,19 +2309,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2321,19 +2333,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2352,12 +2364,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2369,12 +2381,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2387,12 +2399,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2404,12 +2416,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2421,12 +2433,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2438,12 +2450,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2455,12 +2467,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2470,12 +2482,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2487,12 +2499,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2521,12 +2533,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2539,12 +2551,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2554,12 +2566,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2571,12 +2583,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2588,12 +2600,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2603,12 +2615,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2620,12 +2632,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="72" t="s">
+      <c r="H26" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2637,12 +2649,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2652,12 +2664,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2669,12 +2681,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="74" t="s">
+      <c r="H29" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2691,12 +2703,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2708,12 +2720,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2725,12 +2737,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2742,12 +2754,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2759,12 +2771,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="64" t="s">
+      <c r="H36" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2776,12 +2788,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2793,12 +2805,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="64" t="s">
+      <c r="H38" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2810,12 +2822,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2825,12 +2837,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2842,12 +2854,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2857,12 +2869,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2874,12 +2886,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2896,12 +2908,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2913,12 +2925,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="61" t="s">
+      <c r="H47" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2930,12 +2942,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2945,12 +2957,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -2962,12 +2974,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="62" t="s">
+      <c r="H50" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -2977,12 +2989,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="60" t="s">
+      <c r="H51" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -2994,12 +3006,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3012,21 +3024,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3043,19 +3053,21 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3074,8 +3086,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="V86" sqref="V86"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3091,135 +3103,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="92"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="102"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
     </row>
     <row r="6" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="108"/>
+      <c r="D6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86" t="s">
+      <c r="E6" s="108"/>
+      <c r="F6" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86" t="s">
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86" t="s">
+      <c r="O6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="87"/>
+      <c r="Q6" s="109"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3228,53 +3240,53 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="96"/>
+      <c r="F8" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85" t="s">
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85" t="s">
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
@@ -3284,32 +3296,32 @@
       <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="s">
+      <c r="E9" s="96"/>
+      <c r="F9" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85" t="s">
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
       <c r="R9" s="56" t="s">
         <v>18</v>
       </c>
@@ -3319,32 +3331,32 @@
       <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85" t="s">
+      <c r="E10" s="96"/>
+      <c r="F10" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85" t="s">
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
       <c r="R10" s="56" t="s">
         <v>18</v>
       </c>
@@ -3354,32 +3366,32 @@
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85" t="s">
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85" t="s">
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
       <c r="R11" s="56" t="s">
         <v>18</v>
       </c>
@@ -3389,32 +3401,32 @@
       <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85" t="s">
+      <c r="E12" s="96"/>
+      <c r="F12" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85" t="s">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85" t="s">
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
       <c r="R12" s="56" t="s">
         <v>18</v>
       </c>
@@ -3424,32 +3436,32 @@
       <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85" t="s">
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85" t="s">
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
       <c r="R13" s="56" t="s">
         <v>18</v>
       </c>
@@ -3459,32 +3471,32 @@
       <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85" t="s">
+      <c r="E14" s="96"/>
+      <c r="F14" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85" t="s">
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85" t="s">
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
       <c r="R14" s="56" t="s">
         <v>18</v>
       </c>
@@ -3494,32 +3506,32 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="96"/>
+      <c r="D15" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="83" t="s">
+      <c r="E15" s="96"/>
+      <c r="F15" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="83" t="s">
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="83" t="s">
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
       <c r="R15" s="54" t="s">
         <v>18</v>
       </c>
@@ -3529,32 +3541,32 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="83" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="83" t="s">
+      <c r="E16" s="96"/>
+      <c r="F16" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="83" t="s">
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="83" t="s">
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
       <c r="R16" s="54" t="s">
         <v>18</v>
       </c>
@@ -3564,67 +3576,69 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="83" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="83" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="83" t="s">
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="83" t="s">
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
       <c r="R17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="55"/>
+      <c r="S17" s="114" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="83" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="83" t="s">
+      <c r="E18" s="96"/>
+      <c r="F18" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="83" t="s">
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="83" t="s">
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
       <c r="R18" s="54" t="s">
         <v>18</v>
       </c>
@@ -3634,67 +3648,69 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="96"/>
+      <c r="D19" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="83" t="s">
+      <c r="E19" s="96"/>
+      <c r="F19" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="83" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="83" t="s">
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
       <c r="R19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S19" s="55"/>
+      <c r="S19" s="114" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="83" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="83" t="s">
+      <c r="E20" s="96"/>
+      <c r="F20" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="83" t="s">
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="83" t="s">
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
       <c r="R20" s="54" t="s">
         <v>18</v>
       </c>
@@ -3704,32 +3720,32 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="83" t="s">
+      <c r="C21" s="96"/>
+      <c r="D21" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="83" t="s">
+      <c r="E21" s="96"/>
+      <c r="F21" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="83" t="s">
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="83" t="s">
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
       <c r="R21" s="54" t="s">
         <v>18</v>
       </c>
@@ -3739,32 +3755,32 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="83" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="83" t="s">
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="83" t="s">
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
       <c r="R22" s="54" t="s">
         <v>18</v>
       </c>
@@ -3774,32 +3790,32 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="83" t="s">
+      <c r="C23" s="96"/>
+      <c r="D23" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="83" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="83" t="s">
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="83" t="s">
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
       <c r="R23" s="54" t="s">
         <v>18</v>
       </c>
@@ -3809,32 +3825,32 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="83" t="s">
+      <c r="C24" s="96"/>
+      <c r="D24" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="83" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="103" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="83" t="s">
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="83" t="s">
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
       <c r="R24" s="54" t="s">
         <v>18</v>
       </c>
@@ -3844,32 +3860,32 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="83" t="s">
+      <c r="C25" s="96"/>
+      <c r="D25" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="83" t="s">
+      <c r="E25" s="96"/>
+      <c r="F25" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="83" t="s">
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="83" t="s">
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="103" t="s">
         <v>204</v>
       </c>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
       <c r="R25" s="54" t="s">
         <v>18</v>
       </c>
@@ -3879,32 +3895,32 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="83" t="s">
+      <c r="C26" s="96"/>
+      <c r="D26" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="83" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="83" t="s">
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="83" t="s">
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
       <c r="R26" s="54" t="s">
         <v>18</v>
       </c>
@@ -3914,32 +3930,32 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="83" t="s">
+      <c r="C27" s="96"/>
+      <c r="D27" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85" t="s">
+      <c r="E27" s="96"/>
+      <c r="F27" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85" t="s">
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85" t="s">
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
       <c r="R27" s="56" t="s">
         <v>18</v>
       </c>
@@ -3951,32 +3967,32 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="83" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="83" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="83" t="s">
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="83" t="s">
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
       <c r="R28" s="54" t="s">
         <v>18</v>
       </c>
@@ -3986,32 +4002,32 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="83" t="s">
+      <c r="C29" s="96"/>
+      <c r="D29" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="83" t="s">
+      <c r="E29" s="96"/>
+      <c r="F29" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="83" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="83" t="s">
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
       <c r="R29" s="54" t="s">
         <v>18</v>
       </c>
@@ -4021,32 +4037,32 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="83" t="s">
+      <c r="C30" s="96"/>
+      <c r="D30" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="83" t="s">
+      <c r="E30" s="96"/>
+      <c r="F30" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="83" t="s">
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="83" t="s">
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
       <c r="R30" s="54" t="s">
         <v>18</v>
       </c>
@@ -4056,32 +4072,32 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="83" t="s">
+      <c r="C31" s="96"/>
+      <c r="D31" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="83" t="s">
+      <c r="E31" s="96"/>
+      <c r="F31" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="83" t="s">
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="83" t="s">
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
       <c r="R31" s="54" t="s">
         <v>18</v>
       </c>
@@ -4091,32 +4107,32 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="83" t="s">
+      <c r="C32" s="96"/>
+      <c r="D32" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="83" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="83" t="s">
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="83" t="s">
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
       <c r="R32" s="54" t="s">
         <v>18</v>
       </c>
@@ -4126,32 +4142,32 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="83" t="s">
+      <c r="C33" s="96"/>
+      <c r="D33" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="83" t="s">
+      <c r="E33" s="96"/>
+      <c r="F33" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="83" t="s">
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="83" t="s">
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
       <c r="R33" s="54" t="s">
         <v>97</v>
       </c>
@@ -4161,32 +4177,32 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="83" t="s">
+      <c r="C34" s="96"/>
+      <c r="D34" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="83" t="s">
+      <c r="E34" s="96"/>
+      <c r="F34" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="83" t="s">
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="83" t="s">
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
       <c r="R34" s="54" t="s">
         <v>18</v>
       </c>
@@ -4196,32 +4212,32 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="83" t="s">
+      <c r="C35" s="96"/>
+      <c r="D35" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="83" t="s">
+      <c r="E35" s="96"/>
+      <c r="F35" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="83" t="s">
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="83" t="s">
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
       <c r="R35" s="54" t="s">
         <v>18</v>
       </c>
@@ -4231,30 +4247,30 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="83" t="s">
+      <c r="C36" s="96"/>
+      <c r="D36" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="83" t="s">
+      <c r="E36" s="96"/>
+      <c r="F36" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="83" t="s">
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
       <c r="R36" s="54" t="s">
         <v>18</v>
       </c>
@@ -4264,32 +4280,32 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="83" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="83" t="s">
+      <c r="E37" s="96"/>
+      <c r="F37" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="83" t="s">
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="83" t="s">
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
       <c r="R37" s="54" t="s">
         <v>18</v>
       </c>
@@ -4299,32 +4315,32 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="83" t="s">
+      <c r="C38" s="96"/>
+      <c r="D38" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="83" t="s">
+      <c r="E38" s="96"/>
+      <c r="F38" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="83" t="s">
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="83" t="s">
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
       <c r="R38" s="54" t="s">
         <v>18</v>
       </c>
@@ -4334,32 +4350,32 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="83" t="s">
+      <c r="C39" s="96"/>
+      <c r="D39" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="83" t="s">
+      <c r="E39" s="96"/>
+      <c r="F39" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="83" t="s">
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="83" t="s">
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
       <c r="R39" s="54" t="s">
         <v>18</v>
       </c>
@@ -4369,32 +4385,32 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="83" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="83" t="s">
+      <c r="E40" s="96"/>
+      <c r="F40" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="83" t="s">
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="83" t="s">
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
       <c r="R40" s="54" t="s">
         <v>18</v>
       </c>
@@ -4404,32 +4420,32 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="83" t="s">
+      <c r="C41" s="96"/>
+      <c r="D41" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="84"/>
-      <c r="F41" s="83" t="s">
+      <c r="E41" s="96"/>
+      <c r="F41" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="83" t="s">
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="83" t="s">
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
       <c r="R41" s="54" t="s">
         <v>18</v>
       </c>
@@ -4439,32 +4455,32 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="83" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="83" t="s">
+      <c r="E42" s="96"/>
+      <c r="F42" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="83" t="s">
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="83" t="s">
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
       <c r="R42" s="54" t="s">
         <v>18</v>
       </c>
@@ -4474,32 +4490,32 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="83" t="s">
+      <c r="C43" s="96"/>
+      <c r="D43" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="83" t="s">
+      <c r="E43" s="96"/>
+      <c r="F43" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="83" t="s">
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="83" t="s">
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
       <c r="R43" s="54" t="s">
         <v>18</v>
       </c>
@@ -4509,32 +4525,32 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="83" t="s">
+      <c r="C44" s="96"/>
+      <c r="D44" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85" t="s">
+      <c r="E44" s="96"/>
+      <c r="F44" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="83" t="s">
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="83" t="s">
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
       <c r="R44" s="54" t="s">
         <v>18</v>
       </c>
@@ -4544,32 +4560,32 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="83" t="s">
+      <c r="C45" s="96"/>
+      <c r="D45" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="84"/>
-      <c r="F45" s="83" t="s">
+      <c r="E45" s="96"/>
+      <c r="F45" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="83" t="s">
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="83" t="s">
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="54" t="s">
         <v>18</v>
       </c>
@@ -4579,32 +4595,32 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="84"/>
-      <c r="D46" s="83" t="s">
+      <c r="C46" s="96"/>
+      <c r="D46" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="83" t="s">
+      <c r="E46" s="96"/>
+      <c r="F46" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="83" t="s">
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="83" t="s">
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
       <c r="R46" s="54" t="s">
         <v>18</v>
       </c>
@@ -4614,32 +4630,32 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="84"/>
-      <c r="D47" s="83" t="s">
+      <c r="C47" s="96"/>
+      <c r="D47" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="83" t="s">
+      <c r="E47" s="96"/>
+      <c r="F47" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="83" t="s">
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="83" t="s">
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
       <c r="R47" s="54" t="s">
         <v>18</v>
       </c>
@@ -4649,32 +4665,32 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="83" t="s">
+      <c r="C48" s="96"/>
+      <c r="D48" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="83" t="s">
+      <c r="E48" s="96"/>
+      <c r="F48" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="83" t="s">
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="83" t="s">
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="84"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="84"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="96"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
       </c>
@@ -4684,32 +4700,32 @@
       <c r="A49" s="55">
         <v>42</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83" t="s">
+      <c r="C49" s="103"/>
+      <c r="D49" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83" t="s">
+      <c r="E49" s="103"/>
+      <c r="F49" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="83" t="s">
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="103" t="s">
         <v>283</v>
       </c>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="83" t="s">
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="84"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="84"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="96"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
       </c>
@@ -4719,32 +4735,32 @@
       <c r="A50" s="55">
         <v>43</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="83" t="s">
+      <c r="C50" s="96"/>
+      <c r="D50" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="83" t="s">
+      <c r="E50" s="96"/>
+      <c r="F50" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="83" t="s">
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="83" t="s">
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="84"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="84"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="96"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
       </c>
@@ -4754,32 +4770,32 @@
       <c r="A51" s="55">
         <v>44</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="83" t="s">
+      <c r="C51" s="96"/>
+      <c r="D51" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="83" t="s">
+      <c r="E51" s="96"/>
+      <c r="F51" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="83" t="s">
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="83" t="s">
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="O51" s="84"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="84"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="96"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
       </c>
@@ -4789,32 +4805,32 @@
       <c r="A52" s="55">
         <v>45</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="83" t="s">
+      <c r="C52" s="96"/>
+      <c r="D52" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="83" t="s">
+      <c r="E52" s="96"/>
+      <c r="F52" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="83" t="s">
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="83" t="s">
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="O52" s="84"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="84"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="103"/>
+      <c r="Q52" s="96"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
       </c>
@@ -4824,32 +4840,32 @@
       <c r="A53" s="55">
         <v>46</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="84"/>
-      <c r="D53" s="83" t="s">
+      <c r="C53" s="96"/>
+      <c r="D53" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="84"/>
-      <c r="F53" s="85" t="s">
+      <c r="E53" s="96"/>
+      <c r="F53" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="85" t="s">
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="85" t="s">
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="84"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="84"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="96"/>
       <c r="R53" s="56" t="s">
         <v>97</v>
       </c>
@@ -4859,30 +4875,30 @@
       <c r="A54" s="55">
         <v>47</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85" t="s">
+      <c r="C54" s="96"/>
+      <c r="D54" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="84"/>
-      <c r="F54" s="85" t="s">
+      <c r="E54" s="96"/>
+      <c r="F54" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="85" t="s">
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="84"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="96"/>
       <c r="R54" s="56" t="s">
         <v>97</v>
       </c>
@@ -4892,30 +4908,30 @@
       <c r="A55" s="55">
         <v>48</v>
       </c>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85" t="s">
+      <c r="C55" s="96"/>
+      <c r="D55" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="85" t="s">
+      <c r="E55" s="96"/>
+      <c r="F55" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="85" t="s">
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="84"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="96"/>
       <c r="R55" s="56" t="s">
         <v>97</v>
       </c>
@@ -4925,32 +4941,32 @@
       <c r="A56" s="55">
         <v>49</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85" t="s">
+      <c r="C56" s="96"/>
+      <c r="D56" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85" t="s">
+      <c r="E56" s="96"/>
+      <c r="F56" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="85" t="s">
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="85" t="s">
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="O56" s="84"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="84"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="96"/>
       <c r="R56" s="56" t="s">
         <v>97</v>
       </c>
@@ -4960,32 +4976,32 @@
       <c r="A57" s="55">
         <v>50</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="85" t="s">
+      <c r="C57" s="96"/>
+      <c r="D57" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="84"/>
-      <c r="F57" s="85" t="s">
+      <c r="E57" s="96"/>
+      <c r="F57" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="85" t="s">
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="85" t="s">
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="O57" s="84"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="84"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="96"/>
       <c r="R57" s="56" t="s">
         <v>97</v>
       </c>
@@ -4995,32 +5011,32 @@
       <c r="A58" s="55">
         <v>51</v>
       </c>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="85" t="s">
+      <c r="C58" s="96"/>
+      <c r="D58" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85" t="s">
+      <c r="E58" s="96"/>
+      <c r="F58" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="85" t="s">
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="85" t="s">
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
       <c r="R58" s="56" t="s">
         <v>18</v>
       </c>
@@ -5030,32 +5046,32 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="84"/>
-      <c r="D59" s="83" t="s">
+      <c r="C59" s="96"/>
+      <c r="D59" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="84"/>
-      <c r="F59" s="83" t="s">
+      <c r="E59" s="96"/>
+      <c r="F59" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="83" t="s">
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="83" t="s">
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="O59" s="84"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="84"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="96"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
       </c>
@@ -5065,32 +5081,32 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="83" t="s">
+      <c r="C60" s="96"/>
+      <c r="D60" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="84"/>
-      <c r="F60" s="83" t="s">
+      <c r="E60" s="96"/>
+      <c r="F60" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="83" t="s">
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="83" t="s">
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="O60" s="84"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="84"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="103"/>
+      <c r="Q60" s="96"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
       </c>
@@ -5100,32 +5116,32 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="84"/>
-      <c r="D61" s="83" t="s">
+      <c r="C61" s="96"/>
+      <c r="D61" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="84"/>
-      <c r="F61" s="83" t="s">
+      <c r="E61" s="96"/>
+      <c r="F61" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="83" t="s">
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="83" t="s">
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="O61" s="84"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="84"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="96"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
       </c>
@@ -5135,32 +5151,32 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="83" t="s">
+      <c r="C62" s="96"/>
+      <c r="D62" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="84"/>
-      <c r="F62" s="83" t="s">
+      <c r="E62" s="96"/>
+      <c r="F62" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="83" t="s">
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="83" t="s">
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="O62" s="84"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="84"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="96"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
       </c>
@@ -5172,32 +5188,32 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="83" t="s">
+      <c r="C63" s="96"/>
+      <c r="D63" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="84"/>
-      <c r="F63" s="83" t="s">
+      <c r="E63" s="96"/>
+      <c r="F63" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="83" t="s">
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="83" t="s">
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="84"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="84"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="96"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
       </c>
@@ -5207,32 +5223,32 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="83" t="s">
+      <c r="C64" s="96"/>
+      <c r="D64" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="84"/>
-      <c r="F64" s="83" t="s">
+      <c r="E64" s="96"/>
+      <c r="F64" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="83" t="s">
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="83" t="s">
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="O64" s="84"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="84"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="96"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
       </c>
@@ -5242,32 +5258,32 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="83" t="s">
+      <c r="C65" s="96"/>
+      <c r="D65" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="84"/>
-      <c r="F65" s="83" t="s">
+      <c r="E65" s="96"/>
+      <c r="F65" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="83" t="s">
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="83" t="s">
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="O65" s="84"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="84"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="96"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
       </c>
@@ -5277,32 +5293,32 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="83" t="s">
+      <c r="C66" s="96"/>
+      <c r="D66" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="85" t="s">
+      <c r="E66" s="96"/>
+      <c r="F66" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="85" t="s">
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="83" t="s">
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="84"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="84"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="96"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
       </c>
@@ -5312,32 +5328,32 @@
       <c r="A67" s="55">
         <v>60</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="83" t="s">
+      <c r="C67" s="96"/>
+      <c r="D67" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="84"/>
-      <c r="F67" s="83" t="s">
+      <c r="E67" s="96"/>
+      <c r="F67" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="83" t="s">
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="83" t="s">
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="O67" s="84"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="84"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="96"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
       </c>
@@ -5347,36 +5363,36 @@
       <c r="A68" s="55">
         <v>61</v>
       </c>
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="84"/>
-      <c r="D68" s="83" t="s">
+      <c r="C68" s="96"/>
+      <c r="D68" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="84"/>
-      <c r="F68" s="85" t="s">
+      <c r="E68" s="96"/>
+      <c r="F68" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="83" t="s">
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="83" t="s">
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="O68" s="84"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="84"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="96"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S68" s="96" t="s">
+      <c r="S68" s="61" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5384,32 +5400,32 @@
       <c r="A69" s="55">
         <v>62</v>
       </c>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="83" t="s">
+      <c r="C69" s="96"/>
+      <c r="D69" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="84"/>
-      <c r="F69" s="85" t="s">
+      <c r="E69" s="96"/>
+      <c r="F69" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="85" t="s">
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="83" t="s">
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="O69" s="84"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="84"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="96"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
       </c>
@@ -5419,1482 +5435,1482 @@
       <c r="V69" s="22"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="89"/>
-      <c r="M70" s="89"/>
-      <c r="N70" s="89"/>
-      <c r="O70" s="89"/>
-      <c r="P70" s="89"/>
-      <c r="Q70" s="89"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="89"/>
-      <c r="M71" s="89"/>
-      <c r="N71" s="89"/>
-      <c r="O71" s="89"/>
-      <c r="P71" s="89"/>
-      <c r="Q71" s="89"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
     </row>
     <row r="72" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="89"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="89"/>
-      <c r="M72" s="89"/>
-      <c r="N72" s="89"/>
-      <c r="O72" s="89"/>
-      <c r="P72" s="89"/>
-      <c r="Q72" s="89"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
-      <c r="O73" s="91"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="91"/>
-      <c r="R73" s="91"/>
-      <c r="S73" s="92"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="98"/>
+      <c r="J73" s="98"/>
+      <c r="K73" s="98"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="98"/>
+      <c r="O73" s="98"/>
+      <c r="P73" s="98"/>
+      <c r="Q73" s="98"/>
+      <c r="R73" s="98"/>
+      <c r="S73" s="99"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="93"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
-      <c r="O74" s="94"/>
-      <c r="P74" s="94"/>
-      <c r="Q74" s="94"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="95"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="101"/>
+      <c r="N74" s="101"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="101"/>
+      <c r="Q74" s="101"/>
+      <c r="R74" s="101"/>
+      <c r="S74" s="102"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="89"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="89"/>
-    </row>
-    <row r="76" spans="1:22" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="97">
+      <c r="B75" s="94"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="94"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+    </row>
+    <row r="76" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="98" t="s">
+      <c r="B76" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98" t="s">
+      <c r="C76" s="104"/>
+      <c r="D76" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98" t="s">
+      <c r="E76" s="104"/>
+      <c r="F76" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98" t="s">
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="98"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98" t="s">
+      <c r="K76" s="104"/>
+      <c r="L76" s="104"/>
+      <c r="M76" s="104"/>
+      <c r="N76" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="98"/>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="97" t="s">
+      <c r="O76" s="104"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="104"/>
+      <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S76" s="97"/>
-    </row>
-    <row r="77" spans="1:22" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="97">
+      <c r="S76" s="62"/>
+    </row>
+    <row r="77" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="98" t="s">
+      <c r="B77" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98" t="s">
+      <c r="C77" s="104"/>
+      <c r="D77" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98" t="s">
+      <c r="E77" s="104"/>
+      <c r="F77" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98" t="s">
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98" t="s">
+      <c r="K77" s="104"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="104"/>
+      <c r="N77" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="98"/>
-      <c r="P77" s="98"/>
-      <c r="Q77" s="98"/>
-      <c r="R77" s="97" t="s">
+      <c r="O77" s="104"/>
+      <c r="P77" s="104"/>
+      <c r="Q77" s="104"/>
+      <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S77" s="97"/>
-    </row>
-    <row r="78" spans="1:22" s="99" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="97">
+      <c r="S77" s="62"/>
+    </row>
+    <row r="78" spans="1:22" s="63" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="98" t="s">
+      <c r="B78" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98" t="s">
+      <c r="C78" s="104"/>
+      <c r="D78" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98" t="s">
+      <c r="E78" s="104"/>
+      <c r="F78" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="98"/>
-      <c r="H78" s="98"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="98" t="s">
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="98"/>
-      <c r="L78" s="98"/>
-      <c r="M78" s="98"/>
-      <c r="N78" s="98" t="s">
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="98"/>
-      <c r="P78" s="98"/>
-      <c r="Q78" s="98"/>
-      <c r="R78" s="97" t="s">
+      <c r="O78" s="104"/>
+      <c r="P78" s="104"/>
+      <c r="Q78" s="104"/>
+      <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S78" s="97"/>
-    </row>
-    <row r="79" spans="1:22" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="97">
+      <c r="S78" s="62"/>
+    </row>
+    <row r="79" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="98" t="s">
+      <c r="B79" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="98"/>
-      <c r="D79" s="98" t="s">
+      <c r="C79" s="104"/>
+      <c r="D79" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98" t="s">
+      <c r="E79" s="104"/>
+      <c r="F79" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="98"/>
-      <c r="H79" s="98"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="98" t="s">
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="98"/>
-      <c r="L79" s="98"/>
-      <c r="M79" s="98"/>
-      <c r="N79" s="98" t="s">
+      <c r="K79" s="104"/>
+      <c r="L79" s="104"/>
+      <c r="M79" s="104"/>
+      <c r="N79" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="98"/>
-      <c r="P79" s="98"/>
-      <c r="Q79" s="98"/>
-      <c r="R79" s="97" t="s">
+      <c r="O79" s="104"/>
+      <c r="P79" s="104"/>
+      <c r="Q79" s="104"/>
+      <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S79" s="97"/>
-    </row>
-    <row r="80" spans="1:22" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="97">
+      <c r="S79" s="62"/>
+    </row>
+    <row r="80" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="98" t="s">
+      <c r="B80" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="98"/>
-      <c r="D80" s="98" t="s">
+      <c r="C80" s="104"/>
+      <c r="D80" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="98"/>
-      <c r="F80" s="98" t="s">
+      <c r="E80" s="104"/>
+      <c r="F80" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="98" t="s">
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="98"/>
-      <c r="L80" s="98"/>
-      <c r="M80" s="98"/>
-      <c r="N80" s="98" t="s">
+      <c r="K80" s="104"/>
+      <c r="L80" s="104"/>
+      <c r="M80" s="104"/>
+      <c r="N80" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="98"/>
-      <c r="P80" s="98"/>
-      <c r="Q80" s="98"/>
-      <c r="R80" s="97" t="s">
+      <c r="O80" s="104"/>
+      <c r="P80" s="104"/>
+      <c r="Q80" s="104"/>
+      <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S80" s="97"/>
-    </row>
-    <row r="81" spans="1:144" s="99" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="97">
+      <c r="S80" s="62"/>
+    </row>
+    <row r="81" spans="1:144" s="63" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="98" t="s">
+      <c r="B81" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98" t="s">
+      <c r="C81" s="104"/>
+      <c r="D81" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98" t="s">
+      <c r="E81" s="104"/>
+      <c r="F81" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="98"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="98" t="s">
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="98"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="98"/>
-      <c r="N81" s="98" t="s">
+      <c r="K81" s="104"/>
+      <c r="L81" s="104"/>
+      <c r="M81" s="104"/>
+      <c r="N81" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="98"/>
-      <c r="P81" s="98"/>
-      <c r="Q81" s="98"/>
-      <c r="R81" s="97" t="s">
+      <c r="O81" s="104"/>
+      <c r="P81" s="104"/>
+      <c r="Q81" s="104"/>
+      <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S81" s="97"/>
-    </row>
-    <row r="82" spans="1:144" s="99" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="97">
+      <c r="S81" s="62"/>
+    </row>
+    <row r="82" spans="1:144" s="63" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="98" t="s">
+      <c r="B82" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="98" t="s">
+      <c r="C82" s="104"/>
+      <c r="D82" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="98"/>
-      <c r="F82" s="98" t="s">
+      <c r="E82" s="104"/>
+      <c r="F82" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="98"/>
-      <c r="J82" s="98" t="s">
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="98"/>
-      <c r="L82" s="98"/>
-      <c r="M82" s="98"/>
-      <c r="N82" s="98" t="s">
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="104"/>
+      <c r="N82" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="98"/>
-      <c r="P82" s="98"/>
-      <c r="Q82" s="98"/>
-      <c r="R82" s="97" t="s">
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
+      <c r="Q82" s="104"/>
+      <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S82" s="97"/>
-    </row>
-    <row r="83" spans="1:144" s="99" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="97">
+      <c r="S82" s="62"/>
+    </row>
+    <row r="83" spans="1:144" s="63" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="98" t="s">
+      <c r="B83" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98" t="s">
+      <c r="C83" s="104"/>
+      <c r="D83" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="98"/>
-      <c r="F83" s="100" t="s">
+      <c r="E83" s="104"/>
+      <c r="F83" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="101"/>
-      <c r="H83" s="101"/>
-      <c r="I83" s="102"/>
-      <c r="J83" s="100" t="s">
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="101"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="100" t="s">
+      <c r="K83" s="107"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="106"/>
+      <c r="N83" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="102"/>
-      <c r="P83" s="98"/>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="97" t="s">
+      <c r="O83" s="106"/>
+      <c r="P83" s="104"/>
+      <c r="Q83" s="104"/>
+      <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S83" s="97" t="s">
+      <c r="S83" s="62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:144" s="99" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="97">
+    <row r="84" spans="1:144" s="63" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="98" t="s">
+      <c r="B84" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="98"/>
-      <c r="D84" s="98" t="s">
+      <c r="C84" s="104"/>
+      <c r="D84" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98" t="s">
+      <c r="E84" s="104"/>
+      <c r="F84" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="98"/>
-      <c r="H84" s="98"/>
-      <c r="I84" s="98"/>
-      <c r="J84" s="98" t="s">
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="98"/>
-      <c r="L84" s="98"/>
-      <c r="M84" s="98"/>
-      <c r="N84" s="98" t="s">
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="98"/>
-      <c r="P84" s="98"/>
-      <c r="Q84" s="98"/>
-      <c r="R84" s="97" t="s">
+      <c r="O84" s="104"/>
+      <c r="P84" s="104"/>
+      <c r="Q84" s="104"/>
+      <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S84" s="97"/>
-    </row>
-    <row r="85" spans="1:144" s="99" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="97">
+      <c r="S84" s="62"/>
+    </row>
+    <row r="85" spans="1:144" s="63" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="98" t="s">
+      <c r="B85" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="98"/>
-      <c r="D85" s="98" t="s">
+      <c r="C85" s="104"/>
+      <c r="D85" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98" t="s">
+      <c r="E85" s="104"/>
+      <c r="F85" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="98" t="s">
+      <c r="G85" s="104"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="98"/>
-      <c r="L85" s="98"/>
-      <c r="M85" s="98"/>
-      <c r="N85" s="98" t="s">
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
+      <c r="N85" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="98"/>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="97" t="s">
+      <c r="O85" s="104"/>
+      <c r="P85" s="104"/>
+      <c r="Q85" s="104"/>
+      <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S85" s="97"/>
-    </row>
-    <row r="86" spans="1:144" s="99" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="97">
+      <c r="S85" s="62"/>
+    </row>
+    <row r="86" spans="1:144" s="63" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="98" t="s">
+      <c r="B86" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="98"/>
-      <c r="D86" s="98" t="s">
+      <c r="C86" s="104"/>
+      <c r="D86" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="98"/>
-      <c r="F86" s="98" t="s">
+      <c r="E86" s="104"/>
+      <c r="F86" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
-      <c r="I86" s="98"/>
-      <c r="J86" s="98" t="s">
+      <c r="G86" s="104"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="98"/>
-      <c r="L86" s="98"/>
-      <c r="M86" s="98"/>
-      <c r="N86" s="98" t="s">
+      <c r="K86" s="104"/>
+      <c r="L86" s="104"/>
+      <c r="M86" s="104"/>
+      <c r="N86" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="98"/>
-      <c r="P86" s="98"/>
-      <c r="Q86" s="98"/>
-      <c r="R86" s="97" t="s">
+      <c r="O86" s="104"/>
+      <c r="P86" s="104"/>
+      <c r="Q86" s="104"/>
+      <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S86" s="97"/>
-    </row>
-    <row r="87" spans="1:144" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="97">
+      <c r="S86" s="62"/>
+    </row>
+    <row r="87" spans="1:144" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="98" t="s">
+      <c r="B87" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="98"/>
-      <c r="D87" s="98" t="s">
+      <c r="C87" s="104"/>
+      <c r="D87" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98" t="s">
+      <c r="E87" s="104"/>
+      <c r="F87" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="98"/>
-      <c r="H87" s="98"/>
-      <c r="I87" s="98"/>
-      <c r="J87" s="98" t="s">
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="104"/>
+      <c r="J87" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="98"/>
-      <c r="L87" s="98"/>
-      <c r="M87" s="98"/>
-      <c r="N87" s="98" t="s">
+      <c r="K87" s="104"/>
+      <c r="L87" s="104"/>
+      <c r="M87" s="104"/>
+      <c r="N87" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="98"/>
-      <c r="P87" s="98"/>
-      <c r="Q87" s="98"/>
-      <c r="R87" s="97" t="s">
+      <c r="O87" s="104"/>
+      <c r="P87" s="104"/>
+      <c r="Q87" s="104"/>
+      <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S87" s="97"/>
-    </row>
-    <row r="88" spans="1:144" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="97">
+      <c r="S87" s="62"/>
+    </row>
+    <row r="88" spans="1:144" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="98" t="s">
+      <c r="B88" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="98"/>
-      <c r="D88" s="98" t="s">
+      <c r="C88" s="104"/>
+      <c r="D88" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="98" t="s">
+      <c r="E88" s="104"/>
+      <c r="F88" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
-      <c r="I88" s="98"/>
-      <c r="J88" s="98" t="s">
+      <c r="G88" s="104"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="104"/>
+      <c r="J88" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="98"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="98"/>
-      <c r="N88" s="98" t="s">
+      <c r="K88" s="104"/>
+      <c r="L88" s="104"/>
+      <c r="M88" s="104"/>
+      <c r="N88" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="98"/>
-      <c r="P88" s="98"/>
-      <c r="Q88" s="98"/>
-      <c r="R88" s="97" t="s">
+      <c r="O88" s="104"/>
+      <c r="P88" s="104"/>
+      <c r="Q88" s="104"/>
+      <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S88" s="97"/>
-    </row>
-    <row r="89" spans="1:144" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="97">
+      <c r="S88" s="62"/>
+    </row>
+    <row r="89" spans="1:144" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="98"/>
-      <c r="D89" s="98" t="s">
+      <c r="C89" s="104"/>
+      <c r="D89" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98" t="s">
+      <c r="E89" s="104"/>
+      <c r="F89" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="98"/>
-      <c r="H89" s="98"/>
-      <c r="I89" s="98"/>
-      <c r="J89" s="98" t="s">
+      <c r="G89" s="104"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="98"/>
-      <c r="L89" s="98"/>
-      <c r="M89" s="98"/>
-      <c r="N89" s="98" t="s">
+      <c r="K89" s="104"/>
+      <c r="L89" s="104"/>
+      <c r="M89" s="104"/>
+      <c r="N89" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="98"/>
-      <c r="P89" s="98"/>
-      <c r="Q89" s="98"/>
-      <c r="R89" s="97" t="s">
+      <c r="O89" s="104"/>
+      <c r="P89" s="104"/>
+      <c r="Q89" s="104"/>
+      <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S89" s="97" t="s">
+      <c r="S89" s="62" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:144" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="104">
+    <row r="90" spans="1:144" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="105" t="s">
+      <c r="B90" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="106"/>
-      <c r="D90" s="105" t="s">
+      <c r="C90" s="111"/>
+      <c r="D90" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="106"/>
-      <c r="F90" s="105" t="s">
+      <c r="E90" s="111"/>
+      <c r="F90" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="106"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
-      <c r="J90" s="105" t="s">
+      <c r="G90" s="111"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="110" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="106"/>
-      <c r="L90" s="106"/>
-      <c r="M90" s="106"/>
-      <c r="N90" s="105" t="s">
+      <c r="K90" s="111"/>
+      <c r="L90" s="111"/>
+      <c r="M90" s="111"/>
+      <c r="N90" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="106"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="106"/>
-      <c r="R90" s="107" t="s">
+      <c r="O90" s="111"/>
+      <c r="P90" s="111"/>
+      <c r="Q90" s="111"/>
+      <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="S90" s="104"/>
+      <c r="S90" s="65"/>
     </row>
     <row r="91" spans="1:144" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="55">
         <v>78</v>
       </c>
-      <c r="B91" s="85" t="s">
+      <c r="B91" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="85" t="s">
+      <c r="C91" s="96"/>
+      <c r="D91" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="84"/>
-      <c r="F91" s="85" t="s">
+      <c r="E91" s="96"/>
+      <c r="F91" s="95" t="s">
         <v>342</v>
       </c>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="84"/>
-      <c r="J91" s="85" t="s">
+      <c r="G91" s="96"/>
+      <c r="H91" s="96"/>
+      <c r="I91" s="96"/>
+      <c r="J91" s="95" t="s">
         <v>343</v>
       </c>
-      <c r="K91" s="84"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="84"/>
-      <c r="N91" s="85" t="s">
+      <c r="K91" s="96"/>
+      <c r="L91" s="96"/>
+      <c r="M91" s="96"/>
+      <c r="N91" s="95" t="s">
         <v>344</v>
       </c>
-      <c r="O91" s="84"/>
-      <c r="P91" s="84"/>
-      <c r="Q91" s="84"/>
+      <c r="O91" s="96"/>
+      <c r="P91" s="96"/>
+      <c r="Q91" s="96"/>
       <c r="R91" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="T91" s="88"/>
-      <c r="U91" s="88"/>
-      <c r="V91" s="88"/>
-      <c r="W91" s="88"/>
-      <c r="X91" s="88"/>
-      <c r="Y91" s="88"/>
-      <c r="Z91" s="88"/>
-      <c r="AA91" s="88"/>
-      <c r="AB91" s="88"/>
-      <c r="AC91" s="88"/>
-      <c r="AD91" s="88"/>
-      <c r="AE91" s="88"/>
-      <c r="AF91" s="88"/>
-      <c r="AG91" s="88"/>
-      <c r="AH91" s="88"/>
-      <c r="AI91" s="88"/>
-      <c r="AJ91" s="88"/>
-      <c r="AK91" s="88"/>
-      <c r="AL91" s="88"/>
-      <c r="AM91" s="88"/>
-      <c r="AN91" s="88"/>
-      <c r="AO91" s="88"/>
-      <c r="AP91" s="88"/>
-      <c r="AQ91" s="88"/>
-      <c r="AR91" s="88"/>
-      <c r="AS91" s="88"/>
-      <c r="AT91" s="88"/>
-      <c r="AU91" s="88"/>
-      <c r="AV91" s="88"/>
-      <c r="AW91" s="88"/>
-      <c r="AX91" s="88"/>
-      <c r="AY91" s="88"/>
-      <c r="AZ91" s="88"/>
-      <c r="BA91" s="88"/>
-      <c r="BB91" s="88"/>
-      <c r="BC91" s="88"/>
-      <c r="BD91" s="88"/>
-      <c r="BE91" s="88"/>
-      <c r="BF91" s="88"/>
-      <c r="BG91" s="88"/>
-      <c r="BH91" s="88"/>
-      <c r="BI91" s="88"/>
-      <c r="BJ91" s="88"/>
-      <c r="BK91" s="88"/>
-      <c r="BL91" s="88"/>
-      <c r="BM91" s="88"/>
-      <c r="BN91" s="88"/>
-      <c r="BO91" s="88"/>
-      <c r="BP91" s="88"/>
-      <c r="BQ91" s="88"/>
-      <c r="BR91" s="88"/>
-      <c r="BS91" s="88"/>
-      <c r="BT91" s="88"/>
-      <c r="BU91" s="88"/>
-      <c r="BV91" s="88"/>
-      <c r="BW91" s="88"/>
-      <c r="BX91" s="88"/>
-      <c r="BY91" s="88"/>
-      <c r="BZ91" s="88"/>
-      <c r="CA91" s="88"/>
-      <c r="CB91" s="88"/>
-      <c r="CC91" s="88"/>
-      <c r="CD91" s="88"/>
-      <c r="CE91" s="88"/>
-      <c r="CF91" s="88"/>
-      <c r="CG91" s="88"/>
-      <c r="CH91" s="88"/>
-      <c r="CI91" s="88"/>
-      <c r="CJ91" s="88"/>
-      <c r="CK91" s="88"/>
-      <c r="CL91" s="88"/>
-      <c r="CM91" s="88"/>
-      <c r="CN91" s="88"/>
-      <c r="CO91" s="88"/>
-      <c r="CP91" s="88"/>
-      <c r="CQ91" s="88"/>
-      <c r="CR91" s="88"/>
-      <c r="CS91" s="88"/>
-      <c r="CT91" s="88"/>
-      <c r="CU91" s="88"/>
-      <c r="CV91" s="88"/>
-      <c r="CW91" s="88"/>
-      <c r="CX91" s="88"/>
-      <c r="CY91" s="88"/>
-      <c r="CZ91" s="88"/>
-      <c r="DA91" s="88"/>
-      <c r="DB91" s="88"/>
-      <c r="DC91" s="88"/>
-      <c r="DD91" s="88"/>
-      <c r="DE91" s="88"/>
-      <c r="DF91" s="88"/>
-      <c r="DG91" s="88"/>
-      <c r="DH91" s="88"/>
-      <c r="DI91" s="88"/>
-      <c r="DJ91" s="88"/>
-      <c r="DK91" s="88"/>
-      <c r="DL91" s="88"/>
-      <c r="DM91" s="88"/>
-      <c r="DN91" s="88"/>
-      <c r="DO91" s="88"/>
-      <c r="DP91" s="88"/>
-      <c r="DQ91" s="88"/>
-      <c r="DR91" s="88"/>
-      <c r="DS91" s="88"/>
-      <c r="DT91" s="88"/>
-      <c r="DU91" s="88"/>
-      <c r="DV91" s="88"/>
-      <c r="DW91" s="88"/>
-      <c r="DX91" s="88"/>
-      <c r="DY91" s="88"/>
-      <c r="DZ91" s="88"/>
-      <c r="EA91" s="88"/>
-      <c r="EB91" s="88"/>
-      <c r="EC91" s="88"/>
-      <c r="ED91" s="88"/>
-      <c r="EE91" s="88"/>
-      <c r="EF91" s="88"/>
-      <c r="EG91" s="88"/>
-      <c r="EH91" s="88"/>
-      <c r="EI91" s="88"/>
-      <c r="EJ91" s="88"/>
-      <c r="EK91" s="88"/>
-      <c r="EL91" s="88"/>
-      <c r="EM91" s="88"/>
-      <c r="EN91" s="88"/>
-    </row>
-    <row r="92" spans="1:144" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="108">
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="60"/>
+      <c r="Y91" s="60"/>
+      <c r="Z91" s="60"/>
+      <c r="AA91" s="60"/>
+      <c r="AB91" s="60"/>
+      <c r="AC91" s="60"/>
+      <c r="AD91" s="60"/>
+      <c r="AE91" s="60"/>
+      <c r="AF91" s="60"/>
+      <c r="AG91" s="60"/>
+      <c r="AH91" s="60"/>
+      <c r="AI91" s="60"/>
+      <c r="AJ91" s="60"/>
+      <c r="AK91" s="60"/>
+      <c r="AL91" s="60"/>
+      <c r="AM91" s="60"/>
+      <c r="AN91" s="60"/>
+      <c r="AO91" s="60"/>
+      <c r="AP91" s="60"/>
+      <c r="AQ91" s="60"/>
+      <c r="AR91" s="60"/>
+      <c r="AS91" s="60"/>
+      <c r="AT91" s="60"/>
+      <c r="AU91" s="60"/>
+      <c r="AV91" s="60"/>
+      <c r="AW91" s="60"/>
+      <c r="AX91" s="60"/>
+      <c r="AY91" s="60"/>
+      <c r="AZ91" s="60"/>
+      <c r="BA91" s="60"/>
+      <c r="BB91" s="60"/>
+      <c r="BC91" s="60"/>
+      <c r="BD91" s="60"/>
+      <c r="BE91" s="60"/>
+      <c r="BF91" s="60"/>
+      <c r="BG91" s="60"/>
+      <c r="BH91" s="60"/>
+      <c r="BI91" s="60"/>
+      <c r="BJ91" s="60"/>
+      <c r="BK91" s="60"/>
+      <c r="BL91" s="60"/>
+      <c r="BM91" s="60"/>
+      <c r="BN91" s="60"/>
+      <c r="BO91" s="60"/>
+      <c r="BP91" s="60"/>
+      <c r="BQ91" s="60"/>
+      <c r="BR91" s="60"/>
+      <c r="BS91" s="60"/>
+      <c r="BT91" s="60"/>
+      <c r="BU91" s="60"/>
+      <c r="BV91" s="60"/>
+      <c r="BW91" s="60"/>
+      <c r="BX91" s="60"/>
+      <c r="BY91" s="60"/>
+      <c r="BZ91" s="60"/>
+      <c r="CA91" s="60"/>
+      <c r="CB91" s="60"/>
+      <c r="CC91" s="60"/>
+      <c r="CD91" s="60"/>
+      <c r="CE91" s="60"/>
+      <c r="CF91" s="60"/>
+      <c r="CG91" s="60"/>
+      <c r="CH91" s="60"/>
+      <c r="CI91" s="60"/>
+      <c r="CJ91" s="60"/>
+      <c r="CK91" s="60"/>
+      <c r="CL91" s="60"/>
+      <c r="CM91" s="60"/>
+      <c r="CN91" s="60"/>
+      <c r="CO91" s="60"/>
+      <c r="CP91" s="60"/>
+      <c r="CQ91" s="60"/>
+      <c r="CR91" s="60"/>
+      <c r="CS91" s="60"/>
+      <c r="CT91" s="60"/>
+      <c r="CU91" s="60"/>
+      <c r="CV91" s="60"/>
+      <c r="CW91" s="60"/>
+      <c r="CX91" s="60"/>
+      <c r="CY91" s="60"/>
+      <c r="CZ91" s="60"/>
+      <c r="DA91" s="60"/>
+      <c r="DB91" s="60"/>
+      <c r="DC91" s="60"/>
+      <c r="DD91" s="60"/>
+      <c r="DE91" s="60"/>
+      <c r="DF91" s="60"/>
+      <c r="DG91" s="60"/>
+      <c r="DH91" s="60"/>
+      <c r="DI91" s="60"/>
+      <c r="DJ91" s="60"/>
+      <c r="DK91" s="60"/>
+      <c r="DL91" s="60"/>
+      <c r="DM91" s="60"/>
+      <c r="DN91" s="60"/>
+      <c r="DO91" s="60"/>
+      <c r="DP91" s="60"/>
+      <c r="DQ91" s="60"/>
+      <c r="DR91" s="60"/>
+      <c r="DS91" s="60"/>
+      <c r="DT91" s="60"/>
+      <c r="DU91" s="60"/>
+      <c r="DV91" s="60"/>
+      <c r="DW91" s="60"/>
+      <c r="DX91" s="60"/>
+      <c r="DY91" s="60"/>
+      <c r="DZ91" s="60"/>
+      <c r="EA91" s="60"/>
+      <c r="EB91" s="60"/>
+      <c r="EC91" s="60"/>
+      <c r="ED91" s="60"/>
+      <c r="EE91" s="60"/>
+      <c r="EF91" s="60"/>
+      <c r="EG91" s="60"/>
+      <c r="EH91" s="60"/>
+      <c r="EI91" s="60"/>
+      <c r="EJ91" s="60"/>
+      <c r="EK91" s="60"/>
+      <c r="EL91" s="60"/>
+      <c r="EM91" s="60"/>
+      <c r="EN91" s="60"/>
+    </row>
+    <row r="92" spans="1:144" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="109" t="s">
+      <c r="B92" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="110"/>
-      <c r="D92" s="109" t="s">
+      <c r="C92" s="113"/>
+      <c r="D92" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="110"/>
-      <c r="F92" s="109" t="s">
+      <c r="E92" s="113"/>
+      <c r="F92" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="110"/>
-      <c r="H92" s="110"/>
-      <c r="I92" s="110"/>
-      <c r="J92" s="109" t="s">
+      <c r="G92" s="113"/>
+      <c r="H92" s="113"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="110"/>
-      <c r="L92" s="110"/>
-      <c r="M92" s="110"/>
-      <c r="N92" s="109" t="s">
+      <c r="K92" s="113"/>
+      <c r="L92" s="113"/>
+      <c r="M92" s="113"/>
+      <c r="N92" s="112" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="110"/>
-      <c r="P92" s="110"/>
-      <c r="Q92" s="110"/>
-      <c r="R92" s="111" t="s">
+      <c r="O92" s="113"/>
+      <c r="P92" s="113"/>
+      <c r="Q92" s="113"/>
+      <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
       <c r="S92" s="55"/>
-      <c r="T92" s="112"/>
-      <c r="U92" s="112"/>
-      <c r="V92" s="112"/>
-      <c r="W92" s="112"/>
-      <c r="X92" s="112"/>
-      <c r="Y92" s="112"/>
-      <c r="Z92" s="112"/>
-      <c r="AA92" s="112"/>
-      <c r="AB92" s="112"/>
-      <c r="AC92" s="112"/>
-      <c r="AD92" s="112"/>
-      <c r="AE92" s="112"/>
-      <c r="AF92" s="112"/>
-      <c r="AG92" s="112"/>
-      <c r="AH92" s="112"/>
-      <c r="AI92" s="112"/>
-      <c r="AJ92" s="112"/>
-      <c r="AK92" s="112"/>
-      <c r="AL92" s="112"/>
-      <c r="AM92" s="112"/>
-      <c r="AN92" s="112"/>
-      <c r="AO92" s="112"/>
-      <c r="AP92" s="112"/>
-      <c r="AQ92" s="112"/>
-      <c r="AR92" s="112"/>
-      <c r="AS92" s="112"/>
-      <c r="AT92" s="112"/>
-      <c r="AU92" s="112"/>
-      <c r="AV92" s="112"/>
-      <c r="AW92" s="112"/>
-      <c r="AX92" s="112"/>
-      <c r="AY92" s="112"/>
-      <c r="AZ92" s="112"/>
-      <c r="BA92" s="112"/>
-      <c r="BB92" s="112"/>
-      <c r="BC92" s="112"/>
-      <c r="BD92" s="112"/>
-      <c r="BE92" s="112"/>
-      <c r="BF92" s="112"/>
-      <c r="BG92" s="112"/>
-      <c r="BH92" s="112"/>
-      <c r="BI92" s="112"/>
-      <c r="BJ92" s="112"/>
-      <c r="BK92" s="112"/>
-      <c r="BL92" s="112"/>
-      <c r="BM92" s="112"/>
-      <c r="BN92" s="112"/>
-      <c r="BO92" s="112"/>
-      <c r="BP92" s="112"/>
-      <c r="BQ92" s="112"/>
-      <c r="BR92" s="112"/>
-      <c r="BS92" s="112"/>
-      <c r="BT92" s="112"/>
-      <c r="BU92" s="112"/>
-      <c r="BV92" s="112"/>
-      <c r="BW92" s="112"/>
-      <c r="BX92" s="112"/>
-      <c r="BY92" s="112"/>
-      <c r="BZ92" s="112"/>
-      <c r="CA92" s="112"/>
-      <c r="CB92" s="112"/>
-      <c r="CC92" s="112"/>
-      <c r="CD92" s="112"/>
-      <c r="CE92" s="112"/>
-      <c r="CF92" s="112"/>
-      <c r="CG92" s="112"/>
-      <c r="CH92" s="112"/>
-      <c r="CI92" s="112"/>
-      <c r="CJ92" s="112"/>
-      <c r="CK92" s="112"/>
-      <c r="CL92" s="112"/>
-      <c r="CM92" s="112"/>
-      <c r="CN92" s="112"/>
-      <c r="CO92" s="112"/>
-      <c r="CP92" s="112"/>
-      <c r="CQ92" s="112"/>
-      <c r="CR92" s="112"/>
-      <c r="CS92" s="112"/>
-      <c r="CT92" s="112"/>
-      <c r="CU92" s="112"/>
-      <c r="CV92" s="112"/>
-      <c r="CW92" s="112"/>
-      <c r="CX92" s="112"/>
-      <c r="CY92" s="112"/>
-      <c r="CZ92" s="112"/>
-      <c r="DA92" s="112"/>
-      <c r="DB92" s="112"/>
-      <c r="DC92" s="112"/>
-      <c r="DD92" s="112"/>
-      <c r="DE92" s="112"/>
-      <c r="DF92" s="112"/>
-      <c r="DG92" s="112"/>
-      <c r="DH92" s="112"/>
-      <c r="DI92" s="112"/>
-      <c r="DJ92" s="112"/>
-      <c r="DK92" s="112"/>
-      <c r="DL92" s="112"/>
-      <c r="DM92" s="112"/>
-      <c r="DN92" s="112"/>
-      <c r="DO92" s="112"/>
-      <c r="DP92" s="112"/>
-      <c r="DQ92" s="112"/>
-      <c r="DR92" s="112"/>
-      <c r="DS92" s="112"/>
-      <c r="DT92" s="112"/>
-      <c r="DU92" s="112"/>
-      <c r="DV92" s="112"/>
-      <c r="DW92" s="112"/>
-      <c r="DX92" s="112"/>
-      <c r="DY92" s="112"/>
-      <c r="DZ92" s="112"/>
-      <c r="EA92" s="112"/>
-      <c r="EB92" s="112"/>
-      <c r="EC92" s="112"/>
-      <c r="ED92" s="112"/>
-      <c r="EE92" s="112"/>
-      <c r="EF92" s="112"/>
-      <c r="EG92" s="112"/>
-      <c r="EH92" s="112"/>
-      <c r="EI92" s="112"/>
-      <c r="EJ92" s="112"/>
-      <c r="EK92" s="112"/>
-      <c r="EL92" s="112"/>
-      <c r="EM92" s="112"/>
-      <c r="EN92" s="112"/>
-    </row>
-    <row r="93" spans="1:144" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T92" s="69"/>
+      <c r="U92" s="69"/>
+      <c r="V92" s="69"/>
+      <c r="W92" s="69"/>
+      <c r="X92" s="69"/>
+      <c r="Y92" s="69"/>
+      <c r="Z92" s="69"/>
+      <c r="AA92" s="69"/>
+      <c r="AB92" s="69"/>
+      <c r="AC92" s="69"/>
+      <c r="AD92" s="69"/>
+      <c r="AE92" s="69"/>
+      <c r="AF92" s="69"/>
+      <c r="AG92" s="69"/>
+      <c r="AH92" s="69"/>
+      <c r="AI92" s="69"/>
+      <c r="AJ92" s="69"/>
+      <c r="AK92" s="69"/>
+      <c r="AL92" s="69"/>
+      <c r="AM92" s="69"/>
+      <c r="AN92" s="69"/>
+      <c r="AO92" s="69"/>
+      <c r="AP92" s="69"/>
+      <c r="AQ92" s="69"/>
+      <c r="AR92" s="69"/>
+      <c r="AS92" s="69"/>
+      <c r="AT92" s="69"/>
+      <c r="AU92" s="69"/>
+      <c r="AV92" s="69"/>
+      <c r="AW92" s="69"/>
+      <c r="AX92" s="69"/>
+      <c r="AY92" s="69"/>
+      <c r="AZ92" s="69"/>
+      <c r="BA92" s="69"/>
+      <c r="BB92" s="69"/>
+      <c r="BC92" s="69"/>
+      <c r="BD92" s="69"/>
+      <c r="BE92" s="69"/>
+      <c r="BF92" s="69"/>
+      <c r="BG92" s="69"/>
+      <c r="BH92" s="69"/>
+      <c r="BI92" s="69"/>
+      <c r="BJ92" s="69"/>
+      <c r="BK92" s="69"/>
+      <c r="BL92" s="69"/>
+      <c r="BM92" s="69"/>
+      <c r="BN92" s="69"/>
+      <c r="BO92" s="69"/>
+      <c r="BP92" s="69"/>
+      <c r="BQ92" s="69"/>
+      <c r="BR92" s="69"/>
+      <c r="BS92" s="69"/>
+      <c r="BT92" s="69"/>
+      <c r="BU92" s="69"/>
+      <c r="BV92" s="69"/>
+      <c r="BW92" s="69"/>
+      <c r="BX92" s="69"/>
+      <c r="BY92" s="69"/>
+      <c r="BZ92" s="69"/>
+      <c r="CA92" s="69"/>
+      <c r="CB92" s="69"/>
+      <c r="CC92" s="69"/>
+      <c r="CD92" s="69"/>
+      <c r="CE92" s="69"/>
+      <c r="CF92" s="69"/>
+      <c r="CG92" s="69"/>
+      <c r="CH92" s="69"/>
+      <c r="CI92" s="69"/>
+      <c r="CJ92" s="69"/>
+      <c r="CK92" s="69"/>
+      <c r="CL92" s="69"/>
+      <c r="CM92" s="69"/>
+      <c r="CN92" s="69"/>
+      <c r="CO92" s="69"/>
+      <c r="CP92" s="69"/>
+      <c r="CQ92" s="69"/>
+      <c r="CR92" s="69"/>
+      <c r="CS92" s="69"/>
+      <c r="CT92" s="69"/>
+      <c r="CU92" s="69"/>
+      <c r="CV92" s="69"/>
+      <c r="CW92" s="69"/>
+      <c r="CX92" s="69"/>
+      <c r="CY92" s="69"/>
+      <c r="CZ92" s="69"/>
+      <c r="DA92" s="69"/>
+      <c r="DB92" s="69"/>
+      <c r="DC92" s="69"/>
+      <c r="DD92" s="69"/>
+      <c r="DE92" s="69"/>
+      <c r="DF92" s="69"/>
+      <c r="DG92" s="69"/>
+      <c r="DH92" s="69"/>
+      <c r="DI92" s="69"/>
+      <c r="DJ92" s="69"/>
+      <c r="DK92" s="69"/>
+      <c r="DL92" s="69"/>
+      <c r="DM92" s="69"/>
+      <c r="DN92" s="69"/>
+      <c r="DO92" s="69"/>
+      <c r="DP92" s="69"/>
+      <c r="DQ92" s="69"/>
+      <c r="DR92" s="69"/>
+      <c r="DS92" s="69"/>
+      <c r="DT92" s="69"/>
+      <c r="DU92" s="69"/>
+      <c r="DV92" s="69"/>
+      <c r="DW92" s="69"/>
+      <c r="DX92" s="69"/>
+      <c r="DY92" s="69"/>
+      <c r="DZ92" s="69"/>
+      <c r="EA92" s="69"/>
+      <c r="EB92" s="69"/>
+      <c r="EC92" s="69"/>
+      <c r="ED92" s="69"/>
+      <c r="EE92" s="69"/>
+      <c r="EF92" s="69"/>
+      <c r="EG92" s="69"/>
+      <c r="EH92" s="69"/>
+      <c r="EI92" s="69"/>
+      <c r="EJ92" s="69"/>
+      <c r="EK92" s="69"/>
+      <c r="EL92" s="69"/>
+      <c r="EM92" s="69"/>
+      <c r="EN92" s="69"/>
+    </row>
+    <row r="93" spans="1:144" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="55">
         <v>80</v>
       </c>
-      <c r="B93" s="85" t="s">
+      <c r="B93" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="85" t="s">
+      <c r="C93" s="96"/>
+      <c r="D93" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="84"/>
-      <c r="F93" s="85" t="s">
+      <c r="E93" s="96"/>
+      <c r="F93" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="85" t="s">
+      <c r="G93" s="96"/>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+      <c r="J93" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="85" t="s">
+      <c r="K93" s="96"/>
+      <c r="L93" s="96"/>
+      <c r="M93" s="96"/>
+      <c r="N93" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="O93" s="84"/>
-      <c r="P93" s="84"/>
-      <c r="Q93" s="84"/>
+      <c r="O93" s="96"/>
+      <c r="P93" s="96"/>
+      <c r="Q93" s="96"/>
       <c r="R93" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S93" s="55"/>
     </row>
-    <row r="94" spans="1:144" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:144" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="55">
         <v>81</v>
       </c>
-      <c r="B94" s="85" t="s">
+      <c r="B94" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85" t="s">
+      <c r="C94" s="96"/>
+      <c r="D94" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="84"/>
-      <c r="F94" s="85" t="s">
+      <c r="E94" s="96"/>
+      <c r="F94" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="85" t="s">
+      <c r="G94" s="96"/>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="85" t="s">
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="84"/>
+      <c r="O94" s="96"/>
+      <c r="P94" s="96"/>
+      <c r="Q94" s="96"/>
       <c r="R94" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S94" s="55"/>
     </row>
-    <row r="95" spans="1:144" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:144" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="55">
         <v>82</v>
       </c>
-      <c r="B95" s="85" t="s">
+      <c r="B95" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="84"/>
-      <c r="D95" s="85" t="s">
+      <c r="C95" s="96"/>
+      <c r="D95" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="84"/>
-      <c r="F95" s="85" t="s">
+      <c r="E95" s="96"/>
+      <c r="F95" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
-      <c r="I95" s="84"/>
-      <c r="J95" s="85" t="s">
+      <c r="G95" s="96"/>
+      <c r="H95" s="96"/>
+      <c r="I95" s="96"/>
+      <c r="J95" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="85" t="s">
+      <c r="K95" s="96"/>
+      <c r="L95" s="96"/>
+      <c r="M95" s="96"/>
+      <c r="N95" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O95" s="84"/>
-      <c r="P95" s="84"/>
-      <c r="Q95" s="84"/>
+      <c r="O95" s="96"/>
+      <c r="P95" s="96"/>
+      <c r="Q95" s="96"/>
       <c r="R95" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S95" s="55"/>
     </row>
-    <row r="96" spans="1:144" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:144" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="55">
         <v>83</v>
       </c>
-      <c r="B96" s="85" t="s">
+      <c r="B96" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="84"/>
-      <c r="D96" s="85" t="s">
+      <c r="C96" s="96"/>
+      <c r="D96" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="84"/>
-      <c r="F96" s="85" t="s">
+      <c r="E96" s="96"/>
+      <c r="F96" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="85" t="s">
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
+      <c r="I96" s="96"/>
+      <c r="J96" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="85" t="s">
+      <c r="K96" s="96"/>
+      <c r="L96" s="96"/>
+      <c r="M96" s="96"/>
+      <c r="N96" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
+      <c r="O96" s="96"/>
+      <c r="P96" s="96"/>
+      <c r="Q96" s="96"/>
       <c r="R96" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S96" s="55"/>
     </row>
-    <row r="97" spans="1:19" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="55">
         <v>84</v>
       </c>
-      <c r="B97" s="85" t="s">
+      <c r="B97" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="84"/>
-      <c r="D97" s="85" t="s">
+      <c r="C97" s="96"/>
+      <c r="D97" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="84"/>
-      <c r="F97" s="85" t="s">
+      <c r="E97" s="96"/>
+      <c r="F97" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="85" t="s">
+      <c r="G97" s="96"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="96"/>
+      <c r="J97" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84"/>
-      <c r="M97" s="84"/>
-      <c r="N97" s="85" t="s">
+      <c r="K97" s="96"/>
+      <c r="L97" s="96"/>
+      <c r="M97" s="96"/>
+      <c r="N97" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="O97" s="84"/>
-      <c r="P97" s="84"/>
-      <c r="Q97" s="84"/>
+      <c r="O97" s="96"/>
+      <c r="P97" s="96"/>
+      <c r="Q97" s="96"/>
       <c r="R97" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S97" s="55"/>
     </row>
-    <row r="98" spans="1:19" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="55">
         <v>85</v>
       </c>
-      <c r="B98" s="85" t="s">
+      <c r="B98" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="85" t="s">
+      <c r="C98" s="96"/>
+      <c r="D98" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="84"/>
-      <c r="F98" s="85" t="s">
+      <c r="E98" s="96"/>
+      <c r="F98" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="84"/>
-      <c r="H98" s="84"/>
-      <c r="I98" s="84"/>
-      <c r="J98" s="85" t="s">
+      <c r="G98" s="96"/>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+      <c r="J98" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="K98" s="84"/>
-      <c r="L98" s="84"/>
-      <c r="M98" s="84"/>
-      <c r="N98" s="85" t="s">
+      <c r="K98" s="96"/>
+      <c r="L98" s="96"/>
+      <c r="M98" s="96"/>
+      <c r="N98" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="O98" s="84"/>
-      <c r="P98" s="84"/>
-      <c r="Q98" s="84"/>
+      <c r="O98" s="96"/>
+      <c r="P98" s="96"/>
+      <c r="Q98" s="96"/>
       <c r="R98" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S98" s="55"/>
     </row>
-    <row r="99" spans="1:19" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="55">
         <v>86</v>
       </c>
-      <c r="B99" s="85" t="s">
+      <c r="B99" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="84"/>
-      <c r="D99" s="85" t="s">
+      <c r="C99" s="96"/>
+      <c r="D99" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="84"/>
-      <c r="F99" s="85" t="s">
+      <c r="E99" s="96"/>
+      <c r="F99" s="95" t="s">
         <v>326</v>
       </c>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
-      <c r="I99" s="84"/>
-      <c r="J99" s="85" t="s">
+      <c r="G99" s="96"/>
+      <c r="H99" s="96"/>
+      <c r="I99" s="96"/>
+      <c r="J99" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="K99" s="84"/>
-      <c r="L99" s="84"/>
-      <c r="M99" s="84"/>
-      <c r="N99" s="85" t="s">
+      <c r="K99" s="96"/>
+      <c r="L99" s="96"/>
+      <c r="M99" s="96"/>
+      <c r="N99" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="O99" s="84"/>
-      <c r="P99" s="84"/>
-      <c r="Q99" s="84"/>
+      <c r="O99" s="96"/>
+      <c r="P99" s="96"/>
+      <c r="Q99" s="96"/>
       <c r="R99" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S99" s="55"/>
     </row>
-    <row r="100" spans="1:19" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="55">
         <v>87</v>
       </c>
-      <c r="B100" s="85" t="s">
+      <c r="B100" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="84"/>
-      <c r="D100" s="85" t="s">
+      <c r="C100" s="96"/>
+      <c r="D100" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="84"/>
-      <c r="F100" s="85" t="s">
+      <c r="E100" s="96"/>
+      <c r="F100" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="G100" s="84"/>
-      <c r="H100" s="84"/>
-      <c r="I100" s="84"/>
-      <c r="J100" s="85" t="s">
+      <c r="G100" s="96"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="K100" s="84"/>
-      <c r="L100" s="84"/>
-      <c r="M100" s="84"/>
-      <c r="N100" s="85" t="s">
+      <c r="K100" s="96"/>
+      <c r="L100" s="96"/>
+      <c r="M100" s="96"/>
+      <c r="N100" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="O100" s="84"/>
-      <c r="P100" s="84"/>
-      <c r="Q100" s="84"/>
+      <c r="O100" s="96"/>
+      <c r="P100" s="96"/>
+      <c r="Q100" s="96"/>
       <c r="R100" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S100" s="55"/>
     </row>
-    <row r="101" spans="1:19" s="103" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="64" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="55">
         <v>88</v>
       </c>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="84"/>
-      <c r="D101" s="85" t="s">
+      <c r="C101" s="96"/>
+      <c r="D101" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="84"/>
-      <c r="F101" s="85" t="s">
+      <c r="E101" s="96"/>
+      <c r="F101" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="G101" s="84"/>
-      <c r="H101" s="84"/>
-      <c r="I101" s="84"/>
-      <c r="J101" s="85" t="s">
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="K101" s="84"/>
-      <c r="L101" s="84"/>
-      <c r="M101" s="84"/>
-      <c r="N101" s="85" t="s">
+      <c r="K101" s="96"/>
+      <c r="L101" s="96"/>
+      <c r="M101" s="96"/>
+      <c r="N101" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="O101" s="84"/>
-      <c r="P101" s="84"/>
-      <c r="Q101" s="84"/>
+      <c r="O101" s="96"/>
+      <c r="P101" s="96"/>
+      <c r="Q101" s="96"/>
       <c r="R101" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S101" s="55"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B102" s="89"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
-      <c r="L102" s="89"/>
-      <c r="M102" s="89"/>
-      <c r="N102" s="89"/>
-      <c r="O102" s="89"/>
-      <c r="P102" s="89"/>
-      <c r="Q102" s="89"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
+      <c r="L102" s="94"/>
+      <c r="M102" s="94"/>
+      <c r="N102" s="94"/>
+      <c r="O102" s="94"/>
+      <c r="P102" s="94"/>
+      <c r="Q102" s="94"/>
     </row>
     <row r="103" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
-      <c r="L103" s="89"/>
-      <c r="M103" s="89"/>
-      <c r="N103" s="89"/>
-      <c r="O103" s="89"/>
-      <c r="P103" s="89"/>
-      <c r="Q103" s="89"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="94"/>
+      <c r="P103" s="94"/>
+      <c r="Q103" s="94"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="90" t="s">
+      <c r="A104" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="91"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
-      <c r="G104" s="91"/>
-      <c r="H104" s="91"/>
-      <c r="I104" s="91"/>
-      <c r="J104" s="91"/>
-      <c r="K104" s="91"/>
-      <c r="L104" s="91"/>
-      <c r="M104" s="91"/>
-      <c r="N104" s="91"/>
-      <c r="O104" s="91"/>
-      <c r="P104" s="91"/>
-      <c r="Q104" s="91"/>
-      <c r="R104" s="91"/>
-      <c r="S104" s="92"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
+      <c r="G104" s="98"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="98"/>
+      <c r="J104" s="98"/>
+      <c r="K104" s="98"/>
+      <c r="L104" s="98"/>
+      <c r="M104" s="98"/>
+      <c r="N104" s="98"/>
+      <c r="O104" s="98"/>
+      <c r="P104" s="98"/>
+      <c r="Q104" s="98"/>
+      <c r="R104" s="98"/>
+      <c r="S104" s="99"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="93"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="94"/>
-      <c r="D105" s="94"/>
-      <c r="E105" s="94"/>
-      <c r="F105" s="94"/>
-      <c r="G105" s="94"/>
-      <c r="H105" s="94"/>
-      <c r="I105" s="94"/>
-      <c r="J105" s="94"/>
-      <c r="K105" s="94"/>
-      <c r="L105" s="94"/>
-      <c r="M105" s="94"/>
-      <c r="N105" s="94"/>
-      <c r="O105" s="94"/>
-      <c r="P105" s="94"/>
-      <c r="Q105" s="94"/>
-      <c r="R105" s="94"/>
-      <c r="S105" s="95"/>
+      <c r="A105" s="100"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="101"/>
+      <c r="J105" s="101"/>
+      <c r="K105" s="101"/>
+      <c r="L105" s="101"/>
+      <c r="M105" s="101"/>
+      <c r="N105" s="101"/>
+      <c r="O105" s="101"/>
+      <c r="P105" s="101"/>
+      <c r="Q105" s="101"/>
+      <c r="R105" s="101"/>
+      <c r="S105" s="102"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B106" s="89"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="89"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="89"/>
-      <c r="K106" s="89"/>
-      <c r="L106" s="89"/>
-      <c r="M106" s="89"/>
-      <c r="N106" s="89"/>
-      <c r="O106" s="89"/>
-      <c r="P106" s="89"/>
-      <c r="Q106" s="89"/>
+      <c r="B106" s="94"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="94"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="94"/>
+      <c r="K106" s="94"/>
+      <c r="L106" s="94"/>
+      <c r="M106" s="94"/>
+      <c r="N106" s="94"/>
+      <c r="O106" s="94"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="94"/>
     </row>
     <row r="107" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="55">
         <v>89</v>
       </c>
-      <c r="B107" s="85" t="s">
+      <c r="B107" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="85" t="s">
+      <c r="C107" s="96"/>
+      <c r="D107" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="85" t="s">
+      <c r="E107" s="96"/>
+      <c r="F107" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="84"/>
-      <c r="H107" s="84"/>
-      <c r="I107" s="84"/>
-      <c r="J107" s="85" t="s">
+      <c r="G107" s="96"/>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="84"/>
-      <c r="L107" s="84"/>
-      <c r="M107" s="84"/>
-      <c r="N107" s="85" t="s">
+      <c r="K107" s="96"/>
+      <c r="L107" s="96"/>
+      <c r="M107" s="96"/>
+      <c r="N107" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
+      <c r="O107" s="96"/>
+      <c r="P107" s="96"/>
+      <c r="Q107" s="96"/>
       <c r="R107" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S107" s="55"/>
     </row>
-    <row r="108" spans="1:19" s="103" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="55">
         <v>90</v>
       </c>
-      <c r="B108" s="85" t="s">
+      <c r="B108" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="84"/>
-      <c r="D108" s="85" t="s">
+      <c r="C108" s="96"/>
+      <c r="D108" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="84"/>
-      <c r="F108" s="85" t="s">
+      <c r="E108" s="96"/>
+      <c r="F108" s="95" t="s">
         <v>305</v>
       </c>
-      <c r="G108" s="84"/>
-      <c r="H108" s="84"/>
-      <c r="I108" s="84"/>
-      <c r="J108" s="85" t="s">
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="K108" s="84"/>
-      <c r="L108" s="84"/>
-      <c r="M108" s="84"/>
-      <c r="N108" s="85" t="s">
+      <c r="K108" s="96"/>
+      <c r="L108" s="96"/>
+      <c r="M108" s="96"/>
+      <c r="N108" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="O108" s="84"/>
-      <c r="P108" s="84"/>
-      <c r="Q108" s="84"/>
+      <c r="O108" s="96"/>
+      <c r="P108" s="96"/>
+      <c r="Q108" s="96"/>
       <c r="R108" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S108" s="55"/>
     </row>
-    <row r="109" spans="1:19" s="103" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" s="64" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="55">
         <v>91</v>
       </c>
-      <c r="B109" s="85" t="s">
+      <c r="B109" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="84"/>
-      <c r="D109" s="85" t="s">
+      <c r="C109" s="96"/>
+      <c r="D109" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="84"/>
-      <c r="F109" s="85" t="s">
+      <c r="E109" s="96"/>
+      <c r="F109" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="G109" s="84"/>
-      <c r="H109" s="84"/>
-      <c r="I109" s="84"/>
-      <c r="J109" s="85" t="s">
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="K109" s="84"/>
-      <c r="L109" s="84"/>
-      <c r="M109" s="84"/>
-      <c r="N109" s="85" t="s">
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="O109" s="84"/>
-      <c r="P109" s="84"/>
-      <c r="Q109" s="84"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="96"/>
+      <c r="Q109" s="96"/>
       <c r="R109" s="56" t="s">
         <v>18</v>
       </c>
@@ -6904,32 +6920,32 @@
       <c r="A110" s="55">
         <v>92</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="84"/>
-      <c r="D110" s="85" t="s">
+      <c r="C110" s="96"/>
+      <c r="D110" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="84"/>
-      <c r="F110" s="85" t="s">
+      <c r="E110" s="96"/>
+      <c r="F110" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
-      <c r="I110" s="84"/>
-      <c r="J110" s="85" t="s">
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="K110" s="84"/>
-      <c r="L110" s="84"/>
-      <c r="M110" s="84"/>
-      <c r="N110" s="85" t="s">
+      <c r="K110" s="96"/>
+      <c r="L110" s="96"/>
+      <c r="M110" s="96"/>
+      <c r="N110" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="O110" s="84"/>
-      <c r="P110" s="84"/>
-      <c r="Q110" s="84"/>
+      <c r="O110" s="96"/>
+      <c r="P110" s="96"/>
+      <c r="Q110" s="96"/>
       <c r="R110" s="56" t="s">
         <v>18</v>
       </c>
@@ -6939,67 +6955,67 @@
       <c r="A111" s="55">
         <v>93</v>
       </c>
-      <c r="B111" s="85" t="s">
+      <c r="B111" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="84"/>
-      <c r="D111" s="85" t="s">
+      <c r="C111" s="96"/>
+      <c r="D111" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="84"/>
-      <c r="F111" s="85" t="s">
+      <c r="E111" s="96"/>
+      <c r="F111" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="84"/>
-      <c r="H111" s="84"/>
-      <c r="I111" s="84"/>
-      <c r="J111" s="85" t="s">
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="95" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="84"/>
-      <c r="L111" s="84"/>
-      <c r="M111" s="84"/>
-      <c r="N111" s="85" t="s">
+      <c r="K111" s="96"/>
+      <c r="L111" s="96"/>
+      <c r="M111" s="96"/>
+      <c r="N111" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="O111" s="84"/>
-      <c r="P111" s="84"/>
-      <c r="Q111" s="84"/>
+      <c r="O111" s="96"/>
+      <c r="P111" s="96"/>
+      <c r="Q111" s="96"/>
       <c r="R111" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S111" s="55"/>
     </row>
-    <row r="112" spans="1:19" s="103" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="55">
         <v>94</v>
       </c>
-      <c r="B112" s="85" t="s">
+      <c r="B112" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="84"/>
-      <c r="D112" s="85" t="s">
+      <c r="C112" s="96"/>
+      <c r="D112" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="84"/>
-      <c r="F112" s="85" t="s">
+      <c r="E112" s="96"/>
+      <c r="F112" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G112" s="84"/>
-      <c r="H112" s="84"/>
-      <c r="I112" s="84"/>
-      <c r="J112" s="85" t="s">
+      <c r="G112" s="96"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+      <c r="J112" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="K112" s="84"/>
-      <c r="L112" s="84"/>
-      <c r="M112" s="84"/>
-      <c r="N112" s="85" t="s">
+      <c r="K112" s="96"/>
+      <c r="L112" s="96"/>
+      <c r="M112" s="96"/>
+      <c r="N112" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="O112" s="84"/>
-      <c r="P112" s="84"/>
-      <c r="Q112" s="84"/>
+      <c r="O112" s="96"/>
+      <c r="P112" s="96"/>
+      <c r="Q112" s="96"/>
       <c r="R112" s="56" t="s">
         <v>18</v>
       </c>
@@ -7009,286 +7025,768 @@
       <c r="A113" s="55">
         <v>95</v>
       </c>
-      <c r="B113" s="85" t="s">
+      <c r="B113" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="84"/>
-      <c r="D113" s="85" t="s">
+      <c r="C113" s="96"/>
+      <c r="D113" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="84"/>
-      <c r="F113" s="85" t="s">
+      <c r="E113" s="96"/>
+      <c r="F113" s="95" t="s">
         <v>342</v>
       </c>
-      <c r="G113" s="84"/>
-      <c r="H113" s="84"/>
-      <c r="I113" s="84"/>
-      <c r="J113" s="85" t="s">
+      <c r="G113" s="96"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="95" t="s">
         <v>343</v>
       </c>
-      <c r="K113" s="84"/>
-      <c r="L113" s="84"/>
-      <c r="M113" s="84"/>
-      <c r="N113" s="85" t="s">
+      <c r="K113" s="96"/>
+      <c r="L113" s="96"/>
+      <c r="M113" s="96"/>
+      <c r="N113" s="95" t="s">
         <v>344</v>
       </c>
-      <c r="O113" s="84"/>
-      <c r="P113" s="84"/>
-      <c r="Q113" s="84"/>
+      <c r="O113" s="96"/>
+      <c r="P113" s="96"/>
+      <c r="Q113" s="96"/>
       <c r="R113" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S113" s="55"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="89"/>
-      <c r="C114" s="89"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="89"/>
-      <c r="F114" s="89"/>
-      <c r="G114" s="89"/>
-      <c r="H114" s="89"/>
-      <c r="I114" s="89"/>
-      <c r="J114" s="89"/>
-      <c r="K114" s="89"/>
-      <c r="L114" s="89"/>
-      <c r="M114" s="89"/>
-      <c r="N114" s="89"/>
-      <c r="O114" s="89"/>
-      <c r="P114" s="89"/>
-      <c r="Q114" s="89"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="94"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="94"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B115" s="89"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="89"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="89"/>
-      <c r="L115" s="89"/>
-      <c r="M115" s="89"/>
-      <c r="N115" s="89"/>
-      <c r="O115" s="89"/>
-      <c r="P115" s="89"/>
-      <c r="Q115" s="89"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="94"/>
+      <c r="F115" s="94"/>
+      <c r="G115" s="94"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="94"/>
+      <c r="J115" s="94"/>
+      <c r="K115" s="94"/>
+      <c r="L115" s="94"/>
+      <c r="M115" s="94"/>
+      <c r="N115" s="94"/>
+      <c r="O115" s="94"/>
+      <c r="P115" s="94"/>
+      <c r="Q115" s="94"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="89"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="89"/>
-      <c r="G116" s="89"/>
-      <c r="H116" s="89"/>
-      <c r="I116" s="89"/>
-      <c r="J116" s="89"/>
-      <c r="K116" s="89"/>
-      <c r="L116" s="89"/>
-      <c r="M116" s="89"/>
-      <c r="N116" s="89"/>
-      <c r="O116" s="89"/>
-      <c r="P116" s="89"/>
-      <c r="Q116" s="89"/>
+      <c r="B116" s="94"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="94"/>
+      <c r="F116" s="94"/>
+      <c r="G116" s="94"/>
+      <c r="H116" s="94"/>
+      <c r="I116" s="94"/>
+      <c r="J116" s="94"/>
+      <c r="K116" s="94"/>
+      <c r="L116" s="94"/>
+      <c r="M116" s="94"/>
+      <c r="N116" s="94"/>
+      <c r="O116" s="94"/>
+      <c r="P116" s="94"/>
+      <c r="Q116" s="94"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="89"/>
-      <c r="G117" s="89"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="89"/>
-      <c r="K117" s="89"/>
-      <c r="L117" s="89"/>
-      <c r="M117" s="89"/>
-      <c r="N117" s="89"/>
-      <c r="O117" s="89"/>
-      <c r="P117" s="89"/>
-      <c r="Q117" s="89"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="94"/>
+      <c r="G117" s="94"/>
+      <c r="H117" s="94"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="94"/>
+      <c r="K117" s="94"/>
+      <c r="L117" s="94"/>
+      <c r="M117" s="94"/>
+      <c r="N117" s="94"/>
+      <c r="O117" s="94"/>
+      <c r="P117" s="94"/>
+      <c r="Q117" s="94"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="89"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="89"/>
-      <c r="G118" s="89"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="89"/>
-      <c r="M118" s="89"/>
-      <c r="N118" s="89"/>
-      <c r="O118" s="89"/>
-      <c r="P118" s="89"/>
-      <c r="Q118" s="89"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="94"/>
+      <c r="E118" s="94"/>
+      <c r="F118" s="94"/>
+      <c r="G118" s="94"/>
+      <c r="H118" s="94"/>
+      <c r="I118" s="94"/>
+      <c r="J118" s="94"/>
+      <c r="K118" s="94"/>
+      <c r="L118" s="94"/>
+      <c r="M118" s="94"/>
+      <c r="N118" s="94"/>
+      <c r="O118" s="94"/>
+      <c r="P118" s="94"/>
+      <c r="Q118" s="94"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="89"/>
-      <c r="J119" s="89"/>
-      <c r="K119" s="89"/>
-      <c r="L119" s="89"/>
-      <c r="M119" s="89"/>
-      <c r="N119" s="89"/>
-      <c r="O119" s="89"/>
-      <c r="P119" s="89"/>
-      <c r="Q119" s="89"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="94"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="94"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="94"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="94"/>
+      <c r="L119" s="94"/>
+      <c r="M119" s="94"/>
+      <c r="N119" s="94"/>
+      <c r="O119" s="94"/>
+      <c r="P119" s="94"/>
+      <c r="Q119" s="94"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B120" s="89"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
-      <c r="G120" s="89"/>
-      <c r="H120" s="89"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="89"/>
-      <c r="M120" s="89"/>
-      <c r="N120" s="89"/>
-      <c r="O120" s="89"/>
-      <c r="P120" s="89"/>
-      <c r="Q120" s="89"/>
+      <c r="B120" s="94"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="94"/>
+      <c r="F120" s="94"/>
+      <c r="G120" s="94"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="94"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="94"/>
+      <c r="L120" s="94"/>
+      <c r="M120" s="94"/>
+      <c r="N120" s="94"/>
+      <c r="O120" s="94"/>
+      <c r="P120" s="94"/>
+      <c r="Q120" s="94"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B121" s="89"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="89"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="89"/>
-      <c r="K121" s="89"/>
-      <c r="L121" s="89"/>
-      <c r="M121" s="89"/>
-      <c r="N121" s="89"/>
-      <c r="O121" s="89"/>
-      <c r="P121" s="89"/>
-      <c r="Q121" s="89"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="94"/>
+      <c r="E121" s="94"/>
+      <c r="F121" s="94"/>
+      <c r="G121" s="94"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="94"/>
+      <c r="J121" s="94"/>
+      <c r="K121" s="94"/>
+      <c r="L121" s="94"/>
+      <c r="M121" s="94"/>
+      <c r="N121" s="94"/>
+      <c r="O121" s="94"/>
+      <c r="P121" s="94"/>
+      <c r="Q121" s="94"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B122" s="89"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="89"/>
-      <c r="G122" s="89"/>
-      <c r="H122" s="89"/>
-      <c r="I122" s="89"/>
-      <c r="J122" s="89"/>
-      <c r="K122" s="89"/>
-      <c r="L122" s="89"/>
-      <c r="M122" s="89"/>
-      <c r="N122" s="89"/>
-      <c r="O122" s="89"/>
-      <c r="P122" s="89"/>
-      <c r="Q122" s="89"/>
+      <c r="B122" s="94"/>
+      <c r="C122" s="94"/>
+      <c r="D122" s="94"/>
+      <c r="E122" s="94"/>
+      <c r="F122" s="94"/>
+      <c r="G122" s="94"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="94"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="94"/>
+      <c r="L122" s="94"/>
+      <c r="M122" s="94"/>
+      <c r="N122" s="94"/>
+      <c r="O122" s="94"/>
+      <c r="P122" s="94"/>
+      <c r="Q122" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="699">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A104:S105"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A3:S4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="J54:M54"/>
     <mergeCell ref="N54:O54"/>
@@ -7313,596 +7811,114 @@
     <mergeCell ref="F69:I69"/>
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="F84:I84"/>
     <mergeCell ref="J84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
     <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="F85:I85"/>
     <mergeCell ref="J85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A3:S4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
     <mergeCell ref="A73:S74"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="F71:I71"/>
     <mergeCell ref="J71:M71"/>
     <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A104:S105"/>
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="11070" windowHeight="9960" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="12750" windowHeight="9195" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
     <sheet name="Defects" sheetId="16" r:id="rId2"/>
+    <sheet name="Dummy_for_Comparison1" sheetId="18" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Defects!$A$1:$S$9</definedName>
     <definedName name="Class" localSheetId="1">#REF!</definedName>
+    <definedName name="Class" localSheetId="2">#REF!</definedName>
     <definedName name="Class" localSheetId="0">#REF!</definedName>
     <definedName name="Class">#REF!</definedName>
     <definedName name="Sheet1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A97:O114"/>
   <customWorkbookViews>
     <customWorkbookView name="Classify" guid="{5D21309E-F946-4F4C-8709-AAB8612F09E9}" includeHiddenRowCol="0" maximized="1" windowWidth="1276" windowHeight="821" activeSheetId="4"/>
   </customWorkbookViews>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1123,7 +1126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,6 +1172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1765,75 +1774,102 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1843,6 +1879,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1861,12 +1921,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1874,27 +1928,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2202,9 +2235,9 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2231,12 +2264,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2268,12 +2301,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2285,19 +2318,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="71"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2309,19 +2342,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2333,19 +2366,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2364,12 +2397,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2381,12 +2414,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2399,12 +2432,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2416,12 +2449,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2433,12 +2466,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2450,12 +2483,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2467,12 +2500,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2482,12 +2515,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2499,12 +2532,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="91" t="s">
+      <c r="H18" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2533,12 +2566,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2551,12 +2584,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2566,12 +2599,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="78" t="s">
+      <c r="H22" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2583,12 +2616,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="80" t="s">
+      <c r="H23" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2600,12 +2633,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="78" t="s">
+      <c r="H24" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2615,12 +2648,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2632,12 +2665,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2649,12 +2682,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2664,12 +2697,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2681,12 +2714,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2703,12 +2736,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2720,12 +2753,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="73" t="s">
+      <c r="H33" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2737,12 +2770,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="83" t="s">
+      <c r="H34" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2754,12 +2787,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2771,12 +2804,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="83" t="s">
+      <c r="H36" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2788,12 +2821,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2805,12 +2838,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="83" t="s">
+      <c r="H38" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2822,12 +2855,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2837,12 +2870,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="85" t="s">
+      <c r="H40" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2854,12 +2887,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2869,12 +2902,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2886,12 +2919,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="74" t="s">
+      <c r="H43" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2908,12 +2941,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="73" t="s">
+      <c r="H46" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2925,12 +2958,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="73" t="s">
+      <c r="H47" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2942,12 +2975,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2957,12 +2990,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="85" t="s">
+      <c r="H49" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -2974,12 +3007,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -2989,12 +3022,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="74" t="s">
+      <c r="H51" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3006,12 +3039,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="74" t="s">
+      <c r="H52" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3024,19 +3057,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3053,21 +3088,19 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3086,8 +3119,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3103,135 +3136,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="116"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108" t="s">
+      <c r="C6" s="112"/>
+      <c r="D6" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108" t="s">
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108" t="s">
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108" t="s">
+      <c r="O6" s="112"/>
+      <c r="P6" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="109"/>
+      <c r="Q6" s="113"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3240,53 +3273,53 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="95" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="95" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="95" t="s">
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="95" t="s">
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
@@ -3296,32 +3329,32 @@
       <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="95" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="95" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="95" t="s">
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
       <c r="R9" s="56" t="s">
         <v>18</v>
       </c>
@@ -3331,102 +3364,106 @@
       <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="95" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="95" t="s">
+      <c r="E10" s="105"/>
+      <c r="F10" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="95" t="s">
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="95" t="s">
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
       <c r="R10" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="55"/>
+      <c r="S10" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="95" t="s">
+      <c r="C11" s="105"/>
+      <c r="D11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="95" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="95" t="s">
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="95" t="s">
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="55"/>
+      <c r="S11" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="95" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="95" t="s">
+      <c r="E12" s="105"/>
+      <c r="F12" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="95" t="s">
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="95" t="s">
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
       <c r="R12" s="56" t="s">
         <v>18</v>
       </c>
@@ -3436,67 +3473,69 @@
       <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="95" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="95" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="95" t="s">
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="95" t="s">
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
       <c r="R13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="55"/>
+      <c r="S13" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="95" t="s">
+      <c r="C14" s="105"/>
+      <c r="D14" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="95" t="s">
+      <c r="E14" s="105"/>
+      <c r="F14" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="95" t="s">
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="95" t="s">
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
       <c r="R14" s="56" t="s">
         <v>18</v>
       </c>
@@ -3506,32 +3545,32 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="103" t="s">
+      <c r="C15" s="105"/>
+      <c r="D15" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="103" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="103" t="s">
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="103" t="s">
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
       <c r="R15" s="54" t="s">
         <v>18</v>
       </c>
@@ -3541,32 +3580,32 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="103" t="s">
+      <c r="C16" s="105"/>
+      <c r="D16" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="103" t="s">
+      <c r="E16" s="105"/>
+      <c r="F16" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="103" t="s">
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="103" t="s">
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
       <c r="R16" s="54" t="s">
         <v>18</v>
       </c>
@@ -3576,36 +3615,36 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="103" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="103" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="103" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="103" t="s">
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
       <c r="R17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="114" t="s">
+      <c r="S17" s="71" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3613,32 +3652,32 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="103" t="s">
+      <c r="C18" s="105"/>
+      <c r="D18" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="103" t="s">
+      <c r="E18" s="105"/>
+      <c r="F18" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="103" t="s">
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="103" t="s">
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
       <c r="R18" s="54" t="s">
         <v>18</v>
       </c>
@@ -3648,36 +3687,36 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="103" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="103" t="s">
+      <c r="E19" s="105"/>
+      <c r="F19" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="103" t="s">
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="103" t="s">
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
       <c r="R19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S19" s="114" t="s">
+      <c r="S19" s="71" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3685,32 +3724,32 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="103" t="s">
+      <c r="C20" s="105"/>
+      <c r="D20" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="103" t="s">
+      <c r="E20" s="105"/>
+      <c r="F20" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="103" t="s">
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="103" t="s">
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
       <c r="R20" s="54" t="s">
         <v>18</v>
       </c>
@@ -3720,32 +3759,32 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="103" t="s">
+      <c r="C21" s="105"/>
+      <c r="D21" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="103" t="s">
+      <c r="E21" s="105"/>
+      <c r="F21" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="103" t="s">
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="103" t="s">
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
       <c r="R21" s="54" t="s">
         <v>18</v>
       </c>
@@ -3755,32 +3794,32 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="103" t="s">
+      <c r="C22" s="105"/>
+      <c r="D22" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="103" t="s">
+      <c r="E22" s="105"/>
+      <c r="F22" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="103" t="s">
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="103" t="s">
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
       <c r="R22" s="54" t="s">
         <v>18</v>
       </c>
@@ -3790,32 +3829,32 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="103" t="s">
+      <c r="C23" s="105"/>
+      <c r="D23" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="103" t="s">
+      <c r="E23" s="105"/>
+      <c r="F23" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="103" t="s">
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="103" t="s">
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
       <c r="R23" s="54" t="s">
         <v>18</v>
       </c>
@@ -3825,32 +3864,32 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="103" t="s">
+      <c r="C24" s="105"/>
+      <c r="D24" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="103" t="s">
+      <c r="E24" s="105"/>
+      <c r="F24" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="103" t="s">
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="103" t="s">
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
       <c r="R24" s="54" t="s">
         <v>18</v>
       </c>
@@ -3860,32 +3899,32 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="103" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="103" t="s">
+      <c r="E25" s="105"/>
+      <c r="F25" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="103" t="s">
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="103" t="s">
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
       <c r="R25" s="54" t="s">
         <v>18</v>
       </c>
@@ -3895,32 +3934,32 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="103" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="103" t="s">
+      <c r="E26" s="105"/>
+      <c r="F26" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="103" t="s">
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="103" t="s">
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
       <c r="R26" s="54" t="s">
         <v>18</v>
       </c>
@@ -3930,32 +3969,32 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="103" t="s">
+      <c r="C27" s="105"/>
+      <c r="D27" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="95" t="s">
+      <c r="E27" s="105"/>
+      <c r="F27" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="95" t="s">
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="104" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="95" t="s">
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
       <c r="R27" s="56" t="s">
         <v>18</v>
       </c>
@@ -3967,32 +4006,32 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="103" t="s">
+      <c r="C28" s="105"/>
+      <c r="D28" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="103" t="s">
+      <c r="E28" s="105"/>
+      <c r="F28" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="103" t="s">
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="103" t="s">
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
       <c r="R28" s="54" t="s">
         <v>18</v>
       </c>
@@ -4002,32 +4041,32 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="103" t="s">
+      <c r="C29" s="105"/>
+      <c r="D29" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="103" t="s">
+      <c r="E29" s="105"/>
+      <c r="F29" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="103" t="s">
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="103" t="s">
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
       <c r="R29" s="54" t="s">
         <v>18</v>
       </c>
@@ -4037,32 +4076,32 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="103" t="s">
+      <c r="C30" s="105"/>
+      <c r="D30" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="103" t="s">
+      <c r="E30" s="105"/>
+      <c r="F30" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="103" t="s">
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="103" t="s">
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
       <c r="R30" s="54" t="s">
         <v>18</v>
       </c>
@@ -4072,102 +4111,106 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="103" t="s">
+      <c r="C31" s="105"/>
+      <c r="D31" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="103" t="s">
+      <c r="E31" s="105"/>
+      <c r="F31" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="103" t="s">
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="103" t="s">
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
       <c r="R31" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="55"/>
+      <c r="S31" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="103" t="s">
+      <c r="C32" s="105"/>
+      <c r="D32" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="103" t="s">
+      <c r="E32" s="105"/>
+      <c r="F32" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="103" t="s">
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="103" t="s">
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
       <c r="R32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S32" s="55"/>
+      <c r="S32" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="103" t="s">
+      <c r="C33" s="105"/>
+      <c r="D33" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="103" t="s">
+      <c r="E33" s="105"/>
+      <c r="F33" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="103" t="s">
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="111" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="103" t="s">
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
       <c r="R33" s="54" t="s">
         <v>97</v>
       </c>
@@ -4177,32 +4220,32 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="103" t="s">
+      <c r="C34" s="105"/>
+      <c r="D34" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="103" t="s">
+      <c r="E34" s="105"/>
+      <c r="F34" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="103" t="s">
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="103" t="s">
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
       <c r="R34" s="54" t="s">
         <v>18</v>
       </c>
@@ -4212,32 +4255,32 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="103" t="s">
+      <c r="C35" s="105"/>
+      <c r="D35" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="103" t="s">
+      <c r="E35" s="105"/>
+      <c r="F35" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="103" t="s">
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="103" t="s">
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
       <c r="R35" s="54" t="s">
         <v>18</v>
       </c>
@@ -4247,30 +4290,30 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="103" t="s">
+      <c r="C36" s="105"/>
+      <c r="D36" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="96"/>
-      <c r="F36" s="103" t="s">
+      <c r="E36" s="105"/>
+      <c r="F36" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="103" t="s">
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
       <c r="R36" s="54" t="s">
         <v>18</v>
       </c>
@@ -4280,67 +4323,69 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="103" t="s">
+      <c r="C37" s="105"/>
+      <c r="D37" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="96"/>
-      <c r="F37" s="103" t="s">
+      <c r="E37" s="105"/>
+      <c r="F37" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="103" t="s">
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="103" t="s">
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
       <c r="R37" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S37" s="55"/>
+      <c r="S37" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="103" t="s">
+      <c r="C38" s="105"/>
+      <c r="D38" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="96"/>
-      <c r="F38" s="103" t="s">
+      <c r="E38" s="105"/>
+      <c r="F38" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="103" t="s">
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="103" t="s">
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
       <c r="R38" s="54" t="s">
         <v>18</v>
       </c>
@@ -4350,32 +4395,32 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="103" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="96"/>
-      <c r="F39" s="103" t="s">
+      <c r="E39" s="105"/>
+      <c r="F39" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="103" t="s">
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="103" t="s">
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
       <c r="R39" s="54" t="s">
         <v>18</v>
       </c>
@@ -4385,32 +4430,32 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="103" t="s">
+      <c r="C40" s="105"/>
+      <c r="D40" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="96"/>
-      <c r="F40" s="103" t="s">
+      <c r="E40" s="105"/>
+      <c r="F40" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="103" t="s">
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="103" t="s">
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
       <c r="R40" s="54" t="s">
         <v>18</v>
       </c>
@@ -4420,32 +4465,32 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="103" t="s">
+      <c r="C41" s="105"/>
+      <c r="D41" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="96"/>
-      <c r="F41" s="103" t="s">
+      <c r="E41" s="105"/>
+      <c r="F41" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="103" t="s">
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="103" t="s">
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
       <c r="R41" s="54" t="s">
         <v>18</v>
       </c>
@@ -4455,32 +4500,32 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="103" t="s">
+      <c r="C42" s="105"/>
+      <c r="D42" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="96"/>
-      <c r="F42" s="103" t="s">
+      <c r="E42" s="105"/>
+      <c r="F42" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="103" t="s">
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="103" t="s">
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
       <c r="R42" s="54" t="s">
         <v>18</v>
       </c>
@@ -4490,32 +4535,32 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="103" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="96"/>
-      <c r="F43" s="103" t="s">
+      <c r="E43" s="105"/>
+      <c r="F43" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="103" t="s">
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="103" t="s">
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
       <c r="R43" s="54" t="s">
         <v>18</v>
       </c>
@@ -4525,32 +4570,32 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="103" t="s">
+      <c r="C44" s="105"/>
+      <c r="D44" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="96"/>
-      <c r="F44" s="95" t="s">
+      <c r="E44" s="105"/>
+      <c r="F44" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="103" t="s">
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="103" t="s">
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
       <c r="R44" s="54" t="s">
         <v>18</v>
       </c>
@@ -4560,32 +4605,32 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="103" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="96"/>
-      <c r="F45" s="103" t="s">
+      <c r="E45" s="105"/>
+      <c r="F45" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="103" t="s">
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="103" t="s">
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
       <c r="R45" s="54" t="s">
         <v>18</v>
       </c>
@@ -4595,32 +4640,32 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="103" t="s">
+      <c r="C46" s="105"/>
+      <c r="D46" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="103" t="s">
+      <c r="E46" s="105"/>
+      <c r="F46" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="103" t="s">
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="103" t="s">
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
       <c r="R46" s="54" t="s">
         <v>18</v>
       </c>
@@ -4630,67 +4675,69 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="103" t="s">
+      <c r="C47" s="105"/>
+      <c r="D47" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="103" t="s">
+      <c r="E47" s="105"/>
+      <c r="F47" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="103" t="s">
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="103" t="s">
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
       <c r="R47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S47" s="55"/>
+      <c r="S47" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="103" t="s">
+      <c r="C48" s="105"/>
+      <c r="D48" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="96"/>
-      <c r="F48" s="103" t="s">
+      <c r="E48" s="105"/>
+      <c r="F48" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="103" t="s">
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="103" t="s">
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="96"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="96"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="105"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
       </c>
@@ -4700,32 +4747,32 @@
       <c r="A49" s="55">
         <v>42</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103" t="s">
+      <c r="C49" s="111"/>
+      <c r="D49" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103" t="s">
+      <c r="E49" s="111"/>
+      <c r="F49" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="103" t="s">
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="111" t="s">
         <v>283</v>
       </c>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="103" t="s">
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="96"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="96"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="105"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
       </c>
@@ -4735,32 +4782,32 @@
       <c r="A50" s="55">
         <v>43</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="103" t="s">
+      <c r="C50" s="105"/>
+      <c r="D50" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="103" t="s">
+      <c r="E50" s="105"/>
+      <c r="F50" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="103" t="s">
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="103" t="s">
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="96"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="96"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="105"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
       </c>
@@ -4770,32 +4817,32 @@
       <c r="A51" s="55">
         <v>44</v>
       </c>
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="103" t="s">
+      <c r="C51" s="105"/>
+      <c r="D51" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="96"/>
-      <c r="F51" s="103" t="s">
+      <c r="E51" s="105"/>
+      <c r="F51" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="103" t="s">
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="103" t="s">
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="O51" s="96"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="96"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="105"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
       </c>
@@ -4805,32 +4852,32 @@
       <c r="A52" s="55">
         <v>45</v>
       </c>
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="103" t="s">
+      <c r="C52" s="105"/>
+      <c r="D52" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="103" t="s">
+      <c r="E52" s="105"/>
+      <c r="F52" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="103" t="s">
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="103" t="s">
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="O52" s="96"/>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="96"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="105"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
       </c>
@@ -4840,32 +4887,32 @@
       <c r="A53" s="55">
         <v>46</v>
       </c>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="103" t="s">
+      <c r="C53" s="105"/>
+      <c r="D53" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="96"/>
-      <c r="F53" s="95" t="s">
+      <c r="E53" s="105"/>
+      <c r="F53" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="95" t="s">
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="95" t="s">
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="96"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="96"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="105"/>
       <c r="R53" s="56" t="s">
         <v>97</v>
       </c>
@@ -4875,30 +4922,30 @@
       <c r="A54" s="55">
         <v>47</v>
       </c>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="95" t="s">
+      <c r="C54" s="105"/>
+      <c r="D54" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="95" t="s">
+      <c r="E54" s="105"/>
+      <c r="F54" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="95" t="s">
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="96"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="105"/>
       <c r="R54" s="56" t="s">
         <v>97</v>
       </c>
@@ -4908,30 +4955,30 @@
       <c r="A55" s="55">
         <v>48</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="95" t="s">
+      <c r="C55" s="105"/>
+      <c r="D55" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="95" t="s">
+      <c r="E55" s="105"/>
+      <c r="F55" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="95" t="s">
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="96"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="105"/>
       <c r="R55" s="56" t="s">
         <v>97</v>
       </c>
@@ -4941,32 +4988,32 @@
       <c r="A56" s="55">
         <v>49</v>
       </c>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="95" t="s">
+      <c r="C56" s="105"/>
+      <c r="D56" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="96"/>
-      <c r="F56" s="95" t="s">
+      <c r="E56" s="105"/>
+      <c r="F56" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="95" t="s">
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="95" t="s">
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="O56" s="96"/>
-      <c r="P56" s="95"/>
-      <c r="Q56" s="96"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="105"/>
       <c r="R56" s="56" t="s">
         <v>97</v>
       </c>
@@ -4976,32 +5023,32 @@
       <c r="A57" s="55">
         <v>50</v>
       </c>
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="95" t="s">
+      <c r="C57" s="105"/>
+      <c r="D57" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="95" t="s">
+      <c r="E57" s="105"/>
+      <c r="F57" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="95" t="s">
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="95" t="s">
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="O57" s="96"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="96"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="105"/>
       <c r="R57" s="56" t="s">
         <v>97</v>
       </c>
@@ -5011,32 +5058,32 @@
       <c r="A58" s="55">
         <v>51</v>
       </c>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="95" t="s">
+      <c r="C58" s="105"/>
+      <c r="D58" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="96"/>
-      <c r="F58" s="95" t="s">
+      <c r="E58" s="105"/>
+      <c r="F58" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="95" t="s">
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="95" t="s">
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="105"/>
       <c r="R58" s="56" t="s">
         <v>18</v>
       </c>
@@ -5046,32 +5093,32 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="103" t="s">
+      <c r="C59" s="105"/>
+      <c r="D59" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="96"/>
-      <c r="F59" s="103" t="s">
+      <c r="E59" s="105"/>
+      <c r="F59" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="103" t="s">
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="103" t="s">
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="O59" s="96"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="96"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="105"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
       </c>
@@ -5081,32 +5128,32 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="103" t="s">
+      <c r="B60" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="103" t="s">
+      <c r="C60" s="105"/>
+      <c r="D60" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="96"/>
-      <c r="F60" s="103" t="s">
+      <c r="E60" s="105"/>
+      <c r="F60" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="103" t="s">
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="103" t="s">
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="O60" s="96"/>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="96"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="111"/>
+      <c r="Q60" s="105"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
       </c>
@@ -5116,32 +5163,32 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="103" t="s">
+      <c r="C61" s="105"/>
+      <c r="D61" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="96"/>
-      <c r="F61" s="103" t="s">
+      <c r="E61" s="105"/>
+      <c r="F61" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="103" t="s">
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="103" t="s">
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="O61" s="96"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="96"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="105"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
       </c>
@@ -5151,32 +5198,32 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="103" t="s">
+      <c r="C62" s="105"/>
+      <c r="D62" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="96"/>
-      <c r="F62" s="103" t="s">
+      <c r="E62" s="105"/>
+      <c r="F62" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="103" t="s">
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="103" t="s">
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="O62" s="96"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="96"/>
+      <c r="O62" s="105"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="105"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
       </c>
@@ -5188,32 +5235,32 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="103" t="s">
+      <c r="B63" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="103" t="s">
+      <c r="C63" s="105"/>
+      <c r="D63" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="96"/>
-      <c r="F63" s="103" t="s">
+      <c r="E63" s="105"/>
+      <c r="F63" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="103" t="s">
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="103" t="s">
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="96"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="96"/>
+      <c r="O63" s="105"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="105"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
       </c>
@@ -5223,32 +5270,32 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="103" t="s">
+      <c r="C64" s="105"/>
+      <c r="D64" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="96"/>
-      <c r="F64" s="103" t="s">
+      <c r="E64" s="105"/>
+      <c r="F64" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="103" t="s">
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="103" t="s">
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="O64" s="96"/>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="96"/>
+      <c r="O64" s="105"/>
+      <c r="P64" s="111"/>
+      <c r="Q64" s="105"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
       </c>
@@ -5258,32 +5305,32 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="103" t="s">
+      <c r="B65" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="103" t="s">
+      <c r="C65" s="105"/>
+      <c r="D65" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="96"/>
-      <c r="F65" s="103" t="s">
+      <c r="E65" s="105"/>
+      <c r="F65" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="103" t="s">
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="111" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="103" t="s">
+      <c r="K65" s="105"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="105"/>
+      <c r="N65" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="O65" s="96"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="96"/>
+      <c r="O65" s="105"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="105"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
       </c>
@@ -5293,32 +5340,32 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="103" t="s">
+      <c r="B66" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="103" t="s">
+      <c r="C66" s="105"/>
+      <c r="D66" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="96"/>
-      <c r="F66" s="95" t="s">
+      <c r="E66" s="105"/>
+      <c r="F66" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="95" t="s">
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="103" t="s">
+      <c r="K66" s="105"/>
+      <c r="L66" s="105"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="96"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="96"/>
+      <c r="O66" s="105"/>
+      <c r="P66" s="111"/>
+      <c r="Q66" s="105"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
       </c>
@@ -5328,32 +5375,32 @@
       <c r="A67" s="55">
         <v>60</v>
       </c>
-      <c r="B67" s="95" t="s">
+      <c r="B67" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="103" t="s">
+      <c r="C67" s="105"/>
+      <c r="D67" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="96"/>
-      <c r="F67" s="103" t="s">
+      <c r="E67" s="105"/>
+      <c r="F67" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="103" t="s">
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="103" t="s">
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="O67" s="96"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="96"/>
+      <c r="O67" s="105"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="105"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
       </c>
@@ -5363,32 +5410,32 @@
       <c r="A68" s="55">
         <v>61</v>
       </c>
-      <c r="B68" s="95" t="s">
+      <c r="B68" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="103" t="s">
+      <c r="C68" s="105"/>
+      <c r="D68" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="96"/>
-      <c r="F68" s="95" t="s">
+      <c r="E68" s="105"/>
+      <c r="F68" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="103" t="s">
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="96"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="103" t="s">
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="O68" s="96"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="96"/>
+      <c r="O68" s="105"/>
+      <c r="P68" s="111"/>
+      <c r="Q68" s="105"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
       </c>
@@ -5400,32 +5447,32 @@
       <c r="A69" s="55">
         <v>62</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="103" t="s">
+      <c r="C69" s="105"/>
+      <c r="D69" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="96"/>
-      <c r="F69" s="95" t="s">
+      <c r="E69" s="105"/>
+      <c r="F69" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="95" t="s">
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="104" t="s">
         <v>300</v>
       </c>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="103" t="s">
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="O69" s="96"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="96"/>
+      <c r="O69" s="105"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="105"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
       </c>
@@ -5435,151 +5482,151 @@
       <c r="V69" s="22"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="94"/>
-      <c r="Q70" s="94"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="103"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="103"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="103"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="103"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="103"/>
+      <c r="L71" s="103"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="103"/>
+      <c r="O71" s="103"/>
+      <c r="P71" s="103"/>
+      <c r="Q71" s="103"/>
     </row>
     <row r="72" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="103"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="103"/>
+      <c r="O72" s="103"/>
+      <c r="P72" s="103"/>
+      <c r="Q72" s="103"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="98"/>
-      <c r="J73" s="98"/>
-      <c r="K73" s="98"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="98"/>
-      <c r="N73" s="98"/>
-      <c r="O73" s="98"/>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="98"/>
-      <c r="R73" s="98"/>
-      <c r="S73" s="99"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="115"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="115"/>
+      <c r="K73" s="115"/>
+      <c r="L73" s="115"/>
+      <c r="M73" s="115"/>
+      <c r="N73" s="115"/>
+      <c r="O73" s="115"/>
+      <c r="P73" s="115"/>
+      <c r="Q73" s="115"/>
+      <c r="R73" s="115"/>
+      <c r="S73" s="116"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="100"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="101"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
-      <c r="M74" s="101"/>
-      <c r="N74" s="101"/>
-      <c r="O74" s="101"/>
-      <c r="P74" s="101"/>
-      <c r="Q74" s="101"/>
-      <c r="R74" s="101"/>
-      <c r="S74" s="102"/>
+      <c r="A74" s="117"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+      <c r="J74" s="118"/>
+      <c r="K74" s="118"/>
+      <c r="L74" s="118"/>
+      <c r="M74" s="118"/>
+      <c r="N74" s="118"/>
+      <c r="O74" s="118"/>
+      <c r="P74" s="118"/>
+      <c r="Q74" s="118"/>
+      <c r="R74" s="118"/>
+      <c r="S74" s="119"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="103"/>
+      <c r="N75" s="103"/>
+      <c r="O75" s="103"/>
+      <c r="P75" s="103"/>
+      <c r="Q75" s="103"/>
     </row>
     <row r="76" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="104" t="s">
+      <c r="B76" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104" t="s">
+      <c r="C76" s="108"/>
+      <c r="D76" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104" t="s">
+      <c r="E76" s="108"/>
+      <c r="F76" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="104" t="s">
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="104"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="104"/>
-      <c r="N76" s="104" t="s">
+      <c r="K76" s="108"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="108"/>
+      <c r="N76" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="104"/>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
+      <c r="O76" s="108"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="108"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5589,32 +5636,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104" t="s">
+      <c r="C77" s="108"/>
+      <c r="D77" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104" t="s">
+      <c r="E77" s="108"/>
+      <c r="F77" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104" t="s">
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="104"/>
-      <c r="N77" s="104" t="s">
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
+      <c r="M77" s="108"/>
+      <c r="N77" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="104"/>
-      <c r="P77" s="104"/>
-      <c r="Q77" s="104"/>
+      <c r="O77" s="108"/>
+      <c r="P77" s="108"/>
+      <c r="Q77" s="108"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5624,32 +5671,32 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="104" t="s">
+      <c r="B78" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="104"/>
-      <c r="D78" s="104" t="s">
+      <c r="C78" s="108"/>
+      <c r="D78" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104" t="s">
+      <c r="E78" s="108"/>
+      <c r="F78" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="104"/>
-      <c r="J78" s="104" t="s">
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104"/>
-      <c r="M78" s="104"/>
-      <c r="N78" s="104" t="s">
+      <c r="K78" s="108"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="108"/>
+      <c r="N78" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="104"/>
-      <c r="P78" s="104"/>
-      <c r="Q78" s="104"/>
+      <c r="O78" s="108"/>
+      <c r="P78" s="108"/>
+      <c r="Q78" s="108"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5659,32 +5706,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="104" t="s">
+      <c r="B79" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104" t="s">
+      <c r="C79" s="108"/>
+      <c r="D79" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104" t="s">
+      <c r="E79" s="108"/>
+      <c r="F79" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="104"/>
-      <c r="J79" s="104" t="s">
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="104"/>
-      <c r="L79" s="104"/>
-      <c r="M79" s="104"/>
-      <c r="N79" s="104" t="s">
+      <c r="K79" s="108"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="104"/>
-      <c r="P79" s="104"/>
-      <c r="Q79" s="104"/>
+      <c r="O79" s="108"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="108"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5694,32 +5741,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104" t="s">
+      <c r="C80" s="108"/>
+      <c r="D80" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="104"/>
-      <c r="F80" s="104" t="s">
+      <c r="E80" s="108"/>
+      <c r="F80" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="104"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="104"/>
-      <c r="J80" s="104" t="s">
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="104"/>
-      <c r="L80" s="104"/>
-      <c r="M80" s="104"/>
-      <c r="N80" s="104" t="s">
+      <c r="K80" s="108"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="108"/>
+      <c r="N80" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="104"/>
-      <c r="P80" s="104"/>
-      <c r="Q80" s="104"/>
+      <c r="O80" s="108"/>
+      <c r="P80" s="108"/>
+      <c r="Q80" s="108"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5729,32 +5776,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="104" t="s">
+      <c r="B81" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104" t="s">
+      <c r="C81" s="108"/>
+      <c r="D81" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104" t="s">
+      <c r="E81" s="108"/>
+      <c r="F81" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104" t="s">
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="104"/>
-      <c r="L81" s="104"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="104" t="s">
+      <c r="K81" s="108"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="108"/>
+      <c r="N81" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="104"/>
-      <c r="P81" s="104"/>
-      <c r="Q81" s="104"/>
+      <c r="O81" s="108"/>
+      <c r="P81" s="108"/>
+      <c r="Q81" s="108"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5764,32 +5811,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="104" t="s">
+      <c r="B82" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104" t="s">
+      <c r="C82" s="108"/>
+      <c r="D82" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104" t="s">
+      <c r="E82" s="108"/>
+      <c r="F82" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="104" t="s">
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="104" t="s">
+      <c r="K82" s="108"/>
+      <c r="L82" s="108"/>
+      <c r="M82" s="108"/>
+      <c r="N82" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="104"/>
-      <c r="P82" s="104"/>
-      <c r="Q82" s="104"/>
+      <c r="O82" s="108"/>
+      <c r="P82" s="108"/>
+      <c r="Q82" s="108"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5799,32 +5846,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="104" t="s">
+      <c r="B83" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="104"/>
-      <c r="D83" s="104" t="s">
+      <c r="C83" s="108"/>
+      <c r="D83" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="104"/>
-      <c r="F83" s="105" t="s">
+      <c r="E83" s="108"/>
+      <c r="F83" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="105" t="s">
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="106"/>
-      <c r="N83" s="105" t="s">
+      <c r="K83" s="122"/>
+      <c r="L83" s="122"/>
+      <c r="M83" s="121"/>
+      <c r="N83" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="106"/>
-      <c r="P83" s="104"/>
-      <c r="Q83" s="104"/>
+      <c r="O83" s="121"/>
+      <c r="P83" s="108"/>
+      <c r="Q83" s="108"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5836,32 +5883,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="104" t="s">
+      <c r="B84" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="104"/>
-      <c r="D84" s="104" t="s">
+      <c r="C84" s="108"/>
+      <c r="D84" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104" t="s">
+      <c r="E84" s="108"/>
+      <c r="F84" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="104"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="104" t="s">
+      <c r="G84" s="108"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="104"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104" t="s">
+      <c r="K84" s="108"/>
+      <c r="L84" s="108"/>
+      <c r="M84" s="108"/>
+      <c r="N84" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="104"/>
-      <c r="P84" s="104"/>
-      <c r="Q84" s="104"/>
+      <c r="O84" s="108"/>
+      <c r="P84" s="108"/>
+      <c r="Q84" s="108"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5871,32 +5918,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="104" t="s">
+      <c r="B85" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104" t="s">
+      <c r="C85" s="108"/>
+      <c r="D85" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104" t="s">
+      <c r="E85" s="108"/>
+      <c r="F85" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="104"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104" t="s">
+      <c r="G85" s="108"/>
+      <c r="H85" s="108"/>
+      <c r="I85" s="108"/>
+      <c r="J85" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
-      <c r="N85" s="104" t="s">
+      <c r="K85" s="108"/>
+      <c r="L85" s="108"/>
+      <c r="M85" s="108"/>
+      <c r="N85" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="104"/>
-      <c r="P85" s="104"/>
-      <c r="Q85" s="104"/>
+      <c r="O85" s="108"/>
+      <c r="P85" s="108"/>
+      <c r="Q85" s="108"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5906,32 +5953,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="104" t="s">
+      <c r="B86" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104" t="s">
+      <c r="C86" s="108"/>
+      <c r="D86" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104" t="s">
+      <c r="E86" s="108"/>
+      <c r="F86" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="104"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="104" t="s">
+      <c r="G86" s="108"/>
+      <c r="H86" s="108"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="104"/>
-      <c r="L86" s="104"/>
-      <c r="M86" s="104"/>
-      <c r="N86" s="104" t="s">
+      <c r="K86" s="108"/>
+      <c r="L86" s="108"/>
+      <c r="M86" s="108"/>
+      <c r="N86" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="104"/>
-      <c r="P86" s="104"/>
-      <c r="Q86" s="104"/>
+      <c r="O86" s="108"/>
+      <c r="P86" s="108"/>
+      <c r="Q86" s="108"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -5941,32 +5988,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="104" t="s">
+      <c r="B87" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="104" t="s">
+      <c r="C87" s="108"/>
+      <c r="D87" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="104"/>
-      <c r="F87" s="104" t="s">
+      <c r="E87" s="108"/>
+      <c r="F87" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="104"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="104"/>
-      <c r="J87" s="104" t="s">
+      <c r="G87" s="108"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108"/>
+      <c r="J87" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="104"/>
-      <c r="L87" s="104"/>
-      <c r="M87" s="104"/>
-      <c r="N87" s="104" t="s">
+      <c r="K87" s="108"/>
+      <c r="L87" s="108"/>
+      <c r="M87" s="108"/>
+      <c r="N87" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="104"/>
-      <c r="P87" s="104"/>
-      <c r="Q87" s="104"/>
+      <c r="O87" s="108"/>
+      <c r="P87" s="108"/>
+      <c r="Q87" s="108"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -5976,32 +6023,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="104" t="s">
+      <c r="B88" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="104" t="s">
+      <c r="C88" s="108"/>
+      <c r="D88" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104" t="s">
+      <c r="E88" s="108"/>
+      <c r="F88" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="104"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="104"/>
-      <c r="J88" s="104" t="s">
+      <c r="G88" s="108"/>
+      <c r="H88" s="108"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="104"/>
-      <c r="L88" s="104"/>
-      <c r="M88" s="104"/>
-      <c r="N88" s="104" t="s">
+      <c r="K88" s="108"/>
+      <c r="L88" s="108"/>
+      <c r="M88" s="108"/>
+      <c r="N88" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="104"/>
-      <c r="P88" s="104"/>
-      <c r="Q88" s="104"/>
+      <c r="O88" s="108"/>
+      <c r="P88" s="108"/>
+      <c r="Q88" s="108"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6011,32 +6058,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="104" t="s">
+      <c r="B89" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="104" t="s">
+      <c r="C89" s="108"/>
+      <c r="D89" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="104"/>
-      <c r="F89" s="104" t="s">
+      <c r="E89" s="108"/>
+      <c r="F89" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="104"/>
-      <c r="H89" s="104"/>
-      <c r="I89" s="104"/>
-      <c r="J89" s="104" t="s">
+      <c r="G89" s="108"/>
+      <c r="H89" s="108"/>
+      <c r="I89" s="108"/>
+      <c r="J89" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="104"/>
-      <c r="L89" s="104"/>
-      <c r="M89" s="104"/>
-      <c r="N89" s="104" t="s">
+      <c r="K89" s="108"/>
+      <c r="L89" s="108"/>
+      <c r="M89" s="108"/>
+      <c r="N89" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="104"/>
-      <c r="P89" s="104"/>
-      <c r="Q89" s="104"/>
+      <c r="O89" s="108"/>
+      <c r="P89" s="108"/>
+      <c r="Q89" s="108"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6048,32 +6095,32 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="110" t="s">
+      <c r="B90" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="111"/>
-      <c r="D90" s="110" t="s">
+      <c r="C90" s="110"/>
+      <c r="D90" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="111"/>
-      <c r="F90" s="110" t="s">
+      <c r="E90" s="110"/>
+      <c r="F90" s="109" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="111"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="110" t="s">
+      <c r="G90" s="110"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="110"/>
+      <c r="J90" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="111"/>
-      <c r="L90" s="111"/>
-      <c r="M90" s="111"/>
-      <c r="N90" s="110" t="s">
+      <c r="K90" s="110"/>
+      <c r="L90" s="110"/>
+      <c r="M90" s="110"/>
+      <c r="N90" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="111"/>
-      <c r="P90" s="111"/>
-      <c r="Q90" s="111"/>
+      <c r="O90" s="110"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="110"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
@@ -6083,32 +6130,32 @@
       <c r="A91" s="55">
         <v>78</v>
       </c>
-      <c r="B91" s="95" t="s">
+      <c r="B91" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="96"/>
-      <c r="D91" s="95" t="s">
+      <c r="C91" s="105"/>
+      <c r="D91" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="96"/>
-      <c r="F91" s="95" t="s">
+      <c r="E91" s="105"/>
+      <c r="F91" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="G91" s="96"/>
-      <c r="H91" s="96"/>
-      <c r="I91" s="96"/>
-      <c r="J91" s="95" t="s">
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="K91" s="96"/>
-      <c r="L91" s="96"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="95" t="s">
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="O91" s="96"/>
-      <c r="P91" s="96"/>
-      <c r="Q91" s="96"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
       <c r="R91" s="56" t="s">
         <v>18</v>
       </c>
@@ -6242,32 +6289,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="112" t="s">
+      <c r="B92" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="113"/>
-      <c r="D92" s="112" t="s">
+      <c r="C92" s="107"/>
+      <c r="D92" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="113"/>
-      <c r="F92" s="112" t="s">
+      <c r="E92" s="107"/>
+      <c r="F92" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="113"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="113"/>
-      <c r="J92" s="112" t="s">
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="113"/>
-      <c r="L92" s="113"/>
-      <c r="M92" s="113"/>
-      <c r="N92" s="112" t="s">
+      <c r="K92" s="107"/>
+      <c r="L92" s="107"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="113"/>
-      <c r="P92" s="113"/>
-      <c r="Q92" s="113"/>
+      <c r="O92" s="107"/>
+      <c r="P92" s="107"/>
+      <c r="Q92" s="107"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6402,32 +6449,32 @@
       <c r="A93" s="55">
         <v>80</v>
       </c>
-      <c r="B93" s="95" t="s">
+      <c r="B93" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="95" t="s">
+      <c r="C93" s="105"/>
+      <c r="D93" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="96"/>
-      <c r="F93" s="95" t="s">
+      <c r="E93" s="105"/>
+      <c r="F93" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="96"/>
-      <c r="H93" s="96"/>
-      <c r="I93" s="96"/>
-      <c r="J93" s="95" t="s">
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="K93" s="96"/>
-      <c r="L93" s="96"/>
-      <c r="M93" s="96"/>
-      <c r="N93" s="95" t="s">
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="105"/>
+      <c r="N93" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="O93" s="96"/>
-      <c r="P93" s="96"/>
-      <c r="Q93" s="96"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="105"/>
+      <c r="Q93" s="105"/>
       <c r="R93" s="56" t="s">
         <v>18</v>
       </c>
@@ -6437,32 +6484,32 @@
       <c r="A94" s="55">
         <v>81</v>
       </c>
-      <c r="B94" s="95" t="s">
+      <c r="B94" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="96"/>
-      <c r="D94" s="95" t="s">
+      <c r="C94" s="105"/>
+      <c r="D94" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="96"/>
-      <c r="F94" s="95" t="s">
+      <c r="E94" s="105"/>
+      <c r="F94" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="95" t="s">
+      <c r="G94" s="105"/>
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="95" t="s">
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
+      <c r="M94" s="105"/>
+      <c r="N94" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="96"/>
-      <c r="P94" s="96"/>
-      <c r="Q94" s="96"/>
+      <c r="O94" s="105"/>
+      <c r="P94" s="105"/>
+      <c r="Q94" s="105"/>
       <c r="R94" s="56" t="s">
         <v>18</v>
       </c>
@@ -6472,32 +6519,32 @@
       <c r="A95" s="55">
         <v>82</v>
       </c>
-      <c r="B95" s="95" t="s">
+      <c r="B95" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="96"/>
-      <c r="D95" s="95" t="s">
+      <c r="C95" s="105"/>
+      <c r="D95" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="96"/>
-      <c r="F95" s="95" t="s">
+      <c r="E95" s="105"/>
+      <c r="F95" s="104" t="s">
         <v>315</v>
       </c>
-      <c r="G95" s="96"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="95" t="s">
+      <c r="G95" s="105"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="95" t="s">
+      <c r="K95" s="105"/>
+      <c r="L95" s="105"/>
+      <c r="M95" s="105"/>
+      <c r="N95" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="O95" s="96"/>
-      <c r="P95" s="96"/>
-      <c r="Q95" s="96"/>
+      <c r="O95" s="105"/>
+      <c r="P95" s="105"/>
+      <c r="Q95" s="105"/>
       <c r="R95" s="56" t="s">
         <v>18</v>
       </c>
@@ -6507,32 +6554,32 @@
       <c r="A96" s="55">
         <v>83</v>
       </c>
-      <c r="B96" s="95" t="s">
+      <c r="B96" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="96"/>
-      <c r="D96" s="95" t="s">
+      <c r="C96" s="105"/>
+      <c r="D96" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="96"/>
-      <c r="F96" s="95" t="s">
+      <c r="E96" s="105"/>
+      <c r="F96" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="95" t="s">
+      <c r="G96" s="105"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="K96" s="96"/>
-      <c r="L96" s="96"/>
-      <c r="M96" s="96"/>
-      <c r="N96" s="95" t="s">
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
+      <c r="M96" s="105"/>
+      <c r="N96" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="O96" s="96"/>
-      <c r="P96" s="96"/>
-      <c r="Q96" s="96"/>
+      <c r="O96" s="105"/>
+      <c r="P96" s="105"/>
+      <c r="Q96" s="105"/>
       <c r="R96" s="56" t="s">
         <v>18</v>
       </c>
@@ -6542,32 +6589,32 @@
       <c r="A97" s="55">
         <v>84</v>
       </c>
-      <c r="B97" s="95" t="s">
+      <c r="B97" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="96"/>
-      <c r="D97" s="95" t="s">
+      <c r="C97" s="105"/>
+      <c r="D97" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="96"/>
-      <c r="F97" s="95" t="s">
+      <c r="E97" s="105"/>
+      <c r="F97" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="G97" s="96"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="96"/>
-      <c r="J97" s="95" t="s">
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="K97" s="96"/>
-      <c r="L97" s="96"/>
-      <c r="M97" s="96"/>
-      <c r="N97" s="95" t="s">
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
+      <c r="M97" s="105"/>
+      <c r="N97" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="O97" s="96"/>
-      <c r="P97" s="96"/>
-      <c r="Q97" s="96"/>
+      <c r="O97" s="105"/>
+      <c r="P97" s="105"/>
+      <c r="Q97" s="105"/>
       <c r="R97" s="56" t="s">
         <v>18</v>
       </c>
@@ -6577,32 +6624,32 @@
       <c r="A98" s="55">
         <v>85</v>
       </c>
-      <c r="B98" s="95" t="s">
+      <c r="B98" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="96"/>
-      <c r="D98" s="95" t="s">
+      <c r="C98" s="105"/>
+      <c r="D98" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="96"/>
-      <c r="F98" s="95" t="s">
+      <c r="E98" s="105"/>
+      <c r="F98" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="96"/>
-      <c r="H98" s="96"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="95" t="s">
+      <c r="G98" s="105"/>
+      <c r="H98" s="105"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="K98" s="96"/>
-      <c r="L98" s="96"/>
-      <c r="M98" s="96"/>
-      <c r="N98" s="95" t="s">
+      <c r="K98" s="105"/>
+      <c r="L98" s="105"/>
+      <c r="M98" s="105"/>
+      <c r="N98" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="O98" s="96"/>
-      <c r="P98" s="96"/>
-      <c r="Q98" s="96"/>
+      <c r="O98" s="105"/>
+      <c r="P98" s="105"/>
+      <c r="Q98" s="105"/>
       <c r="R98" s="56" t="s">
         <v>18</v>
       </c>
@@ -6612,32 +6659,32 @@
       <c r="A99" s="55">
         <v>86</v>
       </c>
-      <c r="B99" s="95" t="s">
+      <c r="B99" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="96"/>
-      <c r="D99" s="95" t="s">
+      <c r="C99" s="105"/>
+      <c r="D99" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="96"/>
-      <c r="F99" s="95" t="s">
+      <c r="E99" s="105"/>
+      <c r="F99" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="G99" s="96"/>
-      <c r="H99" s="96"/>
-      <c r="I99" s="96"/>
-      <c r="J99" s="95" t="s">
+      <c r="G99" s="105"/>
+      <c r="H99" s="105"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="K99" s="96"/>
-      <c r="L99" s="96"/>
-      <c r="M99" s="96"/>
-      <c r="N99" s="95" t="s">
+      <c r="K99" s="105"/>
+      <c r="L99" s="105"/>
+      <c r="M99" s="105"/>
+      <c r="N99" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="O99" s="96"/>
-      <c r="P99" s="96"/>
-      <c r="Q99" s="96"/>
+      <c r="O99" s="105"/>
+      <c r="P99" s="105"/>
+      <c r="Q99" s="105"/>
       <c r="R99" s="56" t="s">
         <v>18</v>
       </c>
@@ -6647,32 +6694,32 @@
       <c r="A100" s="55">
         <v>87</v>
       </c>
-      <c r="B100" s="95" t="s">
+      <c r="B100" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="95" t="s">
+      <c r="C100" s="105"/>
+      <c r="D100" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="96"/>
-      <c r="F100" s="95" t="s">
+      <c r="E100" s="105"/>
+      <c r="F100" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="G100" s="96"/>
-      <c r="H100" s="96"/>
-      <c r="I100" s="96"/>
-      <c r="J100" s="95" t="s">
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="K100" s="96"/>
-      <c r="L100" s="96"/>
-      <c r="M100" s="96"/>
-      <c r="N100" s="95" t="s">
+      <c r="K100" s="105"/>
+      <c r="L100" s="105"/>
+      <c r="M100" s="105"/>
+      <c r="N100" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="O100" s="96"/>
-      <c r="P100" s="96"/>
-      <c r="Q100" s="96"/>
+      <c r="O100" s="105"/>
+      <c r="P100" s="105"/>
+      <c r="Q100" s="105"/>
       <c r="R100" s="56" t="s">
         <v>18</v>
       </c>
@@ -6682,165 +6729,165 @@
       <c r="A101" s="55">
         <v>88</v>
       </c>
-      <c r="B101" s="95" t="s">
+      <c r="B101" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="95" t="s">
+      <c r="C101" s="105"/>
+      <c r="D101" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="96"/>
-      <c r="F101" s="95" t="s">
+      <c r="E101" s="105"/>
+      <c r="F101" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="96"/>
-      <c r="J101" s="95" t="s">
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="95" t="s">
+      <c r="K101" s="105"/>
+      <c r="L101" s="105"/>
+      <c r="M101" s="105"/>
+      <c r="N101" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="O101" s="96"/>
-      <c r="P101" s="96"/>
-      <c r="Q101" s="96"/>
+      <c r="O101" s="105"/>
+      <c r="P101" s="105"/>
+      <c r="Q101" s="105"/>
       <c r="R101" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S101" s="55"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B102" s="94"/>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="94"/>
-      <c r="J102" s="94"/>
-      <c r="K102" s="94"/>
-      <c r="L102" s="94"/>
-      <c r="M102" s="94"/>
-      <c r="N102" s="94"/>
-      <c r="O102" s="94"/>
-      <c r="P102" s="94"/>
-      <c r="Q102" s="94"/>
+      <c r="B102" s="103"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="103"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="103"/>
+      <c r="J102" s="103"/>
+      <c r="K102" s="103"/>
+      <c r="L102" s="103"/>
+      <c r="M102" s="103"/>
+      <c r="N102" s="103"/>
+      <c r="O102" s="103"/>
+      <c r="P102" s="103"/>
+      <c r="Q102" s="103"/>
     </row>
     <row r="103" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="94"/>
-      <c r="C103" s="94"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="94"/>
-      <c r="F103" s="94"/>
-      <c r="G103" s="94"/>
-      <c r="H103" s="94"/>
-      <c r="I103" s="94"/>
-      <c r="J103" s="94"/>
-      <c r="K103" s="94"/>
-      <c r="L103" s="94"/>
-      <c r="M103" s="94"/>
-      <c r="N103" s="94"/>
-      <c r="O103" s="94"/>
-      <c r="P103" s="94"/>
-      <c r="Q103" s="94"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="103"/>
+      <c r="J103" s="103"/>
+      <c r="K103" s="103"/>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="103"/>
+      <c r="O103" s="103"/>
+      <c r="P103" s="103"/>
+      <c r="Q103" s="103"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="97" t="s">
+      <c r="A104" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="98"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="98"/>
-      <c r="F104" s="98"/>
-      <c r="G104" s="98"/>
-      <c r="H104" s="98"/>
-      <c r="I104" s="98"/>
-      <c r="J104" s="98"/>
-      <c r="K104" s="98"/>
-      <c r="L104" s="98"/>
-      <c r="M104" s="98"/>
-      <c r="N104" s="98"/>
-      <c r="O104" s="98"/>
-      <c r="P104" s="98"/>
-      <c r="Q104" s="98"/>
-      <c r="R104" s="98"/>
-      <c r="S104" s="99"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="115"/>
+      <c r="D104" s="115"/>
+      <c r="E104" s="115"/>
+      <c r="F104" s="115"/>
+      <c r="G104" s="115"/>
+      <c r="H104" s="115"/>
+      <c r="I104" s="115"/>
+      <c r="J104" s="115"/>
+      <c r="K104" s="115"/>
+      <c r="L104" s="115"/>
+      <c r="M104" s="115"/>
+      <c r="N104" s="115"/>
+      <c r="O104" s="115"/>
+      <c r="P104" s="115"/>
+      <c r="Q104" s="115"/>
+      <c r="R104" s="115"/>
+      <c r="S104" s="116"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
-      <c r="B105" s="101"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
-      <c r="H105" s="101"/>
-      <c r="I105" s="101"/>
-      <c r="J105" s="101"/>
-      <c r="K105" s="101"/>
-      <c r="L105" s="101"/>
-      <c r="M105" s="101"/>
-      <c r="N105" s="101"/>
-      <c r="O105" s="101"/>
-      <c r="P105" s="101"/>
-      <c r="Q105" s="101"/>
-      <c r="R105" s="101"/>
-      <c r="S105" s="102"/>
+      <c r="A105" s="117"/>
+      <c r="B105" s="118"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="118"/>
+      <c r="H105" s="118"/>
+      <c r="I105" s="118"/>
+      <c r="J105" s="118"/>
+      <c r="K105" s="118"/>
+      <c r="L105" s="118"/>
+      <c r="M105" s="118"/>
+      <c r="N105" s="118"/>
+      <c r="O105" s="118"/>
+      <c r="P105" s="118"/>
+      <c r="Q105" s="118"/>
+      <c r="R105" s="118"/>
+      <c r="S105" s="119"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B106" s="94"/>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="94"/>
-      <c r="G106" s="94"/>
-      <c r="H106" s="94"/>
-      <c r="I106" s="94"/>
-      <c r="J106" s="94"/>
-      <c r="K106" s="94"/>
-      <c r="L106" s="94"/>
-      <c r="M106" s="94"/>
-      <c r="N106" s="94"/>
-      <c r="O106" s="94"/>
-      <c r="P106" s="94"/>
-      <c r="Q106" s="94"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
+      <c r="J106" s="103"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="103"/>
+      <c r="N106" s="103"/>
+      <c r="O106" s="103"/>
+      <c r="P106" s="103"/>
+      <c r="Q106" s="103"/>
     </row>
     <row r="107" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="55">
         <v>89</v>
       </c>
-      <c r="B107" s="95" t="s">
+      <c r="B107" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="95" t="s">
+      <c r="C107" s="105"/>
+      <c r="D107" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="96"/>
-      <c r="F107" s="95" t="s">
+      <c r="E107" s="105"/>
+      <c r="F107" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="96"/>
-      <c r="H107" s="96"/>
-      <c r="I107" s="96"/>
-      <c r="J107" s="95" t="s">
+      <c r="G107" s="105"/>
+      <c r="H107" s="105"/>
+      <c r="I107" s="105"/>
+      <c r="J107" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="96"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="96"/>
-      <c r="N107" s="95" t="s">
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
+      <c r="M107" s="105"/>
+      <c r="N107" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="O107" s="96"/>
-      <c r="P107" s="96"/>
-      <c r="Q107" s="96"/>
+      <c r="O107" s="105"/>
+      <c r="P107" s="105"/>
+      <c r="Q107" s="105"/>
       <c r="R107" s="56" t="s">
         <v>18</v>
       </c>
@@ -6850,32 +6897,32 @@
       <c r="A108" s="55">
         <v>90</v>
       </c>
-      <c r="B108" s="95" t="s">
+      <c r="B108" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="95" t="s">
+      <c r="C108" s="105"/>
+      <c r="D108" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="96"/>
-      <c r="F108" s="95" t="s">
+      <c r="E108" s="105"/>
+      <c r="F108" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="95" t="s">
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="104" t="s">
         <v>306</v>
       </c>
-      <c r="K108" s="96"/>
-      <c r="L108" s="96"/>
-      <c r="M108" s="96"/>
-      <c r="N108" s="95" t="s">
+      <c r="K108" s="105"/>
+      <c r="L108" s="105"/>
+      <c r="M108" s="105"/>
+      <c r="N108" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="O108" s="96"/>
-      <c r="P108" s="96"/>
-      <c r="Q108" s="96"/>
+      <c r="O108" s="105"/>
+      <c r="P108" s="105"/>
+      <c r="Q108" s="105"/>
       <c r="R108" s="56" t="s">
         <v>18</v>
       </c>
@@ -6885,32 +6932,32 @@
       <c r="A109" s="55">
         <v>91</v>
       </c>
-      <c r="B109" s="95" t="s">
+      <c r="B109" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="95" t="s">
+      <c r="C109" s="105"/>
+      <c r="D109" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="96"/>
-      <c r="F109" s="95" t="s">
+      <c r="E109" s="105"/>
+      <c r="F109" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="G109" s="96"/>
-      <c r="H109" s="96"/>
-      <c r="I109" s="96"/>
-      <c r="J109" s="95" t="s">
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="104" t="s">
         <v>303</v>
       </c>
-      <c r="K109" s="96"/>
-      <c r="L109" s="96"/>
-      <c r="M109" s="96"/>
-      <c r="N109" s="95" t="s">
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="105"/>
+      <c r="N109" s="104" t="s">
         <v>304</v>
       </c>
-      <c r="O109" s="96"/>
-      <c r="P109" s="96"/>
-      <c r="Q109" s="96"/>
+      <c r="O109" s="105"/>
+      <c r="P109" s="105"/>
+      <c r="Q109" s="105"/>
       <c r="R109" s="56" t="s">
         <v>18</v>
       </c>
@@ -6920,32 +6967,32 @@
       <c r="A110" s="55">
         <v>92</v>
       </c>
-      <c r="B110" s="95" t="s">
+      <c r="B110" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="95" t="s">
+      <c r="C110" s="105"/>
+      <c r="D110" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="96"/>
-      <c r="F110" s="95" t="s">
+      <c r="E110" s="105"/>
+      <c r="F110" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="G110" s="96"/>
-      <c r="H110" s="96"/>
-      <c r="I110" s="96"/>
-      <c r="J110" s="95" t="s">
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="K110" s="96"/>
-      <c r="L110" s="96"/>
-      <c r="M110" s="96"/>
-      <c r="N110" s="95" t="s">
+      <c r="K110" s="105"/>
+      <c r="L110" s="105"/>
+      <c r="M110" s="105"/>
+      <c r="N110" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="O110" s="96"/>
-      <c r="P110" s="96"/>
-      <c r="Q110" s="96"/>
+      <c r="O110" s="105"/>
+      <c r="P110" s="105"/>
+      <c r="Q110" s="105"/>
       <c r="R110" s="56" t="s">
         <v>18</v>
       </c>
@@ -6955,32 +7002,32 @@
       <c r="A111" s="55">
         <v>93</v>
       </c>
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="95" t="s">
+      <c r="C111" s="105"/>
+      <c r="D111" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="96"/>
-      <c r="F111" s="95" t="s">
+      <c r="E111" s="105"/>
+      <c r="F111" s="104" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="96"/>
-      <c r="H111" s="96"/>
-      <c r="I111" s="96"/>
-      <c r="J111" s="95" t="s">
+      <c r="G111" s="105"/>
+      <c r="H111" s="105"/>
+      <c r="I111" s="105"/>
+      <c r="J111" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="96"/>
-      <c r="L111" s="96"/>
-      <c r="M111" s="96"/>
-      <c r="N111" s="95" t="s">
+      <c r="K111" s="105"/>
+      <c r="L111" s="105"/>
+      <c r="M111" s="105"/>
+      <c r="N111" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="O111" s="96"/>
-      <c r="P111" s="96"/>
-      <c r="Q111" s="96"/>
+      <c r="O111" s="105"/>
+      <c r="P111" s="105"/>
+      <c r="Q111" s="105"/>
       <c r="R111" s="56" t="s">
         <v>18</v>
       </c>
@@ -6990,32 +7037,32 @@
       <c r="A112" s="55">
         <v>94</v>
       </c>
-      <c r="B112" s="95" t="s">
+      <c r="B112" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="96"/>
-      <c r="D112" s="95" t="s">
+      <c r="C112" s="105"/>
+      <c r="D112" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="96"/>
-      <c r="F112" s="95" t="s">
+      <c r="E112" s="105"/>
+      <c r="F112" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="G112" s="96"/>
-      <c r="H112" s="96"/>
-      <c r="I112" s="96"/>
-      <c r="J112" s="95" t="s">
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="K112" s="96"/>
-      <c r="L112" s="96"/>
-      <c r="M112" s="96"/>
-      <c r="N112" s="95" t="s">
+      <c r="K112" s="105"/>
+      <c r="L112" s="105"/>
+      <c r="M112" s="105"/>
+      <c r="N112" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="O112" s="96"/>
-      <c r="P112" s="96"/>
-      <c r="Q112" s="96"/>
+      <c r="O112" s="105"/>
+      <c r="P112" s="105"/>
+      <c r="Q112" s="105"/>
       <c r="R112" s="56" t="s">
         <v>18</v>
       </c>
@@ -7025,684 +7072,393 @@
       <c r="A113" s="55">
         <v>95</v>
       </c>
-      <c r="B113" s="95" t="s">
+      <c r="B113" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="96"/>
-      <c r="D113" s="95" t="s">
+      <c r="C113" s="105"/>
+      <c r="D113" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="96"/>
-      <c r="F113" s="95" t="s">
+      <c r="E113" s="105"/>
+      <c r="F113" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="G113" s="96"/>
-      <c r="H113" s="96"/>
-      <c r="I113" s="96"/>
-      <c r="J113" s="95" t="s">
+      <c r="G113" s="105"/>
+      <c r="H113" s="105"/>
+      <c r="I113" s="105"/>
+      <c r="J113" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="K113" s="96"/>
-      <c r="L113" s="96"/>
-      <c r="M113" s="96"/>
-      <c r="N113" s="95" t="s">
+      <c r="K113" s="105"/>
+      <c r="L113" s="105"/>
+      <c r="M113" s="105"/>
+      <c r="N113" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="O113" s="96"/>
-      <c r="P113" s="96"/>
-      <c r="Q113" s="96"/>
+      <c r="O113" s="105"/>
+      <c r="P113" s="105"/>
+      <c r="Q113" s="105"/>
       <c r="R113" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S113" s="55"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="94"/>
-      <c r="C114" s="94"/>
-      <c r="D114" s="94"/>
-      <c r="E114" s="94"/>
-      <c r="F114" s="94"/>
-      <c r="G114" s="94"/>
-      <c r="H114" s="94"/>
-      <c r="I114" s="94"/>
-      <c r="J114" s="94"/>
-      <c r="K114" s="94"/>
-      <c r="L114" s="94"/>
-      <c r="M114" s="94"/>
-      <c r="N114" s="94"/>
-      <c r="O114" s="94"/>
-      <c r="P114" s="94"/>
-      <c r="Q114" s="94"/>
+      <c r="B114" s="103"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="103"/>
+      <c r="E114" s="103"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="103"/>
+      <c r="I114" s="103"/>
+      <c r="J114" s="103"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="103"/>
+      <c r="M114" s="103"/>
+      <c r="N114" s="103"/>
+      <c r="O114" s="103"/>
+      <c r="P114" s="103"/>
+      <c r="Q114" s="103"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B115" s="94"/>
-      <c r="C115" s="94"/>
-      <c r="D115" s="94"/>
-      <c r="E115" s="94"/>
-      <c r="F115" s="94"/>
-      <c r="G115" s="94"/>
-      <c r="H115" s="94"/>
-      <c r="I115" s="94"/>
-      <c r="J115" s="94"/>
-      <c r="K115" s="94"/>
-      <c r="L115" s="94"/>
-      <c r="M115" s="94"/>
-      <c r="N115" s="94"/>
-      <c r="O115" s="94"/>
-      <c r="P115" s="94"/>
-      <c r="Q115" s="94"/>
+      <c r="B115" s="103"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="103"/>
+      <c r="E115" s="103"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="103"/>
+      <c r="H115" s="103"/>
+      <c r="I115" s="103"/>
+      <c r="J115" s="103"/>
+      <c r="K115" s="103"/>
+      <c r="L115" s="103"/>
+      <c r="M115" s="103"/>
+      <c r="N115" s="103"/>
+      <c r="O115" s="103"/>
+      <c r="P115" s="103"/>
+      <c r="Q115" s="103"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="94"/>
-      <c r="C116" s="94"/>
-      <c r="D116" s="94"/>
-      <c r="E116" s="94"/>
-      <c r="F116" s="94"/>
-      <c r="G116" s="94"/>
-      <c r="H116" s="94"/>
-      <c r="I116" s="94"/>
-      <c r="J116" s="94"/>
-      <c r="K116" s="94"/>
-      <c r="L116" s="94"/>
-      <c r="M116" s="94"/>
-      <c r="N116" s="94"/>
-      <c r="O116" s="94"/>
-      <c r="P116" s="94"/>
-      <c r="Q116" s="94"/>
+      <c r="B116" s="103"/>
+      <c r="C116" s="103"/>
+      <c r="D116" s="103"/>
+      <c r="E116" s="103"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="103"/>
+      <c r="H116" s="103"/>
+      <c r="I116" s="103"/>
+      <c r="J116" s="103"/>
+      <c r="K116" s="103"/>
+      <c r="L116" s="103"/>
+      <c r="M116" s="103"/>
+      <c r="N116" s="103"/>
+      <c r="O116" s="103"/>
+      <c r="P116" s="103"/>
+      <c r="Q116" s="103"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="94"/>
-      <c r="C117" s="94"/>
-      <c r="D117" s="94"/>
-      <c r="E117" s="94"/>
-      <c r="F117" s="94"/>
-      <c r="G117" s="94"/>
-      <c r="H117" s="94"/>
-      <c r="I117" s="94"/>
-      <c r="J117" s="94"/>
-      <c r="K117" s="94"/>
-      <c r="L117" s="94"/>
-      <c r="M117" s="94"/>
-      <c r="N117" s="94"/>
-      <c r="O117" s="94"/>
-      <c r="P117" s="94"/>
-      <c r="Q117" s="94"/>
+      <c r="B117" s="103"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="103"/>
+      <c r="E117" s="103"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="103"/>
+      <c r="H117" s="103"/>
+      <c r="I117" s="103"/>
+      <c r="J117" s="103"/>
+      <c r="K117" s="103"/>
+      <c r="L117" s="103"/>
+      <c r="M117" s="103"/>
+      <c r="N117" s="103"/>
+      <c r="O117" s="103"/>
+      <c r="P117" s="103"/>
+      <c r="Q117" s="103"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="94"/>
-      <c r="C118" s="94"/>
-      <c r="D118" s="94"/>
-      <c r="E118" s="94"/>
-      <c r="F118" s="94"/>
-      <c r="G118" s="94"/>
-      <c r="H118" s="94"/>
-      <c r="I118" s="94"/>
-      <c r="J118" s="94"/>
-      <c r="K118" s="94"/>
-      <c r="L118" s="94"/>
-      <c r="M118" s="94"/>
-      <c r="N118" s="94"/>
-      <c r="O118" s="94"/>
-      <c r="P118" s="94"/>
-      <c r="Q118" s="94"/>
+      <c r="B118" s="103"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="103"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="103"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="103"/>
+      <c r="K118" s="103"/>
+      <c r="L118" s="103"/>
+      <c r="M118" s="103"/>
+      <c r="N118" s="103"/>
+      <c r="O118" s="103"/>
+      <c r="P118" s="103"/>
+      <c r="Q118" s="103"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="94"/>
-      <c r="C119" s="94"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="94"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="94"/>
-      <c r="H119" s="94"/>
-      <c r="I119" s="94"/>
-      <c r="J119" s="94"/>
-      <c r="K119" s="94"/>
-      <c r="L119" s="94"/>
-      <c r="M119" s="94"/>
-      <c r="N119" s="94"/>
-      <c r="O119" s="94"/>
-      <c r="P119" s="94"/>
-      <c r="Q119" s="94"/>
+      <c r="B119" s="103"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="103"/>
+      <c r="F119" s="103"/>
+      <c r="G119" s="103"/>
+      <c r="H119" s="103"/>
+      <c r="I119" s="103"/>
+      <c r="J119" s="103"/>
+      <c r="K119" s="103"/>
+      <c r="L119" s="103"/>
+      <c r="M119" s="103"/>
+      <c r="N119" s="103"/>
+      <c r="O119" s="103"/>
+      <c r="P119" s="103"/>
+      <c r="Q119" s="103"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B120" s="94"/>
-      <c r="C120" s="94"/>
-      <c r="D120" s="94"/>
-      <c r="E120" s="94"/>
-      <c r="F120" s="94"/>
-      <c r="G120" s="94"/>
-      <c r="H120" s="94"/>
-      <c r="I120" s="94"/>
-      <c r="J120" s="94"/>
-      <c r="K120" s="94"/>
-      <c r="L120" s="94"/>
-      <c r="M120" s="94"/>
-      <c r="N120" s="94"/>
-      <c r="O120" s="94"/>
-      <c r="P120" s="94"/>
-      <c r="Q120" s="94"/>
+      <c r="B120" s="103"/>
+      <c r="C120" s="103"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="103"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="103"/>
+      <c r="H120" s="103"/>
+      <c r="I120" s="103"/>
+      <c r="J120" s="103"/>
+      <c r="K120" s="103"/>
+      <c r="L120" s="103"/>
+      <c r="M120" s="103"/>
+      <c r="N120" s="103"/>
+      <c r="O120" s="103"/>
+      <c r="P120" s="103"/>
+      <c r="Q120" s="103"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B121" s="94"/>
-      <c r="C121" s="94"/>
-      <c r="D121" s="94"/>
-      <c r="E121" s="94"/>
-      <c r="F121" s="94"/>
-      <c r="G121" s="94"/>
-      <c r="H121" s="94"/>
-      <c r="I121" s="94"/>
-      <c r="J121" s="94"/>
-      <c r="K121" s="94"/>
-      <c r="L121" s="94"/>
-      <c r="M121" s="94"/>
-      <c r="N121" s="94"/>
-      <c r="O121" s="94"/>
-      <c r="P121" s="94"/>
-      <c r="Q121" s="94"/>
+      <c r="B121" s="103"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="103"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="103"/>
+      <c r="H121" s="103"/>
+      <c r="I121" s="103"/>
+      <c r="J121" s="103"/>
+      <c r="K121" s="103"/>
+      <c r="L121" s="103"/>
+      <c r="M121" s="103"/>
+      <c r="N121" s="103"/>
+      <c r="O121" s="103"/>
+      <c r="P121" s="103"/>
+      <c r="Q121" s="103"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B122" s="94"/>
-      <c r="C122" s="94"/>
-      <c r="D122" s="94"/>
-      <c r="E122" s="94"/>
-      <c r="F122" s="94"/>
-      <c r="G122" s="94"/>
-      <c r="H122" s="94"/>
-      <c r="I122" s="94"/>
-      <c r="J122" s="94"/>
-      <c r="K122" s="94"/>
-      <c r="L122" s="94"/>
-      <c r="M122" s="94"/>
-      <c r="N122" s="94"/>
-      <c r="O122" s="94"/>
-      <c r="P122" s="94"/>
-      <c r="Q122" s="94"/>
+      <c r="B122" s="103"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="103"/>
+      <c r="E122" s="103"/>
+      <c r="F122" s="103"/>
+      <c r="G122" s="103"/>
+      <c r="H122" s="103"/>
+      <c r="I122" s="103"/>
+      <c r="J122" s="103"/>
+      <c r="K122" s="103"/>
+      <c r="L122" s="103"/>
+      <c r="M122" s="103"/>
+      <c r="N122" s="103"/>
+      <c r="O122" s="103"/>
+      <c r="P122" s="103"/>
+      <c r="Q122" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="699">
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A104:S105"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:I64"/>
@@ -7727,198 +7483,489 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A104:S105"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7928,4 +7975,885 @@
     <oddFooter>&amp;Lv1.1&amp;CATT Proprietary Internal Use Only&amp;RPage:&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A2:O52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="101"/>
+      <c r="C7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="36"/>
+      <c r="H7" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="102"/>
+      <c r="C8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="102"/>
+      <c r="C9" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="H9" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="37">
+        <v>42186</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+      <c r="H12" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="37">
+        <v>42011</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="46">
+        <v>42070</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H17" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H18" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H19" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H21" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H22" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="41">
+        <v>42011</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H23" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="12">
+        <v>42011</v>
+      </c>
+      <c r="M23" s="46">
+        <v>42284</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H24" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="41">
+        <v>42011</v>
+      </c>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="41">
+        <v>42011</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H26" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="12">
+        <v>42070</v>
+      </c>
+      <c r="M26" s="37">
+        <v>42223</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="12">
+        <v>42070</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="8:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H32" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H33" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="37">
+        <v>42186</v>
+      </c>
+      <c r="N36" s="78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H37" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H39" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="41">
+        <v>42011</v>
+      </c>
+      <c r="M39" s="42"/>
+      <c r="N39" s="76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H40" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="12">
+        <v>42070</v>
+      </c>
+      <c r="M40" s="37">
+        <v>42223</v>
+      </c>
+      <c r="N40" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H41" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="41">
+        <v>42070</v>
+      </c>
+      <c r="M41" s="42"/>
+      <c r="N41" s="76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H42" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="H45" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H46" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H47" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" s="75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H48" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="41">
+        <v>42011</v>
+      </c>
+      <c r="M48" s="42"/>
+      <c r="N48" s="76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H49" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="12">
+        <v>42070</v>
+      </c>
+      <c r="M49" s="37">
+        <v>42223</v>
+      </c>
+      <c r="N49" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H50" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="41">
+        <v>42070</v>
+      </c>
+      <c r="M50" s="42"/>
+      <c r="N50" s="76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N51" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N52" s="78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;Lv1.1&amp;CATT Proprietary Internal Use Only&amp;RPage&amp;P</oddHeader>
+    <oddFooter>&amp;Lv1.1&amp;CATT Proprietary Internal Use Only&amp;RPage:&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -20,7 +20,6 @@
     <definedName name="Sheet1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A97:O114"/>
   <customWorkbookViews>
     <customWorkbookView name="Classify" guid="{5D21309E-F946-4F4C-8709-AAB8612F09E9}" includeHiddenRowCol="0" maximized="1" windowWidth="1276" windowHeight="821" activeSheetId="4"/>
   </customWorkbookViews>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1588,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1801,11 +1800,44 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1813,9 +1845,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1826,26 +1855,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1855,21 +1869,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1879,55 +1878,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2235,7 +2237,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -2264,12 +2266,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2301,12 +2303,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2318,19 +2320,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2342,19 +2344,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="102"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2366,19 +2368,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="102"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2397,12 +2399,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2414,12 +2416,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="98" t="s">
+      <c r="H11" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2432,12 +2434,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2449,12 +2451,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2466,12 +2468,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2483,12 +2485,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2500,12 +2502,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2515,12 +2517,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="95" t="s">
+      <c r="H17" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2532,12 +2534,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2566,12 +2568,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="96" t="s">
+      <c r="H20" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2584,12 +2586,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2599,12 +2601,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2616,12 +2618,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2633,12 +2635,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2648,12 +2650,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2665,12 +2667,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2682,12 +2684,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2697,12 +2699,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2714,12 +2716,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2736,12 +2738,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2753,12 +2755,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2770,12 +2772,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2787,12 +2789,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="80" t="s">
+      <c r="H35" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2804,12 +2806,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2821,12 +2823,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2838,12 +2840,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2855,12 +2857,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2870,12 +2872,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="83" t="s">
+      <c r="H40" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2887,12 +2889,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2902,12 +2904,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="83" t="s">
+      <c r="H42" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2919,12 +2921,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="80" t="s">
+      <c r="H43" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2941,12 +2943,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2958,12 +2960,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2975,12 +2977,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="82" t="s">
+      <c r="H48" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2990,12 +2992,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3007,12 +3009,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="82" t="s">
+      <c r="H50" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3022,12 +3024,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3039,12 +3041,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="80" t="s">
+      <c r="H52" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3057,21 +3059,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3088,19 +3088,21 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3119,8 +3121,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3172,48 +3174,48 @@
       <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="108"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="111"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
@@ -3237,34 +3239,34 @@
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112" t="s">
+      <c r="E6" s="117"/>
+      <c r="F6" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112" t="s">
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112" t="s">
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112" t="s">
+      <c r="O6" s="117"/>
+      <c r="P6" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="113"/>
+      <c r="Q6" s="118"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3545,27 +3547,27 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="105"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="105"/>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="112" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="105"/>
       <c r="H15" s="105"/>
       <c r="I15" s="105"/>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="112" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="105"/>
       <c r="L15" s="105"/>
       <c r="M15" s="105"/>
-      <c r="N15" s="111" t="s">
+      <c r="N15" s="112" t="s">
         <v>178</v>
       </c>
       <c r="O15" s="105"/>
@@ -3580,27 +3582,27 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="105"/>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="105"/>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="112" t="s">
         <v>184</v>
       </c>
       <c r="G16" s="105"/>
       <c r="H16" s="105"/>
       <c r="I16" s="105"/>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="112" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
       <c r="M16" s="105"/>
-      <c r="N16" s="111" t="s">
+      <c r="N16" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O16" s="105"/>
@@ -3615,27 +3617,27 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="105"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="105"/>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="112" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
       <c r="I17" s="105"/>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="112" t="s">
         <v>188</v>
       </c>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O17" s="105"/>
@@ -3652,27 +3654,27 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="105"/>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="105"/>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="112" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="105"/>
       <c r="H18" s="105"/>
       <c r="I18" s="105"/>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="112" t="s">
         <v>190</v>
       </c>
       <c r="K18" s="105"/>
       <c r="L18" s="105"/>
       <c r="M18" s="105"/>
-      <c r="N18" s="111" t="s">
+      <c r="N18" s="112" t="s">
         <v>169</v>
       </c>
       <c r="O18" s="105"/>
@@ -3687,27 +3689,27 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="105"/>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="112" t="s">
         <v>191</v>
       </c>
       <c r="G19" s="105"/>
       <c r="H19" s="105"/>
       <c r="I19" s="105"/>
-      <c r="J19" s="111" t="s">
+      <c r="J19" s="112" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="105"/>
       <c r="L19" s="105"/>
       <c r="M19" s="105"/>
-      <c r="N19" s="111" t="s">
+      <c r="N19" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O19" s="105"/>
@@ -3724,27 +3726,27 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="105"/>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="112" t="s">
         <v>193</v>
       </c>
       <c r="G20" s="105"/>
       <c r="H20" s="105"/>
       <c r="I20" s="105"/>
-      <c r="J20" s="111" t="s">
+      <c r="J20" s="112" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
       <c r="M20" s="105"/>
-      <c r="N20" s="111" t="s">
+      <c r="N20" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O20" s="105"/>
@@ -3759,27 +3761,27 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="105"/>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="111" t="s">
+      <c r="F21" s="112" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="105"/>
       <c r="H21" s="105"/>
       <c r="I21" s="105"/>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="112" t="s">
         <v>196</v>
       </c>
       <c r="K21" s="105"/>
       <c r="L21" s="105"/>
       <c r="M21" s="105"/>
-      <c r="N21" s="111" t="s">
+      <c r="N21" s="112" t="s">
         <v>197</v>
       </c>
       <c r="O21" s="105"/>
@@ -3794,27 +3796,27 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="105"/>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="112" t="s">
         <v>198</v>
       </c>
       <c r="G22" s="105"/>
       <c r="H22" s="105"/>
       <c r="I22" s="105"/>
-      <c r="J22" s="111" t="s">
+      <c r="J22" s="112" t="s">
         <v>199</v>
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="105"/>
       <c r="M22" s="105"/>
-      <c r="N22" s="111" t="s">
+      <c r="N22" s="112" t="s">
         <v>286</v>
       </c>
       <c r="O22" s="105"/>
@@ -3829,27 +3831,27 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="105"/>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="111" t="s">
+      <c r="F23" s="112" t="s">
         <v>200</v>
       </c>
       <c r="G23" s="105"/>
       <c r="H23" s="105"/>
       <c r="I23" s="105"/>
-      <c r="J23" s="111" t="s">
+      <c r="J23" s="112" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="105"/>
       <c r="L23" s="105"/>
       <c r="M23" s="105"/>
-      <c r="N23" s="111" t="s">
+      <c r="N23" s="112" t="s">
         <v>202</v>
       </c>
       <c r="O23" s="105"/>
@@ -3864,27 +3866,27 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="105"/>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="105"/>
-      <c r="F24" s="111" t="s">
+      <c r="F24" s="112" t="s">
         <v>255</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="105"/>
       <c r="I24" s="105"/>
-      <c r="J24" s="111" t="s">
+      <c r="J24" s="112" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="105"/>
       <c r="M24" s="105"/>
-      <c r="N24" s="111" t="s">
+      <c r="N24" s="112" t="s">
         <v>204</v>
       </c>
       <c r="O24" s="105"/>
@@ -3899,27 +3901,27 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="105"/>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="105"/>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="112" t="s">
         <v>205</v>
       </c>
       <c r="G25" s="105"/>
       <c r="H25" s="105"/>
       <c r="I25" s="105"/>
-      <c r="J25" s="111" t="s">
+      <c r="J25" s="112" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="105"/>
       <c r="L25" s="105"/>
       <c r="M25" s="105"/>
-      <c r="N25" s="111" t="s">
+      <c r="N25" s="112" t="s">
         <v>204</v>
       </c>
       <c r="O25" s="105"/>
@@ -3934,27 +3936,27 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="105"/>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="105"/>
-      <c r="F26" s="111" t="s">
+      <c r="F26" s="112" t="s">
         <v>207</v>
       </c>
       <c r="G26" s="105"/>
       <c r="H26" s="105"/>
       <c r="I26" s="105"/>
-      <c r="J26" s="111" t="s">
+      <c r="J26" s="112" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="105"/>
       <c r="L26" s="105"/>
       <c r="M26" s="105"/>
-      <c r="N26" s="111" t="s">
+      <c r="N26" s="112" t="s">
         <v>209</v>
       </c>
       <c r="O26" s="105"/>
@@ -3969,11 +3971,11 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="105"/>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="105"/>
@@ -4006,27 +4008,27 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="105"/>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="105"/>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="112" t="s">
         <v>227</v>
       </c>
       <c r="G28" s="105"/>
       <c r="H28" s="105"/>
       <c r="I28" s="105"/>
-      <c r="J28" s="111" t="s">
+      <c r="J28" s="112" t="s">
         <v>226</v>
       </c>
       <c r="K28" s="105"/>
       <c r="L28" s="105"/>
       <c r="M28" s="105"/>
-      <c r="N28" s="111" t="s">
+      <c r="N28" s="112" t="s">
         <v>212</v>
       </c>
       <c r="O28" s="105"/>
@@ -4041,27 +4043,27 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="105"/>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="105"/>
-      <c r="F29" s="111" t="s">
+      <c r="F29" s="112" t="s">
         <v>213</v>
       </c>
       <c r="G29" s="105"/>
       <c r="H29" s="105"/>
       <c r="I29" s="105"/>
-      <c r="J29" s="111" t="s">
+      <c r="J29" s="112" t="s">
         <v>214</v>
       </c>
       <c r="K29" s="105"/>
       <c r="L29" s="105"/>
       <c r="M29" s="105"/>
-      <c r="N29" s="111" t="s">
+      <c r="N29" s="112" t="s">
         <v>212</v>
       </c>
       <c r="O29" s="105"/>
@@ -4076,27 +4078,27 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="105"/>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="105"/>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="112" t="s">
         <v>215</v>
       </c>
       <c r="G30" s="105"/>
       <c r="H30" s="105"/>
       <c r="I30" s="105"/>
-      <c r="J30" s="111" t="s">
+      <c r="J30" s="112" t="s">
         <v>216</v>
       </c>
       <c r="K30" s="105"/>
       <c r="L30" s="105"/>
       <c r="M30" s="105"/>
-      <c r="N30" s="111" t="s">
+      <c r="N30" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O30" s="105"/>
@@ -4111,27 +4113,27 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="105"/>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="105"/>
-      <c r="F31" s="111" t="s">
+      <c r="F31" s="112" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="105"/>
       <c r="H31" s="105"/>
       <c r="I31" s="105"/>
-      <c r="J31" s="111" t="s">
+      <c r="J31" s="112" t="s">
         <v>218</v>
       </c>
       <c r="K31" s="105"/>
       <c r="L31" s="105"/>
       <c r="M31" s="105"/>
-      <c r="N31" s="111" t="s">
+      <c r="N31" s="112" t="s">
         <v>219</v>
       </c>
       <c r="O31" s="105"/>
@@ -4148,27 +4150,27 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="105"/>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="105"/>
-      <c r="F32" s="111" t="s">
+      <c r="F32" s="112" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="105"/>
       <c r="H32" s="105"/>
       <c r="I32" s="105"/>
-      <c r="J32" s="111" t="s">
+      <c r="J32" s="112" t="s">
         <v>221</v>
       </c>
       <c r="K32" s="105"/>
       <c r="L32" s="105"/>
       <c r="M32" s="105"/>
-      <c r="N32" s="111" t="s">
+      <c r="N32" s="112" t="s">
         <v>222</v>
       </c>
       <c r="O32" s="105"/>
@@ -4185,27 +4187,27 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="105"/>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="105"/>
-      <c r="F33" s="111" t="s">
+      <c r="F33" s="112" t="s">
         <v>223</v>
       </c>
       <c r="G33" s="105"/>
       <c r="H33" s="105"/>
       <c r="I33" s="105"/>
-      <c r="J33" s="111" t="s">
+      <c r="J33" s="112" t="s">
         <v>224</v>
       </c>
       <c r="K33" s="105"/>
       <c r="L33" s="105"/>
       <c r="M33" s="105"/>
-      <c r="N33" s="111" t="s">
+      <c r="N33" s="112" t="s">
         <v>212</v>
       </c>
       <c r="O33" s="105"/>
@@ -4220,27 +4222,27 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="105"/>
-      <c r="D34" s="111" t="s">
+      <c r="D34" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="105"/>
-      <c r="F34" s="111" t="s">
+      <c r="F34" s="112" t="s">
         <v>225</v>
       </c>
       <c r="G34" s="105"/>
       <c r="H34" s="105"/>
       <c r="I34" s="105"/>
-      <c r="J34" s="111" t="s">
+      <c r="J34" s="112" t="s">
         <v>228</v>
       </c>
       <c r="K34" s="105"/>
       <c r="L34" s="105"/>
       <c r="M34" s="105"/>
-      <c r="N34" s="111" t="s">
+      <c r="N34" s="112" t="s">
         <v>229</v>
       </c>
       <c r="O34" s="105"/>
@@ -4255,27 +4257,27 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="105"/>
-      <c r="D35" s="111" t="s">
+      <c r="D35" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="105"/>
-      <c r="F35" s="111" t="s">
+      <c r="F35" s="112" t="s">
         <v>258</v>
       </c>
       <c r="G35" s="105"/>
       <c r="H35" s="105"/>
       <c r="I35" s="105"/>
-      <c r="J35" s="111" t="s">
+      <c r="J35" s="112" t="s">
         <v>230</v>
       </c>
       <c r="K35" s="105"/>
       <c r="L35" s="105"/>
       <c r="M35" s="105"/>
-      <c r="N35" s="111" t="s">
+      <c r="N35" s="112" t="s">
         <v>229</v>
       </c>
       <c r="O35" s="105"/>
@@ -4290,21 +4292,21 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="105"/>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="105"/>
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="112" t="s">
         <v>248</v>
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="105"/>
       <c r="I36" s="105"/>
-      <c r="J36" s="111" t="s">
+      <c r="J36" s="112" t="s">
         <v>249</v>
       </c>
       <c r="K36" s="105"/>
@@ -4323,27 +4325,27 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="105"/>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="105"/>
-      <c r="F37" s="111" t="s">
+      <c r="F37" s="112" t="s">
         <v>231</v>
       </c>
       <c r="G37" s="105"/>
       <c r="H37" s="105"/>
       <c r="I37" s="105"/>
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="112" t="s">
         <v>232</v>
       </c>
       <c r="K37" s="105"/>
       <c r="L37" s="105"/>
       <c r="M37" s="105"/>
-      <c r="N37" s="111" t="s">
+      <c r="N37" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O37" s="105"/>
@@ -4360,27 +4362,27 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="105"/>
-      <c r="D38" s="111" t="s">
+      <c r="D38" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="105"/>
-      <c r="F38" s="111" t="s">
+      <c r="F38" s="112" t="s">
         <v>233</v>
       </c>
       <c r="G38" s="105"/>
       <c r="H38" s="105"/>
       <c r="I38" s="105"/>
-      <c r="J38" s="111" t="s">
+      <c r="J38" s="112" t="s">
         <v>234</v>
       </c>
       <c r="K38" s="105"/>
       <c r="L38" s="105"/>
       <c r="M38" s="105"/>
-      <c r="N38" s="111" t="s">
+      <c r="N38" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O38" s="105"/>
@@ -4395,27 +4397,27 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="105"/>
-      <c r="D39" s="111" t="s">
+      <c r="D39" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="105"/>
-      <c r="F39" s="111" t="s">
+      <c r="F39" s="112" t="s">
         <v>236</v>
       </c>
       <c r="G39" s="105"/>
       <c r="H39" s="105"/>
       <c r="I39" s="105"/>
-      <c r="J39" s="111" t="s">
+      <c r="J39" s="112" t="s">
         <v>235</v>
       </c>
       <c r="K39" s="105"/>
       <c r="L39" s="105"/>
       <c r="M39" s="105"/>
-      <c r="N39" s="111" t="s">
+      <c r="N39" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O39" s="105"/>
@@ -4430,27 +4432,27 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="105"/>
-      <c r="D40" s="111" t="s">
+      <c r="D40" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="105"/>
-      <c r="F40" s="111" t="s">
+      <c r="F40" s="112" t="s">
         <v>237</v>
       </c>
       <c r="G40" s="105"/>
       <c r="H40" s="105"/>
       <c r="I40" s="105"/>
-      <c r="J40" s="111" t="s">
+      <c r="J40" s="112" t="s">
         <v>238</v>
       </c>
       <c r="K40" s="105"/>
       <c r="L40" s="105"/>
       <c r="M40" s="105"/>
-      <c r="N40" s="111" t="s">
+      <c r="N40" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O40" s="105"/>
@@ -4465,27 +4467,27 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="105"/>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="105"/>
-      <c r="F41" s="111" t="s">
+      <c r="F41" s="112" t="s">
         <v>239</v>
       </c>
       <c r="G41" s="105"/>
       <c r="H41" s="105"/>
       <c r="I41" s="105"/>
-      <c r="J41" s="111" t="s">
+      <c r="J41" s="112" t="s">
         <v>240</v>
       </c>
       <c r="K41" s="105"/>
       <c r="L41" s="105"/>
       <c r="M41" s="105"/>
-      <c r="N41" s="111" t="s">
+      <c r="N41" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O41" s="105"/>
@@ -4500,27 +4502,27 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="111" t="s">
+      <c r="B42" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="105"/>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="105"/>
-      <c r="F42" s="111" t="s">
+      <c r="F42" s="112" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="105"/>
       <c r="H42" s="105"/>
       <c r="I42" s="105"/>
-      <c r="J42" s="111" t="s">
+      <c r="J42" s="112" t="s">
         <v>242</v>
       </c>
       <c r="K42" s="105"/>
       <c r="L42" s="105"/>
       <c r="M42" s="105"/>
-      <c r="N42" s="111" t="s">
+      <c r="N42" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O42" s="105"/>
@@ -4535,27 +4537,27 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="105"/>
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="105"/>
-      <c r="F43" s="111" t="s">
+      <c r="F43" s="112" t="s">
         <v>243</v>
       </c>
       <c r="G43" s="105"/>
       <c r="H43" s="105"/>
       <c r="I43" s="105"/>
-      <c r="J43" s="111" t="s">
+      <c r="J43" s="112" t="s">
         <v>244</v>
       </c>
       <c r="K43" s="105"/>
       <c r="L43" s="105"/>
       <c r="M43" s="105"/>
-      <c r="N43" s="111" t="s">
+      <c r="N43" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O43" s="105"/>
@@ -4570,11 +4572,11 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="105"/>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="105"/>
@@ -4584,13 +4586,13 @@
       <c r="G44" s="105"/>
       <c r="H44" s="105"/>
       <c r="I44" s="105"/>
-      <c r="J44" s="111" t="s">
+      <c r="J44" s="112" t="s">
         <v>245</v>
       </c>
       <c r="K44" s="105"/>
       <c r="L44" s="105"/>
       <c r="M44" s="105"/>
-      <c r="N44" s="111" t="s">
+      <c r="N44" s="112" t="s">
         <v>164</v>
       </c>
       <c r="O44" s="105"/>
@@ -4605,27 +4607,27 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="105"/>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="105"/>
-      <c r="F45" s="111" t="s">
+      <c r="F45" s="112" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="105"/>
       <c r="H45" s="105"/>
       <c r="I45" s="105"/>
-      <c r="J45" s="111" t="s">
+      <c r="J45" s="112" t="s">
         <v>247</v>
       </c>
       <c r="K45" s="105"/>
       <c r="L45" s="105"/>
       <c r="M45" s="105"/>
-      <c r="N45" s="111" t="s">
+      <c r="N45" s="112" t="s">
         <v>164</v>
       </c>
       <c r="O45" s="105"/>
@@ -4640,27 +4642,27 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="111" t="s">
+      <c r="B46" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="105"/>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="105"/>
-      <c r="F46" s="111" t="s">
+      <c r="F46" s="112" t="s">
         <v>250</v>
       </c>
       <c r="G46" s="105"/>
       <c r="H46" s="105"/>
       <c r="I46" s="105"/>
-      <c r="J46" s="111" t="s">
+      <c r="J46" s="112" t="s">
         <v>251</v>
       </c>
       <c r="K46" s="105"/>
       <c r="L46" s="105"/>
       <c r="M46" s="105"/>
-      <c r="N46" s="111" t="s">
+      <c r="N46" s="112" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="105"/>
@@ -4675,27 +4677,27 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="105"/>
-      <c r="D47" s="111" t="s">
+      <c r="D47" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="105"/>
-      <c r="F47" s="111" t="s">
+      <c r="F47" s="112" t="s">
         <v>253</v>
       </c>
       <c r="G47" s="105"/>
       <c r="H47" s="105"/>
       <c r="I47" s="105"/>
-      <c r="J47" s="111" t="s">
+      <c r="J47" s="112" t="s">
         <v>279</v>
       </c>
       <c r="K47" s="105"/>
       <c r="L47" s="105"/>
       <c r="M47" s="105"/>
-      <c r="N47" s="111" t="s">
+      <c r="N47" s="112" t="s">
         <v>254</v>
       </c>
       <c r="O47" s="105"/>
@@ -4712,31 +4714,31 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="105"/>
-      <c r="D48" s="111" t="s">
+      <c r="D48" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="105"/>
-      <c r="F48" s="111" t="s">
+      <c r="F48" s="112" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="105"/>
       <c r="H48" s="105"/>
       <c r="I48" s="105"/>
-      <c r="J48" s="111" t="s">
+      <c r="J48" s="112" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="105"/>
       <c r="L48" s="105"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="111" t="s">
+      <c r="N48" s="112" t="s">
         <v>11</v>
       </c>
       <c r="O48" s="105"/>
-      <c r="P48" s="111"/>
+      <c r="P48" s="112"/>
       <c r="Q48" s="105"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
@@ -4750,28 +4752,28 @@
       <c r="B49" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111" t="s">
+      <c r="C49" s="112"/>
+      <c r="D49" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111" t="s">
+      <c r="E49" s="112"/>
+      <c r="F49" s="112" t="s">
         <v>282</v>
       </c>
       <c r="G49" s="105"/>
       <c r="H49" s="105"/>
       <c r="I49" s="105"/>
-      <c r="J49" s="111" t="s">
+      <c r="J49" s="112" t="s">
         <v>283</v>
       </c>
       <c r="K49" s="105"/>
       <c r="L49" s="105"/>
       <c r="M49" s="105"/>
-      <c r="N49" s="111" t="s">
+      <c r="N49" s="112" t="s">
         <v>11</v>
       </c>
       <c r="O49" s="105"/>
-      <c r="P49" s="111"/>
+      <c r="P49" s="112"/>
       <c r="Q49" s="105"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
@@ -4786,27 +4788,27 @@
         <v>133</v>
       </c>
       <c r="C50" s="105"/>
-      <c r="D50" s="111" t="s">
+      <c r="D50" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="105"/>
-      <c r="F50" s="111" t="s">
+      <c r="F50" s="112" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="105"/>
       <c r="H50" s="105"/>
       <c r="I50" s="105"/>
-      <c r="J50" s="111" t="s">
+      <c r="J50" s="112" t="s">
         <v>110</v>
       </c>
       <c r="K50" s="105"/>
       <c r="L50" s="105"/>
       <c r="M50" s="105"/>
-      <c r="N50" s="111" t="s">
+      <c r="N50" s="112" t="s">
         <v>111</v>
       </c>
       <c r="O50" s="105"/>
-      <c r="P50" s="111"/>
+      <c r="P50" s="112"/>
       <c r="Q50" s="105"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
@@ -4821,27 +4823,27 @@
         <v>9</v>
       </c>
       <c r="C51" s="105"/>
-      <c r="D51" s="111" t="s">
+      <c r="D51" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="105"/>
-      <c r="F51" s="111" t="s">
+      <c r="F51" s="112" t="s">
         <v>109</v>
       </c>
       <c r="G51" s="105"/>
       <c r="H51" s="105"/>
       <c r="I51" s="105"/>
-      <c r="J51" s="111" t="s">
+      <c r="J51" s="112" t="s">
         <v>110</v>
       </c>
       <c r="K51" s="105"/>
       <c r="L51" s="105"/>
       <c r="M51" s="105"/>
-      <c r="N51" s="111" t="s">
+      <c r="N51" s="112" t="s">
         <v>114</v>
       </c>
       <c r="O51" s="105"/>
-      <c r="P51" s="111"/>
+      <c r="P51" s="112"/>
       <c r="Q51" s="105"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
@@ -4856,27 +4858,27 @@
         <v>9</v>
       </c>
       <c r="C52" s="105"/>
-      <c r="D52" s="111" t="s">
+      <c r="D52" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="105"/>
-      <c r="F52" s="111" t="s">
+      <c r="F52" s="112" t="s">
         <v>116</v>
       </c>
       <c r="G52" s="105"/>
       <c r="H52" s="105"/>
       <c r="I52" s="105"/>
-      <c r="J52" s="111" t="s">
+      <c r="J52" s="112" t="s">
         <v>117</v>
       </c>
       <c r="K52" s="105"/>
       <c r="L52" s="105"/>
       <c r="M52" s="105"/>
-      <c r="N52" s="111" t="s">
+      <c r="N52" s="112" t="s">
         <v>103</v>
       </c>
       <c r="O52" s="105"/>
-      <c r="P52" s="111"/>
+      <c r="P52" s="112"/>
       <c r="Q52" s="105"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
@@ -4891,7 +4893,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="105"/>
-      <c r="D53" s="111" t="s">
+      <c r="D53" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E53" s="105"/>
@@ -5093,31 +5095,31 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="111" t="s">
+      <c r="B59" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="105"/>
-      <c r="D59" s="111" t="s">
+      <c r="D59" s="112" t="s">
         <v>146</v>
       </c>
       <c r="E59" s="105"/>
-      <c r="F59" s="111" t="s">
+      <c r="F59" s="112" t="s">
         <v>288</v>
       </c>
       <c r="G59" s="105"/>
       <c r="H59" s="105"/>
       <c r="I59" s="105"/>
-      <c r="J59" s="111" t="s">
+      <c r="J59" s="112" t="s">
         <v>289</v>
       </c>
       <c r="K59" s="105"/>
       <c r="L59" s="105"/>
       <c r="M59" s="105"/>
-      <c r="N59" s="111" t="s">
+      <c r="N59" s="112" t="s">
         <v>129</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="111"/>
+      <c r="P59" s="112"/>
       <c r="Q59" s="105"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
@@ -5128,31 +5130,31 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="111" t="s">
+      <c r="B60" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="105"/>
-      <c r="D60" s="111" t="s">
+      <c r="D60" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="105"/>
-      <c r="F60" s="111" t="s">
+      <c r="F60" s="112" t="s">
         <v>147</v>
       </c>
       <c r="G60" s="105"/>
       <c r="H60" s="105"/>
       <c r="I60" s="105"/>
-      <c r="J60" s="111" t="s">
+      <c r="J60" s="112" t="s">
         <v>148</v>
       </c>
       <c r="K60" s="105"/>
       <c r="L60" s="105"/>
       <c r="M60" s="105"/>
-      <c r="N60" s="111" t="s">
+      <c r="N60" s="112" t="s">
         <v>129</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="111"/>
+      <c r="P60" s="112"/>
       <c r="Q60" s="105"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
@@ -5163,31 +5165,31 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="105"/>
-      <c r="D61" s="111" t="s">
+      <c r="D61" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="105"/>
-      <c r="F61" s="111" t="s">
+      <c r="F61" s="112" t="s">
         <v>290</v>
       </c>
       <c r="G61" s="105"/>
       <c r="H61" s="105"/>
       <c r="I61" s="105"/>
-      <c r="J61" s="111" t="s">
+      <c r="J61" s="112" t="s">
         <v>291</v>
       </c>
       <c r="K61" s="105"/>
       <c r="L61" s="105"/>
       <c r="M61" s="105"/>
-      <c r="N61" s="111" t="s">
+      <c r="N61" s="112" t="s">
         <v>149</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="111"/>
+      <c r="P61" s="112"/>
       <c r="Q61" s="105"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
@@ -5198,31 +5200,31 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C62" s="105"/>
-      <c r="D62" s="111" t="s">
+      <c r="D62" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="105"/>
-      <c r="F62" s="111" t="s">
+      <c r="F62" s="112" t="s">
         <v>150</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="105"/>
       <c r="I62" s="105"/>
-      <c r="J62" s="111" t="s">
+      <c r="J62" s="112" t="s">
         <v>151</v>
       </c>
       <c r="K62" s="105"/>
       <c r="L62" s="105"/>
       <c r="M62" s="105"/>
-      <c r="N62" s="111" t="s">
+      <c r="N62" s="112" t="s">
         <v>149</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="111"/>
+      <c r="P62" s="112"/>
       <c r="Q62" s="105"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
@@ -5235,31 +5237,31 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="105"/>
-      <c r="D63" s="111" t="s">
+      <c r="D63" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="105"/>
-      <c r="F63" s="111" t="s">
+      <c r="F63" s="112" t="s">
         <v>153</v>
       </c>
       <c r="G63" s="105"/>
       <c r="H63" s="105"/>
       <c r="I63" s="105"/>
-      <c r="J63" s="111" t="s">
+      <c r="J63" s="112" t="s">
         <v>152</v>
       </c>
       <c r="K63" s="105"/>
       <c r="L63" s="105"/>
       <c r="M63" s="105"/>
-      <c r="N63" s="111" t="s">
+      <c r="N63" s="112" t="s">
         <v>149</v>
       </c>
       <c r="O63" s="105"/>
-      <c r="P63" s="111"/>
+      <c r="P63" s="112"/>
       <c r="Q63" s="105"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
@@ -5270,31 +5272,31 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="105"/>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="105"/>
-      <c r="F64" s="111" t="s">
+      <c r="F64" s="112" t="s">
         <v>155</v>
       </c>
       <c r="G64" s="105"/>
       <c r="H64" s="105"/>
       <c r="I64" s="105"/>
-      <c r="J64" s="111" t="s">
+      <c r="J64" s="112" t="s">
         <v>156</v>
       </c>
       <c r="K64" s="105"/>
       <c r="L64" s="105"/>
       <c r="M64" s="105"/>
-      <c r="N64" s="111" t="s">
+      <c r="N64" s="112" t="s">
         <v>157</v>
       </c>
       <c r="O64" s="105"/>
-      <c r="P64" s="111"/>
+      <c r="P64" s="112"/>
       <c r="Q64" s="105"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
@@ -5305,31 +5307,31 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="112" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="105"/>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="105"/>
-      <c r="F65" s="111" t="s">
+      <c r="F65" s="112" t="s">
         <v>293</v>
       </c>
       <c r="G65" s="105"/>
       <c r="H65" s="105"/>
       <c r="I65" s="105"/>
-      <c r="J65" s="111" t="s">
+      <c r="J65" s="112" t="s">
         <v>294</v>
       </c>
       <c r="K65" s="105"/>
       <c r="L65" s="105"/>
       <c r="M65" s="105"/>
-      <c r="N65" s="111" t="s">
+      <c r="N65" s="112" t="s">
         <v>160</v>
       </c>
       <c r="O65" s="105"/>
-      <c r="P65" s="111"/>
+      <c r="P65" s="112"/>
       <c r="Q65" s="105"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
@@ -5340,11 +5342,11 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="105"/>
-      <c r="D66" s="111" t="s">
+      <c r="D66" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="105"/>
@@ -5360,11 +5362,11 @@
       <c r="K66" s="105"/>
       <c r="L66" s="105"/>
       <c r="M66" s="105"/>
-      <c r="N66" s="111" t="s">
+      <c r="N66" s="112" t="s">
         <v>16</v>
       </c>
       <c r="O66" s="105"/>
-      <c r="P66" s="111"/>
+      <c r="P66" s="112"/>
       <c r="Q66" s="105"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
@@ -5379,27 +5381,27 @@
         <v>133</v>
       </c>
       <c r="C67" s="105"/>
-      <c r="D67" s="111" t="s">
+      <c r="D67" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="105"/>
-      <c r="F67" s="111" t="s">
+      <c r="F67" s="112" t="s">
         <v>102</v>
       </c>
       <c r="G67" s="105"/>
       <c r="H67" s="105"/>
       <c r="I67" s="105"/>
-      <c r="J67" s="111" t="s">
+      <c r="J67" s="112" t="s">
         <v>101</v>
       </c>
       <c r="K67" s="105"/>
       <c r="L67" s="105"/>
       <c r="M67" s="105"/>
-      <c r="N67" s="111" t="s">
+      <c r="N67" s="112" t="s">
         <v>103</v>
       </c>
       <c r="O67" s="105"/>
-      <c r="P67" s="111"/>
+      <c r="P67" s="112"/>
       <c r="Q67" s="105"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
@@ -5414,7 +5416,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="105"/>
-      <c r="D68" s="111" t="s">
+      <c r="D68" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E68" s="105"/>
@@ -5424,17 +5426,17 @@
       <c r="G68" s="105"/>
       <c r="H68" s="105"/>
       <c r="I68" s="105"/>
-      <c r="J68" s="111" t="s">
+      <c r="J68" s="112" t="s">
         <v>108</v>
       </c>
       <c r="K68" s="105"/>
       <c r="L68" s="105"/>
       <c r="M68" s="105"/>
-      <c r="N68" s="111" t="s">
+      <c r="N68" s="112" t="s">
         <v>105</v>
       </c>
       <c r="O68" s="105"/>
-      <c r="P68" s="111"/>
+      <c r="P68" s="112"/>
       <c r="Q68" s="105"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
@@ -5451,7 +5453,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="105"/>
-      <c r="D69" s="111" t="s">
+      <c r="D69" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="105"/>
@@ -5467,11 +5469,11 @@
       <c r="K69" s="105"/>
       <c r="L69" s="105"/>
       <c r="M69" s="105"/>
-      <c r="N69" s="111" t="s">
+      <c r="N69" s="112" t="s">
         <v>115</v>
       </c>
       <c r="O69" s="105"/>
-      <c r="P69" s="111"/>
+      <c r="P69" s="112"/>
       <c r="Q69" s="105"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
@@ -5536,48 +5538,48 @@
       <c r="Q72" s="103"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="114" t="s">
+      <c r="A73" s="106" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="115"/>
-      <c r="M73" s="115"/>
-      <c r="N73" s="115"/>
-      <c r="O73" s="115"/>
-      <c r="P73" s="115"/>
-      <c r="Q73" s="115"/>
-      <c r="R73" s="115"/>
-      <c r="S73" s="116"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="107"/>
+      <c r="O73" s="107"/>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="108"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="117"/>
-      <c r="B74" s="118"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
-      <c r="K74" s="118"/>
-      <c r="L74" s="118"/>
-      <c r="M74" s="118"/>
-      <c r="N74" s="118"/>
-      <c r="O74" s="118"/>
-      <c r="P74" s="118"/>
-      <c r="Q74" s="118"/>
-      <c r="R74" s="118"/>
-      <c r="S74" s="119"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="110"/>
+      <c r="N74" s="110"/>
+      <c r="O74" s="110"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="110"/>
+      <c r="R74" s="110"/>
+      <c r="S74" s="111"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B75" s="103"/>
@@ -5601,32 +5603,32 @@
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="108" t="s">
+      <c r="B76" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108" t="s">
+      <c r="C76" s="113"/>
+      <c r="D76" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="108"/>
-      <c r="F76" s="108" t="s">
+      <c r="E76" s="113"/>
+      <c r="F76" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="108"/>
-      <c r="H76" s="108"/>
-      <c r="I76" s="108"/>
-      <c r="J76" s="108" t="s">
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="108"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="108"/>
-      <c r="N76" s="108" t="s">
+      <c r="K76" s="113"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="108"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="108"/>
+      <c r="O76" s="113"/>
+      <c r="P76" s="113"/>
+      <c r="Q76" s="113"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5636,32 +5638,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108" t="s">
+      <c r="C77" s="113"/>
+      <c r="D77" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108" t="s">
+      <c r="E77" s="113"/>
+      <c r="F77" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108" t="s">
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="108"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108" t="s">
+      <c r="K77" s="113"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
-      <c r="Q77" s="108"/>
+      <c r="O77" s="113"/>
+      <c r="P77" s="113"/>
+      <c r="Q77" s="113"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5671,32 +5673,32 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="108" t="s">
+      <c r="B78" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108" t="s">
+      <c r="C78" s="113"/>
+      <c r="D78" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="108"/>
-      <c r="F78" s="108" t="s">
+      <c r="E78" s="113"/>
+      <c r="F78" s="113" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="108"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="108" t="s">
+      <c r="G78" s="113"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="108"/>
-      <c r="L78" s="108"/>
-      <c r="M78" s="108"/>
-      <c r="N78" s="108" t="s">
+      <c r="K78" s="113"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
+      <c r="N78" s="113" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="108"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="108"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="113"/>
+      <c r="Q78" s="113"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5706,32 +5708,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="108" t="s">
+      <c r="B79" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="108"/>
-      <c r="D79" s="108" t="s">
+      <c r="C79" s="113"/>
+      <c r="D79" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="108"/>
-      <c r="F79" s="108" t="s">
+      <c r="E79" s="113"/>
+      <c r="F79" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="108"/>
-      <c r="H79" s="108"/>
-      <c r="I79" s="108"/>
-      <c r="J79" s="108" t="s">
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="108"/>
-      <c r="L79" s="108"/>
-      <c r="M79" s="108"/>
-      <c r="N79" s="108" t="s">
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="108"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="113"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5741,32 +5743,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="108" t="s">
+      <c r="B80" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108" t="s">
+      <c r="C80" s="113"/>
+      <c r="D80" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108" t="s">
+      <c r="E80" s="113"/>
+      <c r="F80" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="108"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="108" t="s">
+      <c r="G80" s="113"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="108"/>
-      <c r="L80" s="108"/>
-      <c r="M80" s="108"/>
-      <c r="N80" s="108" t="s">
+      <c r="K80" s="113"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="113"/>
+      <c r="N80" s="113" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="108"/>
-      <c r="P80" s="108"/>
-      <c r="Q80" s="108"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="113"/>
+      <c r="Q80" s="113"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5776,32 +5778,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="108" t="s">
+      <c r="B81" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108" t="s">
+      <c r="C81" s="113"/>
+      <c r="D81" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108" t="s">
+      <c r="E81" s="113"/>
+      <c r="F81" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="108"/>
-      <c r="H81" s="108"/>
-      <c r="I81" s="108"/>
-      <c r="J81" s="108" t="s">
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="108"/>
-      <c r="L81" s="108"/>
-      <c r="M81" s="108"/>
-      <c r="N81" s="108" t="s">
+      <c r="K81" s="113"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="108"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="108"/>
+      <c r="O81" s="113"/>
+      <c r="P81" s="113"/>
+      <c r="Q81" s="113"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5811,32 +5813,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="108" t="s">
+      <c r="B82" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108" t="s">
+      <c r="C82" s="113"/>
+      <c r="D82" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108" t="s">
+      <c r="E82" s="113"/>
+      <c r="F82" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="108"/>
-      <c r="H82" s="108"/>
-      <c r="I82" s="108"/>
-      <c r="J82" s="108" t="s">
+      <c r="G82" s="113"/>
+      <c r="H82" s="113"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="108"/>
-      <c r="L82" s="108"/>
-      <c r="M82" s="108"/>
-      <c r="N82" s="108" t="s">
+      <c r="K82" s="113"/>
+      <c r="L82" s="113"/>
+      <c r="M82" s="113"/>
+      <c r="N82" s="113" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="108"/>
-      <c r="P82" s="108"/>
-      <c r="Q82" s="108"/>
+      <c r="O82" s="113"/>
+      <c r="P82" s="113"/>
+      <c r="Q82" s="113"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5846,32 +5848,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="108" t="s">
+      <c r="B83" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108" t="s">
+      <c r="C83" s="113"/>
+      <c r="D83" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="108"/>
-      <c r="F83" s="120" t="s">
+      <c r="E83" s="113"/>
+      <c r="F83" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="122"/>
-      <c r="H83" s="122"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="120" t="s">
+      <c r="G83" s="116"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="115"/>
+      <c r="J83" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="122"/>
-      <c r="L83" s="122"/>
-      <c r="M83" s="121"/>
-      <c r="N83" s="120" t="s">
+      <c r="K83" s="116"/>
+      <c r="L83" s="116"/>
+      <c r="M83" s="115"/>
+      <c r="N83" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="121"/>
-      <c r="P83" s="108"/>
-      <c r="Q83" s="108"/>
+      <c r="O83" s="115"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="113"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5883,32 +5885,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="108" t="s">
+      <c r="B84" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108" t="s">
+      <c r="C84" s="113"/>
+      <c r="D84" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108" t="s">
+      <c r="E84" s="113"/>
+      <c r="F84" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="108"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108" t="s">
+      <c r="G84" s="113"/>
+      <c r="H84" s="113"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="108"/>
-      <c r="L84" s="108"/>
-      <c r="M84" s="108"/>
-      <c r="N84" s="108" t="s">
+      <c r="K84" s="113"/>
+      <c r="L84" s="113"/>
+      <c r="M84" s="113"/>
+      <c r="N84" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="108"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
+      <c r="O84" s="113"/>
+      <c r="P84" s="113"/>
+      <c r="Q84" s="113"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5918,32 +5920,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="108" t="s">
+      <c r="B85" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108" t="s">
+      <c r="C85" s="113"/>
+      <c r="D85" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108" t="s">
+      <c r="E85" s="113"/>
+      <c r="F85" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="108"/>
-      <c r="H85" s="108"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="108" t="s">
+      <c r="G85" s="113"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="108"/>
-      <c r="L85" s="108"/>
-      <c r="M85" s="108"/>
-      <c r="N85" s="108" t="s">
+      <c r="K85" s="113"/>
+      <c r="L85" s="113"/>
+      <c r="M85" s="113"/>
+      <c r="N85" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="108"/>
-      <c r="P85" s="108"/>
-      <c r="Q85" s="108"/>
+      <c r="O85" s="113"/>
+      <c r="P85" s="113"/>
+      <c r="Q85" s="113"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5953,32 +5955,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="108" t="s">
+      <c r="B86" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108" t="s">
+      <c r="C86" s="113"/>
+      <c r="D86" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108" t="s">
+      <c r="E86" s="113"/>
+      <c r="F86" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="108"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="108" t="s">
+      <c r="G86" s="113"/>
+      <c r="H86" s="113"/>
+      <c r="I86" s="113"/>
+      <c r="J86" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="108"/>
-      <c r="L86" s="108"/>
-      <c r="M86" s="108"/>
-      <c r="N86" s="108" t="s">
+      <c r="K86" s="113"/>
+      <c r="L86" s="113"/>
+      <c r="M86" s="113"/>
+      <c r="N86" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="108"/>
-      <c r="P86" s="108"/>
-      <c r="Q86" s="108"/>
+      <c r="O86" s="113"/>
+      <c r="P86" s="113"/>
+      <c r="Q86" s="113"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -5988,32 +5990,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="108" t="s">
+      <c r="B87" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108" t="s">
+      <c r="C87" s="113"/>
+      <c r="D87" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108" t="s">
+      <c r="E87" s="113"/>
+      <c r="F87" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="108" t="s">
+      <c r="G87" s="113"/>
+      <c r="H87" s="113"/>
+      <c r="I87" s="113"/>
+      <c r="J87" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="108"/>
-      <c r="L87" s="108"/>
-      <c r="M87" s="108"/>
-      <c r="N87" s="108" t="s">
+      <c r="K87" s="113"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="113"/>
+      <c r="N87" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="108"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
+      <c r="O87" s="113"/>
+      <c r="P87" s="113"/>
+      <c r="Q87" s="113"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6023,32 +6025,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="108" t="s">
+      <c r="B88" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108" t="s">
+      <c r="C88" s="113"/>
+      <c r="D88" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108" t="s">
+      <c r="E88" s="113"/>
+      <c r="F88" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="108"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="108" t="s">
+      <c r="G88" s="113"/>
+      <c r="H88" s="113"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="108"/>
-      <c r="L88" s="108"/>
-      <c r="M88" s="108"/>
-      <c r="N88" s="108" t="s">
+      <c r="K88" s="113"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="113"/>
+      <c r="N88" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="108"/>
-      <c r="P88" s="108"/>
-      <c r="Q88" s="108"/>
+      <c r="O88" s="113"/>
+      <c r="P88" s="113"/>
+      <c r="Q88" s="113"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6058,32 +6060,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="108" t="s">
+      <c r="B89" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="108"/>
-      <c r="D89" s="108" t="s">
+      <c r="C89" s="113"/>
+      <c r="D89" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108" t="s">
+      <c r="E89" s="113"/>
+      <c r="F89" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="108"/>
-      <c r="H89" s="108"/>
-      <c r="I89" s="108"/>
-      <c r="J89" s="108" t="s">
+      <c r="G89" s="113"/>
+      <c r="H89" s="113"/>
+      <c r="I89" s="113"/>
+      <c r="J89" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="108"/>
-      <c r="L89" s="108"/>
-      <c r="M89" s="108"/>
-      <c r="N89" s="108" t="s">
+      <c r="K89" s="113"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="108"/>
-      <c r="P89" s="108"/>
-      <c r="Q89" s="108"/>
+      <c r="O89" s="113"/>
+      <c r="P89" s="113"/>
+      <c r="Q89" s="113"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6095,36 +6097,38 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="109" t="s">
+      <c r="B90" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="110"/>
-      <c r="D90" s="109" t="s">
+      <c r="C90" s="120"/>
+      <c r="D90" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="110"/>
-      <c r="F90" s="109" t="s">
+      <c r="E90" s="120"/>
+      <c r="F90" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="110"/>
-      <c r="H90" s="110"/>
-      <c r="I90" s="110"/>
-      <c r="J90" s="109" t="s">
+      <c r="G90" s="120"/>
+      <c r="H90" s="120"/>
+      <c r="I90" s="120"/>
+      <c r="J90" s="119" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="110"/>
-      <c r="L90" s="110"/>
-      <c r="M90" s="110"/>
-      <c r="N90" s="109" t="s">
+      <c r="K90" s="120"/>
+      <c r="L90" s="120"/>
+      <c r="M90" s="120"/>
+      <c r="N90" s="119" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="110"/>
-      <c r="P90" s="110"/>
-      <c r="Q90" s="110"/>
+      <c r="O90" s="120"/>
+      <c r="P90" s="120"/>
+      <c r="Q90" s="120"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="S90" s="65"/>
+      <c r="S90" s="123" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="91" spans="1:144" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="55">
@@ -6289,32 +6293,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="106" t="s">
+      <c r="B92" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="107"/>
-      <c r="D92" s="106" t="s">
+      <c r="C92" s="122"/>
+      <c r="D92" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="107"/>
-      <c r="F92" s="106" t="s">
+      <c r="E92" s="122"/>
+      <c r="F92" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="107"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="107"/>
-      <c r="J92" s="106" t="s">
+      <c r="G92" s="122"/>
+      <c r="H92" s="122"/>
+      <c r="I92" s="122"/>
+      <c r="J92" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="107"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="107"/>
-      <c r="N92" s="106" t="s">
+      <c r="K92" s="122"/>
+      <c r="L92" s="122"/>
+      <c r="M92" s="122"/>
+      <c r="N92" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="107"/>
-      <c r="P92" s="107"/>
-      <c r="Q92" s="107"/>
+      <c r="O92" s="122"/>
+      <c r="P92" s="122"/>
+      <c r="Q92" s="122"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6797,48 +6801,48 @@
       <c r="Q103" s="103"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="114" t="s">
+      <c r="A104" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="115"/>
-      <c r="C104" s="115"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="115"/>
-      <c r="F104" s="115"/>
-      <c r="G104" s="115"/>
-      <c r="H104" s="115"/>
-      <c r="I104" s="115"/>
-      <c r="J104" s="115"/>
-      <c r="K104" s="115"/>
-      <c r="L104" s="115"/>
-      <c r="M104" s="115"/>
-      <c r="N104" s="115"/>
-      <c r="O104" s="115"/>
-      <c r="P104" s="115"/>
-      <c r="Q104" s="115"/>
-      <c r="R104" s="115"/>
-      <c r="S104" s="116"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="107"/>
+      <c r="O104" s="107"/>
+      <c r="P104" s="107"/>
+      <c r="Q104" s="107"/>
+      <c r="R104" s="107"/>
+      <c r="S104" s="108"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="117"/>
-      <c r="B105" s="118"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="118"/>
-      <c r="E105" s="118"/>
-      <c r="F105" s="118"/>
-      <c r="G105" s="118"/>
-      <c r="H105" s="118"/>
-      <c r="I105" s="118"/>
-      <c r="J105" s="118"/>
-      <c r="K105" s="118"/>
-      <c r="L105" s="118"/>
-      <c r="M105" s="118"/>
-      <c r="N105" s="118"/>
-      <c r="O105" s="118"/>
-      <c r="P105" s="118"/>
-      <c r="Q105" s="118"/>
-      <c r="R105" s="118"/>
-      <c r="S105" s="119"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="110"/>
+      <c r="J105" s="110"/>
+      <c r="K105" s="110"/>
+      <c r="L105" s="110"/>
+      <c r="M105" s="110"/>
+      <c r="N105" s="110"/>
+      <c r="O105" s="110"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="110"/>
+      <c r="R105" s="110"/>
+      <c r="S105" s="111"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B106" s="103"/>
@@ -7267,6 +7271,681 @@
     </row>
   </sheetData>
   <mergeCells count="699">
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A3:S4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:I70"/>
@@ -7291,681 +7970,6 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="J72:M72"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A3:S4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7982,7 +7986,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8011,12 +8015,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8048,12 +8052,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -8065,19 +8069,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8089,19 +8093,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="102"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8113,19 +8117,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="102"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8144,12 +8148,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8161,12 +8165,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="98" t="s">
+      <c r="H11" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8179,12 +8183,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8196,12 +8200,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8213,12 +8217,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8230,12 +8234,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8247,12 +8251,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8262,12 +8266,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="95" t="s">
+      <c r="H17" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="72" t="s">
         <v>22</v>
       </c>
@@ -8279,12 +8283,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="74" t="s">
         <v>34</v>
       </c>
@@ -8313,12 +8317,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="96" t="s">
+      <c r="H20" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8331,12 +8335,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -8346,12 +8350,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -8363,12 +8367,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8380,12 +8384,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -8395,12 +8399,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8412,12 +8416,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8429,12 +8433,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8444,12 +8448,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8461,12 +8465,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8483,12 +8487,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8500,12 +8504,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
       <c r="L33" s="72" t="s">
         <v>33</v>
       </c>
@@ -8517,12 +8521,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8534,12 +8538,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="80" t="s">
+      <c r="H35" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8551,12 +8555,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8568,12 +8572,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -8585,12 +8589,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8602,12 +8606,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="82" t="s">
+      <c r="H39" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8617,12 +8621,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="83" t="s">
+      <c r="H40" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8634,12 +8638,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8649,12 +8653,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="83" t="s">
+      <c r="H42" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8666,12 +8670,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="80" t="s">
+      <c r="H43" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8688,12 +8692,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -8705,12 +8709,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
       <c r="L47" s="72" t="s">
         <v>33</v>
       </c>
@@ -8722,12 +8726,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="82" t="s">
+      <c r="H48" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8737,12 +8741,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8754,12 +8758,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="82" t="s">
+      <c r="H50" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8769,12 +8773,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="80" t="s">
+      <c r="H51" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8786,12 +8790,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="80" t="s">
+      <c r="H52" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8804,6 +8808,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
@@ -8816,38 +8852,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="12750" windowHeight="9195" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18180" windowHeight="10245" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="Sheet1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Classify" guid="{5D21309E-F946-4F4C-8709-AAB8612F09E9}" includeHiddenRowCol="0" maximized="1" windowWidth="1276" windowHeight="821" activeSheetId="4"/>
   </customWorkbookViews>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1800,75 +1801,78 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1878,6 +1882,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1896,12 +1924,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1909,27 +1931,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2237,7 +2238,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -2266,12 +2267,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2320,19 +2321,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2344,19 +2345,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2368,19 +2369,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="81"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2399,12 +2400,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2416,12 +2417,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2434,12 +2435,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2451,12 +2452,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2468,12 +2469,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2485,12 +2486,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2502,12 +2503,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +2518,7 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="96" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="82"/>
@@ -2534,7 +2535,7 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="96" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="82"/>
@@ -2568,12 +2569,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="101" t="s">
+      <c r="H20" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2586,12 +2587,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2601,12 +2602,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2618,12 +2619,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2635,12 +2636,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2650,12 +2651,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="98" t="s">
+      <c r="H25" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2667,12 +2668,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2684,12 +2685,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2699,12 +2700,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2716,12 +2717,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2772,12 +2773,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2789,12 +2790,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2806,12 +2807,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2840,12 +2841,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="92" t="s">
+      <c r="H38" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2857,12 +2858,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2872,12 +2873,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="94" t="s">
+      <c r="H40" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2889,12 +2890,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2904,12 +2905,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="94" t="s">
+      <c r="H42" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2921,12 +2922,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2977,12 +2978,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2992,12 +2993,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="94" t="s">
+      <c r="H49" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3009,12 +3010,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3024,12 +3025,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3041,12 +3042,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="83" t="s">
+      <c r="H52" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3059,19 +3060,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3088,21 +3091,19 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3121,8 +3122,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="S90" sqref="S90"/>
+    <sheetView tabSelected="1" topLeftCell="H45" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3138,135 +3139,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="108"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="111"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117" t="s">
+      <c r="E6" s="113"/>
+      <c r="F6" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117" t="s">
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117" t="s">
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="118"/>
+      <c r="Q6" s="114"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3275,53 +3276,53 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="104" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="104" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="104" t="s">
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="104" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
@@ -3331,32 +3332,32 @@
       <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="104" t="s">
+      <c r="C9" s="106"/>
+      <c r="D9" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="104" t="s">
+      <c r="E9" s="106"/>
+      <c r="F9" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="104" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="104" t="s">
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
       <c r="R9" s="56" t="s">
         <v>18</v>
       </c>
@@ -3366,32 +3367,32 @@
       <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="104" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="104" t="s">
+      <c r="E10" s="106"/>
+      <c r="F10" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="104" t="s">
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="104" t="s">
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
       <c r="R10" s="56" t="s">
         <v>18</v>
       </c>
@@ -3403,32 +3404,32 @@
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="104" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="104" t="s">
+      <c r="E11" s="106"/>
+      <c r="F11" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="104" t="s">
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="104" t="s">
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
       <c r="R11" s="56" t="s">
         <v>18</v>
       </c>
@@ -3440,32 +3441,32 @@
       <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="104" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="104" t="s">
+      <c r="E12" s="106"/>
+      <c r="F12" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="104" t="s">
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="104" t="s">
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
       <c r="R12" s="56" t="s">
         <v>18</v>
       </c>
@@ -3475,32 +3476,32 @@
       <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="104" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="104" t="s">
+      <c r="E13" s="106"/>
+      <c r="F13" s="105" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="104" t="s">
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="104" t="s">
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
       <c r="R13" s="56" t="s">
         <v>18</v>
       </c>
@@ -3512,32 +3513,32 @@
       <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="104" t="s">
+      <c r="C14" s="106"/>
+      <c r="D14" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="104" t="s">
+      <c r="E14" s="106"/>
+      <c r="F14" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="104" t="s">
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="104" t="s">
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
       <c r="R14" s="56" t="s">
         <v>18</v>
       </c>
@@ -3550,29 +3551,29 @@
       <c r="B15" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
       <c r="N15" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
       <c r="R15" s="54" t="s">
         <v>18</v>
       </c>
@@ -3585,29 +3586,29 @@
       <c r="B16" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="105"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
       <c r="N16" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
       <c r="R16" s="54" t="s">
         <v>18</v>
       </c>
@@ -3620,29 +3621,29 @@
       <c r="B17" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="105"/>
+      <c r="E17" s="106"/>
       <c r="F17" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
       <c r="N17" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
       <c r="R17" s="54" t="s">
         <v>18</v>
       </c>
@@ -3657,29 +3658,29 @@
       <c r="B18" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="105"/>
+      <c r="E18" s="106"/>
       <c r="F18" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
       <c r="R18" s="54" t="s">
         <v>18</v>
       </c>
@@ -3692,29 +3693,29 @@
       <c r="B19" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="105"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
       <c r="J19" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
       <c r="N19" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
       <c r="R19" s="54" t="s">
         <v>18</v>
       </c>
@@ -3729,29 +3730,29 @@
       <c r="B20" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="105"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="105"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
       <c r="R20" s="54" t="s">
         <v>18</v>
       </c>
@@ -3764,29 +3765,29 @@
       <c r="B21" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="105"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="105"/>
+      <c r="E21" s="106"/>
       <c r="F21" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
       <c r="N21" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
       <c r="R21" s="54" t="s">
         <v>18</v>
       </c>
@@ -3799,29 +3800,29 @@
       <c r="B22" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="105"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="105"/>
+      <c r="E22" s="106"/>
       <c r="F22" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
       <c r="N22" s="112" t="s">
         <v>286</v>
       </c>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="105"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
       <c r="R22" s="54" t="s">
         <v>18</v>
       </c>
@@ -3834,29 +3835,29 @@
       <c r="B23" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="105"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
       <c r="J23" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
       <c r="N23" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
       <c r="R23" s="54" t="s">
         <v>18</v>
       </c>
@@ -3869,29 +3870,29 @@
       <c r="B24" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="105"/>
+      <c r="E24" s="106"/>
       <c r="F24" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
       <c r="N24" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
       <c r="R24" s="54" t="s">
         <v>18</v>
       </c>
@@ -3904,29 +3905,29 @@
       <c r="B25" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="105"/>
+      <c r="E25" s="106"/>
       <c r="F25" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
       <c r="N25" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
       <c r="R25" s="54" t="s">
         <v>18</v>
       </c>
@@ -3939,29 +3940,29 @@
       <c r="B26" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="105"/>
+      <c r="E26" s="106"/>
       <c r="F26" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
       <c r="N26" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
       <c r="R26" s="54" t="s">
         <v>18</v>
       </c>
@@ -3974,29 +3975,29 @@
       <c r="B27" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="104" t="s">
+      <c r="E27" s="106"/>
+      <c r="F27" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="104" t="s">
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="104" t="s">
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
       <c r="R27" s="56" t="s">
         <v>18</v>
       </c>
@@ -4011,29 +4012,29 @@
       <c r="B28" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="105"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="105"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
       <c r="J28" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
       <c r="N28" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
       <c r="R28" s="54" t="s">
         <v>18</v>
       </c>
@@ -4046,29 +4047,29 @@
       <c r="B29" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="105"/>
+      <c r="E29" s="106"/>
       <c r="F29" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
       <c r="R29" s="54" t="s">
         <v>18</v>
       </c>
@@ -4081,29 +4082,29 @@
       <c r="B30" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="105"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
       <c r="J30" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
       <c r="N30" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
       <c r="R30" s="54" t="s">
         <v>18</v>
       </c>
@@ -4116,29 +4117,29 @@
       <c r="B31" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="105"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="105"/>
+      <c r="E31" s="106"/>
       <c r="F31" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
       <c r="J31" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
       <c r="N31" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
       <c r="R31" s="54" t="s">
         <v>18</v>
       </c>
@@ -4153,29 +4154,29 @@
       <c r="B32" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="105"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="105"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
       <c r="J32" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
       <c r="N32" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
       <c r="R32" s="54" t="s">
         <v>18</v>
       </c>
@@ -4190,29 +4191,29 @@
       <c r="B33" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="105"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="105"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
       <c r="J33" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
       <c r="R33" s="54" t="s">
         <v>97</v>
       </c>
@@ -4225,29 +4226,29 @@
       <c r="B34" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="105"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="105"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
       <c r="J34" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
       <c r="N34" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
       <c r="R34" s="54" t="s">
         <v>18</v>
       </c>
@@ -4260,29 +4261,29 @@
       <c r="B35" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="105"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
       <c r="J35" s="112" t="s">
         <v>230</v>
       </c>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
       <c r="N35" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
       <c r="R35" s="54" t="s">
         <v>18</v>
       </c>
@@ -4295,27 +4296,27 @@
       <c r="B36" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="105"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="105"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
       <c r="J36" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
       <c r="R36" s="54" t="s">
         <v>18</v>
       </c>
@@ -4328,29 +4329,29 @@
       <c r="B37" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="105"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
       <c r="J37" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
       <c r="N37" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
       <c r="R37" s="54" t="s">
         <v>18</v>
       </c>
@@ -4365,29 +4366,29 @@
       <c r="B38" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="105"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="105"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
       <c r="J38" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
       <c r="N38" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
       <c r="R38" s="54" t="s">
         <v>18</v>
       </c>
@@ -4400,29 +4401,29 @@
       <c r="B39" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="105"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="105"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
       <c r="J39" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
       <c r="R39" s="54" t="s">
         <v>18</v>
       </c>
@@ -4435,29 +4436,29 @@
       <c r="B40" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="105"/>
+      <c r="C40" s="106"/>
       <c r="D40" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="105"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
       <c r="J40" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
       <c r="N40" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
       <c r="R40" s="54" t="s">
         <v>18</v>
       </c>
@@ -4470,29 +4471,29 @@
       <c r="B41" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="105"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="105"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
       <c r="N41" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
       <c r="R41" s="54" t="s">
         <v>18</v>
       </c>
@@ -4505,29 +4506,29 @@
       <c r="B42" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="105"/>
+      <c r="E42" s="106"/>
       <c r="F42" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
       <c r="J42" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
       <c r="R42" s="54" t="s">
         <v>18</v>
       </c>
@@ -4540,29 +4541,29 @@
       <c r="B43" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="105"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="105"/>
+      <c r="E43" s="106"/>
       <c r="F43" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
       <c r="J43" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
       <c r="N43" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
       <c r="R43" s="54" t="s">
         <v>18</v>
       </c>
@@ -4575,29 +4576,29 @@
       <c r="B44" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="105"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="104" t="s">
+      <c r="E44" s="106"/>
+      <c r="F44" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
       <c r="J44" s="112" t="s">
         <v>245</v>
       </c>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
       <c r="R44" s="54" t="s">
         <v>18</v>
       </c>
@@ -4610,29 +4611,29 @@
       <c r="B45" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="105"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="105"/>
+      <c r="E45" s="106"/>
       <c r="F45" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
       <c r="J45" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
       <c r="R45" s="54" t="s">
         <v>18</v>
       </c>
@@ -4645,33 +4646,35 @@
       <c r="B46" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="105"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="105"/>
+      <c r="E46" s="106"/>
       <c r="F46" s="112" t="s">
         <v>250</v>
       </c>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
       <c r="J46" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106"/>
       <c r="N46" s="112" t="s">
         <v>252</v>
       </c>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
       <c r="R46" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="55"/>
+      <c r="S46" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="55">
@@ -4680,29 +4683,29 @@
       <c r="B47" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="105"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="105"/>
+      <c r="E47" s="106"/>
       <c r="F47" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
       <c r="J47" s="112" t="s">
         <v>279</v>
       </c>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
       <c r="N47" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
       <c r="R47" s="54" t="s">
         <v>18</v>
       </c>
@@ -4717,29 +4720,29 @@
       <c r="B48" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="105"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="105"/>
+      <c r="E48" s="106"/>
       <c r="F48" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
       <c r="N48" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="105"/>
+      <c r="O48" s="106"/>
       <c r="P48" s="112"/>
-      <c r="Q48" s="105"/>
+      <c r="Q48" s="106"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
       </c>
@@ -4749,7 +4752,7 @@
       <c r="A49" s="55">
         <v>42</v>
       </c>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="112"/>
@@ -4760,21 +4763,21 @@
       <c r="F49" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
       <c r="J49" s="112" t="s">
         <v>283</v>
       </c>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
       <c r="N49" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="105"/>
+      <c r="O49" s="106"/>
       <c r="P49" s="112"/>
-      <c r="Q49" s="105"/>
+      <c r="Q49" s="106"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
       </c>
@@ -4784,32 +4787,32 @@
       <c r="A50" s="55">
         <v>43</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="105"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="105"/>
+      <c r="E50" s="106"/>
       <c r="F50" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
       <c r="J50" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
       <c r="N50" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="105"/>
+      <c r="O50" s="106"/>
       <c r="P50" s="112"/>
-      <c r="Q50" s="105"/>
+      <c r="Q50" s="106"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
       </c>
@@ -4819,32 +4822,32 @@
       <c r="A51" s="55">
         <v>44</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="105"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="105"/>
+      <c r="E51" s="106"/>
       <c r="F51" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
       <c r="J51" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
       <c r="N51" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="O51" s="105"/>
+      <c r="O51" s="106"/>
       <c r="P51" s="112"/>
-      <c r="Q51" s="105"/>
+      <c r="Q51" s="106"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
       </c>
@@ -4854,32 +4857,32 @@
       <c r="A52" s="55">
         <v>45</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="105"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="105"/>
+      <c r="E52" s="106"/>
       <c r="F52" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
       <c r="J52" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
       <c r="N52" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="O52" s="105"/>
+      <c r="O52" s="106"/>
       <c r="P52" s="112"/>
-      <c r="Q52" s="105"/>
+      <c r="Q52" s="106"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
       </c>
@@ -4889,32 +4892,32 @@
       <c r="A53" s="55">
         <v>46</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="105"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="105"/>
-      <c r="F53" s="104" t="s">
+      <c r="E53" s="106"/>
+      <c r="F53" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="104" t="s">
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="104" t="s">
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="105"/>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="105"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="106"/>
       <c r="R53" s="56" t="s">
         <v>97</v>
       </c>
@@ -4924,30 +4927,30 @@
       <c r="A54" s="55">
         <v>47</v>
       </c>
-      <c r="B54" s="104" t="s">
+      <c r="B54" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="104" t="s">
+      <c r="C54" s="106"/>
+      <c r="D54" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="105"/>
-      <c r="F54" s="104" t="s">
+      <c r="E54" s="106"/>
+      <c r="F54" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="104" t="s">
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="105"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="106"/>
       <c r="R54" s="56" t="s">
         <v>97</v>
       </c>
@@ -4957,30 +4960,30 @@
       <c r="A55" s="55">
         <v>48</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="104" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="105"/>
-      <c r="F55" s="104" t="s">
+      <c r="E55" s="106"/>
+      <c r="F55" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="104" t="s">
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="105"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="105"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="106"/>
       <c r="R55" s="56" t="s">
         <v>97</v>
       </c>
@@ -4990,32 +4993,32 @@
       <c r="A56" s="55">
         <v>49</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="104" t="s">
+      <c r="C56" s="106"/>
+      <c r="D56" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="105"/>
-      <c r="F56" s="104" t="s">
+      <c r="E56" s="106"/>
+      <c r="F56" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="104" t="s">
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="104" t="s">
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="O56" s="105"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="105"/>
+      <c r="O56" s="106"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="106"/>
       <c r="R56" s="56" t="s">
         <v>97</v>
       </c>
@@ -5025,32 +5028,32 @@
       <c r="A57" s="55">
         <v>50</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="104" t="s">
+      <c r="C57" s="106"/>
+      <c r="D57" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="105"/>
-      <c r="F57" s="104" t="s">
+      <c r="E57" s="106"/>
+      <c r="F57" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="104" t="s">
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="104" t="s">
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="O57" s="105"/>
-      <c r="P57" s="104"/>
-      <c r="Q57" s="105"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="106"/>
       <c r="R57" s="56" t="s">
         <v>97</v>
       </c>
@@ -5060,32 +5063,32 @@
       <c r="A58" s="55">
         <v>51</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="104" t="s">
+      <c r="C58" s="106"/>
+      <c r="D58" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="105"/>
-      <c r="F58" s="104" t="s">
+      <c r="E58" s="106"/>
+      <c r="F58" s="105" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="104" t="s">
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="104" t="s">
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
       <c r="R58" s="56" t="s">
         <v>18</v>
       </c>
@@ -5098,29 +5101,29 @@
       <c r="B59" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="105"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="105"/>
+      <c r="E59" s="106"/>
       <c r="F59" s="112" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
       <c r="J59" s="112" t="s">
         <v>289</v>
       </c>
-      <c r="K59" s="105"/>
-      <c r="L59" s="105"/>
-      <c r="M59" s="105"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
       <c r="N59" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="O59" s="105"/>
+      <c r="O59" s="106"/>
       <c r="P59" s="112"/>
-      <c r="Q59" s="105"/>
+      <c r="Q59" s="106"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
       </c>
@@ -5133,29 +5136,29 @@
       <c r="B60" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="105"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="105"/>
+      <c r="E60" s="106"/>
       <c r="F60" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
       <c r="J60" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="105"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
       <c r="N60" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="O60" s="105"/>
+      <c r="O60" s="106"/>
       <c r="P60" s="112"/>
-      <c r="Q60" s="105"/>
+      <c r="Q60" s="106"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
       </c>
@@ -5168,29 +5171,29 @@
       <c r="B61" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="105"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="105"/>
+      <c r="E61" s="106"/>
       <c r="F61" s="112" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
       <c r="J61" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="K61" s="105"/>
-      <c r="L61" s="105"/>
-      <c r="M61" s="105"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="106"/>
       <c r="N61" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="O61" s="105"/>
+      <c r="O61" s="106"/>
       <c r="P61" s="112"/>
-      <c r="Q61" s="105"/>
+      <c r="Q61" s="106"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
       </c>
@@ -5203,29 +5206,29 @@
       <c r="B62" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="105"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="105"/>
+      <c r="E62" s="106"/>
       <c r="F62" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
       <c r="J62" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
       <c r="N62" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="O62" s="105"/>
+      <c r="O62" s="106"/>
       <c r="P62" s="112"/>
-      <c r="Q62" s="105"/>
+      <c r="Q62" s="106"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
       </c>
@@ -5240,29 +5243,29 @@
       <c r="B63" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="105"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="105"/>
+      <c r="E63" s="106"/>
       <c r="F63" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
       <c r="J63" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="105"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="106"/>
       <c r="N63" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="105"/>
+      <c r="O63" s="106"/>
       <c r="P63" s="112"/>
-      <c r="Q63" s="105"/>
+      <c r="Q63" s="106"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
       </c>
@@ -5275,29 +5278,29 @@
       <c r="B64" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="105"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="105"/>
+      <c r="E64" s="106"/>
       <c r="F64" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
       <c r="J64" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
-      <c r="M64" s="105"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
       <c r="N64" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="O64" s="105"/>
+      <c r="O64" s="106"/>
       <c r="P64" s="112"/>
-      <c r="Q64" s="105"/>
+      <c r="Q64" s="106"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
       </c>
@@ -5310,29 +5313,29 @@
       <c r="B65" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="105"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="105"/>
+      <c r="E65" s="106"/>
       <c r="F65" s="112" t="s">
         <v>293</v>
       </c>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
       <c r="J65" s="112" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="105"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="105"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="106"/>
       <c r="N65" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="O65" s="105"/>
+      <c r="O65" s="106"/>
       <c r="P65" s="112"/>
-      <c r="Q65" s="105"/>
+      <c r="Q65" s="106"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
       </c>
@@ -5345,29 +5348,29 @@
       <c r="B66" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="105"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="105"/>
-      <c r="F66" s="104" t="s">
+      <c r="E66" s="106"/>
+      <c r="F66" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="104" t="s">
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="105"/>
-      <c r="L66" s="105"/>
-      <c r="M66" s="105"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
       <c r="N66" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="105"/>
+      <c r="O66" s="106"/>
       <c r="P66" s="112"/>
-      <c r="Q66" s="105"/>
+      <c r="Q66" s="106"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
       </c>
@@ -5377,32 +5380,32 @@
       <c r="A67" s="55">
         <v>60</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="105"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="105"/>
+      <c r="E67" s="106"/>
       <c r="F67" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
       <c r="J67" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="105"/>
-      <c r="L67" s="105"/>
-      <c r="M67" s="105"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="106"/>
       <c r="N67" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="O67" s="105"/>
+      <c r="O67" s="106"/>
       <c r="P67" s="112"/>
-      <c r="Q67" s="105"/>
+      <c r="Q67" s="106"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
       </c>
@@ -5412,32 +5415,32 @@
       <c r="A68" s="55">
         <v>61</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="105"/>
+      <c r="C68" s="106"/>
       <c r="D68" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="105"/>
-      <c r="F68" s="104" t="s">
+      <c r="E68" s="106"/>
+      <c r="F68" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
+      <c r="I68" s="106"/>
       <c r="J68" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="105"/>
-      <c r="L68" s="105"/>
-      <c r="M68" s="105"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="106"/>
+      <c r="M68" s="106"/>
       <c r="N68" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="O68" s="105"/>
+      <c r="O68" s="106"/>
       <c r="P68" s="112"/>
-      <c r="Q68" s="105"/>
+      <c r="Q68" s="106"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
       </c>
@@ -5449,32 +5452,32 @@
       <c r="A69" s="55">
         <v>62</v>
       </c>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="105"/>
+      <c r="C69" s="106"/>
       <c r="D69" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="105"/>
-      <c r="F69" s="104" t="s">
+      <c r="E69" s="106"/>
+      <c r="F69" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="104" t="s">
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="105"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
       <c r="N69" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="O69" s="105"/>
+      <c r="O69" s="106"/>
       <c r="P69" s="112"/>
-      <c r="Q69" s="105"/>
+      <c r="Q69" s="106"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
       </c>
@@ -5484,151 +5487,151 @@
       <c r="V69" s="22"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="103"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="104"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="103"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="103"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="103"/>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="103"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
     </row>
     <row r="72" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="103"/>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="103"/>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="103"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="104"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="104"/>
+      <c r="Q72" s="104"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="107"/>
-      <c r="M73" s="107"/>
-      <c r="N73" s="107"/>
-      <c r="O73" s="107"/>
-      <c r="P73" s="107"/>
-      <c r="Q73" s="107"/>
-      <c r="R73" s="107"/>
-      <c r="S73" s="108"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
+      <c r="O73" s="116"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="116"/>
+      <c r="R73" s="116"/>
+      <c r="S73" s="117"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="110"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="110"/>
-      <c r="L74" s="110"/>
-      <c r="M74" s="110"/>
-      <c r="N74" s="110"/>
-      <c r="O74" s="110"/>
-      <c r="P74" s="110"/>
-      <c r="Q74" s="110"/>
-      <c r="R74" s="110"/>
-      <c r="S74" s="111"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="119"/>
+      <c r="K74" s="119"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="119"/>
+      <c r="O74" s="119"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="119"/>
+      <c r="S74" s="120"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="103"/>
-      <c r="N75" s="103"/>
-      <c r="O75" s="103"/>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="103"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="104"/>
+      <c r="O75" s="104"/>
+      <c r="P75" s="104"/>
+      <c r="Q75" s="104"/>
     </row>
     <row r="76" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="113" t="s">
+      <c r="B76" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113" t="s">
+      <c r="C76" s="109"/>
+      <c r="D76" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113" t="s">
+      <c r="E76" s="109"/>
+      <c r="F76" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="113"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="113" t="s">
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="113"/>
-      <c r="L76" s="113"/>
-      <c r="M76" s="113"/>
-      <c r="N76" s="113" t="s">
+      <c r="K76" s="109"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="113"/>
-      <c r="P76" s="113"/>
-      <c r="Q76" s="113"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5638,32 +5641,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="113" t="s">
+      <c r="B77" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113" t="s">
+      <c r="C77" s="109"/>
+      <c r="D77" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="113"/>
-      <c r="F77" s="113" t="s">
+      <c r="E77" s="109"/>
+      <c r="F77" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="113"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113" t="s">
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="113"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="113"/>
-      <c r="N77" s="113" t="s">
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="109"/>
+      <c r="N77" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="113"/>
-      <c r="P77" s="113"/>
-      <c r="Q77" s="113"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="109"/>
+      <c r="Q77" s="109"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5673,32 +5676,32 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="113" t="s">
+      <c r="B78" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113" t="s">
+      <c r="C78" s="109"/>
+      <c r="D78" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="113"/>
-      <c r="F78" s="113" t="s">
+      <c r="E78" s="109"/>
+      <c r="F78" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="113"/>
-      <c r="H78" s="113"/>
-      <c r="I78" s="113"/>
-      <c r="J78" s="113" t="s">
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109"/>
+      <c r="J78" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="113"/>
-      <c r="L78" s="113"/>
-      <c r="M78" s="113"/>
-      <c r="N78" s="113" t="s">
+      <c r="K78" s="109"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="113"/>
-      <c r="P78" s="113"/>
-      <c r="Q78" s="113"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5708,32 +5711,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="113" t="s">
+      <c r="B79" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113" t="s">
+      <c r="C79" s="109"/>
+      <c r="D79" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113" t="s">
+      <c r="E79" s="109"/>
+      <c r="F79" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="113"/>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113"/>
-      <c r="J79" s="113" t="s">
+      <c r="G79" s="109"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="113"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="113"/>
-      <c r="N79" s="113" t="s">
+      <c r="K79" s="109"/>
+      <c r="L79" s="109"/>
+      <c r="M79" s="109"/>
+      <c r="N79" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="113"/>
-      <c r="P79" s="113"/>
-      <c r="Q79" s="113"/>
+      <c r="O79" s="109"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="109"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5743,32 +5746,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="113" t="s">
+      <c r="B80" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113" t="s">
+      <c r="C80" s="109"/>
+      <c r="D80" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="113"/>
-      <c r="F80" s="113" t="s">
+      <c r="E80" s="109"/>
+      <c r="F80" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="113"/>
-      <c r="H80" s="113"/>
-      <c r="I80" s="113"/>
-      <c r="J80" s="113" t="s">
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="113"/>
-      <c r="L80" s="113"/>
-      <c r="M80" s="113"/>
-      <c r="N80" s="113" t="s">
+      <c r="K80" s="109"/>
+      <c r="L80" s="109"/>
+      <c r="M80" s="109"/>
+      <c r="N80" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="113"/>
-      <c r="P80" s="113"/>
-      <c r="Q80" s="113"/>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5778,32 +5781,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="113" t="s">
+      <c r="B81" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113" t="s">
+      <c r="C81" s="109"/>
+      <c r="D81" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113" t="s">
+      <c r="E81" s="109"/>
+      <c r="F81" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113" t="s">
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="113"/>
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="113" t="s">
+      <c r="K81" s="109"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="109"/>
+      <c r="N81" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="113"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="113"/>
+      <c r="O81" s="109"/>
+      <c r="P81" s="109"/>
+      <c r="Q81" s="109"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5813,32 +5816,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="113" t="s">
+      <c r="B82" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113" t="s">
+      <c r="C82" s="109"/>
+      <c r="D82" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113" t="s">
+      <c r="E82" s="109"/>
+      <c r="F82" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="113"/>
-      <c r="H82" s="113"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="113" t="s">
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="113"/>
-      <c r="L82" s="113"/>
-      <c r="M82" s="113"/>
-      <c r="N82" s="113" t="s">
+      <c r="K82" s="109"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="113"/>
-      <c r="P82" s="113"/>
-      <c r="Q82" s="113"/>
+      <c r="O82" s="109"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="109"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5848,32 +5851,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="113" t="s">
+      <c r="B83" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113" t="s">
+      <c r="C83" s="109"/>
+      <c r="D83" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="113"/>
-      <c r="F83" s="114" t="s">
+      <c r="E83" s="109"/>
+      <c r="F83" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="114" t="s">
+      <c r="G83" s="123"/>
+      <c r="H83" s="123"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116"/>
-      <c r="M83" s="115"/>
-      <c r="N83" s="114" t="s">
+      <c r="K83" s="123"/>
+      <c r="L83" s="123"/>
+      <c r="M83" s="122"/>
+      <c r="N83" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="115"/>
-      <c r="P83" s="113"/>
-      <c r="Q83" s="113"/>
+      <c r="O83" s="122"/>
+      <c r="P83" s="109"/>
+      <c r="Q83" s="109"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5885,32 +5888,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="113" t="s">
+      <c r="B84" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113" t="s">
+      <c r="C84" s="109"/>
+      <c r="D84" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="113"/>
-      <c r="F84" s="113" t="s">
+      <c r="E84" s="109"/>
+      <c r="F84" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="113"/>
-      <c r="H84" s="113"/>
-      <c r="I84" s="113"/>
-      <c r="J84" s="113" t="s">
+      <c r="G84" s="109"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="113"/>
-      <c r="L84" s="113"/>
-      <c r="M84" s="113"/>
-      <c r="N84" s="113" t="s">
+      <c r="K84" s="109"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="113"/>
-      <c r="P84" s="113"/>
-      <c r="Q84" s="113"/>
+      <c r="O84" s="109"/>
+      <c r="P84" s="109"/>
+      <c r="Q84" s="109"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5920,32 +5923,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="113" t="s">
+      <c r="B85" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="113"/>
-      <c r="D85" s="113" t="s">
+      <c r="C85" s="109"/>
+      <c r="D85" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113" t="s">
+      <c r="E85" s="109"/>
+      <c r="F85" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="113"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="113" t="s">
+      <c r="G85" s="109"/>
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="113"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="113"/>
-      <c r="N85" s="113" t="s">
+      <c r="K85" s="109"/>
+      <c r="L85" s="109"/>
+      <c r="M85" s="109"/>
+      <c r="N85" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="113"/>
-      <c r="P85" s="113"/>
-      <c r="Q85" s="113"/>
+      <c r="O85" s="109"/>
+      <c r="P85" s="109"/>
+      <c r="Q85" s="109"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5955,32 +5958,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="113" t="s">
+      <c r="B86" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="113"/>
-      <c r="D86" s="113" t="s">
+      <c r="C86" s="109"/>
+      <c r="D86" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="113"/>
-      <c r="F86" s="113" t="s">
+      <c r="E86" s="109"/>
+      <c r="F86" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="113"/>
-      <c r="H86" s="113"/>
-      <c r="I86" s="113"/>
-      <c r="J86" s="113" t="s">
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="109"/>
+      <c r="J86" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="113"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="113"/>
-      <c r="N86" s="113" t="s">
+      <c r="K86" s="109"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="113"/>
-      <c r="P86" s="113"/>
-      <c r="Q86" s="113"/>
+      <c r="O86" s="109"/>
+      <c r="P86" s="109"/>
+      <c r="Q86" s="109"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -5990,32 +5993,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="113" t="s">
+      <c r="B87" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113" t="s">
+      <c r="C87" s="109"/>
+      <c r="D87" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113" t="s">
+      <c r="E87" s="109"/>
+      <c r="F87" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="113"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="113"/>
-      <c r="J87" s="113" t="s">
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="113"/>
-      <c r="L87" s="113"/>
-      <c r="M87" s="113"/>
-      <c r="N87" s="113" t="s">
+      <c r="K87" s="109"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="109"/>
+      <c r="N87" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="113"/>
-      <c r="P87" s="113"/>
-      <c r="Q87" s="113"/>
+      <c r="O87" s="109"/>
+      <c r="P87" s="109"/>
+      <c r="Q87" s="109"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6025,32 +6028,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="113" t="s">
+      <c r="B88" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113" t="s">
+      <c r="C88" s="109"/>
+      <c r="D88" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113" t="s">
+      <c r="E88" s="109"/>
+      <c r="F88" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="113"/>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="113" t="s">
+      <c r="G88" s="109"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="113"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="113"/>
-      <c r="N88" s="113" t="s">
+      <c r="K88" s="109"/>
+      <c r="L88" s="109"/>
+      <c r="M88" s="109"/>
+      <c r="N88" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="113"/>
-      <c r="P88" s="113"/>
-      <c r="Q88" s="113"/>
+      <c r="O88" s="109"/>
+      <c r="P88" s="109"/>
+      <c r="Q88" s="109"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6060,32 +6063,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="113" t="s">
+      <c r="B89" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113" t="s">
+      <c r="C89" s="109"/>
+      <c r="D89" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="113"/>
-      <c r="F89" s="113" t="s">
+      <c r="E89" s="109"/>
+      <c r="F89" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="113" t="s">
+      <c r="G89" s="109"/>
+      <c r="H89" s="109"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="113"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113" t="s">
+      <c r="K89" s="109"/>
+      <c r="L89" s="109"/>
+      <c r="M89" s="109"/>
+      <c r="N89" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="113"/>
-      <c r="P89" s="113"/>
-      <c r="Q89" s="113"/>
+      <c r="O89" s="109"/>
+      <c r="P89" s="109"/>
+      <c r="Q89" s="109"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6097,36 +6100,36 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="119" t="s">
+      <c r="B90" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="120"/>
-      <c r="D90" s="119" t="s">
+      <c r="C90" s="111"/>
+      <c r="D90" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="120"/>
-      <c r="F90" s="119" t="s">
+      <c r="E90" s="111"/>
+      <c r="F90" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="120"/>
-      <c r="H90" s="120"/>
-      <c r="I90" s="120"/>
-      <c r="J90" s="119" t="s">
+      <c r="G90" s="111"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="110" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="120"/>
-      <c r="L90" s="120"/>
-      <c r="M90" s="120"/>
-      <c r="N90" s="119" t="s">
+      <c r="K90" s="111"/>
+      <c r="L90" s="111"/>
+      <c r="M90" s="111"/>
+      <c r="N90" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="120"/>
-      <c r="P90" s="120"/>
-      <c r="Q90" s="120"/>
+      <c r="O90" s="111"/>
+      <c r="P90" s="111"/>
+      <c r="Q90" s="111"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="S90" s="123" t="s">
+      <c r="S90" s="80" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6134,32 +6137,32 @@
       <c r="A91" s="55">
         <v>78</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B91" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="105"/>
-      <c r="D91" s="104" t="s">
+      <c r="C91" s="106"/>
+      <c r="D91" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="105"/>
-      <c r="F91" s="104" t="s">
+      <c r="E91" s="106"/>
+      <c r="F91" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="G91" s="105"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="105"/>
-      <c r="J91" s="104" t="s">
+      <c r="G91" s="106"/>
+      <c r="H91" s="106"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="K91" s="105"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="105"/>
-      <c r="N91" s="104" t="s">
+      <c r="K91" s="106"/>
+      <c r="L91" s="106"/>
+      <c r="M91" s="106"/>
+      <c r="N91" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="O91" s="105"/>
-      <c r="P91" s="105"/>
-      <c r="Q91" s="105"/>
+      <c r="O91" s="106"/>
+      <c r="P91" s="106"/>
+      <c r="Q91" s="106"/>
       <c r="R91" s="56" t="s">
         <v>18</v>
       </c>
@@ -6293,32 +6296,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="121" t="s">
+      <c r="B92" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="122"/>
-      <c r="D92" s="121" t="s">
+      <c r="C92" s="108"/>
+      <c r="D92" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="122"/>
-      <c r="F92" s="121" t="s">
+      <c r="E92" s="108"/>
+      <c r="F92" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="122"/>
-      <c r="H92" s="122"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="121" t="s">
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="122"/>
-      <c r="L92" s="122"/>
-      <c r="M92" s="122"/>
-      <c r="N92" s="121" t="s">
+      <c r="K92" s="108"/>
+      <c r="L92" s="108"/>
+      <c r="M92" s="108"/>
+      <c r="N92" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="122"/>
-      <c r="P92" s="122"/>
-      <c r="Q92" s="122"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="108"/>
+      <c r="Q92" s="108"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6453,32 +6456,32 @@
       <c r="A93" s="55">
         <v>80</v>
       </c>
-      <c r="B93" s="104" t="s">
+      <c r="B93" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="105"/>
-      <c r="D93" s="104" t="s">
+      <c r="C93" s="106"/>
+      <c r="D93" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="105"/>
-      <c r="F93" s="104" t="s">
+      <c r="E93" s="106"/>
+      <c r="F93" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="104" t="s">
+      <c r="G93" s="106"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
-      <c r="N93" s="104" t="s">
+      <c r="K93" s="106"/>
+      <c r="L93" s="106"/>
+      <c r="M93" s="106"/>
+      <c r="N93" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="O93" s="105"/>
-      <c r="P93" s="105"/>
-      <c r="Q93" s="105"/>
+      <c r="O93" s="106"/>
+      <c r="P93" s="106"/>
+      <c r="Q93" s="106"/>
       <c r="R93" s="56" t="s">
         <v>18</v>
       </c>
@@ -6488,32 +6491,32 @@
       <c r="A94" s="55">
         <v>81</v>
       </c>
-      <c r="B94" s="104" t="s">
+      <c r="B94" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="105"/>
-      <c r="D94" s="104" t="s">
+      <c r="C94" s="106"/>
+      <c r="D94" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="105"/>
-      <c r="F94" s="104" t="s">
+      <c r="E94" s="106"/>
+      <c r="F94" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="105"/>
-      <c r="H94" s="105"/>
-      <c r="I94" s="105"/>
-      <c r="J94" s="104" t="s">
+      <c r="G94" s="106"/>
+      <c r="H94" s="106"/>
+      <c r="I94" s="106"/>
+      <c r="J94" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="105"/>
-      <c r="L94" s="105"/>
-      <c r="M94" s="105"/>
-      <c r="N94" s="104" t="s">
+      <c r="K94" s="106"/>
+      <c r="L94" s="106"/>
+      <c r="M94" s="106"/>
+      <c r="N94" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="105"/>
-      <c r="P94" s="105"/>
-      <c r="Q94" s="105"/>
+      <c r="O94" s="106"/>
+      <c r="P94" s="106"/>
+      <c r="Q94" s="106"/>
       <c r="R94" s="56" t="s">
         <v>18</v>
       </c>
@@ -6523,32 +6526,32 @@
       <c r="A95" s="55">
         <v>82</v>
       </c>
-      <c r="B95" s="104" t="s">
+      <c r="B95" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="105"/>
-      <c r="D95" s="104" t="s">
+      <c r="C95" s="106"/>
+      <c r="D95" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="105"/>
-      <c r="F95" s="104" t="s">
+      <c r="E95" s="106"/>
+      <c r="F95" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="G95" s="105"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="105"/>
-      <c r="J95" s="104" t="s">
+      <c r="G95" s="106"/>
+      <c r="H95" s="106"/>
+      <c r="I95" s="106"/>
+      <c r="J95" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="K95" s="105"/>
-      <c r="L95" s="105"/>
-      <c r="M95" s="105"/>
-      <c r="N95" s="104" t="s">
+      <c r="K95" s="106"/>
+      <c r="L95" s="106"/>
+      <c r="M95" s="106"/>
+      <c r="N95" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O95" s="105"/>
-      <c r="P95" s="105"/>
-      <c r="Q95" s="105"/>
+      <c r="O95" s="106"/>
+      <c r="P95" s="106"/>
+      <c r="Q95" s="106"/>
       <c r="R95" s="56" t="s">
         <v>18</v>
       </c>
@@ -6558,32 +6561,32 @@
       <c r="A96" s="55">
         <v>83</v>
       </c>
-      <c r="B96" s="104" t="s">
+      <c r="B96" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="105"/>
-      <c r="D96" s="104" t="s">
+      <c r="C96" s="106"/>
+      <c r="D96" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="105"/>
-      <c r="F96" s="104" t="s">
+      <c r="E96" s="106"/>
+      <c r="F96" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="G96" s="105"/>
-      <c r="H96" s="105"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="104" t="s">
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
+      <c r="I96" s="106"/>
+      <c r="J96" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="K96" s="105"/>
-      <c r="L96" s="105"/>
-      <c r="M96" s="105"/>
-      <c r="N96" s="104" t="s">
+      <c r="K96" s="106"/>
+      <c r="L96" s="106"/>
+      <c r="M96" s="106"/>
+      <c r="N96" s="105" t="s">
         <v>319</v>
       </c>
-      <c r="O96" s="105"/>
-      <c r="P96" s="105"/>
-      <c r="Q96" s="105"/>
+      <c r="O96" s="106"/>
+      <c r="P96" s="106"/>
+      <c r="Q96" s="106"/>
       <c r="R96" s="56" t="s">
         <v>18</v>
       </c>
@@ -6593,32 +6596,32 @@
       <c r="A97" s="55">
         <v>84</v>
       </c>
-      <c r="B97" s="104" t="s">
+      <c r="B97" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="105"/>
-      <c r="D97" s="104" t="s">
+      <c r="C97" s="106"/>
+      <c r="D97" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="105"/>
-      <c r="F97" s="104" t="s">
+      <c r="E97" s="106"/>
+      <c r="F97" s="105" t="s">
         <v>320</v>
       </c>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="104" t="s">
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="105" t="s">
         <v>321</v>
       </c>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="105"/>
-      <c r="N97" s="104" t="s">
+      <c r="K97" s="106"/>
+      <c r="L97" s="106"/>
+      <c r="M97" s="106"/>
+      <c r="N97" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="O97" s="105"/>
-      <c r="P97" s="105"/>
-      <c r="Q97" s="105"/>
+      <c r="O97" s="106"/>
+      <c r="P97" s="106"/>
+      <c r="Q97" s="106"/>
       <c r="R97" s="56" t="s">
         <v>18</v>
       </c>
@@ -6628,32 +6631,32 @@
       <c r="A98" s="55">
         <v>85</v>
       </c>
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="105"/>
-      <c r="D98" s="104" t="s">
+      <c r="C98" s="106"/>
+      <c r="D98" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="105"/>
-      <c r="F98" s="104" t="s">
+      <c r="E98" s="106"/>
+      <c r="F98" s="105" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="105"/>
-      <c r="H98" s="105"/>
-      <c r="I98" s="105"/>
-      <c r="J98" s="104" t="s">
+      <c r="G98" s="106"/>
+      <c r="H98" s="106"/>
+      <c r="I98" s="106"/>
+      <c r="J98" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="K98" s="105"/>
-      <c r="L98" s="105"/>
-      <c r="M98" s="105"/>
-      <c r="N98" s="104" t="s">
+      <c r="K98" s="106"/>
+      <c r="L98" s="106"/>
+      <c r="M98" s="106"/>
+      <c r="N98" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="O98" s="105"/>
-      <c r="P98" s="105"/>
-      <c r="Q98" s="105"/>
+      <c r="O98" s="106"/>
+      <c r="P98" s="106"/>
+      <c r="Q98" s="106"/>
       <c r="R98" s="56" t="s">
         <v>18</v>
       </c>
@@ -6663,32 +6666,32 @@
       <c r="A99" s="55">
         <v>86</v>
       </c>
-      <c r="B99" s="104" t="s">
+      <c r="B99" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="105"/>
-      <c r="D99" s="104" t="s">
+      <c r="C99" s="106"/>
+      <c r="D99" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="105"/>
-      <c r="F99" s="104" t="s">
+      <c r="E99" s="106"/>
+      <c r="F99" s="105" t="s">
         <v>326</v>
       </c>
-      <c r="G99" s="105"/>
-      <c r="H99" s="105"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="104" t="s">
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
+      <c r="I99" s="106"/>
+      <c r="J99" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="K99" s="105"/>
-      <c r="L99" s="105"/>
-      <c r="M99" s="105"/>
-      <c r="N99" s="104" t="s">
+      <c r="K99" s="106"/>
+      <c r="L99" s="106"/>
+      <c r="M99" s="106"/>
+      <c r="N99" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="O99" s="105"/>
-      <c r="P99" s="105"/>
-      <c r="Q99" s="105"/>
+      <c r="O99" s="106"/>
+      <c r="P99" s="106"/>
+      <c r="Q99" s="106"/>
       <c r="R99" s="56" t="s">
         <v>18</v>
       </c>
@@ -6698,32 +6701,32 @@
       <c r="A100" s="55">
         <v>87</v>
       </c>
-      <c r="B100" s="104" t="s">
+      <c r="B100" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="105"/>
-      <c r="D100" s="104" t="s">
+      <c r="C100" s="106"/>
+      <c r="D100" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="105"/>
-      <c r="F100" s="104" t="s">
+      <c r="E100" s="106"/>
+      <c r="F100" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="104" t="s">
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
-      <c r="M100" s="105"/>
-      <c r="N100" s="104" t="s">
+      <c r="K100" s="106"/>
+      <c r="L100" s="106"/>
+      <c r="M100" s="106"/>
+      <c r="N100" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="O100" s="105"/>
-      <c r="P100" s="105"/>
-      <c r="Q100" s="105"/>
+      <c r="O100" s="106"/>
+      <c r="P100" s="106"/>
+      <c r="Q100" s="106"/>
       <c r="R100" s="56" t="s">
         <v>18</v>
       </c>
@@ -6733,165 +6736,165 @@
       <c r="A101" s="55">
         <v>88</v>
       </c>
-      <c r="B101" s="104" t="s">
+      <c r="B101" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="105"/>
-      <c r="D101" s="104" t="s">
+      <c r="C101" s="106"/>
+      <c r="D101" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="105"/>
-      <c r="F101" s="104" t="s">
+      <c r="E101" s="106"/>
+      <c r="F101" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="104" t="s">
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="105" t="s">
         <v>331</v>
       </c>
-      <c r="K101" s="105"/>
-      <c r="L101" s="105"/>
-      <c r="M101" s="105"/>
-      <c r="N101" s="104" t="s">
+      <c r="K101" s="106"/>
+      <c r="L101" s="106"/>
+      <c r="M101" s="106"/>
+      <c r="N101" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="O101" s="105"/>
-      <c r="P101" s="105"/>
-      <c r="Q101" s="105"/>
+      <c r="O101" s="106"/>
+      <c r="P101" s="106"/>
+      <c r="Q101" s="106"/>
       <c r="R101" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S101" s="55"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B102" s="103"/>
-      <c r="C102" s="103"/>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="103"/>
-      <c r="H102" s="103"/>
-      <c r="I102" s="103"/>
-      <c r="J102" s="103"/>
-      <c r="K102" s="103"/>
-      <c r="L102" s="103"/>
-      <c r="M102" s="103"/>
-      <c r="N102" s="103"/>
-      <c r="O102" s="103"/>
-      <c r="P102" s="103"/>
-      <c r="Q102" s="103"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="104"/>
+      <c r="E102" s="104"/>
+      <c r="F102" s="104"/>
+      <c r="G102" s="104"/>
+      <c r="H102" s="104"/>
+      <c r="I102" s="104"/>
+      <c r="J102" s="104"/>
+      <c r="K102" s="104"/>
+      <c r="L102" s="104"/>
+      <c r="M102" s="104"/>
+      <c r="N102" s="104"/>
+      <c r="O102" s="104"/>
+      <c r="P102" s="104"/>
+      <c r="Q102" s="104"/>
     </row>
     <row r="103" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="103"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
-      <c r="H103" s="103"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="103"/>
-      <c r="K103" s="103"/>
-      <c r="L103" s="103"/>
-      <c r="M103" s="103"/>
-      <c r="N103" s="103"/>
-      <c r="O103" s="103"/>
-      <c r="P103" s="103"/>
-      <c r="Q103" s="103"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="104"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="104"/>
+      <c r="G103" s="104"/>
+      <c r="H103" s="104"/>
+      <c r="I103" s="104"/>
+      <c r="J103" s="104"/>
+      <c r="K103" s="104"/>
+      <c r="L103" s="104"/>
+      <c r="M103" s="104"/>
+      <c r="N103" s="104"/>
+      <c r="O103" s="104"/>
+      <c r="P103" s="104"/>
+      <c r="Q103" s="104"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
-      <c r="J104" s="107"/>
-      <c r="K104" s="107"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="107"/>
-      <c r="N104" s="107"/>
-      <c r="O104" s="107"/>
-      <c r="P104" s="107"/>
-      <c r="Q104" s="107"/>
-      <c r="R104" s="107"/>
-      <c r="S104" s="108"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="116"/>
+      <c r="N104" s="116"/>
+      <c r="O104" s="116"/>
+      <c r="P104" s="116"/>
+      <c r="Q104" s="116"/>
+      <c r="R104" s="116"/>
+      <c r="S104" s="117"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="109"/>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
-      <c r="F105" s="110"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="110"/>
-      <c r="I105" s="110"/>
-      <c r="J105" s="110"/>
-      <c r="K105" s="110"/>
-      <c r="L105" s="110"/>
-      <c r="M105" s="110"/>
-      <c r="N105" s="110"/>
-      <c r="O105" s="110"/>
-      <c r="P105" s="110"/>
-      <c r="Q105" s="110"/>
-      <c r="R105" s="110"/>
-      <c r="S105" s="111"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="119"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="119"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="119"/>
+      <c r="I105" s="119"/>
+      <c r="J105" s="119"/>
+      <c r="K105" s="119"/>
+      <c r="L105" s="119"/>
+      <c r="M105" s="119"/>
+      <c r="N105" s="119"/>
+      <c r="O105" s="119"/>
+      <c r="P105" s="119"/>
+      <c r="Q105" s="119"/>
+      <c r="R105" s="119"/>
+      <c r="S105" s="120"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B106" s="103"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="103"/>
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="103"/>
-      <c r="N106" s="103"/>
-      <c r="O106" s="103"/>
-      <c r="P106" s="103"/>
-      <c r="Q106" s="103"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="104"/>
+      <c r="F106" s="104"/>
+      <c r="G106" s="104"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="104"/>
+      <c r="K106" s="104"/>
+      <c r="L106" s="104"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="104"/>
+      <c r="O106" s="104"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="104"/>
     </row>
     <row r="107" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="55">
         <v>89</v>
       </c>
-      <c r="B107" s="104" t="s">
+      <c r="B107" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="105"/>
-      <c r="D107" s="104" t="s">
+      <c r="C107" s="106"/>
+      <c r="D107" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="105"/>
-      <c r="F107" s="104" t="s">
+      <c r="E107" s="106"/>
+      <c r="F107" s="105" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="104" t="s">
+      <c r="G107" s="106"/>
+      <c r="H107" s="106"/>
+      <c r="I107" s="106"/>
+      <c r="J107" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="105"/>
-      <c r="L107" s="105"/>
-      <c r="M107" s="105"/>
-      <c r="N107" s="104" t="s">
+      <c r="K107" s="106"/>
+      <c r="L107" s="106"/>
+      <c r="M107" s="106"/>
+      <c r="N107" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="O107" s="105"/>
-      <c r="P107" s="105"/>
-      <c r="Q107" s="105"/>
+      <c r="O107" s="106"/>
+      <c r="P107" s="106"/>
+      <c r="Q107" s="106"/>
       <c r="R107" s="56" t="s">
         <v>18</v>
       </c>
@@ -6901,32 +6904,32 @@
       <c r="A108" s="55">
         <v>90</v>
       </c>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="105"/>
-      <c r="D108" s="104" t="s">
+      <c r="C108" s="106"/>
+      <c r="D108" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="105"/>
-      <c r="F108" s="104" t="s">
+      <c r="E108" s="106"/>
+      <c r="F108" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="G108" s="105"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105"/>
-      <c r="J108" s="104" t="s">
+      <c r="G108" s="106"/>
+      <c r="H108" s="106"/>
+      <c r="I108" s="106"/>
+      <c r="J108" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105"/>
-      <c r="M108" s="105"/>
-      <c r="N108" s="104" t="s">
+      <c r="K108" s="106"/>
+      <c r="L108" s="106"/>
+      <c r="M108" s="106"/>
+      <c r="N108" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="O108" s="105"/>
-      <c r="P108" s="105"/>
-      <c r="Q108" s="105"/>
+      <c r="O108" s="106"/>
+      <c r="P108" s="106"/>
+      <c r="Q108" s="106"/>
       <c r="R108" s="56" t="s">
         <v>18</v>
       </c>
@@ -6936,32 +6939,32 @@
       <c r="A109" s="55">
         <v>91</v>
       </c>
-      <c r="B109" s="104" t="s">
+      <c r="B109" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="105"/>
-      <c r="D109" s="104" t="s">
+      <c r="C109" s="106"/>
+      <c r="D109" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="105"/>
-      <c r="F109" s="104" t="s">
+      <c r="E109" s="106"/>
+      <c r="F109" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="G109" s="105"/>
-      <c r="H109" s="105"/>
-      <c r="I109" s="105"/>
-      <c r="J109" s="104" t="s">
+      <c r="G109" s="106"/>
+      <c r="H109" s="106"/>
+      <c r="I109" s="106"/>
+      <c r="J109" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="K109" s="105"/>
-      <c r="L109" s="105"/>
-      <c r="M109" s="105"/>
-      <c r="N109" s="104" t="s">
+      <c r="K109" s="106"/>
+      <c r="L109" s="106"/>
+      <c r="M109" s="106"/>
+      <c r="N109" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="O109" s="105"/>
-      <c r="P109" s="105"/>
-      <c r="Q109" s="105"/>
+      <c r="O109" s="106"/>
+      <c r="P109" s="106"/>
+      <c r="Q109" s="106"/>
       <c r="R109" s="56" t="s">
         <v>18</v>
       </c>
@@ -6971,32 +6974,32 @@
       <c r="A110" s="55">
         <v>92</v>
       </c>
-      <c r="B110" s="104" t="s">
+      <c r="B110" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="105"/>
-      <c r="D110" s="104" t="s">
+      <c r="C110" s="106"/>
+      <c r="D110" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="105"/>
-      <c r="F110" s="104" t="s">
+      <c r="E110" s="106"/>
+      <c r="F110" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="104" t="s">
+      <c r="G110" s="106"/>
+      <c r="H110" s="106"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="K110" s="105"/>
-      <c r="L110" s="105"/>
-      <c r="M110" s="105"/>
-      <c r="N110" s="104" t="s">
+      <c r="K110" s="106"/>
+      <c r="L110" s="106"/>
+      <c r="M110" s="106"/>
+      <c r="N110" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="O110" s="105"/>
-      <c r="P110" s="105"/>
-      <c r="Q110" s="105"/>
+      <c r="O110" s="106"/>
+      <c r="P110" s="106"/>
+      <c r="Q110" s="106"/>
       <c r="R110" s="56" t="s">
         <v>18</v>
       </c>
@@ -7006,32 +7009,32 @@
       <c r="A111" s="55">
         <v>93</v>
       </c>
-      <c r="B111" s="104" t="s">
+      <c r="B111" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="105"/>
-      <c r="D111" s="104" t="s">
+      <c r="C111" s="106"/>
+      <c r="D111" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="105"/>
-      <c r="F111" s="104" t="s">
+      <c r="E111" s="106"/>
+      <c r="F111" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="105"/>
-      <c r="H111" s="105"/>
-      <c r="I111" s="105"/>
-      <c r="J111" s="104" t="s">
+      <c r="G111" s="106"/>
+      <c r="H111" s="106"/>
+      <c r="I111" s="106"/>
+      <c r="J111" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="105"/>
-      <c r="L111" s="105"/>
-      <c r="M111" s="105"/>
-      <c r="N111" s="104" t="s">
+      <c r="K111" s="106"/>
+      <c r="L111" s="106"/>
+      <c r="M111" s="106"/>
+      <c r="N111" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="O111" s="105"/>
-      <c r="P111" s="105"/>
-      <c r="Q111" s="105"/>
+      <c r="O111" s="106"/>
+      <c r="P111" s="106"/>
+      <c r="Q111" s="106"/>
       <c r="R111" s="56" t="s">
         <v>18</v>
       </c>
@@ -7041,32 +7044,32 @@
       <c r="A112" s="55">
         <v>94</v>
       </c>
-      <c r="B112" s="104" t="s">
+      <c r="B112" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="105"/>
-      <c r="D112" s="104" t="s">
+      <c r="C112" s="106"/>
+      <c r="D112" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="105"/>
-      <c r="F112" s="104" t="s">
+      <c r="E112" s="106"/>
+      <c r="F112" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="104" t="s">
+      <c r="G112" s="106"/>
+      <c r="H112" s="106"/>
+      <c r="I112" s="106"/>
+      <c r="J112" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="K112" s="105"/>
-      <c r="L112" s="105"/>
-      <c r="M112" s="105"/>
-      <c r="N112" s="104" t="s">
+      <c r="K112" s="106"/>
+      <c r="L112" s="106"/>
+      <c r="M112" s="106"/>
+      <c r="N112" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="O112" s="105"/>
-      <c r="P112" s="105"/>
-      <c r="Q112" s="105"/>
+      <c r="O112" s="106"/>
+      <c r="P112" s="106"/>
+      <c r="Q112" s="106"/>
       <c r="R112" s="56" t="s">
         <v>18</v>
       </c>
@@ -7076,684 +7079,393 @@
       <c r="A113" s="55">
         <v>95</v>
       </c>
-      <c r="B113" s="104" t="s">
+      <c r="B113" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="105"/>
-      <c r="D113" s="104" t="s">
+      <c r="C113" s="106"/>
+      <c r="D113" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="105"/>
-      <c r="F113" s="104" t="s">
+      <c r="E113" s="106"/>
+      <c r="F113" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="105"/>
-      <c r="J113" s="104" t="s">
+      <c r="G113" s="106"/>
+      <c r="H113" s="106"/>
+      <c r="I113" s="106"/>
+      <c r="J113" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="K113" s="105"/>
-      <c r="L113" s="105"/>
-      <c r="M113" s="105"/>
-      <c r="N113" s="104" t="s">
+      <c r="K113" s="106"/>
+      <c r="L113" s="106"/>
+      <c r="M113" s="106"/>
+      <c r="N113" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="O113" s="105"/>
-      <c r="P113" s="105"/>
-      <c r="Q113" s="105"/>
+      <c r="O113" s="106"/>
+      <c r="P113" s="106"/>
+      <c r="Q113" s="106"/>
       <c r="R113" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S113" s="55"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="103"/>
-      <c r="C114" s="103"/>
-      <c r="D114" s="103"/>
-      <c r="E114" s="103"/>
-      <c r="F114" s="103"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="103"/>
-      <c r="P114" s="103"/>
-      <c r="Q114" s="103"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="104"/>
+      <c r="D114" s="104"/>
+      <c r="E114" s="104"/>
+      <c r="F114" s="104"/>
+      <c r="G114" s="104"/>
+      <c r="H114" s="104"/>
+      <c r="I114" s="104"/>
+      <c r="J114" s="104"/>
+      <c r="K114" s="104"/>
+      <c r="L114" s="104"/>
+      <c r="M114" s="104"/>
+      <c r="N114" s="104"/>
+      <c r="O114" s="104"/>
+      <c r="P114" s="104"/>
+      <c r="Q114" s="104"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B115" s="103"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="103"/>
-      <c r="E115" s="103"/>
-      <c r="F115" s="103"/>
-      <c r="G115" s="103"/>
-      <c r="H115" s="103"/>
-      <c r="I115" s="103"/>
-      <c r="J115" s="103"/>
-      <c r="K115" s="103"/>
-      <c r="L115" s="103"/>
-      <c r="M115" s="103"/>
-      <c r="N115" s="103"/>
-      <c r="O115" s="103"/>
-      <c r="P115" s="103"/>
-      <c r="Q115" s="103"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="104"/>
+      <c r="G115" s="104"/>
+      <c r="H115" s="104"/>
+      <c r="I115" s="104"/>
+      <c r="J115" s="104"/>
+      <c r="K115" s="104"/>
+      <c r="L115" s="104"/>
+      <c r="M115" s="104"/>
+      <c r="N115" s="104"/>
+      <c r="O115" s="104"/>
+      <c r="P115" s="104"/>
+      <c r="Q115" s="104"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="103"/>
-      <c r="C116" s="103"/>
-      <c r="D116" s="103"/>
-      <c r="E116" s="103"/>
-      <c r="F116" s="103"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="103"/>
-      <c r="I116" s="103"/>
-      <c r="J116" s="103"/>
-      <c r="K116" s="103"/>
-      <c r="L116" s="103"/>
-      <c r="M116" s="103"/>
-      <c r="N116" s="103"/>
-      <c r="O116" s="103"/>
-      <c r="P116" s="103"/>
-      <c r="Q116" s="103"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="104"/>
+      <c r="E116" s="104"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="104"/>
+      <c r="H116" s="104"/>
+      <c r="I116" s="104"/>
+      <c r="J116" s="104"/>
+      <c r="K116" s="104"/>
+      <c r="L116" s="104"/>
+      <c r="M116" s="104"/>
+      <c r="N116" s="104"/>
+      <c r="O116" s="104"/>
+      <c r="P116" s="104"/>
+      <c r="Q116" s="104"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="103"/>
-      <c r="C117" s="103"/>
-      <c r="D117" s="103"/>
-      <c r="E117" s="103"/>
-      <c r="F117" s="103"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="103"/>
-      <c r="I117" s="103"/>
-      <c r="J117" s="103"/>
-      <c r="K117" s="103"/>
-      <c r="L117" s="103"/>
-      <c r="M117" s="103"/>
-      <c r="N117" s="103"/>
-      <c r="O117" s="103"/>
-      <c r="P117" s="103"/>
-      <c r="Q117" s="103"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="104"/>
+      <c r="D117" s="104"/>
+      <c r="E117" s="104"/>
+      <c r="F117" s="104"/>
+      <c r="G117" s="104"/>
+      <c r="H117" s="104"/>
+      <c r="I117" s="104"/>
+      <c r="J117" s="104"/>
+      <c r="K117" s="104"/>
+      <c r="L117" s="104"/>
+      <c r="M117" s="104"/>
+      <c r="N117" s="104"/>
+      <c r="O117" s="104"/>
+      <c r="P117" s="104"/>
+      <c r="Q117" s="104"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="103"/>
-      <c r="C118" s="103"/>
-      <c r="D118" s="103"/>
-      <c r="E118" s="103"/>
-      <c r="F118" s="103"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="103"/>
-      <c r="I118" s="103"/>
-      <c r="J118" s="103"/>
-      <c r="K118" s="103"/>
-      <c r="L118" s="103"/>
-      <c r="M118" s="103"/>
-      <c r="N118" s="103"/>
-      <c r="O118" s="103"/>
-      <c r="P118" s="103"/>
-      <c r="Q118" s="103"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="104"/>
+      <c r="D118" s="104"/>
+      <c r="E118" s="104"/>
+      <c r="F118" s="104"/>
+      <c r="G118" s="104"/>
+      <c r="H118" s="104"/>
+      <c r="I118" s="104"/>
+      <c r="J118" s="104"/>
+      <c r="K118" s="104"/>
+      <c r="L118" s="104"/>
+      <c r="M118" s="104"/>
+      <c r="N118" s="104"/>
+      <c r="O118" s="104"/>
+      <c r="P118" s="104"/>
+      <c r="Q118" s="104"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="103"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="103"/>
-      <c r="L119" s="103"/>
-      <c r="M119" s="103"/>
-      <c r="N119" s="103"/>
-      <c r="O119" s="103"/>
-      <c r="P119" s="103"/>
-      <c r="Q119" s="103"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="104"/>
+      <c r="D119" s="104"/>
+      <c r="E119" s="104"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="104"/>
+      <c r="H119" s="104"/>
+      <c r="I119" s="104"/>
+      <c r="J119" s="104"/>
+      <c r="K119" s="104"/>
+      <c r="L119" s="104"/>
+      <c r="M119" s="104"/>
+      <c r="N119" s="104"/>
+      <c r="O119" s="104"/>
+      <c r="P119" s="104"/>
+      <c r="Q119" s="104"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B120" s="103"/>
-      <c r="C120" s="103"/>
-      <c r="D120" s="103"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="103"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-      <c r="J120" s="103"/>
-      <c r="K120" s="103"/>
-      <c r="L120" s="103"/>
-      <c r="M120" s="103"/>
-      <c r="N120" s="103"/>
-      <c r="O120" s="103"/>
-      <c r="P120" s="103"/>
-      <c r="Q120" s="103"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="104"/>
+      <c r="D120" s="104"/>
+      <c r="E120" s="104"/>
+      <c r="F120" s="104"/>
+      <c r="G120" s="104"/>
+      <c r="H120" s="104"/>
+      <c r="I120" s="104"/>
+      <c r="J120" s="104"/>
+      <c r="K120" s="104"/>
+      <c r="L120" s="104"/>
+      <c r="M120" s="104"/>
+      <c r="N120" s="104"/>
+      <c r="O120" s="104"/>
+      <c r="P120" s="104"/>
+      <c r="Q120" s="104"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B121" s="103"/>
-      <c r="C121" s="103"/>
-      <c r="D121" s="103"/>
-      <c r="E121" s="103"/>
-      <c r="F121" s="103"/>
-      <c r="G121" s="103"/>
-      <c r="H121" s="103"/>
-      <c r="I121" s="103"/>
-      <c r="J121" s="103"/>
-      <c r="K121" s="103"/>
-      <c r="L121" s="103"/>
-      <c r="M121" s="103"/>
-      <c r="N121" s="103"/>
-      <c r="O121" s="103"/>
-      <c r="P121" s="103"/>
-      <c r="Q121" s="103"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="104"/>
+      <c r="D121" s="104"/>
+      <c r="E121" s="104"/>
+      <c r="F121" s="104"/>
+      <c r="G121" s="104"/>
+      <c r="H121" s="104"/>
+      <c r="I121" s="104"/>
+      <c r="J121" s="104"/>
+      <c r="K121" s="104"/>
+      <c r="L121" s="104"/>
+      <c r="M121" s="104"/>
+      <c r="N121" s="104"/>
+      <c r="O121" s="104"/>
+      <c r="P121" s="104"/>
+      <c r="Q121" s="104"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B122" s="103"/>
-      <c r="C122" s="103"/>
-      <c r="D122" s="103"/>
-      <c r="E122" s="103"/>
-      <c r="F122" s="103"/>
-      <c r="G122" s="103"/>
-      <c r="H122" s="103"/>
-      <c r="I122" s="103"/>
-      <c r="J122" s="103"/>
-      <c r="K122" s="103"/>
-      <c r="L122" s="103"/>
-      <c r="M122" s="103"/>
-      <c r="N122" s="103"/>
-      <c r="O122" s="103"/>
-      <c r="P122" s="103"/>
-      <c r="Q122" s="103"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="104"/>
+      <c r="D122" s="104"/>
+      <c r="E122" s="104"/>
+      <c r="F122" s="104"/>
+      <c r="G122" s="104"/>
+      <c r="H122" s="104"/>
+      <c r="I122" s="104"/>
+      <c r="J122" s="104"/>
+      <c r="K122" s="104"/>
+      <c r="L122" s="104"/>
+      <c r="M122" s="104"/>
+      <c r="N122" s="104"/>
+      <c r="O122" s="104"/>
+      <c r="P122" s="104"/>
+      <c r="Q122" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="699">
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A104:S105"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:I64"/>
@@ -7778,198 +7490,489 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A104:S105"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7986,7 +7989,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8015,12 +8018,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8069,19 +8072,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8093,19 +8096,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8117,19 +8120,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="81"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8148,12 +8151,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8165,12 +8168,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8183,12 +8186,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8200,12 +8203,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8217,12 +8220,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="91" t="s">
+      <c r="H14" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8234,12 +8237,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8251,12 +8254,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8266,7 +8269,7 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="96" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="82"/>
@@ -8283,7 +8286,7 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="96" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="82"/>
@@ -8317,12 +8320,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="101" t="s">
+      <c r="H20" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8335,12 +8338,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -8350,12 +8353,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -8367,12 +8370,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8384,12 +8387,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -8399,12 +8402,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="98" t="s">
+      <c r="H25" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8416,12 +8419,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="89" t="s">
+      <c r="H26" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8433,12 +8436,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8448,12 +8451,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8465,12 +8468,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8521,12 +8524,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8538,12 +8541,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8555,12 +8558,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8589,12 +8592,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="92" t="s">
+      <c r="H38" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8606,12 +8609,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8621,12 +8624,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="94" t="s">
+      <c r="H40" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8638,12 +8641,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8653,12 +8656,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="94" t="s">
+      <c r="H42" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8670,12 +8673,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8726,12 +8729,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8741,12 +8744,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="94" t="s">
+      <c r="H49" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8758,12 +8761,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8773,12 +8776,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8790,12 +8793,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="83" t="s">
+      <c r="H52" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8808,14 +8811,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H32:K32"/>
@@ -8828,30 +8847,14 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="18180" windowHeight="10245" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="12750" windowHeight="9195" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1804,11 +1804,44 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1816,9 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1829,26 +1859,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1858,21 +1873,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1882,55 +1882,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2267,12 +2267,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2304,12 +2304,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2321,19 +2321,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2345,19 +2345,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2369,19 +2369,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2400,12 +2400,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2417,12 +2417,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2435,12 +2435,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2452,12 +2452,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="99" t="s">
+      <c r="H13" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2469,12 +2469,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2486,12 +2486,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2503,12 +2503,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2518,12 +2518,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2535,12 +2535,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2569,12 +2569,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2587,12 +2587,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2602,12 +2602,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2619,12 +2619,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2636,12 +2636,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2651,12 +2651,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2668,12 +2668,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2685,12 +2685,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2700,12 +2700,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2717,12 +2717,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2739,12 +2739,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="82" t="s">
+      <c r="H32" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2756,12 +2756,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2773,12 +2773,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2790,12 +2790,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2807,12 +2807,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2824,12 +2824,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2841,12 +2841,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2858,12 +2858,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2873,12 +2873,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2890,12 +2890,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2905,12 +2905,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2922,12 +2922,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2944,12 +2944,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2961,12 +2961,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="82" t="s">
+      <c r="H47" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2978,12 +2978,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2993,12 +2993,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3010,12 +3010,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="83" t="s">
+      <c r="H50" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3025,12 +3025,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3042,12 +3042,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3060,21 +3060,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3091,19 +3089,21 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3122,8 +3122,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H45" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3175,48 +3175,48 @@
       <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="117"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="112"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="104"/>
@@ -3240,34 +3240,34 @@
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113" t="s">
+      <c r="E6" s="118"/>
+      <c r="F6" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113" t="s">
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113" t="s">
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="O6" s="118"/>
+      <c r="P6" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="114"/>
+      <c r="Q6" s="119"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3548,27 +3548,27 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="106"/>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="106"/>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="113" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
       <c r="I15" s="106"/>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="113" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="106"/>
       <c r="L15" s="106"/>
       <c r="M15" s="106"/>
-      <c r="N15" s="112" t="s">
+      <c r="N15" s="113" t="s">
         <v>178</v>
       </c>
       <c r="O15" s="106"/>
@@ -3583,27 +3583,27 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="106"/>
-      <c r="D16" s="112" t="s">
+      <c r="D16" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="106"/>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="113" t="s">
         <v>184</v>
       </c>
       <c r="G16" s="106"/>
       <c r="H16" s="106"/>
       <c r="I16" s="106"/>
-      <c r="J16" s="112" t="s">
+      <c r="J16" s="113" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="106"/>
       <c r="L16" s="106"/>
       <c r="M16" s="106"/>
-      <c r="N16" s="112" t="s">
+      <c r="N16" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O16" s="106"/>
@@ -3618,27 +3618,27 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="106"/>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="106"/>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="113" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="106"/>
       <c r="H17" s="106"/>
       <c r="I17" s="106"/>
-      <c r="J17" s="112" t="s">
+      <c r="J17" s="113" t="s">
         <v>188</v>
       </c>
       <c r="K17" s="106"/>
       <c r="L17" s="106"/>
       <c r="M17" s="106"/>
-      <c r="N17" s="112" t="s">
+      <c r="N17" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O17" s="106"/>
@@ -3655,27 +3655,27 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="106"/>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="106"/>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="113" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="106"/>
       <c r="H18" s="106"/>
       <c r="I18" s="106"/>
-      <c r="J18" s="112" t="s">
+      <c r="J18" s="113" t="s">
         <v>190</v>
       </c>
       <c r="K18" s="106"/>
       <c r="L18" s="106"/>
       <c r="M18" s="106"/>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="113" t="s">
         <v>169</v>
       </c>
       <c r="O18" s="106"/>
@@ -3690,27 +3690,27 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="106"/>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="106"/>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="113" t="s">
         <v>191</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="106"/>
       <c r="I19" s="106"/>
-      <c r="J19" s="112" t="s">
+      <c r="J19" s="113" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="106"/>
       <c r="L19" s="106"/>
       <c r="M19" s="106"/>
-      <c r="N19" s="112" t="s">
+      <c r="N19" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O19" s="106"/>
@@ -3727,27 +3727,27 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="106"/>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="106"/>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="113" t="s">
         <v>193</v>
       </c>
       <c r="G20" s="106"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
-      <c r="J20" s="112" t="s">
+      <c r="J20" s="113" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="106"/>
       <c r="L20" s="106"/>
       <c r="M20" s="106"/>
-      <c r="N20" s="112" t="s">
+      <c r="N20" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O20" s="106"/>
@@ -3762,27 +3762,27 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="106"/>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="106"/>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="113" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="106"/>
       <c r="H21" s="106"/>
       <c r="I21" s="106"/>
-      <c r="J21" s="112" t="s">
+      <c r="J21" s="113" t="s">
         <v>196</v>
       </c>
       <c r="K21" s="106"/>
       <c r="L21" s="106"/>
       <c r="M21" s="106"/>
-      <c r="N21" s="112" t="s">
+      <c r="N21" s="113" t="s">
         <v>197</v>
       </c>
       <c r="O21" s="106"/>
@@ -3797,27 +3797,27 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="106"/>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="106"/>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="113" t="s">
         <v>198</v>
       </c>
       <c r="G22" s="106"/>
       <c r="H22" s="106"/>
       <c r="I22" s="106"/>
-      <c r="J22" s="112" t="s">
+      <c r="J22" s="113" t="s">
         <v>199</v>
       </c>
       <c r="K22" s="106"/>
       <c r="L22" s="106"/>
       <c r="M22" s="106"/>
-      <c r="N22" s="112" t="s">
+      <c r="N22" s="113" t="s">
         <v>286</v>
       </c>
       <c r="O22" s="106"/>
@@ -3832,27 +3832,27 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="106"/>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="106"/>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="113" t="s">
         <v>200</v>
       </c>
       <c r="G23" s="106"/>
       <c r="H23" s="106"/>
       <c r="I23" s="106"/>
-      <c r="J23" s="112" t="s">
+      <c r="J23" s="113" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="106"/>
       <c r="L23" s="106"/>
       <c r="M23" s="106"/>
-      <c r="N23" s="112" t="s">
+      <c r="N23" s="113" t="s">
         <v>202</v>
       </c>
       <c r="O23" s="106"/>
@@ -3867,27 +3867,27 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="106"/>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="113" t="s">
         <v>255</v>
       </c>
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
       <c r="I24" s="106"/>
-      <c r="J24" s="112" t="s">
+      <c r="J24" s="113" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="106"/>
       <c r="M24" s="106"/>
-      <c r="N24" s="112" t="s">
+      <c r="N24" s="113" t="s">
         <v>204</v>
       </c>
       <c r="O24" s="106"/>
@@ -3902,27 +3902,27 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="106"/>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="106"/>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="113" t="s">
         <v>205</v>
       </c>
       <c r="G25" s="106"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
-      <c r="J25" s="112" t="s">
+      <c r="J25" s="113" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="106"/>
       <c r="L25" s="106"/>
       <c r="M25" s="106"/>
-      <c r="N25" s="112" t="s">
+      <c r="N25" s="113" t="s">
         <v>204</v>
       </c>
       <c r="O25" s="106"/>
@@ -3937,27 +3937,27 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="106"/>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="106"/>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="113" t="s">
         <v>207</v>
       </c>
       <c r="G26" s="106"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="112" t="s">
+      <c r="J26" s="113" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="106"/>
       <c r="L26" s="106"/>
       <c r="M26" s="106"/>
-      <c r="N26" s="112" t="s">
+      <c r="N26" s="113" t="s">
         <v>209</v>
       </c>
       <c r="O26" s="106"/>
@@ -3972,11 +3972,11 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="106"/>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="106"/>
@@ -4009,27 +4009,27 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="106"/>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="106"/>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="113" t="s">
         <v>227</v>
       </c>
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="112" t="s">
+      <c r="J28" s="113" t="s">
         <v>226</v>
       </c>
       <c r="K28" s="106"/>
       <c r="L28" s="106"/>
       <c r="M28" s="106"/>
-      <c r="N28" s="112" t="s">
+      <c r="N28" s="113" t="s">
         <v>212</v>
       </c>
       <c r="O28" s="106"/>
@@ -4044,27 +4044,27 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="106"/>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="106"/>
-      <c r="F29" s="112" t="s">
+      <c r="F29" s="113" t="s">
         <v>213</v>
       </c>
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
       <c r="I29" s="106"/>
-      <c r="J29" s="112" t="s">
+      <c r="J29" s="113" t="s">
         <v>214</v>
       </c>
       <c r="K29" s="106"/>
       <c r="L29" s="106"/>
       <c r="M29" s="106"/>
-      <c r="N29" s="112" t="s">
+      <c r="N29" s="113" t="s">
         <v>212</v>
       </c>
       <c r="O29" s="106"/>
@@ -4079,27 +4079,27 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="106"/>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="106"/>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="113" t="s">
         <v>215</v>
       </c>
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
       <c r="I30" s="106"/>
-      <c r="J30" s="112" t="s">
+      <c r="J30" s="113" t="s">
         <v>216</v>
       </c>
       <c r="K30" s="106"/>
       <c r="L30" s="106"/>
       <c r="M30" s="106"/>
-      <c r="N30" s="112" t="s">
+      <c r="N30" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O30" s="106"/>
@@ -4114,27 +4114,27 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="106"/>
-      <c r="D31" s="112" t="s">
+      <c r="D31" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="106"/>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="113" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
       <c r="I31" s="106"/>
-      <c r="J31" s="112" t="s">
+      <c r="J31" s="113" t="s">
         <v>218</v>
       </c>
       <c r="K31" s="106"/>
       <c r="L31" s="106"/>
       <c r="M31" s="106"/>
-      <c r="N31" s="112" t="s">
+      <c r="N31" s="113" t="s">
         <v>219</v>
       </c>
       <c r="O31" s="106"/>
@@ -4151,27 +4151,27 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="106"/>
-      <c r="D32" s="112" t="s">
+      <c r="D32" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="106"/>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="113" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
-      <c r="J32" s="112" t="s">
+      <c r="J32" s="113" t="s">
         <v>221</v>
       </c>
       <c r="K32" s="106"/>
       <c r="L32" s="106"/>
       <c r="M32" s="106"/>
-      <c r="N32" s="112" t="s">
+      <c r="N32" s="113" t="s">
         <v>222</v>
       </c>
       <c r="O32" s="106"/>
@@ -4188,27 +4188,27 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="106"/>
-      <c r="D33" s="112" t="s">
+      <c r="D33" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="106"/>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="113" t="s">
         <v>223</v>
       </c>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="106"/>
-      <c r="J33" s="112" t="s">
+      <c r="J33" s="113" t="s">
         <v>224</v>
       </c>
       <c r="K33" s="106"/>
       <c r="L33" s="106"/>
       <c r="M33" s="106"/>
-      <c r="N33" s="112" t="s">
+      <c r="N33" s="113" t="s">
         <v>212</v>
       </c>
       <c r="O33" s="106"/>
@@ -4223,27 +4223,27 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="106"/>
-      <c r="D34" s="112" t="s">
+      <c r="D34" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="106"/>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="113" t="s">
         <v>225</v>
       </c>
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
       <c r="I34" s="106"/>
-      <c r="J34" s="112" t="s">
+      <c r="J34" s="113" t="s">
         <v>228</v>
       </c>
       <c r="K34" s="106"/>
       <c r="L34" s="106"/>
       <c r="M34" s="106"/>
-      <c r="N34" s="112" t="s">
+      <c r="N34" s="113" t="s">
         <v>229</v>
       </c>
       <c r="O34" s="106"/>
@@ -4258,27 +4258,27 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="106"/>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="106"/>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="113" t="s">
         <v>258</v>
       </c>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="106"/>
-      <c r="J35" s="112" t="s">
+      <c r="J35" s="113" t="s">
         <v>230</v>
       </c>
       <c r="K35" s="106"/>
       <c r="L35" s="106"/>
       <c r="M35" s="106"/>
-      <c r="N35" s="112" t="s">
+      <c r="N35" s="113" t="s">
         <v>229</v>
       </c>
       <c r="O35" s="106"/>
@@ -4293,21 +4293,21 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="106"/>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="106"/>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="113" t="s">
         <v>248</v>
       </c>
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
       <c r="I36" s="106"/>
-      <c r="J36" s="112" t="s">
+      <c r="J36" s="113" t="s">
         <v>249</v>
       </c>
       <c r="K36" s="106"/>
@@ -4326,27 +4326,27 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="106"/>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="106"/>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="113" t="s">
         <v>231</v>
       </c>
       <c r="G37" s="106"/>
       <c r="H37" s="106"/>
       <c r="I37" s="106"/>
-      <c r="J37" s="112" t="s">
+      <c r="J37" s="113" t="s">
         <v>232</v>
       </c>
       <c r="K37" s="106"/>
       <c r="L37" s="106"/>
       <c r="M37" s="106"/>
-      <c r="N37" s="112" t="s">
+      <c r="N37" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O37" s="106"/>
@@ -4363,27 +4363,27 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="106"/>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="106"/>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="113" t="s">
         <v>233</v>
       </c>
       <c r="G38" s="106"/>
       <c r="H38" s="106"/>
       <c r="I38" s="106"/>
-      <c r="J38" s="112" t="s">
+      <c r="J38" s="113" t="s">
         <v>234</v>
       </c>
       <c r="K38" s="106"/>
       <c r="L38" s="106"/>
       <c r="M38" s="106"/>
-      <c r="N38" s="112" t="s">
+      <c r="N38" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O38" s="106"/>
@@ -4398,27 +4398,27 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="106"/>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="106"/>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="113" t="s">
         <v>236</v>
       </c>
       <c r="G39" s="106"/>
       <c r="H39" s="106"/>
       <c r="I39" s="106"/>
-      <c r="J39" s="112" t="s">
+      <c r="J39" s="113" t="s">
         <v>235</v>
       </c>
       <c r="K39" s="106"/>
       <c r="L39" s="106"/>
       <c r="M39" s="106"/>
-      <c r="N39" s="112" t="s">
+      <c r="N39" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O39" s="106"/>
@@ -4433,27 +4433,27 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="106"/>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="106"/>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="113" t="s">
         <v>237</v>
       </c>
       <c r="G40" s="106"/>
       <c r="H40" s="106"/>
       <c r="I40" s="106"/>
-      <c r="J40" s="112" t="s">
+      <c r="J40" s="113" t="s">
         <v>238</v>
       </c>
       <c r="K40" s="106"/>
       <c r="L40" s="106"/>
       <c r="M40" s="106"/>
-      <c r="N40" s="112" t="s">
+      <c r="N40" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O40" s="106"/>
@@ -4468,27 +4468,27 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="106"/>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="106"/>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="113" t="s">
         <v>239</v>
       </c>
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
       <c r="I41" s="106"/>
-      <c r="J41" s="112" t="s">
+      <c r="J41" s="113" t="s">
         <v>240</v>
       </c>
       <c r="K41" s="106"/>
       <c r="L41" s="106"/>
       <c r="M41" s="106"/>
-      <c r="N41" s="112" t="s">
+      <c r="N41" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O41" s="106"/>
@@ -4503,27 +4503,27 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="106"/>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="106"/>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="113" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="106"/>
       <c r="H42" s="106"/>
       <c r="I42" s="106"/>
-      <c r="J42" s="112" t="s">
+      <c r="J42" s="113" t="s">
         <v>242</v>
       </c>
       <c r="K42" s="106"/>
       <c r="L42" s="106"/>
       <c r="M42" s="106"/>
-      <c r="N42" s="112" t="s">
+      <c r="N42" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O42" s="106"/>
@@ -4538,27 +4538,27 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="106"/>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="106"/>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="113" t="s">
         <v>243</v>
       </c>
       <c r="G43" s="106"/>
       <c r="H43" s="106"/>
       <c r="I43" s="106"/>
-      <c r="J43" s="112" t="s">
+      <c r="J43" s="113" t="s">
         <v>244</v>
       </c>
       <c r="K43" s="106"/>
       <c r="L43" s="106"/>
       <c r="M43" s="106"/>
-      <c r="N43" s="112" t="s">
+      <c r="N43" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O43" s="106"/>
@@ -4573,11 +4573,11 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="106"/>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="106"/>
@@ -4587,13 +4587,13 @@
       <c r="G44" s="106"/>
       <c r="H44" s="106"/>
       <c r="I44" s="106"/>
-      <c r="J44" s="112" t="s">
+      <c r="J44" s="113" t="s">
         <v>245</v>
       </c>
       <c r="K44" s="106"/>
       <c r="L44" s="106"/>
       <c r="M44" s="106"/>
-      <c r="N44" s="112" t="s">
+      <c r="N44" s="113" t="s">
         <v>164</v>
       </c>
       <c r="O44" s="106"/>
@@ -4608,27 +4608,27 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="106"/>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="106"/>
-      <c r="F45" s="112" t="s">
+      <c r="F45" s="113" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="106"/>
       <c r="H45" s="106"/>
       <c r="I45" s="106"/>
-      <c r="J45" s="112" t="s">
+      <c r="J45" s="113" t="s">
         <v>247</v>
       </c>
       <c r="K45" s="106"/>
       <c r="L45" s="106"/>
       <c r="M45" s="106"/>
-      <c r="N45" s="112" t="s">
+      <c r="N45" s="113" t="s">
         <v>164</v>
       </c>
       <c r="O45" s="106"/>
@@ -4643,27 +4643,27 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="106"/>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="106"/>
-      <c r="F46" s="112" t="s">
+      <c r="F46" s="113" t="s">
         <v>250</v>
       </c>
       <c r="G46" s="106"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
-      <c r="J46" s="112" t="s">
+      <c r="J46" s="113" t="s">
         <v>251</v>
       </c>
       <c r="K46" s="106"/>
       <c r="L46" s="106"/>
       <c r="M46" s="106"/>
-      <c r="N46" s="112" t="s">
+      <c r="N46" s="113" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="106"/>
@@ -4680,27 +4680,27 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="106"/>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="106"/>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="113" t="s">
         <v>253</v>
       </c>
       <c r="G47" s="106"/>
       <c r="H47" s="106"/>
       <c r="I47" s="106"/>
-      <c r="J47" s="112" t="s">
+      <c r="J47" s="113" t="s">
         <v>279</v>
       </c>
       <c r="K47" s="106"/>
       <c r="L47" s="106"/>
       <c r="M47" s="106"/>
-      <c r="N47" s="112" t="s">
+      <c r="N47" s="113" t="s">
         <v>254</v>
       </c>
       <c r="O47" s="106"/>
@@ -4717,31 +4717,31 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="106"/>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="106"/>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="113" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="106"/>
       <c r="H48" s="106"/>
       <c r="I48" s="106"/>
-      <c r="J48" s="112" t="s">
+      <c r="J48" s="113" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="106"/>
       <c r="L48" s="106"/>
       <c r="M48" s="106"/>
-      <c r="N48" s="112" t="s">
+      <c r="N48" s="113" t="s">
         <v>11</v>
       </c>
       <c r="O48" s="106"/>
-      <c r="P48" s="112"/>
+      <c r="P48" s="113"/>
       <c r="Q48" s="106"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
@@ -4755,28 +4755,28 @@
       <c r="B49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112" t="s">
+      <c r="C49" s="113"/>
+      <c r="D49" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112" t="s">
+      <c r="E49" s="113"/>
+      <c r="F49" s="113" t="s">
         <v>282</v>
       </c>
       <c r="G49" s="106"/>
       <c r="H49" s="106"/>
       <c r="I49" s="106"/>
-      <c r="J49" s="112" t="s">
+      <c r="J49" s="113" t="s">
         <v>283</v>
       </c>
       <c r="K49" s="106"/>
       <c r="L49" s="106"/>
       <c r="M49" s="106"/>
-      <c r="N49" s="112" t="s">
+      <c r="N49" s="113" t="s">
         <v>11</v>
       </c>
       <c r="O49" s="106"/>
-      <c r="P49" s="112"/>
+      <c r="P49" s="113"/>
       <c r="Q49" s="106"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
@@ -4791,27 +4791,27 @@
         <v>133</v>
       </c>
       <c r="C50" s="106"/>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="106"/>
-      <c r="F50" s="112" t="s">
+      <c r="F50" s="113" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="106"/>
       <c r="H50" s="106"/>
       <c r="I50" s="106"/>
-      <c r="J50" s="112" t="s">
+      <c r="J50" s="113" t="s">
         <v>110</v>
       </c>
       <c r="K50" s="106"/>
       <c r="L50" s="106"/>
       <c r="M50" s="106"/>
-      <c r="N50" s="112" t="s">
+      <c r="N50" s="113" t="s">
         <v>111</v>
       </c>
       <c r="O50" s="106"/>
-      <c r="P50" s="112"/>
+      <c r="P50" s="113"/>
       <c r="Q50" s="106"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
@@ -4826,27 +4826,27 @@
         <v>9</v>
       </c>
       <c r="C51" s="106"/>
-      <c r="D51" s="112" t="s">
+      <c r="D51" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="106"/>
-      <c r="F51" s="112" t="s">
+      <c r="F51" s="113" t="s">
         <v>109</v>
       </c>
       <c r="G51" s="106"/>
       <c r="H51" s="106"/>
       <c r="I51" s="106"/>
-      <c r="J51" s="112" t="s">
+      <c r="J51" s="113" t="s">
         <v>110</v>
       </c>
       <c r="K51" s="106"/>
       <c r="L51" s="106"/>
       <c r="M51" s="106"/>
-      <c r="N51" s="112" t="s">
+      <c r="N51" s="113" t="s">
         <v>114</v>
       </c>
       <c r="O51" s="106"/>
-      <c r="P51" s="112"/>
+      <c r="P51" s="113"/>
       <c r="Q51" s="106"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
@@ -4861,27 +4861,27 @@
         <v>9</v>
       </c>
       <c r="C52" s="106"/>
-      <c r="D52" s="112" t="s">
+      <c r="D52" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="106"/>
-      <c r="F52" s="112" t="s">
+      <c r="F52" s="113" t="s">
         <v>116</v>
       </c>
       <c r="G52" s="106"/>
       <c r="H52" s="106"/>
       <c r="I52" s="106"/>
-      <c r="J52" s="112" t="s">
+      <c r="J52" s="113" t="s">
         <v>117</v>
       </c>
       <c r="K52" s="106"/>
       <c r="L52" s="106"/>
       <c r="M52" s="106"/>
-      <c r="N52" s="112" t="s">
+      <c r="N52" s="113" t="s">
         <v>103</v>
       </c>
       <c r="O52" s="106"/>
-      <c r="P52" s="112"/>
+      <c r="P52" s="113"/>
       <c r="Q52" s="106"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
@@ -4896,7 +4896,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="106"/>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E53" s="106"/>
@@ -5098,31 +5098,31 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="106"/>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="113" t="s">
         <v>146</v>
       </c>
       <c r="E59" s="106"/>
-      <c r="F59" s="112" t="s">
+      <c r="F59" s="113" t="s">
         <v>288</v>
       </c>
       <c r="G59" s="106"/>
       <c r="H59" s="106"/>
       <c r="I59" s="106"/>
-      <c r="J59" s="112" t="s">
+      <c r="J59" s="113" t="s">
         <v>289</v>
       </c>
       <c r="K59" s="106"/>
       <c r="L59" s="106"/>
       <c r="M59" s="106"/>
-      <c r="N59" s="112" t="s">
+      <c r="N59" s="113" t="s">
         <v>129</v>
       </c>
       <c r="O59" s="106"/>
-      <c r="P59" s="112"/>
+      <c r="P59" s="113"/>
       <c r="Q59" s="106"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
@@ -5133,31 +5133,31 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="106"/>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="106"/>
-      <c r="F60" s="112" t="s">
+      <c r="F60" s="113" t="s">
         <v>147</v>
       </c>
       <c r="G60" s="106"/>
       <c r="H60" s="106"/>
       <c r="I60" s="106"/>
-      <c r="J60" s="112" t="s">
+      <c r="J60" s="113" t="s">
         <v>148</v>
       </c>
       <c r="K60" s="106"/>
       <c r="L60" s="106"/>
       <c r="M60" s="106"/>
-      <c r="N60" s="112" t="s">
+      <c r="N60" s="113" t="s">
         <v>129</v>
       </c>
       <c r="O60" s="106"/>
-      <c r="P60" s="112"/>
+      <c r="P60" s="113"/>
       <c r="Q60" s="106"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
@@ -5168,31 +5168,31 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="106"/>
-      <c r="D61" s="112" t="s">
+      <c r="D61" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="106"/>
-      <c r="F61" s="112" t="s">
+      <c r="F61" s="113" t="s">
         <v>290</v>
       </c>
       <c r="G61" s="106"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
-      <c r="J61" s="112" t="s">
+      <c r="J61" s="113" t="s">
         <v>291</v>
       </c>
       <c r="K61" s="106"/>
       <c r="L61" s="106"/>
       <c r="M61" s="106"/>
-      <c r="N61" s="112" t="s">
+      <c r="N61" s="113" t="s">
         <v>149</v>
       </c>
       <c r="O61" s="106"/>
-      <c r="P61" s="112"/>
+      <c r="P61" s="113"/>
       <c r="Q61" s="106"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
@@ -5203,31 +5203,31 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C62" s="106"/>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="106"/>
-      <c r="F62" s="112" t="s">
+      <c r="F62" s="113" t="s">
         <v>150</v>
       </c>
       <c r="G62" s="106"/>
       <c r="H62" s="106"/>
       <c r="I62" s="106"/>
-      <c r="J62" s="112" t="s">
+      <c r="J62" s="113" t="s">
         <v>151</v>
       </c>
       <c r="K62" s="106"/>
       <c r="L62" s="106"/>
       <c r="M62" s="106"/>
-      <c r="N62" s="112" t="s">
+      <c r="N62" s="113" t="s">
         <v>149</v>
       </c>
       <c r="O62" s="106"/>
-      <c r="P62" s="112"/>
+      <c r="P62" s="113"/>
       <c r="Q62" s="106"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
@@ -5240,31 +5240,31 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="106"/>
-      <c r="D63" s="112" t="s">
+      <c r="D63" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="106"/>
-      <c r="F63" s="112" t="s">
+      <c r="F63" s="113" t="s">
         <v>153</v>
       </c>
       <c r="G63" s="106"/>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
-      <c r="J63" s="112" t="s">
+      <c r="J63" s="113" t="s">
         <v>152</v>
       </c>
       <c r="K63" s="106"/>
       <c r="L63" s="106"/>
       <c r="M63" s="106"/>
-      <c r="N63" s="112" t="s">
+      <c r="N63" s="113" t="s">
         <v>149</v>
       </c>
       <c r="O63" s="106"/>
-      <c r="P63" s="112"/>
+      <c r="P63" s="113"/>
       <c r="Q63" s="106"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
@@ -5275,31 +5275,31 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="106"/>
-      <c r="D64" s="112" t="s">
+      <c r="D64" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="106"/>
-      <c r="F64" s="112" t="s">
+      <c r="F64" s="113" t="s">
         <v>155</v>
       </c>
       <c r="G64" s="106"/>
       <c r="H64" s="106"/>
       <c r="I64" s="106"/>
-      <c r="J64" s="112" t="s">
+      <c r="J64" s="113" t="s">
         <v>156</v>
       </c>
       <c r="K64" s="106"/>
       <c r="L64" s="106"/>
       <c r="M64" s="106"/>
-      <c r="N64" s="112" t="s">
+      <c r="N64" s="113" t="s">
         <v>157</v>
       </c>
       <c r="O64" s="106"/>
-      <c r="P64" s="112"/>
+      <c r="P64" s="113"/>
       <c r="Q64" s="106"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
@@ -5310,31 +5310,31 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="112" t="s">
+      <c r="B65" s="113" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="106"/>
-      <c r="D65" s="112" t="s">
+      <c r="D65" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="106"/>
-      <c r="F65" s="112" t="s">
+      <c r="F65" s="113" t="s">
         <v>293</v>
       </c>
       <c r="G65" s="106"/>
       <c r="H65" s="106"/>
       <c r="I65" s="106"/>
-      <c r="J65" s="112" t="s">
+      <c r="J65" s="113" t="s">
         <v>294</v>
       </c>
       <c r="K65" s="106"/>
       <c r="L65" s="106"/>
       <c r="M65" s="106"/>
-      <c r="N65" s="112" t="s">
+      <c r="N65" s="113" t="s">
         <v>160</v>
       </c>
       <c r="O65" s="106"/>
-      <c r="P65" s="112"/>
+      <c r="P65" s="113"/>
       <c r="Q65" s="106"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
@@ -5345,11 +5345,11 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="112" t="s">
+      <c r="B66" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="106"/>
-      <c r="D66" s="112" t="s">
+      <c r="D66" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="106"/>
@@ -5365,11 +5365,11 @@
       <c r="K66" s="106"/>
       <c r="L66" s="106"/>
       <c r="M66" s="106"/>
-      <c r="N66" s="112" t="s">
+      <c r="N66" s="113" t="s">
         <v>16</v>
       </c>
       <c r="O66" s="106"/>
-      <c r="P66" s="112"/>
+      <c r="P66" s="113"/>
       <c r="Q66" s="106"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
@@ -5384,27 +5384,27 @@
         <v>133</v>
       </c>
       <c r="C67" s="106"/>
-      <c r="D67" s="112" t="s">
+      <c r="D67" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="106"/>
-      <c r="F67" s="112" t="s">
+      <c r="F67" s="113" t="s">
         <v>102</v>
       </c>
       <c r="G67" s="106"/>
       <c r="H67" s="106"/>
       <c r="I67" s="106"/>
-      <c r="J67" s="112" t="s">
+      <c r="J67" s="113" t="s">
         <v>101</v>
       </c>
       <c r="K67" s="106"/>
       <c r="L67" s="106"/>
       <c r="M67" s="106"/>
-      <c r="N67" s="112" t="s">
+      <c r="N67" s="113" t="s">
         <v>103</v>
       </c>
       <c r="O67" s="106"/>
-      <c r="P67" s="112"/>
+      <c r="P67" s="113"/>
       <c r="Q67" s="106"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
@@ -5419,7 +5419,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="106"/>
-      <c r="D68" s="112" t="s">
+      <c r="D68" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E68" s="106"/>
@@ -5429,17 +5429,17 @@
       <c r="G68" s="106"/>
       <c r="H68" s="106"/>
       <c r="I68" s="106"/>
-      <c r="J68" s="112" t="s">
+      <c r="J68" s="113" t="s">
         <v>108</v>
       </c>
       <c r="K68" s="106"/>
       <c r="L68" s="106"/>
       <c r="M68" s="106"/>
-      <c r="N68" s="112" t="s">
+      <c r="N68" s="113" t="s">
         <v>105</v>
       </c>
       <c r="O68" s="106"/>
-      <c r="P68" s="112"/>
+      <c r="P68" s="113"/>
       <c r="Q68" s="106"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
@@ -5456,7 +5456,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="106"/>
-      <c r="D69" s="112" t="s">
+      <c r="D69" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="106"/>
@@ -5472,11 +5472,11 @@
       <c r="K69" s="106"/>
       <c r="L69" s="106"/>
       <c r="M69" s="106"/>
-      <c r="N69" s="112" t="s">
+      <c r="N69" s="113" t="s">
         <v>115</v>
       </c>
       <c r="O69" s="106"/>
-      <c r="P69" s="112"/>
+      <c r="P69" s="113"/>
       <c r="Q69" s="106"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
@@ -5541,48 +5541,48 @@
       <c r="Q72" s="104"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="116"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
-      <c r="I73" s="116"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
-      <c r="L73" s="116"/>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="117"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="108"/>
+      <c r="R73" s="108"/>
+      <c r="S73" s="109"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="119"/>
-      <c r="E74" s="119"/>
-      <c r="F74" s="119"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="119"/>
-      <c r="J74" s="119"/>
-      <c r="K74" s="119"/>
-      <c r="L74" s="119"/>
-      <c r="M74" s="119"/>
-      <c r="N74" s="119"/>
-      <c r="O74" s="119"/>
-      <c r="P74" s="119"/>
-      <c r="Q74" s="119"/>
-      <c r="R74" s="119"/>
-      <c r="S74" s="120"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="111"/>
+      <c r="M74" s="111"/>
+      <c r="N74" s="111"/>
+      <c r="O74" s="111"/>
+      <c r="P74" s="111"/>
+      <c r="Q74" s="111"/>
+      <c r="R74" s="111"/>
+      <c r="S74" s="112"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B75" s="104"/>
@@ -5606,102 +5606,106 @@
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="109" t="s">
+      <c r="B76" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109" t="s">
+      <c r="C76" s="114"/>
+      <c r="D76" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109" t="s">
+      <c r="E76" s="114"/>
+      <c r="F76" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="109" t="s">
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="109"/>
-      <c r="L76" s="109"/>
-      <c r="M76" s="109"/>
-      <c r="N76" s="109" t="s">
+      <c r="K76" s="114"/>
+      <c r="L76" s="114"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="109"/>
-      <c r="P76" s="109"/>
-      <c r="Q76" s="109"/>
+      <c r="O76" s="114"/>
+      <c r="P76" s="114"/>
+      <c r="Q76" s="114"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S76" s="62"/>
+      <c r="S76" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="77" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="109" t="s">
+      <c r="B77" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109" t="s">
+      <c r="C77" s="114"/>
+      <c r="D77" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109" t="s">
+      <c r="E77" s="114"/>
+      <c r="F77" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109" t="s">
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="109"/>
-      <c r="N77" s="109" t="s">
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="109"/>
-      <c r="P77" s="109"/>
-      <c r="Q77" s="109"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="114"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S77" s="62"/>
+      <c r="S77" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="78" spans="1:22" s="63" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="109" t="s">
+      <c r="B78" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109" t="s">
+      <c r="C78" s="114"/>
+      <c r="D78" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109" t="s">
+      <c r="E78" s="114"/>
+      <c r="F78" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109" t="s">
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109" t="s">
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5711,32 +5715,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="109" t="s">
+      <c r="B79" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109" t="s">
+      <c r="C79" s="114"/>
+      <c r="D79" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="109"/>
-      <c r="F79" s="109" t="s">
+      <c r="E79" s="114"/>
+      <c r="F79" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="109"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="109"/>
-      <c r="J79" s="109" t="s">
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="109"/>
-      <c r="L79" s="109"/>
-      <c r="M79" s="109"/>
-      <c r="N79" s="109" t="s">
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="109"/>
-      <c r="P79" s="109"/>
-      <c r="Q79" s="109"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5746,32 +5750,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="109" t="s">
+      <c r="B80" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109" t="s">
+      <c r="C80" s="114"/>
+      <c r="D80" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="109"/>
-      <c r="F80" s="109" t="s">
+      <c r="E80" s="114"/>
+      <c r="F80" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="109"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="109"/>
-      <c r="J80" s="109" t="s">
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="109"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="109"/>
-      <c r="N80" s="109" t="s">
+      <c r="K80" s="114"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="109"/>
-      <c r="P80" s="109"/>
-      <c r="Q80" s="109"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5781,32 +5785,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="109" t="s">
+      <c r="B81" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="109"/>
-      <c r="D81" s="109" t="s">
+      <c r="C81" s="114"/>
+      <c r="D81" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109" t="s">
+      <c r="E81" s="114"/>
+      <c r="F81" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="109"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="109"/>
-      <c r="J81" s="109" t="s">
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="109"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="109"/>
-      <c r="N81" s="109" t="s">
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="109"/>
-      <c r="P81" s="109"/>
-      <c r="Q81" s="109"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5816,32 +5820,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="109" t="s">
+      <c r="B82" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109" t="s">
+      <c r="C82" s="114"/>
+      <c r="D82" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109" t="s">
+      <c r="E82" s="114"/>
+      <c r="F82" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="109" t="s">
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="109"/>
-      <c r="N82" s="109" t="s">
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="109"/>
-      <c r="P82" s="109"/>
-      <c r="Q82" s="109"/>
+      <c r="O82" s="114"/>
+      <c r="P82" s="114"/>
+      <c r="Q82" s="114"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5851,32 +5855,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="109" t="s">
+      <c r="B83" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109" t="s">
+      <c r="C83" s="114"/>
+      <c r="D83" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="109"/>
-      <c r="F83" s="121" t="s">
+      <c r="E83" s="114"/>
+      <c r="F83" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="122"/>
-      <c r="J83" s="121" t="s">
+      <c r="G83" s="117"/>
+      <c r="H83" s="117"/>
+      <c r="I83" s="116"/>
+      <c r="J83" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="123"/>
-      <c r="L83" s="123"/>
-      <c r="M83" s="122"/>
-      <c r="N83" s="121" t="s">
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
+      <c r="M83" s="116"/>
+      <c r="N83" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="122"/>
-      <c r="P83" s="109"/>
-      <c r="Q83" s="109"/>
+      <c r="O83" s="116"/>
+      <c r="P83" s="114"/>
+      <c r="Q83" s="114"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5888,32 +5892,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="109" t="s">
+      <c r="B84" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109" t="s">
+      <c r="C84" s="114"/>
+      <c r="D84" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="109"/>
-      <c r="F84" s="109" t="s">
+      <c r="E84" s="114"/>
+      <c r="F84" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="109"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="109"/>
-      <c r="J84" s="109" t="s">
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="109"/>
-      <c r="N84" s="109" t="s">
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="114"/>
+      <c r="N84" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="109"/>
-      <c r="P84" s="109"/>
-      <c r="Q84" s="109"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="114"/>
+      <c r="Q84" s="114"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5923,32 +5927,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="109" t="s">
+      <c r="B85" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="109"/>
-      <c r="D85" s="109" t="s">
+      <c r="C85" s="114"/>
+      <c r="D85" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109" t="s">
+      <c r="E85" s="114"/>
+      <c r="F85" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109" t="s">
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="109"/>
-      <c r="N85" s="109" t="s">
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
+      <c r="Q85" s="114"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5958,32 +5962,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="109" t="s">
+      <c r="B86" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109" t="s">
+      <c r="C86" s="114"/>
+      <c r="D86" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109" t="s">
+      <c r="E86" s="114"/>
+      <c r="F86" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="109"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="109" t="s">
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="109"/>
-      <c r="N86" s="109" t="s">
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="109"/>
-      <c r="P86" s="109"/>
-      <c r="Q86" s="109"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -5993,32 +5997,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="109" t="s">
+      <c r="B87" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109" t="s">
+      <c r="C87" s="114"/>
+      <c r="D87" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109" t="s">
+      <c r="E87" s="114"/>
+      <c r="F87" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="109" t="s">
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="109"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="109"/>
-      <c r="N87" s="109" t="s">
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="109"/>
-      <c r="P87" s="109"/>
-      <c r="Q87" s="109"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
+      <c r="Q87" s="114"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6028,32 +6032,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="109" t="s">
+      <c r="B88" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109" t="s">
+      <c r="C88" s="114"/>
+      <c r="D88" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109" t="s">
+      <c r="E88" s="114"/>
+      <c r="F88" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109" t="s">
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="109"/>
-      <c r="N88" s="109" t="s">
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="109"/>
-      <c r="P88" s="109"/>
-      <c r="Q88" s="109"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6063,32 +6067,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="109" t="s">
+      <c r="B89" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109" t="s">
+      <c r="C89" s="114"/>
+      <c r="D89" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109" t="s">
+      <c r="E89" s="114"/>
+      <c r="F89" s="114" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="109"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109" t="s">
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="109"/>
-      <c r="L89" s="109"/>
-      <c r="M89" s="109"/>
-      <c r="N89" s="109" t="s">
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="109"/>
-      <c r="P89" s="109"/>
-      <c r="Q89" s="109"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
+      <c r="Q89" s="114"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6100,32 +6104,32 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="110" t="s">
+      <c r="B90" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="111"/>
-      <c r="D90" s="110" t="s">
+      <c r="C90" s="121"/>
+      <c r="D90" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="111"/>
-      <c r="F90" s="110" t="s">
+      <c r="E90" s="121"/>
+      <c r="F90" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="111"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="110" t="s">
+      <c r="G90" s="121"/>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="111"/>
-      <c r="L90" s="111"/>
-      <c r="M90" s="111"/>
-      <c r="N90" s="110" t="s">
+      <c r="K90" s="121"/>
+      <c r="L90" s="121"/>
+      <c r="M90" s="121"/>
+      <c r="N90" s="120" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="111"/>
-      <c r="P90" s="111"/>
-      <c r="Q90" s="111"/>
+      <c r="O90" s="121"/>
+      <c r="P90" s="121"/>
+      <c r="Q90" s="121"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
@@ -6296,32 +6300,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="108"/>
-      <c r="D92" s="107" t="s">
+      <c r="C92" s="123"/>
+      <c r="D92" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="108"/>
-      <c r="F92" s="107" t="s">
+      <c r="E92" s="123"/>
+      <c r="F92" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="108"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="108"/>
-      <c r="J92" s="107" t="s">
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="108"/>
-      <c r="L92" s="108"/>
-      <c r="M92" s="108"/>
-      <c r="N92" s="107" t="s">
+      <c r="K92" s="123"/>
+      <c r="L92" s="123"/>
+      <c r="M92" s="123"/>
+      <c r="N92" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="108"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="108"/>
+      <c r="O92" s="123"/>
+      <c r="P92" s="123"/>
+      <c r="Q92" s="123"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6804,48 +6808,48 @@
       <c r="Q103" s="104"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="115" t="s">
+      <c r="A104" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="116"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="116"/>
-      <c r="E104" s="116"/>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="116"/>
-      <c r="M104" s="116"/>
-      <c r="N104" s="116"/>
-      <c r="O104" s="116"/>
-      <c r="P104" s="116"/>
-      <c r="Q104" s="116"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="117"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="109"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="118"/>
-      <c r="B105" s="119"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="119"/>
-      <c r="E105" s="119"/>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="119"/>
-      <c r="I105" s="119"/>
-      <c r="J105" s="119"/>
-      <c r="K105" s="119"/>
-      <c r="L105" s="119"/>
-      <c r="M105" s="119"/>
-      <c r="N105" s="119"/>
-      <c r="O105" s="119"/>
-      <c r="P105" s="119"/>
-      <c r="Q105" s="119"/>
-      <c r="R105" s="119"/>
-      <c r="S105" s="120"/>
+      <c r="A105" s="110"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="111"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="111"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="111"/>
+      <c r="K105" s="111"/>
+      <c r="L105" s="111"/>
+      <c r="M105" s="111"/>
+      <c r="N105" s="111"/>
+      <c r="O105" s="111"/>
+      <c r="P105" s="111"/>
+      <c r="Q105" s="111"/>
+      <c r="R105" s="111"/>
+      <c r="S105" s="112"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B106" s="104"/>
@@ -7274,6 +7278,681 @@
     </row>
   </sheetData>
   <mergeCells count="699">
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A3:S4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:I70"/>
@@ -7298,681 +7977,6 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="J72:M72"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A3:S4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8018,12 +8022,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8055,12 +8059,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -8072,19 +8076,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8096,19 +8100,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8120,19 +8124,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8151,12 +8155,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8168,12 +8172,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8186,12 +8190,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8203,12 +8207,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="99" t="s">
+      <c r="H13" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8220,12 +8224,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8237,12 +8241,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8254,12 +8258,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8269,12 +8273,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="72" t="s">
         <v>22</v>
       </c>
@@ -8286,12 +8290,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
       <c r="L18" s="74" t="s">
         <v>34</v>
       </c>
@@ -8320,12 +8324,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8338,12 +8342,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -8353,12 +8357,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -8370,12 +8374,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8387,12 +8391,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -8402,12 +8406,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8419,12 +8423,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8436,12 +8440,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8451,12 +8455,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8468,12 +8472,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8490,12 +8494,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="82" t="s">
+      <c r="H32" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8507,12 +8511,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="72" t="s">
         <v>33</v>
       </c>
@@ -8524,12 +8528,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8541,12 +8545,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8558,12 +8562,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8575,12 +8579,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -8592,12 +8596,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8609,12 +8613,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8624,12 +8628,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8641,12 +8645,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8656,12 +8660,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8673,12 +8677,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8695,12 +8699,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -8712,12 +8716,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="82" t="s">
+      <c r="H47" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="72" t="s">
         <v>33</v>
       </c>
@@ -8729,12 +8733,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8744,12 +8748,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8761,12 +8765,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="83" t="s">
+      <c r="H50" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8776,12 +8780,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8793,12 +8797,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8811,6 +8815,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
@@ -8823,38 +8859,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="12750" windowHeight="9195" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18180" windowHeight="10245" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1804,75 +1804,75 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1882,6 +1882,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1900,12 +1924,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1913,24 +1931,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2267,12 +2267,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2304,12 +2304,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2321,19 +2321,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2345,19 +2345,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2369,19 +2369,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2400,12 +2400,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2417,12 +2417,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2435,12 +2435,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2452,12 +2452,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2469,12 +2469,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2486,12 +2486,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2503,12 +2503,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2518,12 +2518,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2535,12 +2535,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2569,12 +2569,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2587,12 +2587,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2602,12 +2602,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2619,12 +2619,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2636,12 +2636,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2651,12 +2651,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="99" t="s">
+      <c r="H25" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2668,12 +2668,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="90" t="s">
+      <c r="H26" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2685,12 +2685,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2700,12 +2700,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2717,12 +2717,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2739,12 +2739,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2756,12 +2756,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2773,12 +2773,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2790,12 +2790,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2807,12 +2807,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2824,12 +2824,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="83" t="s">
+      <c r="H37" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2841,12 +2841,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="93" t="s">
+      <c r="H38" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2858,12 +2858,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2873,12 +2873,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="95" t="s">
+      <c r="H40" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2890,12 +2890,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2905,12 +2905,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2922,12 +2922,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="84" t="s">
+      <c r="H43" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2944,12 +2944,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2961,12 +2961,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2978,12 +2978,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2993,12 +2993,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="95" t="s">
+      <c r="H49" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3010,12 +3010,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="94" t="s">
+      <c r="H50" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3025,12 +3025,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="84" t="s">
+      <c r="H51" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3042,12 +3042,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="84" t="s">
+      <c r="H52" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3060,19 +3060,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3089,21 +3091,19 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3122,8 +3122,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3175,48 +3175,48 @@
       <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="109"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="112"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="104"/>
@@ -3240,34 +3240,34 @@
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118" t="s">
+      <c r="E6" s="113"/>
+      <c r="F6" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118" t="s">
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118" t="s">
+      <c r="O6" s="113"/>
+      <c r="P6" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="119"/>
+      <c r="Q6" s="114"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3326,7 +3326,9 @@
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="55"/>
+      <c r="S8" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
@@ -3548,27 +3550,27 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="106"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="106"/>
-      <c r="F15" s="113" t="s">
+      <c r="F15" s="112" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
       <c r="I15" s="106"/>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="112" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="106"/>
       <c r="L15" s="106"/>
       <c r="M15" s="106"/>
-      <c r="N15" s="113" t="s">
+      <c r="N15" s="112" t="s">
         <v>178</v>
       </c>
       <c r="O15" s="106"/>
@@ -3583,27 +3585,27 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="106"/>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="106"/>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="112" t="s">
         <v>184</v>
       </c>
       <c r="G16" s="106"/>
       <c r="H16" s="106"/>
       <c r="I16" s="106"/>
-      <c r="J16" s="113" t="s">
+      <c r="J16" s="112" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="106"/>
       <c r="L16" s="106"/>
       <c r="M16" s="106"/>
-      <c r="N16" s="113" t="s">
+      <c r="N16" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O16" s="106"/>
@@ -3618,27 +3620,27 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="106"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="106"/>
-      <c r="F17" s="113" t="s">
+      <c r="F17" s="112" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="106"/>
       <c r="H17" s="106"/>
       <c r="I17" s="106"/>
-      <c r="J17" s="113" t="s">
+      <c r="J17" s="112" t="s">
         <v>188</v>
       </c>
       <c r="K17" s="106"/>
       <c r="L17" s="106"/>
       <c r="M17" s="106"/>
-      <c r="N17" s="113" t="s">
+      <c r="N17" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O17" s="106"/>
@@ -3655,27 +3657,27 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="106"/>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="106"/>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="112" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="106"/>
       <c r="H18" s="106"/>
       <c r="I18" s="106"/>
-      <c r="J18" s="113" t="s">
+      <c r="J18" s="112" t="s">
         <v>190</v>
       </c>
       <c r="K18" s="106"/>
       <c r="L18" s="106"/>
       <c r="M18" s="106"/>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="112" t="s">
         <v>169</v>
       </c>
       <c r="O18" s="106"/>
@@ -3690,27 +3692,27 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="106"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="106"/>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="112" t="s">
         <v>191</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="106"/>
       <c r="I19" s="106"/>
-      <c r="J19" s="113" t="s">
+      <c r="J19" s="112" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="106"/>
       <c r="L19" s="106"/>
       <c r="M19" s="106"/>
-      <c r="N19" s="113" t="s">
+      <c r="N19" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O19" s="106"/>
@@ -3727,27 +3729,27 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="106"/>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="106"/>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="112" t="s">
         <v>193</v>
       </c>
       <c r="G20" s="106"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
-      <c r="J20" s="113" t="s">
+      <c r="J20" s="112" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="106"/>
       <c r="L20" s="106"/>
       <c r="M20" s="106"/>
-      <c r="N20" s="113" t="s">
+      <c r="N20" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O20" s="106"/>
@@ -3762,27 +3764,27 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="106"/>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="106"/>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="112" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="106"/>
       <c r="H21" s="106"/>
       <c r="I21" s="106"/>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="112" t="s">
         <v>196</v>
       </c>
       <c r="K21" s="106"/>
       <c r="L21" s="106"/>
       <c r="M21" s="106"/>
-      <c r="N21" s="113" t="s">
+      <c r="N21" s="112" t="s">
         <v>197</v>
       </c>
       <c r="O21" s="106"/>
@@ -3797,27 +3799,27 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="106"/>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="106"/>
-      <c r="F22" s="113" t="s">
+      <c r="F22" s="112" t="s">
         <v>198</v>
       </c>
       <c r="G22" s="106"/>
       <c r="H22" s="106"/>
       <c r="I22" s="106"/>
-      <c r="J22" s="113" t="s">
+      <c r="J22" s="112" t="s">
         <v>199</v>
       </c>
       <c r="K22" s="106"/>
       <c r="L22" s="106"/>
       <c r="M22" s="106"/>
-      <c r="N22" s="113" t="s">
+      <c r="N22" s="112" t="s">
         <v>286</v>
       </c>
       <c r="O22" s="106"/>
@@ -3832,27 +3834,27 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="106"/>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="106"/>
-      <c r="F23" s="113" t="s">
+      <c r="F23" s="112" t="s">
         <v>200</v>
       </c>
       <c r="G23" s="106"/>
       <c r="H23" s="106"/>
       <c r="I23" s="106"/>
-      <c r="J23" s="113" t="s">
+      <c r="J23" s="112" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="106"/>
       <c r="L23" s="106"/>
       <c r="M23" s="106"/>
-      <c r="N23" s="113" t="s">
+      <c r="N23" s="112" t="s">
         <v>202</v>
       </c>
       <c r="O23" s="106"/>
@@ -3867,27 +3869,27 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="106"/>
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="112" t="s">
         <v>255</v>
       </c>
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
       <c r="I24" s="106"/>
-      <c r="J24" s="113" t="s">
+      <c r="J24" s="112" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="106"/>
       <c r="M24" s="106"/>
-      <c r="N24" s="113" t="s">
+      <c r="N24" s="112" t="s">
         <v>204</v>
       </c>
       <c r="O24" s="106"/>
@@ -3902,27 +3904,27 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="106"/>
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="106"/>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="112" t="s">
         <v>205</v>
       </c>
       <c r="G25" s="106"/>
       <c r="H25" s="106"/>
       <c r="I25" s="106"/>
-      <c r="J25" s="113" t="s">
+      <c r="J25" s="112" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="106"/>
       <c r="L25" s="106"/>
       <c r="M25" s="106"/>
-      <c r="N25" s="113" t="s">
+      <c r="N25" s="112" t="s">
         <v>204</v>
       </c>
       <c r="O25" s="106"/>
@@ -3937,27 +3939,27 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="106"/>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="106"/>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="112" t="s">
         <v>207</v>
       </c>
       <c r="G26" s="106"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
-      <c r="J26" s="113" t="s">
+      <c r="J26" s="112" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="106"/>
       <c r="L26" s="106"/>
       <c r="M26" s="106"/>
-      <c r="N26" s="113" t="s">
+      <c r="N26" s="112" t="s">
         <v>209</v>
       </c>
       <c r="O26" s="106"/>
@@ -3972,11 +3974,11 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="106"/>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="106"/>
@@ -4009,27 +4011,27 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="106"/>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="106"/>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="112" t="s">
         <v>227</v>
       </c>
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
       <c r="I28" s="106"/>
-      <c r="J28" s="113" t="s">
+      <c r="J28" s="112" t="s">
         <v>226</v>
       </c>
       <c r="K28" s="106"/>
       <c r="L28" s="106"/>
       <c r="M28" s="106"/>
-      <c r="N28" s="113" t="s">
+      <c r="N28" s="112" t="s">
         <v>212</v>
       </c>
       <c r="O28" s="106"/>
@@ -4044,27 +4046,27 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="106"/>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="106"/>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="112" t="s">
         <v>213</v>
       </c>
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
       <c r="I29" s="106"/>
-      <c r="J29" s="113" t="s">
+      <c r="J29" s="112" t="s">
         <v>214</v>
       </c>
       <c r="K29" s="106"/>
       <c r="L29" s="106"/>
       <c r="M29" s="106"/>
-      <c r="N29" s="113" t="s">
+      <c r="N29" s="112" t="s">
         <v>212</v>
       </c>
       <c r="O29" s="106"/>
@@ -4079,27 +4081,27 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="106"/>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="106"/>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="112" t="s">
         <v>215</v>
       </c>
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
       <c r="I30" s="106"/>
-      <c r="J30" s="113" t="s">
+      <c r="J30" s="112" t="s">
         <v>216</v>
       </c>
       <c r="K30" s="106"/>
       <c r="L30" s="106"/>
       <c r="M30" s="106"/>
-      <c r="N30" s="113" t="s">
+      <c r="N30" s="112" t="s">
         <v>186</v>
       </c>
       <c r="O30" s="106"/>
@@ -4114,27 +4116,27 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="106"/>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="106"/>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="112" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
       <c r="I31" s="106"/>
-      <c r="J31" s="113" t="s">
+      <c r="J31" s="112" t="s">
         <v>218</v>
       </c>
       <c r="K31" s="106"/>
       <c r="L31" s="106"/>
       <c r="M31" s="106"/>
-      <c r="N31" s="113" t="s">
+      <c r="N31" s="112" t="s">
         <v>219</v>
       </c>
       <c r="O31" s="106"/>
@@ -4151,27 +4153,27 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="106"/>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="106"/>
-      <c r="F32" s="113" t="s">
+      <c r="F32" s="112" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
-      <c r="J32" s="113" t="s">
+      <c r="J32" s="112" t="s">
         <v>221</v>
       </c>
       <c r="K32" s="106"/>
       <c r="L32" s="106"/>
       <c r="M32" s="106"/>
-      <c r="N32" s="113" t="s">
+      <c r="N32" s="112" t="s">
         <v>222</v>
       </c>
       <c r="O32" s="106"/>
@@ -4188,27 +4190,27 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="106"/>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="106"/>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="112" t="s">
         <v>223</v>
       </c>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="106"/>
-      <c r="J33" s="113" t="s">
+      <c r="J33" s="112" t="s">
         <v>224</v>
       </c>
       <c r="K33" s="106"/>
       <c r="L33" s="106"/>
       <c r="M33" s="106"/>
-      <c r="N33" s="113" t="s">
+      <c r="N33" s="112" t="s">
         <v>212</v>
       </c>
       <c r="O33" s="106"/>
@@ -4223,27 +4225,27 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="106"/>
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="106"/>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="112" t="s">
         <v>225</v>
       </c>
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
       <c r="I34" s="106"/>
-      <c r="J34" s="113" t="s">
+      <c r="J34" s="112" t="s">
         <v>228</v>
       </c>
       <c r="K34" s="106"/>
       <c r="L34" s="106"/>
       <c r="M34" s="106"/>
-      <c r="N34" s="113" t="s">
+      <c r="N34" s="112" t="s">
         <v>229</v>
       </c>
       <c r="O34" s="106"/>
@@ -4258,27 +4260,27 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="106"/>
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="106"/>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="112" t="s">
         <v>258</v>
       </c>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="106"/>
-      <c r="J35" s="113" t="s">
+      <c r="J35" s="112" t="s">
         <v>230</v>
       </c>
       <c r="K35" s="106"/>
       <c r="L35" s="106"/>
       <c r="M35" s="106"/>
-      <c r="N35" s="113" t="s">
+      <c r="N35" s="112" t="s">
         <v>229</v>
       </c>
       <c r="O35" s="106"/>
@@ -4293,21 +4295,21 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="106"/>
-      <c r="D36" s="113" t="s">
+      <c r="D36" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="106"/>
-      <c r="F36" s="113" t="s">
+      <c r="F36" s="112" t="s">
         <v>248</v>
       </c>
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
       <c r="I36" s="106"/>
-      <c r="J36" s="113" t="s">
+      <c r="J36" s="112" t="s">
         <v>249</v>
       </c>
       <c r="K36" s="106"/>
@@ -4326,27 +4328,27 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="106"/>
-      <c r="D37" s="113" t="s">
+      <c r="D37" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="106"/>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="112" t="s">
         <v>231</v>
       </c>
       <c r="G37" s="106"/>
       <c r="H37" s="106"/>
       <c r="I37" s="106"/>
-      <c r="J37" s="113" t="s">
+      <c r="J37" s="112" t="s">
         <v>232</v>
       </c>
       <c r="K37" s="106"/>
       <c r="L37" s="106"/>
       <c r="M37" s="106"/>
-      <c r="N37" s="113" t="s">
+      <c r="N37" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O37" s="106"/>
@@ -4363,27 +4365,27 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="106"/>
-      <c r="D38" s="113" t="s">
+      <c r="D38" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="106"/>
-      <c r="F38" s="113" t="s">
+      <c r="F38" s="112" t="s">
         <v>233</v>
       </c>
       <c r="G38" s="106"/>
       <c r="H38" s="106"/>
       <c r="I38" s="106"/>
-      <c r="J38" s="113" t="s">
+      <c r="J38" s="112" t="s">
         <v>234</v>
       </c>
       <c r="K38" s="106"/>
       <c r="L38" s="106"/>
       <c r="M38" s="106"/>
-      <c r="N38" s="113" t="s">
+      <c r="N38" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O38" s="106"/>
@@ -4398,27 +4400,27 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="106"/>
-      <c r="D39" s="113" t="s">
+      <c r="D39" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="106"/>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="112" t="s">
         <v>236</v>
       </c>
       <c r="G39" s="106"/>
       <c r="H39" s="106"/>
       <c r="I39" s="106"/>
-      <c r="J39" s="113" t="s">
+      <c r="J39" s="112" t="s">
         <v>235</v>
       </c>
       <c r="K39" s="106"/>
       <c r="L39" s="106"/>
       <c r="M39" s="106"/>
-      <c r="N39" s="113" t="s">
+      <c r="N39" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O39" s="106"/>
@@ -4433,27 +4435,27 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="106"/>
-      <c r="D40" s="113" t="s">
+      <c r="D40" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="106"/>
-      <c r="F40" s="113" t="s">
+      <c r="F40" s="112" t="s">
         <v>237</v>
       </c>
       <c r="G40" s="106"/>
       <c r="H40" s="106"/>
       <c r="I40" s="106"/>
-      <c r="J40" s="113" t="s">
+      <c r="J40" s="112" t="s">
         <v>238</v>
       </c>
       <c r="K40" s="106"/>
       <c r="L40" s="106"/>
       <c r="M40" s="106"/>
-      <c r="N40" s="113" t="s">
+      <c r="N40" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O40" s="106"/>
@@ -4468,27 +4470,27 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="106"/>
-      <c r="D41" s="113" t="s">
+      <c r="D41" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="106"/>
-      <c r="F41" s="113" t="s">
+      <c r="F41" s="112" t="s">
         <v>239</v>
       </c>
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
       <c r="I41" s="106"/>
-      <c r="J41" s="113" t="s">
+      <c r="J41" s="112" t="s">
         <v>240</v>
       </c>
       <c r="K41" s="106"/>
       <c r="L41" s="106"/>
       <c r="M41" s="106"/>
-      <c r="N41" s="113" t="s">
+      <c r="N41" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O41" s="106"/>
@@ -4503,27 +4505,27 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="106"/>
-      <c r="D42" s="113" t="s">
+      <c r="D42" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="106"/>
-      <c r="F42" s="113" t="s">
+      <c r="F42" s="112" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="106"/>
       <c r="H42" s="106"/>
       <c r="I42" s="106"/>
-      <c r="J42" s="113" t="s">
+      <c r="J42" s="112" t="s">
         <v>242</v>
       </c>
       <c r="K42" s="106"/>
       <c r="L42" s="106"/>
       <c r="M42" s="106"/>
-      <c r="N42" s="113" t="s">
+      <c r="N42" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O42" s="106"/>
@@ -4538,27 +4540,27 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="106"/>
-      <c r="D43" s="113" t="s">
+      <c r="D43" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="106"/>
-      <c r="F43" s="113" t="s">
+      <c r="F43" s="112" t="s">
         <v>243</v>
       </c>
       <c r="G43" s="106"/>
       <c r="H43" s="106"/>
       <c r="I43" s="106"/>
-      <c r="J43" s="113" t="s">
+      <c r="J43" s="112" t="s">
         <v>244</v>
       </c>
       <c r="K43" s="106"/>
       <c r="L43" s="106"/>
       <c r="M43" s="106"/>
-      <c r="N43" s="113" t="s">
+      <c r="N43" s="112" t="s">
         <v>172</v>
       </c>
       <c r="O43" s="106"/>
@@ -4573,11 +4575,11 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="106"/>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="106"/>
@@ -4587,13 +4589,13 @@
       <c r="G44" s="106"/>
       <c r="H44" s="106"/>
       <c r="I44" s="106"/>
-      <c r="J44" s="113" t="s">
+      <c r="J44" s="112" t="s">
         <v>245</v>
       </c>
       <c r="K44" s="106"/>
       <c r="L44" s="106"/>
       <c r="M44" s="106"/>
-      <c r="N44" s="113" t="s">
+      <c r="N44" s="112" t="s">
         <v>164</v>
       </c>
       <c r="O44" s="106"/>
@@ -4608,27 +4610,27 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="106"/>
-      <c r="D45" s="113" t="s">
+      <c r="D45" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="106"/>
-      <c r="F45" s="113" t="s">
+      <c r="F45" s="112" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="106"/>
       <c r="H45" s="106"/>
       <c r="I45" s="106"/>
-      <c r="J45" s="113" t="s">
+      <c r="J45" s="112" t="s">
         <v>247</v>
       </c>
       <c r="K45" s="106"/>
       <c r="L45" s="106"/>
       <c r="M45" s="106"/>
-      <c r="N45" s="113" t="s">
+      <c r="N45" s="112" t="s">
         <v>164</v>
       </c>
       <c r="O45" s="106"/>
@@ -4643,27 +4645,27 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="106"/>
-      <c r="D46" s="113" t="s">
+      <c r="D46" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="106"/>
-      <c r="F46" s="113" t="s">
+      <c r="F46" s="112" t="s">
         <v>250</v>
       </c>
       <c r="G46" s="106"/>
       <c r="H46" s="106"/>
       <c r="I46" s="106"/>
-      <c r="J46" s="113" t="s">
+      <c r="J46" s="112" t="s">
         <v>251</v>
       </c>
       <c r="K46" s="106"/>
       <c r="L46" s="106"/>
       <c r="M46" s="106"/>
-      <c r="N46" s="113" t="s">
+      <c r="N46" s="112" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="106"/>
@@ -4680,27 +4682,27 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="106"/>
-      <c r="D47" s="113" t="s">
+      <c r="D47" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="106"/>
-      <c r="F47" s="113" t="s">
+      <c r="F47" s="112" t="s">
         <v>253</v>
       </c>
       <c r="G47" s="106"/>
       <c r="H47" s="106"/>
       <c r="I47" s="106"/>
-      <c r="J47" s="113" t="s">
+      <c r="J47" s="112" t="s">
         <v>279</v>
       </c>
       <c r="K47" s="106"/>
       <c r="L47" s="106"/>
       <c r="M47" s="106"/>
-      <c r="N47" s="113" t="s">
+      <c r="N47" s="112" t="s">
         <v>254</v>
       </c>
       <c r="O47" s="106"/>
@@ -4717,31 +4719,31 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="106"/>
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="106"/>
-      <c r="F48" s="113" t="s">
+      <c r="F48" s="112" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="106"/>
       <c r="H48" s="106"/>
       <c r="I48" s="106"/>
-      <c r="J48" s="113" t="s">
+      <c r="J48" s="112" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="106"/>
       <c r="L48" s="106"/>
       <c r="M48" s="106"/>
-      <c r="N48" s="113" t="s">
+      <c r="N48" s="112" t="s">
         <v>11</v>
       </c>
       <c r="O48" s="106"/>
-      <c r="P48" s="113"/>
+      <c r="P48" s="112"/>
       <c r="Q48" s="106"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
@@ -4755,28 +4757,28 @@
       <c r="B49" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113" t="s">
+      <c r="C49" s="112"/>
+      <c r="D49" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113" t="s">
+      <c r="E49" s="112"/>
+      <c r="F49" s="112" t="s">
         <v>282</v>
       </c>
       <c r="G49" s="106"/>
       <c r="H49" s="106"/>
       <c r="I49" s="106"/>
-      <c r="J49" s="113" t="s">
+      <c r="J49" s="112" t="s">
         <v>283</v>
       </c>
       <c r="K49" s="106"/>
       <c r="L49" s="106"/>
       <c r="M49" s="106"/>
-      <c r="N49" s="113" t="s">
+      <c r="N49" s="112" t="s">
         <v>11</v>
       </c>
       <c r="O49" s="106"/>
-      <c r="P49" s="113"/>
+      <c r="P49" s="112"/>
       <c r="Q49" s="106"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
@@ -4791,27 +4793,27 @@
         <v>133</v>
       </c>
       <c r="C50" s="106"/>
-      <c r="D50" s="113" t="s">
+      <c r="D50" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="106"/>
-      <c r="F50" s="113" t="s">
+      <c r="F50" s="112" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="106"/>
       <c r="H50" s="106"/>
       <c r="I50" s="106"/>
-      <c r="J50" s="113" t="s">
+      <c r="J50" s="112" t="s">
         <v>110</v>
       </c>
       <c r="K50" s="106"/>
       <c r="L50" s="106"/>
       <c r="M50" s="106"/>
-      <c r="N50" s="113" t="s">
+      <c r="N50" s="112" t="s">
         <v>111</v>
       </c>
       <c r="O50" s="106"/>
-      <c r="P50" s="113"/>
+      <c r="P50" s="112"/>
       <c r="Q50" s="106"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
@@ -4826,27 +4828,27 @@
         <v>9</v>
       </c>
       <c r="C51" s="106"/>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="106"/>
-      <c r="F51" s="113" t="s">
+      <c r="F51" s="112" t="s">
         <v>109</v>
       </c>
       <c r="G51" s="106"/>
       <c r="H51" s="106"/>
       <c r="I51" s="106"/>
-      <c r="J51" s="113" t="s">
+      <c r="J51" s="112" t="s">
         <v>110</v>
       </c>
       <c r="K51" s="106"/>
       <c r="L51" s="106"/>
       <c r="M51" s="106"/>
-      <c r="N51" s="113" t="s">
+      <c r="N51" s="112" t="s">
         <v>114</v>
       </c>
       <c r="O51" s="106"/>
-      <c r="P51" s="113"/>
+      <c r="P51" s="112"/>
       <c r="Q51" s="106"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
@@ -4861,27 +4863,27 @@
         <v>9</v>
       </c>
       <c r="C52" s="106"/>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="106"/>
-      <c r="F52" s="113" t="s">
+      <c r="F52" s="112" t="s">
         <v>116</v>
       </c>
       <c r="G52" s="106"/>
       <c r="H52" s="106"/>
       <c r="I52" s="106"/>
-      <c r="J52" s="113" t="s">
+      <c r="J52" s="112" t="s">
         <v>117</v>
       </c>
       <c r="K52" s="106"/>
       <c r="L52" s="106"/>
       <c r="M52" s="106"/>
-      <c r="N52" s="113" t="s">
+      <c r="N52" s="112" t="s">
         <v>103</v>
       </c>
       <c r="O52" s="106"/>
-      <c r="P52" s="113"/>
+      <c r="P52" s="112"/>
       <c r="Q52" s="106"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
@@ -4896,7 +4898,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="106"/>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E53" s="106"/>
@@ -5098,31 +5100,31 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="106"/>
-      <c r="D59" s="113" t="s">
+      <c r="D59" s="112" t="s">
         <v>146</v>
       </c>
       <c r="E59" s="106"/>
-      <c r="F59" s="113" t="s">
+      <c r="F59" s="112" t="s">
         <v>288</v>
       </c>
       <c r="G59" s="106"/>
       <c r="H59" s="106"/>
       <c r="I59" s="106"/>
-      <c r="J59" s="113" t="s">
+      <c r="J59" s="112" t="s">
         <v>289</v>
       </c>
       <c r="K59" s="106"/>
       <c r="L59" s="106"/>
       <c r="M59" s="106"/>
-      <c r="N59" s="113" t="s">
+      <c r="N59" s="112" t="s">
         <v>129</v>
       </c>
       <c r="O59" s="106"/>
-      <c r="P59" s="113"/>
+      <c r="P59" s="112"/>
       <c r="Q59" s="106"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
@@ -5133,31 +5135,31 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="106"/>
-      <c r="D60" s="113" t="s">
+      <c r="D60" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="106"/>
-      <c r="F60" s="113" t="s">
+      <c r="F60" s="112" t="s">
         <v>147</v>
       </c>
       <c r="G60" s="106"/>
       <c r="H60" s="106"/>
       <c r="I60" s="106"/>
-      <c r="J60" s="113" t="s">
+      <c r="J60" s="112" t="s">
         <v>148</v>
       </c>
       <c r="K60" s="106"/>
       <c r="L60" s="106"/>
       <c r="M60" s="106"/>
-      <c r="N60" s="113" t="s">
+      <c r="N60" s="112" t="s">
         <v>129</v>
       </c>
       <c r="O60" s="106"/>
-      <c r="P60" s="113"/>
+      <c r="P60" s="112"/>
       <c r="Q60" s="106"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
@@ -5168,31 +5170,31 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="106"/>
-      <c r="D61" s="113" t="s">
+      <c r="D61" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="106"/>
-      <c r="F61" s="113" t="s">
+      <c r="F61" s="112" t="s">
         <v>290</v>
       </c>
       <c r="G61" s="106"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
-      <c r="J61" s="113" t="s">
+      <c r="J61" s="112" t="s">
         <v>291</v>
       </c>
       <c r="K61" s="106"/>
       <c r="L61" s="106"/>
       <c r="M61" s="106"/>
-      <c r="N61" s="113" t="s">
+      <c r="N61" s="112" t="s">
         <v>149</v>
       </c>
       <c r="O61" s="106"/>
-      <c r="P61" s="113"/>
+      <c r="P61" s="112"/>
       <c r="Q61" s="106"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
@@ -5203,31 +5205,31 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="113" t="s">
+      <c r="B62" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C62" s="106"/>
-      <c r="D62" s="113" t="s">
+      <c r="D62" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="106"/>
-      <c r="F62" s="113" t="s">
+      <c r="F62" s="112" t="s">
         <v>150</v>
       </c>
       <c r="G62" s="106"/>
       <c r="H62" s="106"/>
       <c r="I62" s="106"/>
-      <c r="J62" s="113" t="s">
+      <c r="J62" s="112" t="s">
         <v>151</v>
       </c>
       <c r="K62" s="106"/>
       <c r="L62" s="106"/>
       <c r="M62" s="106"/>
-      <c r="N62" s="113" t="s">
+      <c r="N62" s="112" t="s">
         <v>149</v>
       </c>
       <c r="O62" s="106"/>
-      <c r="P62" s="113"/>
+      <c r="P62" s="112"/>
       <c r="Q62" s="106"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
@@ -5240,31 +5242,31 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="106"/>
-      <c r="D63" s="113" t="s">
+      <c r="D63" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="106"/>
-      <c r="F63" s="113" t="s">
+      <c r="F63" s="112" t="s">
         <v>153</v>
       </c>
       <c r="G63" s="106"/>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
-      <c r="J63" s="113" t="s">
+      <c r="J63" s="112" t="s">
         <v>152</v>
       </c>
       <c r="K63" s="106"/>
       <c r="L63" s="106"/>
       <c r="M63" s="106"/>
-      <c r="N63" s="113" t="s">
+      <c r="N63" s="112" t="s">
         <v>149</v>
       </c>
       <c r="O63" s="106"/>
-      <c r="P63" s="113"/>
+      <c r="P63" s="112"/>
       <c r="Q63" s="106"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
@@ -5275,31 +5277,31 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="112" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="106"/>
-      <c r="D64" s="113" t="s">
+      <c r="D64" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="106"/>
-      <c r="F64" s="113" t="s">
+      <c r="F64" s="112" t="s">
         <v>155</v>
       </c>
       <c r="G64" s="106"/>
       <c r="H64" s="106"/>
       <c r="I64" s="106"/>
-      <c r="J64" s="113" t="s">
+      <c r="J64" s="112" t="s">
         <v>156</v>
       </c>
       <c r="K64" s="106"/>
       <c r="L64" s="106"/>
       <c r="M64" s="106"/>
-      <c r="N64" s="113" t="s">
+      <c r="N64" s="112" t="s">
         <v>157</v>
       </c>
       <c r="O64" s="106"/>
-      <c r="P64" s="113"/>
+      <c r="P64" s="112"/>
       <c r="Q64" s="106"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
@@ -5310,31 +5312,31 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="112" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="106"/>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="112" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="106"/>
-      <c r="F65" s="113" t="s">
+      <c r="F65" s="112" t="s">
         <v>293</v>
       </c>
       <c r="G65" s="106"/>
       <c r="H65" s="106"/>
       <c r="I65" s="106"/>
-      <c r="J65" s="113" t="s">
+      <c r="J65" s="112" t="s">
         <v>294</v>
       </c>
       <c r="K65" s="106"/>
       <c r="L65" s="106"/>
       <c r="M65" s="106"/>
-      <c r="N65" s="113" t="s">
+      <c r="N65" s="112" t="s">
         <v>160</v>
       </c>
       <c r="O65" s="106"/>
-      <c r="P65" s="113"/>
+      <c r="P65" s="112"/>
       <c r="Q65" s="106"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
@@ -5345,11 +5347,11 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="106"/>
-      <c r="D66" s="113" t="s">
+      <c r="D66" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="106"/>
@@ -5365,11 +5367,11 @@
       <c r="K66" s="106"/>
       <c r="L66" s="106"/>
       <c r="M66" s="106"/>
-      <c r="N66" s="113" t="s">
+      <c r="N66" s="112" t="s">
         <v>16</v>
       </c>
       <c r="O66" s="106"/>
-      <c r="P66" s="113"/>
+      <c r="P66" s="112"/>
       <c r="Q66" s="106"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
@@ -5384,27 +5386,27 @@
         <v>133</v>
       </c>
       <c r="C67" s="106"/>
-      <c r="D67" s="113" t="s">
+      <c r="D67" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="106"/>
-      <c r="F67" s="113" t="s">
+      <c r="F67" s="112" t="s">
         <v>102</v>
       </c>
       <c r="G67" s="106"/>
       <c r="H67" s="106"/>
       <c r="I67" s="106"/>
-      <c r="J67" s="113" t="s">
+      <c r="J67" s="112" t="s">
         <v>101</v>
       </c>
       <c r="K67" s="106"/>
       <c r="L67" s="106"/>
       <c r="M67" s="106"/>
-      <c r="N67" s="113" t="s">
+      <c r="N67" s="112" t="s">
         <v>103</v>
       </c>
       <c r="O67" s="106"/>
-      <c r="P67" s="113"/>
+      <c r="P67" s="112"/>
       <c r="Q67" s="106"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
@@ -5419,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="106"/>
-      <c r="D68" s="113" t="s">
+      <c r="D68" s="112" t="s">
         <v>104</v>
       </c>
       <c r="E68" s="106"/>
@@ -5429,17 +5431,17 @@
       <c r="G68" s="106"/>
       <c r="H68" s="106"/>
       <c r="I68" s="106"/>
-      <c r="J68" s="113" t="s">
+      <c r="J68" s="112" t="s">
         <v>108</v>
       </c>
       <c r="K68" s="106"/>
       <c r="L68" s="106"/>
       <c r="M68" s="106"/>
-      <c r="N68" s="113" t="s">
+      <c r="N68" s="112" t="s">
         <v>105</v>
       </c>
       <c r="O68" s="106"/>
-      <c r="P68" s="113"/>
+      <c r="P68" s="112"/>
       <c r="Q68" s="106"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
@@ -5456,7 +5458,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="106"/>
-      <c r="D69" s="113" t="s">
+      <c r="D69" s="112" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="106"/>
@@ -5472,11 +5474,11 @@
       <c r="K69" s="106"/>
       <c r="L69" s="106"/>
       <c r="M69" s="106"/>
-      <c r="N69" s="113" t="s">
+      <c r="N69" s="112" t="s">
         <v>115</v>
       </c>
       <c r="O69" s="106"/>
-      <c r="P69" s="113"/>
+      <c r="P69" s="112"/>
       <c r="Q69" s="106"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
@@ -5541,48 +5543,48 @@
       <c r="Q72" s="104"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="107" t="s">
+      <c r="A73" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="108"/>
-      <c r="M73" s="108"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="109"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
+      <c r="O73" s="116"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="116"/>
+      <c r="R73" s="116"/>
+      <c r="S73" s="117"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="111"/>
-      <c r="N74" s="111"/>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111"/>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="111"/>
-      <c r="S74" s="112"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="119"/>
+      <c r="K74" s="119"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="119"/>
+      <c r="O74" s="119"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="119"/>
+      <c r="S74" s="120"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B75" s="104"/>
@@ -5606,32 +5608,32 @@
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="114" t="s">
+      <c r="B76" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114" t="s">
+      <c r="C76" s="109"/>
+      <c r="D76" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114" t="s">
+      <c r="E76" s="109"/>
+      <c r="F76" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114" t="s">
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="114"/>
-      <c r="L76" s="114"/>
-      <c r="M76" s="114"/>
-      <c r="N76" s="114" t="s">
+      <c r="K76" s="109"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="109"/>
+      <c r="N76" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="114"/>
-      <c r="P76" s="114"/>
-      <c r="Q76" s="114"/>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5643,32 +5645,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="114" t="s">
+      <c r="B77" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114" t="s">
+      <c r="C77" s="109"/>
+      <c r="D77" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114" t="s">
+      <c r="E77" s="109"/>
+      <c r="F77" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114" t="s">
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114" t="s">
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="109"/>
+      <c r="N77" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="114"/>
-      <c r="P77" s="114"/>
-      <c r="Q77" s="114"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="109"/>
+      <c r="Q77" s="109"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5680,32 +5682,32 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114" t="s">
+      <c r="C78" s="109"/>
+      <c r="D78" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114" t="s">
+      <c r="E78" s="109"/>
+      <c r="F78" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114" t="s">
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109"/>
+      <c r="J78" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="114"/>
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114" t="s">
+      <c r="K78" s="109"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="114"/>
-      <c r="P78" s="114"/>
-      <c r="Q78" s="114"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5715,32 +5717,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="114" t="s">
+      <c r="B79" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114" t="s">
+      <c r="C79" s="109"/>
+      <c r="D79" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114" t="s">
+      <c r="E79" s="109"/>
+      <c r="F79" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114" t="s">
+      <c r="G79" s="109"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="114"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114" t="s">
+      <c r="K79" s="109"/>
+      <c r="L79" s="109"/>
+      <c r="M79" s="109"/>
+      <c r="N79" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
+      <c r="O79" s="109"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="109"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5750,32 +5752,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="114" t="s">
+      <c r="B80" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="114"/>
-      <c r="D80" s="114" t="s">
+      <c r="C80" s="109"/>
+      <c r="D80" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114" t="s">
+      <c r="E80" s="109"/>
+      <c r="F80" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="114" t="s">
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="114"/>
-      <c r="L80" s="114"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="114" t="s">
+      <c r="K80" s="109"/>
+      <c r="L80" s="109"/>
+      <c r="M80" s="109"/>
+      <c r="N80" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="114"/>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5785,32 +5787,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114" t="s">
+      <c r="C81" s="109"/>
+      <c r="D81" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114" t="s">
+      <c r="E81" s="109"/>
+      <c r="F81" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114" t="s">
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="114"/>
-      <c r="L81" s="114"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="114" t="s">
+      <c r="K81" s="109"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="109"/>
+      <c r="N81" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
+      <c r="O81" s="109"/>
+      <c r="P81" s="109"/>
+      <c r="Q81" s="109"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5820,32 +5822,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="114" t="s">
+      <c r="B82" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114" t="s">
+      <c r="C82" s="109"/>
+      <c r="D82" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114" t="s">
+      <c r="E82" s="109"/>
+      <c r="F82" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114" t="s">
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
-      <c r="N82" s="114" t="s">
+      <c r="K82" s="109"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="114"/>
+      <c r="O82" s="109"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="109"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5855,32 +5857,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="114" t="s">
+      <c r="B83" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114" t="s">
+      <c r="C83" s="109"/>
+      <c r="D83" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="114"/>
-      <c r="F83" s="115" t="s">
+      <c r="E83" s="109"/>
+      <c r="F83" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="115" t="s">
+      <c r="G83" s="123"/>
+      <c r="H83" s="123"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="117"/>
-      <c r="L83" s="117"/>
-      <c r="M83" s="116"/>
-      <c r="N83" s="115" t="s">
+      <c r="K83" s="123"/>
+      <c r="L83" s="123"/>
+      <c r="M83" s="122"/>
+      <c r="N83" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="116"/>
-      <c r="P83" s="114"/>
-      <c r="Q83" s="114"/>
+      <c r="O83" s="122"/>
+      <c r="P83" s="109"/>
+      <c r="Q83" s="109"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5892,32 +5894,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114" t="s">
+      <c r="C84" s="109"/>
+      <c r="D84" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114" t="s">
+      <c r="E84" s="109"/>
+      <c r="F84" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="114"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114" t="s">
+      <c r="G84" s="109"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="114"/>
-      <c r="L84" s="114"/>
-      <c r="M84" s="114"/>
-      <c r="N84" s="114" t="s">
+      <c r="K84" s="109"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="114"/>
-      <c r="P84" s="114"/>
-      <c r="Q84" s="114"/>
+      <c r="O84" s="109"/>
+      <c r="P84" s="109"/>
+      <c r="Q84" s="109"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5927,32 +5929,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="114" t="s">
+      <c r="B85" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114" t="s">
+      <c r="C85" s="109"/>
+      <c r="D85" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114" t="s">
+      <c r="E85" s="109"/>
+      <c r="F85" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="114"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114" t="s">
+      <c r="G85" s="109"/>
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="114"/>
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="114" t="s">
+      <c r="K85" s="109"/>
+      <c r="L85" s="109"/>
+      <c r="M85" s="109"/>
+      <c r="N85" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
+      <c r="O85" s="109"/>
+      <c r="P85" s="109"/>
+      <c r="Q85" s="109"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5962,32 +5964,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="114" t="s">
+      <c r="B86" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114" t="s">
+      <c r="C86" s="109"/>
+      <c r="D86" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114" t="s">
+      <c r="E86" s="109"/>
+      <c r="F86" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="114" t="s">
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="109"/>
+      <c r="J86" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="114"/>
-      <c r="L86" s="114"/>
-      <c r="M86" s="114"/>
-      <c r="N86" s="114" t="s">
+      <c r="K86" s="109"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="114"/>
+      <c r="O86" s="109"/>
+      <c r="P86" s="109"/>
+      <c r="Q86" s="109"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -5997,32 +5999,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="114" t="s">
+      <c r="B87" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114" t="s">
+      <c r="C87" s="109"/>
+      <c r="D87" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114" t="s">
+      <c r="E87" s="109"/>
+      <c r="F87" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114" t="s">
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114" t="s">
+      <c r="K87" s="109"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="109"/>
+      <c r="N87" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
-      <c r="Q87" s="114"/>
+      <c r="O87" s="109"/>
+      <c r="P87" s="109"/>
+      <c r="Q87" s="109"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6032,32 +6034,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="114" t="s">
+      <c r="B88" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114" t="s">
+      <c r="C88" s="109"/>
+      <c r="D88" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114" t="s">
+      <c r="E88" s="109"/>
+      <c r="F88" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114" t="s">
+      <c r="G88" s="109"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="114"/>
-      <c r="L88" s="114"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="114" t="s">
+      <c r="K88" s="109"/>
+      <c r="L88" s="109"/>
+      <c r="M88" s="109"/>
+      <c r="N88" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="114"/>
+      <c r="O88" s="109"/>
+      <c r="P88" s="109"/>
+      <c r="Q88" s="109"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6067,32 +6069,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114" t="s">
+      <c r="C89" s="109"/>
+      <c r="D89" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114" t="s">
+      <c r="E89" s="109"/>
+      <c r="F89" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="114"/>
-      <c r="H89" s="114"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="114" t="s">
+      <c r="G89" s="109"/>
+      <c r="H89" s="109"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="114"/>
-      <c r="L89" s="114"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="114" t="s">
+      <c r="K89" s="109"/>
+      <c r="L89" s="109"/>
+      <c r="M89" s="109"/>
+      <c r="N89" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="114"/>
-      <c r="P89" s="114"/>
-      <c r="Q89" s="114"/>
+      <c r="O89" s="109"/>
+      <c r="P89" s="109"/>
+      <c r="Q89" s="109"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6104,32 +6106,32 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="120" t="s">
+      <c r="B90" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="121"/>
-      <c r="D90" s="120" t="s">
+      <c r="C90" s="111"/>
+      <c r="D90" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="121"/>
-      <c r="F90" s="120" t="s">
+      <c r="E90" s="111"/>
+      <c r="F90" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="121"/>
-      <c r="H90" s="121"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="120" t="s">
+      <c r="G90" s="111"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="110" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="121"/>
-      <c r="L90" s="121"/>
-      <c r="M90" s="121"/>
-      <c r="N90" s="120" t="s">
+      <c r="K90" s="111"/>
+      <c r="L90" s="111"/>
+      <c r="M90" s="111"/>
+      <c r="N90" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="121"/>
-      <c r="P90" s="121"/>
-      <c r="Q90" s="121"/>
+      <c r="O90" s="111"/>
+      <c r="P90" s="111"/>
+      <c r="Q90" s="111"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
@@ -6300,32 +6302,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="122" t="s">
+      <c r="B92" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="123"/>
-      <c r="D92" s="122" t="s">
+      <c r="C92" s="108"/>
+      <c r="D92" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="123"/>
-      <c r="F92" s="122" t="s">
+      <c r="E92" s="108"/>
+      <c r="F92" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="123"/>
-      <c r="H92" s="123"/>
-      <c r="I92" s="123"/>
-      <c r="J92" s="122" t="s">
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="123"/>
-      <c r="L92" s="123"/>
-      <c r="M92" s="123"/>
-      <c r="N92" s="122" t="s">
+      <c r="K92" s="108"/>
+      <c r="L92" s="108"/>
+      <c r="M92" s="108"/>
+      <c r="N92" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="123"/>
-      <c r="P92" s="123"/>
-      <c r="Q92" s="123"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="108"/>
+      <c r="Q92" s="108"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6808,48 +6810,48 @@
       <c r="Q103" s="104"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="108"/>
-      <c r="C104" s="108"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="108"/>
-      <c r="H104" s="108"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="108"/>
-      <c r="K104" s="108"/>
-      <c r="L104" s="108"/>
-      <c r="M104" s="108"/>
-      <c r="N104" s="108"/>
-      <c r="O104" s="108"/>
-      <c r="P104" s="108"/>
-      <c r="Q104" s="108"/>
-      <c r="R104" s="108"/>
-      <c r="S104" s="109"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="116"/>
+      <c r="N104" s="116"/>
+      <c r="O104" s="116"/>
+      <c r="P104" s="116"/>
+      <c r="Q104" s="116"/>
+      <c r="R104" s="116"/>
+      <c r="S104" s="117"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="110"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="111"/>
-      <c r="M105" s="111"/>
-      <c r="N105" s="111"/>
-      <c r="O105" s="111"/>
-      <c r="P105" s="111"/>
-      <c r="Q105" s="111"/>
-      <c r="R105" s="111"/>
-      <c r="S105" s="112"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="119"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="119"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="119"/>
+      <c r="I105" s="119"/>
+      <c r="J105" s="119"/>
+      <c r="K105" s="119"/>
+      <c r="L105" s="119"/>
+      <c r="M105" s="119"/>
+      <c r="N105" s="119"/>
+      <c r="O105" s="119"/>
+      <c r="P105" s="119"/>
+      <c r="Q105" s="119"/>
+      <c r="R105" s="119"/>
+      <c r="S105" s="120"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B106" s="104"/>
@@ -7278,489 +7280,198 @@
     </row>
   </sheetData>
   <mergeCells count="699">
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A104:S105"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:I64"/>
@@ -7785,198 +7496,489 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A104:S105"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8022,12 +8024,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8059,12 +8061,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -8076,19 +8078,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8100,19 +8102,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8124,19 +8126,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8155,12 +8157,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8172,12 +8174,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8190,12 +8192,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8207,12 +8209,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8224,12 +8226,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8241,12 +8243,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8258,12 +8260,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8273,12 +8275,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="72" t="s">
         <v>22</v>
       </c>
@@ -8290,12 +8292,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
       <c r="L18" s="74" t="s">
         <v>34</v>
       </c>
@@ -8324,12 +8326,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8342,12 +8344,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -8357,12 +8359,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -8374,12 +8376,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8391,12 +8393,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -8406,12 +8408,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="99" t="s">
+      <c r="H25" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8423,12 +8425,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="90" t="s">
+      <c r="H26" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8440,12 +8442,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8455,12 +8457,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8472,12 +8474,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8494,12 +8496,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8511,12 +8513,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
       <c r="L33" s="72" t="s">
         <v>33</v>
       </c>
@@ -8528,12 +8530,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8545,12 +8547,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8562,12 +8564,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8579,12 +8581,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="83" t="s">
+      <c r="H37" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -8596,12 +8598,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="93" t="s">
+      <c r="H38" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8613,12 +8615,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8628,12 +8630,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="95" t="s">
+      <c r="H40" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8645,12 +8647,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="94" t="s">
+      <c r="H41" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8660,12 +8662,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8677,12 +8679,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="84" t="s">
+      <c r="H43" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8699,12 +8701,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -8716,12 +8718,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
       <c r="L47" s="72" t="s">
         <v>33</v>
       </c>
@@ -8733,12 +8735,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8748,12 +8750,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="95" t="s">
+      <c r="H49" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8765,12 +8767,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="94" t="s">
+      <c r="H50" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8780,12 +8782,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="84" t="s">
+      <c r="H51" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8797,12 +8799,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="84" t="s">
+      <c r="H52" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8815,14 +8817,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H32:K32"/>
@@ -8835,30 +8853,14 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="18180" windowHeight="10245" tabRatio="575" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="18180" windowHeight="9630" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1588,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1931,6 +1931,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2238,7 +2241,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -3122,8 +3125,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3326,7 +3329,7 @@
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="124" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3363,7 +3366,9 @@
       <c r="R9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="55"/>
+      <c r="S9" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
@@ -3544,7 +3549,9 @@
       <c r="R14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="55"/>
+      <c r="S14" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
@@ -3793,7 +3800,9 @@
       <c r="R21" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="55"/>
+      <c r="S21" s="71" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="55">
@@ -3898,7 +3907,9 @@
       <c r="R24" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S24" s="55"/>
+      <c r="S24" s="71" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="55">
@@ -7995,7 +8006,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="18180" windowHeight="9630" tabRatio="575" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11880" windowHeight="9450" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1804,11 +1804,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1816,9 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1829,26 +1862,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1858,21 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1882,58 +1885,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2241,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -2270,12 +2270,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2307,12 +2307,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2324,19 +2324,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2348,19 +2348,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2372,19 +2372,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2403,12 +2403,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2420,12 +2420,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2438,12 +2438,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2455,12 +2455,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="99" t="s">
+      <c r="H13" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2472,12 +2472,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2489,12 +2489,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2506,12 +2506,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2521,12 +2521,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2538,12 +2538,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2572,12 +2572,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2622,12 +2622,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2654,12 +2654,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2671,12 +2671,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2688,12 +2688,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2703,12 +2703,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2720,12 +2720,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2742,12 +2742,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="82" t="s">
+      <c r="H32" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2759,12 +2759,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2776,12 +2776,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2793,12 +2793,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2810,12 +2810,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2827,12 +2827,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2844,12 +2844,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2861,12 +2861,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2876,12 +2876,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2893,12 +2893,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2908,12 +2908,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2925,12 +2925,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2947,12 +2947,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2964,12 +2964,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="82" t="s">
+      <c r="H47" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2981,12 +2981,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2996,12 +2996,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3013,12 +3013,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="83" t="s">
+      <c r="H50" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3028,12 +3028,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3045,12 +3045,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3063,21 +3063,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3094,19 +3092,21 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3125,8 +3125,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="M15" workbookViewId="0">
+      <selection activeCell="S19" activeCellId="1" sqref="S20 S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3142,135 +3142,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="117"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="110"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="113"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
     </row>
     <row r="6" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="119"/>
+      <c r="D6" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113" t="s">
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113" t="s">
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113" t="s">
+      <c r="O6" s="119"/>
+      <c r="P6" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="114"/>
+      <c r="Q6" s="120"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3279,57 +3279,57 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="105" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="105" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="105" t="s">
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="105" t="s">
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="124" t="s">
+      <c r="S8" s="81" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3337,32 +3337,32 @@
       <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="105" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="105" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="105" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="105" t="s">
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
       <c r="R9" s="56" t="s">
         <v>18</v>
       </c>
@@ -3374,32 +3374,32 @@
       <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="105" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="105" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="105" t="s">
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="105" t="s">
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
       <c r="R10" s="56" t="s">
         <v>18</v>
       </c>
@@ -3411,32 +3411,32 @@
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="105" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="105" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="105" t="s">
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="105" t="s">
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
       <c r="R11" s="56" t="s">
         <v>18</v>
       </c>
@@ -3448,32 +3448,32 @@
       <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="105" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="105" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="105" t="s">
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="105" t="s">
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
       <c r="R12" s="56" t="s">
         <v>18</v>
       </c>
@@ -3483,32 +3483,32 @@
       <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="105" t="s">
+      <c r="C13" s="107"/>
+      <c r="D13" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="105" t="s">
+      <c r="E13" s="107"/>
+      <c r="F13" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="105" t="s">
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="105" t="s">
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
       <c r="R13" s="56" t="s">
         <v>18</v>
       </c>
@@ -3520,32 +3520,32 @@
       <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="105" t="s">
+      <c r="C14" s="107"/>
+      <c r="D14" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="105" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="105" t="s">
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="105" t="s">
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
       <c r="R14" s="56" t="s">
         <v>18</v>
       </c>
@@ -3557,102 +3557,106 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="112" t="s">
+      <c r="C15" s="107"/>
+      <c r="D15" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="112" t="s">
+      <c r="E15" s="107"/>
+      <c r="F15" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="112" t="s">
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="112" t="s">
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
       <c r="R15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="55"/>
+      <c r="S15" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="112" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="112" t="s">
+      <c r="E16" s="107"/>
+      <c r="F16" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="112" t="s">
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="112" t="s">
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
       <c r="R16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="55"/>
+      <c r="S16" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="112" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="112" t="s">
+      <c r="E17" s="107"/>
+      <c r="F17" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="112" t="s">
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="112" t="s">
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
       <c r="R17" s="54" t="s">
         <v>18</v>
       </c>
@@ -3664,32 +3668,32 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="112" t="s">
+      <c r="C18" s="107"/>
+      <c r="D18" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="112" t="s">
+      <c r="E18" s="107"/>
+      <c r="F18" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="112" t="s">
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="112" t="s">
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
       <c r="R18" s="54" t="s">
         <v>18</v>
       </c>
@@ -3699,32 +3703,32 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="112" t="s">
+      <c r="C19" s="107"/>
+      <c r="D19" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="112" t="s">
+      <c r="E19" s="107"/>
+      <c r="F19" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="112" t="s">
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="112" t="s">
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
       <c r="R19" s="54" t="s">
         <v>18</v>
       </c>
@@ -3736,67 +3740,69 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="112" t="s">
+      <c r="C20" s="107"/>
+      <c r="D20" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="112" t="s">
+      <c r="E20" s="107"/>
+      <c r="F20" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="112" t="s">
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="112" t="s">
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
       <c r="R20" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="55"/>
+      <c r="S20" s="71" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="112" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="112" t="s">
+      <c r="E21" s="107"/>
+      <c r="F21" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="112" t="s">
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="112" t="s">
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
       <c r="R21" s="54" t="s">
         <v>18</v>
       </c>
@@ -3808,32 +3814,32 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="112" t="s">
+      <c r="C22" s="107"/>
+      <c r="D22" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="112" t="s">
+      <c r="E22" s="107"/>
+      <c r="F22" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="112" t="s">
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="112" t="s">
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
       <c r="R22" s="54" t="s">
         <v>18</v>
       </c>
@@ -3843,32 +3849,32 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="112" t="s">
+      <c r="C23" s="107"/>
+      <c r="D23" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="112" t="s">
+      <c r="E23" s="107"/>
+      <c r="F23" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="112" t="s">
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="112" t="s">
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
       <c r="R23" s="54" t="s">
         <v>18</v>
       </c>
@@ -3878,32 +3884,32 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="107"/>
+      <c r="D24" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="112" t="s">
+      <c r="E24" s="107"/>
+      <c r="F24" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="112" t="s">
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="112" t="s">
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
       <c r="R24" s="54" t="s">
         <v>18</v>
       </c>
@@ -3915,32 +3921,32 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="112" t="s">
+      <c r="C25" s="107"/>
+      <c r="D25" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="112" t="s">
+      <c r="E25" s="107"/>
+      <c r="F25" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="112" t="s">
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="112" t="s">
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
       <c r="R25" s="54" t="s">
         <v>18</v>
       </c>
@@ -3950,32 +3956,32 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="112" t="s">
+      <c r="C26" s="107"/>
+      <c r="D26" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="112" t="s">
+      <c r="E26" s="107"/>
+      <c r="F26" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="112" t="s">
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="112" t="s">
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
       <c r="R26" s="54" t="s">
         <v>18</v>
       </c>
@@ -3985,32 +3991,32 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="112" t="s">
+      <c r="C27" s="107"/>
+      <c r="D27" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="105" t="s">
+      <c r="E27" s="107"/>
+      <c r="F27" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="105" t="s">
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="105" t="s">
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
       <c r="R27" s="56" t="s">
         <v>18</v>
       </c>
@@ -4022,32 +4028,32 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="107"/>
+      <c r="D28" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="112" t="s">
+      <c r="E28" s="107"/>
+      <c r="F28" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="112" t="s">
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="112" t="s">
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
       <c r="R28" s="54" t="s">
         <v>18</v>
       </c>
@@ -4057,32 +4063,32 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="112" t="s">
+      <c r="C29" s="107"/>
+      <c r="D29" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="112" t="s">
+      <c r="E29" s="107"/>
+      <c r="F29" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="112" t="s">
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="112" t="s">
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
       <c r="R29" s="54" t="s">
         <v>18</v>
       </c>
@@ -4092,32 +4098,32 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="112" t="s">
+      <c r="C30" s="107"/>
+      <c r="D30" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="112" t="s">
+      <c r="E30" s="107"/>
+      <c r="F30" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="112" t="s">
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="112" t="s">
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
       <c r="R30" s="54" t="s">
         <v>18</v>
       </c>
@@ -4127,32 +4133,32 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="112" t="s">
+      <c r="C31" s="107"/>
+      <c r="D31" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="112" t="s">
+      <c r="E31" s="107"/>
+      <c r="F31" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="112" t="s">
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="112" t="s">
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="54" t="s">
         <v>18</v>
       </c>
@@ -4164,32 +4170,32 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="112" t="s">
+      <c r="C32" s="107"/>
+      <c r="D32" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="112" t="s">
+      <c r="E32" s="107"/>
+      <c r="F32" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="112" t="s">
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="112" t="s">
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
       <c r="R32" s="54" t="s">
         <v>18</v>
       </c>
@@ -4201,32 +4207,32 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="112" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="112" t="s">
+      <c r="E33" s="107"/>
+      <c r="F33" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="112" t="s">
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="112" t="s">
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
       <c r="R33" s="54" t="s">
         <v>97</v>
       </c>
@@ -4236,32 +4242,32 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="112" t="s">
+      <c r="C34" s="107"/>
+      <c r="D34" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="112" t="s">
+      <c r="E34" s="107"/>
+      <c r="F34" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="112" t="s">
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="112" t="s">
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
       <c r="R34" s="54" t="s">
         <v>18</v>
       </c>
@@ -4271,32 +4277,32 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="112" t="s">
+      <c r="C35" s="107"/>
+      <c r="D35" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="112" t="s">
+      <c r="E35" s="107"/>
+      <c r="F35" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="112" t="s">
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="112" t="s">
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
       <c r="R35" s="54" t="s">
         <v>18</v>
       </c>
@@ -4306,30 +4312,30 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="112" t="s">
+      <c r="C36" s="107"/>
+      <c r="D36" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="112" t="s">
+      <c r="E36" s="107"/>
+      <c r="F36" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="112" t="s">
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
       <c r="R36" s="54" t="s">
         <v>18</v>
       </c>
@@ -4339,32 +4345,32 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="112" t="s">
+      <c r="C37" s="107"/>
+      <c r="D37" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="112" t="s">
+      <c r="E37" s="107"/>
+      <c r="F37" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="112" t="s">
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="112" t="s">
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
       <c r="R37" s="54" t="s">
         <v>18</v>
       </c>
@@ -4376,32 +4382,32 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="112" t="s">
+      <c r="C38" s="107"/>
+      <c r="D38" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="112" t="s">
+      <c r="E38" s="107"/>
+      <c r="F38" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="112" t="s">
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="112" t="s">
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
       <c r="R38" s="54" t="s">
         <v>18</v>
       </c>
@@ -4411,32 +4417,32 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="112" t="s">
+      <c r="C39" s="107"/>
+      <c r="D39" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="112" t="s">
+      <c r="E39" s="107"/>
+      <c r="F39" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="112" t="s">
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="112" t="s">
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
       <c r="R39" s="54" t="s">
         <v>18</v>
       </c>
@@ -4446,32 +4452,32 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="112" t="s">
+      <c r="C40" s="107"/>
+      <c r="D40" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="112" t="s">
+      <c r="E40" s="107"/>
+      <c r="F40" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="112" t="s">
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="112" t="s">
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
       <c r="R40" s="54" t="s">
         <v>18</v>
       </c>
@@ -4481,32 +4487,32 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="112" t="s">
+      <c r="C41" s="107"/>
+      <c r="D41" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="112" t="s">
+      <c r="E41" s="107"/>
+      <c r="F41" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="112" t="s">
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="112" t="s">
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
       <c r="R41" s="54" t="s">
         <v>18</v>
       </c>
@@ -4516,32 +4522,32 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="112" t="s">
+      <c r="C42" s="107"/>
+      <c r="D42" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="106"/>
-      <c r="F42" s="112" t="s">
+      <c r="E42" s="107"/>
+      <c r="F42" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="112" t="s">
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="112" t="s">
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
       <c r="R42" s="54" t="s">
         <v>18</v>
       </c>
@@ -4551,32 +4557,32 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="112" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="106"/>
-      <c r="F43" s="112" t="s">
+      <c r="E43" s="107"/>
+      <c r="F43" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="112" t="s">
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="114" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="112" t="s">
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
       <c r="R43" s="54" t="s">
         <v>18</v>
       </c>
@@ -4586,67 +4592,69 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="112" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="105" t="s">
+      <c r="E44" s="107"/>
+      <c r="F44" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="112" t="s">
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="112" t="s">
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
       <c r="R44" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="55"/>
+      <c r="S44" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="112" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="112" t="s">
+      <c r="E45" s="107"/>
+      <c r="F45" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="112" t="s">
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="112" t="s">
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
       <c r="R45" s="54" t="s">
         <v>18</v>
       </c>
@@ -4656,32 +4664,32 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="112" t="s">
+      <c r="C46" s="107"/>
+      <c r="D46" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="106"/>
-      <c r="F46" s="112" t="s">
+      <c r="E46" s="107"/>
+      <c r="F46" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="112" t="s">
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="112" t="s">
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
       <c r="R46" s="54" t="s">
         <v>18</v>
       </c>
@@ -4693,32 +4701,32 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="112" t="s">
+      <c r="C47" s="107"/>
+      <c r="D47" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="112" t="s">
+      <c r="E47" s="107"/>
+      <c r="F47" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="112" t="s">
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="114" t="s">
         <v>279</v>
       </c>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="112" t="s">
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
       <c r="R47" s="54" t="s">
         <v>18</v>
       </c>
@@ -4730,32 +4738,32 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="112" t="s">
+      <c r="C48" s="107"/>
+      <c r="D48" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="112" t="s">
+      <c r="E48" s="107"/>
+      <c r="F48" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="112" t="s">
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="112" t="s">
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="106"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="106"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="107"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
       </c>
@@ -4765,32 +4773,32 @@
       <c r="A49" s="55">
         <v>42</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112" t="s">
+      <c r="E49" s="114"/>
+      <c r="F49" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="112" t="s">
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="112" t="s">
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="106"/>
-      <c r="P49" s="112"/>
-      <c r="Q49" s="106"/>
+      <c r="O49" s="107"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="107"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
       </c>
@@ -4800,32 +4808,32 @@
       <c r="A50" s="55">
         <v>43</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="112" t="s">
+      <c r="C50" s="107"/>
+      <c r="D50" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="106"/>
-      <c r="F50" s="112" t="s">
+      <c r="E50" s="107"/>
+      <c r="F50" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="112" t="s">
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="112" t="s">
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="106"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="106"/>
+      <c r="O50" s="107"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="107"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
       </c>
@@ -4835,32 +4843,32 @@
       <c r="A51" s="55">
         <v>44</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="112" t="s">
+      <c r="C51" s="107"/>
+      <c r="D51" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="106"/>
-      <c r="F51" s="112" t="s">
+      <c r="E51" s="107"/>
+      <c r="F51" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="112" t="s">
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="112" t="s">
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="O51" s="106"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="106"/>
+      <c r="O51" s="107"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="107"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
       </c>
@@ -4870,32 +4878,32 @@
       <c r="A52" s="55">
         <v>45</v>
       </c>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="112" t="s">
+      <c r="C52" s="107"/>
+      <c r="D52" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="106"/>
-      <c r="F52" s="112" t="s">
+      <c r="E52" s="107"/>
+      <c r="F52" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="112" t="s">
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="112" t="s">
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="O52" s="106"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="106"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="107"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
       </c>
@@ -4905,32 +4913,32 @@
       <c r="A53" s="55">
         <v>46</v>
       </c>
-      <c r="B53" s="105" t="s">
+      <c r="B53" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="112" t="s">
+      <c r="C53" s="107"/>
+      <c r="D53" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="106"/>
-      <c r="F53" s="105" t="s">
+      <c r="E53" s="107"/>
+      <c r="F53" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="105" t="s">
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="105" t="s">
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="106"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="106"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="107"/>
       <c r="R53" s="56" t="s">
         <v>97</v>
       </c>
@@ -4940,30 +4948,30 @@
       <c r="A54" s="55">
         <v>47</v>
       </c>
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="106"/>
-      <c r="D54" s="105" t="s">
+      <c r="C54" s="107"/>
+      <c r="D54" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="106"/>
-      <c r="F54" s="105" t="s">
+      <c r="E54" s="107"/>
+      <c r="F54" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="105" t="s">
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="106"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="107"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="107"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="107"/>
       <c r="R54" s="56" t="s">
         <v>97</v>
       </c>
@@ -4973,30 +4981,30 @@
       <c r="A55" s="55">
         <v>48</v>
       </c>
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="105" t="s">
+      <c r="C55" s="107"/>
+      <c r="D55" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="105" t="s">
+      <c r="E55" s="107"/>
+      <c r="F55" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="105" t="s">
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="105"/>
-      <c r="Q55" s="106"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="107"/>
       <c r="R55" s="56" t="s">
         <v>97</v>
       </c>
@@ -5006,32 +5014,32 @@
       <c r="A56" s="55">
         <v>49</v>
       </c>
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="105" t="s">
+      <c r="C56" s="107"/>
+      <c r="D56" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="106"/>
-      <c r="F56" s="105" t="s">
+      <c r="E56" s="107"/>
+      <c r="F56" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="105" t="s">
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="105" t="s">
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="O56" s="106"/>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="106"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="107"/>
       <c r="R56" s="56" t="s">
         <v>97</v>
       </c>
@@ -5041,32 +5049,32 @@
       <c r="A57" s="55">
         <v>50</v>
       </c>
-      <c r="B57" s="105" t="s">
+      <c r="B57" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="105" t="s">
+      <c r="C57" s="107"/>
+      <c r="D57" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="106"/>
-      <c r="F57" s="105" t="s">
+      <c r="E57" s="107"/>
+      <c r="F57" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="105" t="s">
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="105" t="s">
+      <c r="K57" s="107"/>
+      <c r="L57" s="107"/>
+      <c r="M57" s="107"/>
+      <c r="N57" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="O57" s="106"/>
-      <c r="P57" s="105"/>
-      <c r="Q57" s="106"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="107"/>
       <c r="R57" s="56" t="s">
         <v>97</v>
       </c>
@@ -5076,32 +5084,32 @@
       <c r="A58" s="55">
         <v>51</v>
       </c>
-      <c r="B58" s="105" t="s">
+      <c r="B58" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="105" t="s">
+      <c r="C58" s="107"/>
+      <c r="D58" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="106"/>
-      <c r="F58" s="105" t="s">
+      <c r="E58" s="107"/>
+      <c r="F58" s="106" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="105" t="s">
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="105" t="s">
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
+      <c r="O58" s="107"/>
+      <c r="P58" s="107"/>
+      <c r="Q58" s="107"/>
       <c r="R58" s="56" t="s">
         <v>18</v>
       </c>
@@ -5111,32 +5119,32 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="112" t="s">
+      <c r="C59" s="107"/>
+      <c r="D59" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="106"/>
-      <c r="F59" s="112" t="s">
+      <c r="E59" s="107"/>
+      <c r="F59" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="112" t="s">
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="112" t="s">
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="O59" s="106"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="106"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="107"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
       </c>
@@ -5146,32 +5154,32 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="112" t="s">
+      <c r="C60" s="107"/>
+      <c r="D60" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="106"/>
-      <c r="F60" s="112" t="s">
+      <c r="E60" s="107"/>
+      <c r="F60" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="112" t="s">
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="112" t="s">
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="O60" s="106"/>
-      <c r="P60" s="112"/>
-      <c r="Q60" s="106"/>
+      <c r="O60" s="107"/>
+      <c r="P60" s="114"/>
+      <c r="Q60" s="107"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
       </c>
@@ -5181,32 +5189,32 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="106"/>
-      <c r="D61" s="112" t="s">
+      <c r="C61" s="107"/>
+      <c r="D61" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="106"/>
-      <c r="F61" s="112" t="s">
+      <c r="E61" s="107"/>
+      <c r="F61" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="112" t="s">
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="106"/>
-      <c r="N61" s="112" t="s">
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="O61" s="106"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="106"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="114"/>
+      <c r="Q61" s="107"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
       </c>
@@ -5216,32 +5224,32 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="106"/>
-      <c r="D62" s="112" t="s">
+      <c r="C62" s="107"/>
+      <c r="D62" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="106"/>
-      <c r="F62" s="112" t="s">
+      <c r="E62" s="107"/>
+      <c r="F62" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="112" t="s">
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="106"/>
-      <c r="L62" s="106"/>
-      <c r="M62" s="106"/>
-      <c r="N62" s="112" t="s">
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="O62" s="106"/>
-      <c r="P62" s="112"/>
-      <c r="Q62" s="106"/>
+      <c r="O62" s="107"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="107"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
       </c>
@@ -5253,32 +5261,32 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="106"/>
-      <c r="D63" s="112" t="s">
+      <c r="C63" s="107"/>
+      <c r="D63" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="106"/>
-      <c r="F63" s="112" t="s">
+      <c r="E63" s="107"/>
+      <c r="F63" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="112" t="s">
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="106"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="112" t="s">
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="106"/>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="106"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="107"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
       </c>
@@ -5288,32 +5296,32 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="106"/>
-      <c r="D64" s="112" t="s">
+      <c r="C64" s="107"/>
+      <c r="D64" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="106"/>
-      <c r="F64" s="112" t="s">
+      <c r="E64" s="107"/>
+      <c r="F64" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="106"/>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="112" t="s">
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="K64" s="106"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="112" t="s">
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="O64" s="106"/>
-      <c r="P64" s="112"/>
-      <c r="Q64" s="106"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="107"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
       </c>
@@ -5323,32 +5331,32 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="112" t="s">
+      <c r="B65" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="112" t="s">
+      <c r="C65" s="107"/>
+      <c r="D65" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="106"/>
-      <c r="F65" s="112" t="s">
+      <c r="E65" s="107"/>
+      <c r="F65" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="112" t="s">
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="106"/>
-      <c r="L65" s="106"/>
-      <c r="M65" s="106"/>
-      <c r="N65" s="112" t="s">
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="O65" s="106"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="106"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="107"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
       </c>
@@ -5358,32 +5366,32 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="112" t="s">
+      <c r="B66" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="112" t="s">
+      <c r="C66" s="107"/>
+      <c r="D66" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="106"/>
-      <c r="F66" s="105" t="s">
+      <c r="E66" s="107"/>
+      <c r="F66" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="105" t="s">
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="106"/>
-      <c r="N66" s="112" t="s">
+      <c r="K66" s="107"/>
+      <c r="L66" s="107"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="106"/>
-      <c r="P66" s="112"/>
-      <c r="Q66" s="106"/>
+      <c r="O66" s="107"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="107"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
       </c>
@@ -5393,32 +5401,32 @@
       <c r="A67" s="55">
         <v>60</v>
       </c>
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="112" t="s">
+      <c r="C67" s="107"/>
+      <c r="D67" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="106"/>
-      <c r="F67" s="112" t="s">
+      <c r="E67" s="107"/>
+      <c r="F67" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="112" t="s">
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="106"/>
-      <c r="L67" s="106"/>
-      <c r="M67" s="106"/>
-      <c r="N67" s="112" t="s">
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="O67" s="106"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="106"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="114"/>
+      <c r="Q67" s="107"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
       </c>
@@ -5428,32 +5436,32 @@
       <c r="A68" s="55">
         <v>61</v>
       </c>
-      <c r="B68" s="105" t="s">
+      <c r="B68" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="112" t="s">
+      <c r="C68" s="107"/>
+      <c r="D68" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="106"/>
-      <c r="F68" s="105" t="s">
+      <c r="E68" s="107"/>
+      <c r="F68" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="112" t="s">
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106"/>
-      <c r="M68" s="106"/>
-      <c r="N68" s="112" t="s">
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="O68" s="106"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="106"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="114"/>
+      <c r="Q68" s="107"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
       </c>
@@ -5465,32 +5473,32 @@
       <c r="A69" s="55">
         <v>62</v>
       </c>
-      <c r="B69" s="105" t="s">
+      <c r="B69" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="106"/>
-      <c r="D69" s="112" t="s">
+      <c r="C69" s="107"/>
+      <c r="D69" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="106"/>
-      <c r="F69" s="105" t="s">
+      <c r="E69" s="107"/>
+      <c r="F69" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="105" t="s">
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="K69" s="106"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="112" t="s">
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="O69" s="106"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="106"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="107"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
       </c>
@@ -5500,151 +5508,151 @@
       <c r="V69" s="22"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="104"/>
-      <c r="K70" s="104"/>
-      <c r="L70" s="104"/>
-      <c r="M70" s="104"/>
-      <c r="N70" s="104"/>
-      <c r="O70" s="104"/>
-      <c r="P70" s="104"/>
-      <c r="Q70" s="104"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="105"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="104"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="104"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="104"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="104"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="104"/>
-      <c r="Q71" s="104"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="105"/>
+      <c r="P71" s="105"/>
+      <c r="Q71" s="105"/>
     </row>
     <row r="72" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104"/>
-      <c r="N72" s="104"/>
-      <c r="O72" s="104"/>
-      <c r="P72" s="104"/>
-      <c r="Q72" s="104"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="105"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="116"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
-      <c r="I73" s="116"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
-      <c r="L73" s="116"/>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="117"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="109"/>
+      <c r="L73" s="109"/>
+      <c r="M73" s="109"/>
+      <c r="N73" s="109"/>
+      <c r="O73" s="109"/>
+      <c r="P73" s="109"/>
+      <c r="Q73" s="109"/>
+      <c r="R73" s="109"/>
+      <c r="S73" s="110"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="119"/>
-      <c r="E74" s="119"/>
-      <c r="F74" s="119"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="119"/>
-      <c r="J74" s="119"/>
-      <c r="K74" s="119"/>
-      <c r="L74" s="119"/>
-      <c r="M74" s="119"/>
-      <c r="N74" s="119"/>
-      <c r="O74" s="119"/>
-      <c r="P74" s="119"/>
-      <c r="Q74" s="119"/>
-      <c r="R74" s="119"/>
-      <c r="S74" s="120"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="112"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="112"/>
+      <c r="M74" s="112"/>
+      <c r="N74" s="112"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="112"/>
+      <c r="Q74" s="112"/>
+      <c r="R74" s="112"/>
+      <c r="S74" s="113"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="104"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="104"/>
-      <c r="O75" s="104"/>
-      <c r="P75" s="104"/>
-      <c r="Q75" s="104"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
+      <c r="O75" s="105"/>
+      <c r="P75" s="105"/>
+      <c r="Q75" s="105"/>
     </row>
     <row r="76" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="109" t="s">
+      <c r="B76" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109" t="s">
+      <c r="C76" s="115"/>
+      <c r="D76" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109" t="s">
+      <c r="E76" s="115"/>
+      <c r="F76" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="109" t="s">
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="109"/>
-      <c r="L76" s="109"/>
-      <c r="M76" s="109"/>
-      <c r="N76" s="109" t="s">
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+      <c r="M76" s="115"/>
+      <c r="N76" s="115" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="109"/>
-      <c r="P76" s="109"/>
-      <c r="Q76" s="109"/>
+      <c r="O76" s="115"/>
+      <c r="P76" s="115"/>
+      <c r="Q76" s="115"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5656,32 +5664,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="109" t="s">
+      <c r="B77" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109" t="s">
+      <c r="C77" s="115"/>
+      <c r="D77" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109" t="s">
+      <c r="E77" s="115"/>
+      <c r="F77" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109" t="s">
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="109"/>
-      <c r="N77" s="109" t="s">
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="115" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="109"/>
-      <c r="P77" s="109"/>
-      <c r="Q77" s="109"/>
+      <c r="O77" s="115"/>
+      <c r="P77" s="115"/>
+      <c r="Q77" s="115"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5693,32 +5701,32 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="109" t="s">
+      <c r="B78" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109" t="s">
+      <c r="C78" s="115"/>
+      <c r="D78" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109" t="s">
+      <c r="E78" s="115"/>
+      <c r="F78" s="115" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109" t="s">
+      <c r="G78" s="115"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="109"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109" t="s">
+      <c r="K78" s="115"/>
+      <c r="L78" s="115"/>
+      <c r="M78" s="115"/>
+      <c r="N78" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
+      <c r="O78" s="115"/>
+      <c r="P78" s="115"/>
+      <c r="Q78" s="115"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5728,32 +5736,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="109" t="s">
+      <c r="B79" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109" t="s">
+      <c r="C79" s="115"/>
+      <c r="D79" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="109"/>
-      <c r="F79" s="109" t="s">
+      <c r="E79" s="115"/>
+      <c r="F79" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="109"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="109"/>
-      <c r="J79" s="109" t="s">
+      <c r="G79" s="115"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="115" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="109"/>
-      <c r="L79" s="109"/>
-      <c r="M79" s="109"/>
-      <c r="N79" s="109" t="s">
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+      <c r="M79" s="115"/>
+      <c r="N79" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="109"/>
-      <c r="P79" s="109"/>
-      <c r="Q79" s="109"/>
+      <c r="O79" s="115"/>
+      <c r="P79" s="115"/>
+      <c r="Q79" s="115"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5763,32 +5771,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="109" t="s">
+      <c r="B80" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109" t="s">
+      <c r="C80" s="115"/>
+      <c r="D80" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="109"/>
-      <c r="F80" s="109" t="s">
+      <c r="E80" s="115"/>
+      <c r="F80" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="109"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="109"/>
-      <c r="J80" s="109" t="s">
+      <c r="G80" s="115"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="109"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="109"/>
-      <c r="N80" s="109" t="s">
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="109"/>
-      <c r="P80" s="109"/>
-      <c r="Q80" s="109"/>
+      <c r="O80" s="115"/>
+      <c r="P80" s="115"/>
+      <c r="Q80" s="115"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5798,32 +5806,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="109" t="s">
+      <c r="B81" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="109"/>
-      <c r="D81" s="109" t="s">
+      <c r="C81" s="115"/>
+      <c r="D81" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109" t="s">
+      <c r="E81" s="115"/>
+      <c r="F81" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="109"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="109"/>
-      <c r="J81" s="109" t="s">
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="109"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="109"/>
-      <c r="N81" s="109" t="s">
+      <c r="K81" s="115"/>
+      <c r="L81" s="115"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="109"/>
-      <c r="P81" s="109"/>
-      <c r="Q81" s="109"/>
+      <c r="O81" s="115"/>
+      <c r="P81" s="115"/>
+      <c r="Q81" s="115"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5833,32 +5841,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="109" t="s">
+      <c r="B82" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109" t="s">
+      <c r="C82" s="115"/>
+      <c r="D82" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109" t="s">
+      <c r="E82" s="115"/>
+      <c r="F82" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="109" t="s">
+      <c r="G82" s="115"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="109"/>
-      <c r="N82" s="109" t="s">
+      <c r="K82" s="115"/>
+      <c r="L82" s="115"/>
+      <c r="M82" s="115"/>
+      <c r="N82" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="109"/>
-      <c r="P82" s="109"/>
-      <c r="Q82" s="109"/>
+      <c r="O82" s="115"/>
+      <c r="P82" s="115"/>
+      <c r="Q82" s="115"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5868,32 +5876,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="109" t="s">
+      <c r="B83" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109" t="s">
+      <c r="C83" s="115"/>
+      <c r="D83" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="109"/>
-      <c r="F83" s="121" t="s">
+      <c r="E83" s="115"/>
+      <c r="F83" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="122"/>
-      <c r="J83" s="121" t="s">
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="123"/>
-      <c r="L83" s="123"/>
-      <c r="M83" s="122"/>
-      <c r="N83" s="121" t="s">
+      <c r="K83" s="118"/>
+      <c r="L83" s="118"/>
+      <c r="M83" s="117"/>
+      <c r="N83" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="122"/>
-      <c r="P83" s="109"/>
-      <c r="Q83" s="109"/>
+      <c r="O83" s="117"/>
+      <c r="P83" s="115"/>
+      <c r="Q83" s="115"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5905,32 +5913,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="109" t="s">
+      <c r="B84" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109" t="s">
+      <c r="C84" s="115"/>
+      <c r="D84" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="109"/>
-      <c r="F84" s="109" t="s">
+      <c r="E84" s="115"/>
+      <c r="F84" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="109"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="109"/>
-      <c r="J84" s="109" t="s">
+      <c r="G84" s="115"/>
+      <c r="H84" s="115"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="109"/>
-      <c r="N84" s="109" t="s">
+      <c r="K84" s="115"/>
+      <c r="L84" s="115"/>
+      <c r="M84" s="115"/>
+      <c r="N84" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="109"/>
-      <c r="P84" s="109"/>
-      <c r="Q84" s="109"/>
+      <c r="O84" s="115"/>
+      <c r="P84" s="115"/>
+      <c r="Q84" s="115"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5940,32 +5948,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="109" t="s">
+      <c r="B85" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="109"/>
-      <c r="D85" s="109" t="s">
+      <c r="C85" s="115"/>
+      <c r="D85" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109" t="s">
+      <c r="E85" s="115"/>
+      <c r="F85" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109" t="s">
+      <c r="G85" s="115"/>
+      <c r="H85" s="115"/>
+      <c r="I85" s="115"/>
+      <c r="J85" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="109"/>
-      <c r="N85" s="109" t="s">
+      <c r="K85" s="115"/>
+      <c r="L85" s="115"/>
+      <c r="M85" s="115"/>
+      <c r="N85" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
+      <c r="O85" s="115"/>
+      <c r="P85" s="115"/>
+      <c r="Q85" s="115"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5975,32 +5983,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="109" t="s">
+      <c r="B86" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109" t="s">
+      <c r="C86" s="115"/>
+      <c r="D86" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109" t="s">
+      <c r="E86" s="115"/>
+      <c r="F86" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="109"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="109"/>
-      <c r="J86" s="109" t="s">
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="115"/>
+      <c r="J86" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="109"/>
-      <c r="N86" s="109" t="s">
+      <c r="K86" s="115"/>
+      <c r="L86" s="115"/>
+      <c r="M86" s="115"/>
+      <c r="N86" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="109"/>
-      <c r="P86" s="109"/>
-      <c r="Q86" s="109"/>
+      <c r="O86" s="115"/>
+      <c r="P86" s="115"/>
+      <c r="Q86" s="115"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -6010,32 +6018,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="109" t="s">
+      <c r="B87" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109" t="s">
+      <c r="C87" s="115"/>
+      <c r="D87" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109" t="s">
+      <c r="E87" s="115"/>
+      <c r="F87" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="109" t="s">
+      <c r="G87" s="115"/>
+      <c r="H87" s="115"/>
+      <c r="I87" s="115"/>
+      <c r="J87" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="109"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="109"/>
-      <c r="N87" s="109" t="s">
+      <c r="K87" s="115"/>
+      <c r="L87" s="115"/>
+      <c r="M87" s="115"/>
+      <c r="N87" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="109"/>
-      <c r="P87" s="109"/>
-      <c r="Q87" s="109"/>
+      <c r="O87" s="115"/>
+      <c r="P87" s="115"/>
+      <c r="Q87" s="115"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6045,32 +6053,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="109" t="s">
+      <c r="B88" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109" t="s">
+      <c r="C88" s="115"/>
+      <c r="D88" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109" t="s">
+      <c r="E88" s="115"/>
+      <c r="F88" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109" t="s">
+      <c r="G88" s="115"/>
+      <c r="H88" s="115"/>
+      <c r="I88" s="115"/>
+      <c r="J88" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="109"/>
-      <c r="N88" s="109" t="s">
+      <c r="K88" s="115"/>
+      <c r="L88" s="115"/>
+      <c r="M88" s="115"/>
+      <c r="N88" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="109"/>
-      <c r="P88" s="109"/>
-      <c r="Q88" s="109"/>
+      <c r="O88" s="115"/>
+      <c r="P88" s="115"/>
+      <c r="Q88" s="115"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6080,32 +6088,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="109" t="s">
+      <c r="B89" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109" t="s">
+      <c r="C89" s="115"/>
+      <c r="D89" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109" t="s">
+      <c r="E89" s="115"/>
+      <c r="F89" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="109"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109" t="s">
+      <c r="G89" s="115"/>
+      <c r="H89" s="115"/>
+      <c r="I89" s="115"/>
+      <c r="J89" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="109"/>
-      <c r="L89" s="109"/>
-      <c r="M89" s="109"/>
-      <c r="N89" s="109" t="s">
+      <c r="K89" s="115"/>
+      <c r="L89" s="115"/>
+      <c r="M89" s="115"/>
+      <c r="N89" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="109"/>
-      <c r="P89" s="109"/>
-      <c r="Q89" s="109"/>
+      <c r="O89" s="115"/>
+      <c r="P89" s="115"/>
+      <c r="Q89" s="115"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6117,32 +6125,32 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="110" t="s">
+      <c r="B90" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="111"/>
-      <c r="D90" s="110" t="s">
+      <c r="C90" s="122"/>
+      <c r="D90" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="111"/>
-      <c r="F90" s="110" t="s">
+      <c r="E90" s="122"/>
+      <c r="F90" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="111"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="110" t="s">
+      <c r="G90" s="122"/>
+      <c r="H90" s="122"/>
+      <c r="I90" s="122"/>
+      <c r="J90" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="111"/>
-      <c r="L90" s="111"/>
-      <c r="M90" s="111"/>
-      <c r="N90" s="110" t="s">
+      <c r="K90" s="122"/>
+      <c r="L90" s="122"/>
+      <c r="M90" s="122"/>
+      <c r="N90" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="111"/>
-      <c r="P90" s="111"/>
-      <c r="Q90" s="111"/>
+      <c r="O90" s="122"/>
+      <c r="P90" s="122"/>
+      <c r="Q90" s="122"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
@@ -6154,32 +6162,32 @@
       <c r="A91" s="55">
         <v>78</v>
       </c>
-      <c r="B91" s="105" t="s">
+      <c r="B91" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="106"/>
-      <c r="D91" s="105" t="s">
+      <c r="C91" s="107"/>
+      <c r="D91" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="106"/>
-      <c r="F91" s="105" t="s">
+      <c r="E91" s="107"/>
+      <c r="F91" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="105" t="s">
+      <c r="G91" s="107"/>
+      <c r="H91" s="107"/>
+      <c r="I91" s="107"/>
+      <c r="J91" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="K91" s="106"/>
-      <c r="L91" s="106"/>
-      <c r="M91" s="106"/>
-      <c r="N91" s="105" t="s">
+      <c r="K91" s="107"/>
+      <c r="L91" s="107"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="O91" s="106"/>
-      <c r="P91" s="106"/>
-      <c r="Q91" s="106"/>
+      <c r="O91" s="107"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="107"/>
       <c r="R91" s="56" t="s">
         <v>18</v>
       </c>
@@ -6313,32 +6321,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="108"/>
-      <c r="D92" s="107" t="s">
+      <c r="C92" s="124"/>
+      <c r="D92" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="108"/>
-      <c r="F92" s="107" t="s">
+      <c r="E92" s="124"/>
+      <c r="F92" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="108"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="108"/>
-      <c r="J92" s="107" t="s">
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+      <c r="J92" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="108"/>
-      <c r="L92" s="108"/>
-      <c r="M92" s="108"/>
-      <c r="N92" s="107" t="s">
+      <c r="K92" s="124"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="124"/>
+      <c r="N92" s="123" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="108"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="108"/>
+      <c r="O92" s="124"/>
+      <c r="P92" s="124"/>
+      <c r="Q92" s="124"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6473,32 +6481,32 @@
       <c r="A93" s="55">
         <v>80</v>
       </c>
-      <c r="B93" s="105" t="s">
+      <c r="B93" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="105" t="s">
+      <c r="C93" s="107"/>
+      <c r="D93" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="106"/>
-      <c r="F93" s="105" t="s">
+      <c r="E93" s="107"/>
+      <c r="F93" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="106"/>
-      <c r="H93" s="106"/>
-      <c r="I93" s="106"/>
-      <c r="J93" s="105" t="s">
+      <c r="G93" s="107"/>
+      <c r="H93" s="107"/>
+      <c r="I93" s="107"/>
+      <c r="J93" s="106" t="s">
         <v>311</v>
       </c>
-      <c r="K93" s="106"/>
-      <c r="L93" s="106"/>
-      <c r="M93" s="106"/>
-      <c r="N93" s="105" t="s">
+      <c r="K93" s="107"/>
+      <c r="L93" s="107"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="O93" s="106"/>
-      <c r="P93" s="106"/>
-      <c r="Q93" s="106"/>
+      <c r="O93" s="107"/>
+      <c r="P93" s="107"/>
+      <c r="Q93" s="107"/>
       <c r="R93" s="56" t="s">
         <v>18</v>
       </c>
@@ -6508,32 +6516,32 @@
       <c r="A94" s="55">
         <v>81</v>
       </c>
-      <c r="B94" s="105" t="s">
+      <c r="B94" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="106"/>
-      <c r="D94" s="105" t="s">
+      <c r="C94" s="107"/>
+      <c r="D94" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="106"/>
-      <c r="F94" s="105" t="s">
+      <c r="E94" s="107"/>
+      <c r="F94" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="106"/>
-      <c r="H94" s="106"/>
-      <c r="I94" s="106"/>
-      <c r="J94" s="105" t="s">
+      <c r="G94" s="107"/>
+      <c r="H94" s="107"/>
+      <c r="I94" s="107"/>
+      <c r="J94" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="106"/>
-      <c r="L94" s="106"/>
-      <c r="M94" s="106"/>
-      <c r="N94" s="105" t="s">
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
+      <c r="M94" s="107"/>
+      <c r="N94" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="106"/>
-      <c r="P94" s="106"/>
-      <c r="Q94" s="106"/>
+      <c r="O94" s="107"/>
+      <c r="P94" s="107"/>
+      <c r="Q94" s="107"/>
       <c r="R94" s="56" t="s">
         <v>18</v>
       </c>
@@ -6543,32 +6551,32 @@
       <c r="A95" s="55">
         <v>82</v>
       </c>
-      <c r="B95" s="105" t="s">
+      <c r="B95" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="106"/>
-      <c r="D95" s="105" t="s">
+      <c r="C95" s="107"/>
+      <c r="D95" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="106"/>
-      <c r="F95" s="105" t="s">
+      <c r="E95" s="107"/>
+      <c r="F95" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="G95" s="106"/>
-      <c r="H95" s="106"/>
-      <c r="I95" s="106"/>
-      <c r="J95" s="105" t="s">
+      <c r="G95" s="107"/>
+      <c r="H95" s="107"/>
+      <c r="I95" s="107"/>
+      <c r="J95" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="K95" s="106"/>
-      <c r="L95" s="106"/>
-      <c r="M95" s="106"/>
-      <c r="N95" s="105" t="s">
+      <c r="K95" s="107"/>
+      <c r="L95" s="107"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="O95" s="106"/>
-      <c r="P95" s="106"/>
-      <c r="Q95" s="106"/>
+      <c r="O95" s="107"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="107"/>
       <c r="R95" s="56" t="s">
         <v>18</v>
       </c>
@@ -6578,32 +6586,32 @@
       <c r="A96" s="55">
         <v>83</v>
       </c>
-      <c r="B96" s="105" t="s">
+      <c r="B96" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="106"/>
-      <c r="D96" s="105" t="s">
+      <c r="C96" s="107"/>
+      <c r="D96" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="106"/>
-      <c r="F96" s="105" t="s">
+      <c r="E96" s="107"/>
+      <c r="F96" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="G96" s="106"/>
-      <c r="H96" s="106"/>
-      <c r="I96" s="106"/>
-      <c r="J96" s="105" t="s">
+      <c r="G96" s="107"/>
+      <c r="H96" s="107"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="106" t="s">
         <v>318</v>
       </c>
-      <c r="K96" s="106"/>
-      <c r="L96" s="106"/>
-      <c r="M96" s="106"/>
-      <c r="N96" s="105" t="s">
+      <c r="K96" s="107"/>
+      <c r="L96" s="107"/>
+      <c r="M96" s="107"/>
+      <c r="N96" s="106" t="s">
         <v>319</v>
       </c>
-      <c r="O96" s="106"/>
-      <c r="P96" s="106"/>
-      <c r="Q96" s="106"/>
+      <c r="O96" s="107"/>
+      <c r="P96" s="107"/>
+      <c r="Q96" s="107"/>
       <c r="R96" s="56" t="s">
         <v>18</v>
       </c>
@@ -6613,32 +6621,32 @@
       <c r="A97" s="55">
         <v>84</v>
       </c>
-      <c r="B97" s="105" t="s">
+      <c r="B97" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="106"/>
-      <c r="D97" s="105" t="s">
+      <c r="C97" s="107"/>
+      <c r="D97" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="106"/>
-      <c r="F97" s="105" t="s">
+      <c r="E97" s="107"/>
+      <c r="F97" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="G97" s="106"/>
-      <c r="H97" s="106"/>
-      <c r="I97" s="106"/>
-      <c r="J97" s="105" t="s">
+      <c r="G97" s="107"/>
+      <c r="H97" s="107"/>
+      <c r="I97" s="107"/>
+      <c r="J97" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="K97" s="106"/>
-      <c r="L97" s="106"/>
-      <c r="M97" s="106"/>
-      <c r="N97" s="105" t="s">
+      <c r="K97" s="107"/>
+      <c r="L97" s="107"/>
+      <c r="M97" s="107"/>
+      <c r="N97" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="O97" s="106"/>
-      <c r="P97" s="106"/>
-      <c r="Q97" s="106"/>
+      <c r="O97" s="107"/>
+      <c r="P97" s="107"/>
+      <c r="Q97" s="107"/>
       <c r="R97" s="56" t="s">
         <v>18</v>
       </c>
@@ -6648,32 +6656,32 @@
       <c r="A98" s="55">
         <v>85</v>
       </c>
-      <c r="B98" s="105" t="s">
+      <c r="B98" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="106"/>
-      <c r="D98" s="105" t="s">
+      <c r="C98" s="107"/>
+      <c r="D98" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="106"/>
-      <c r="F98" s="105" t="s">
+      <c r="E98" s="107"/>
+      <c r="F98" s="106" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="106"/>
-      <c r="H98" s="106"/>
-      <c r="I98" s="106"/>
-      <c r="J98" s="105" t="s">
+      <c r="G98" s="107"/>
+      <c r="H98" s="107"/>
+      <c r="I98" s="107"/>
+      <c r="J98" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="K98" s="106"/>
-      <c r="L98" s="106"/>
-      <c r="M98" s="106"/>
-      <c r="N98" s="105" t="s">
+      <c r="K98" s="107"/>
+      <c r="L98" s="107"/>
+      <c r="M98" s="107"/>
+      <c r="N98" s="106" t="s">
         <v>325</v>
       </c>
-      <c r="O98" s="106"/>
-      <c r="P98" s="106"/>
-      <c r="Q98" s="106"/>
+      <c r="O98" s="107"/>
+      <c r="P98" s="107"/>
+      <c r="Q98" s="107"/>
       <c r="R98" s="56" t="s">
         <v>18</v>
       </c>
@@ -6683,32 +6691,32 @@
       <c r="A99" s="55">
         <v>86</v>
       </c>
-      <c r="B99" s="105" t="s">
+      <c r="B99" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="106"/>
-      <c r="D99" s="105" t="s">
+      <c r="C99" s="107"/>
+      <c r="D99" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="106"/>
-      <c r="F99" s="105" t="s">
+      <c r="E99" s="107"/>
+      <c r="F99" s="106" t="s">
         <v>326</v>
       </c>
-      <c r="G99" s="106"/>
-      <c r="H99" s="106"/>
-      <c r="I99" s="106"/>
-      <c r="J99" s="105" t="s">
+      <c r="G99" s="107"/>
+      <c r="H99" s="107"/>
+      <c r="I99" s="107"/>
+      <c r="J99" s="106" t="s">
         <v>327</v>
       </c>
-      <c r="K99" s="106"/>
-      <c r="L99" s="106"/>
-      <c r="M99" s="106"/>
-      <c r="N99" s="105" t="s">
+      <c r="K99" s="107"/>
+      <c r="L99" s="107"/>
+      <c r="M99" s="107"/>
+      <c r="N99" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="O99" s="106"/>
-      <c r="P99" s="106"/>
-      <c r="Q99" s="106"/>
+      <c r="O99" s="107"/>
+      <c r="P99" s="107"/>
+      <c r="Q99" s="107"/>
       <c r="R99" s="56" t="s">
         <v>18</v>
       </c>
@@ -6718,32 +6726,32 @@
       <c r="A100" s="55">
         <v>87</v>
       </c>
-      <c r="B100" s="105" t="s">
+      <c r="B100" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="106"/>
-      <c r="D100" s="105" t="s">
+      <c r="C100" s="107"/>
+      <c r="D100" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="106"/>
-      <c r="F100" s="105" t="s">
+      <c r="E100" s="107"/>
+      <c r="F100" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="G100" s="106"/>
-      <c r="H100" s="106"/>
-      <c r="I100" s="106"/>
-      <c r="J100" s="105" t="s">
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="K100" s="106"/>
-      <c r="L100" s="106"/>
-      <c r="M100" s="106"/>
-      <c r="N100" s="105" t="s">
+      <c r="K100" s="107"/>
+      <c r="L100" s="107"/>
+      <c r="M100" s="107"/>
+      <c r="N100" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="O100" s="106"/>
-      <c r="P100" s="106"/>
-      <c r="Q100" s="106"/>
+      <c r="O100" s="107"/>
+      <c r="P100" s="107"/>
+      <c r="Q100" s="107"/>
       <c r="R100" s="56" t="s">
         <v>18</v>
       </c>
@@ -6753,165 +6761,165 @@
       <c r="A101" s="55">
         <v>88</v>
       </c>
-      <c r="B101" s="105" t="s">
+      <c r="B101" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="106"/>
-      <c r="D101" s="105" t="s">
+      <c r="C101" s="107"/>
+      <c r="D101" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="106"/>
-      <c r="F101" s="105" t="s">
+      <c r="E101" s="107"/>
+      <c r="F101" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="G101" s="106"/>
-      <c r="H101" s="106"/>
-      <c r="I101" s="106"/>
-      <c r="J101" s="105" t="s">
+      <c r="G101" s="107"/>
+      <c r="H101" s="107"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="106" t="s">
         <v>331</v>
       </c>
-      <c r="K101" s="106"/>
-      <c r="L101" s="106"/>
-      <c r="M101" s="106"/>
-      <c r="N101" s="105" t="s">
+      <c r="K101" s="107"/>
+      <c r="L101" s="107"/>
+      <c r="M101" s="107"/>
+      <c r="N101" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="O101" s="106"/>
-      <c r="P101" s="106"/>
-      <c r="Q101" s="106"/>
+      <c r="O101" s="107"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="107"/>
       <c r="R101" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S101" s="55"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
-      <c r="F102" s="104"/>
-      <c r="G102" s="104"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="104"/>
-      <c r="J102" s="104"/>
-      <c r="K102" s="104"/>
-      <c r="L102" s="104"/>
-      <c r="M102" s="104"/>
-      <c r="N102" s="104"/>
-      <c r="O102" s="104"/>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="104"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="105"/>
+      <c r="J102" s="105"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="105"/>
+      <c r="M102" s="105"/>
+      <c r="N102" s="105"/>
+      <c r="O102" s="105"/>
+      <c r="P102" s="105"/>
+      <c r="Q102" s="105"/>
     </row>
     <row r="103" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="104"/>
-      <c r="G103" s="104"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="104"/>
-      <c r="J103" s="104"/>
-      <c r="K103" s="104"/>
-      <c r="L103" s="104"/>
-      <c r="M103" s="104"/>
-      <c r="N103" s="104"/>
-      <c r="O103" s="104"/>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="104"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
+      <c r="M103" s="105"/>
+      <c r="N103" s="105"/>
+      <c r="O103" s="105"/>
+      <c r="P103" s="105"/>
+      <c r="Q103" s="105"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="115" t="s">
+      <c r="A104" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="116"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="116"/>
-      <c r="E104" s="116"/>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="116"/>
-      <c r="M104" s="116"/>
-      <c r="N104" s="116"/>
-      <c r="O104" s="116"/>
-      <c r="P104" s="116"/>
-      <c r="Q104" s="116"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="117"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="109"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="109"/>
+      <c r="L104" s="109"/>
+      <c r="M104" s="109"/>
+      <c r="N104" s="109"/>
+      <c r="O104" s="109"/>
+      <c r="P104" s="109"/>
+      <c r="Q104" s="109"/>
+      <c r="R104" s="109"/>
+      <c r="S104" s="110"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="118"/>
-      <c r="B105" s="119"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="119"/>
-      <c r="E105" s="119"/>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="119"/>
-      <c r="I105" s="119"/>
-      <c r="J105" s="119"/>
-      <c r="K105" s="119"/>
-      <c r="L105" s="119"/>
-      <c r="M105" s="119"/>
-      <c r="N105" s="119"/>
-      <c r="O105" s="119"/>
-      <c r="P105" s="119"/>
-      <c r="Q105" s="119"/>
-      <c r="R105" s="119"/>
-      <c r="S105" s="120"/>
+      <c r="A105" s="111"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="112"/>
+      <c r="G105" s="112"/>
+      <c r="H105" s="112"/>
+      <c r="I105" s="112"/>
+      <c r="J105" s="112"/>
+      <c r="K105" s="112"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="112"/>
+      <c r="N105" s="112"/>
+      <c r="O105" s="112"/>
+      <c r="P105" s="112"/>
+      <c r="Q105" s="112"/>
+      <c r="R105" s="112"/>
+      <c r="S105" s="113"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B106" s="104"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="104"/>
-      <c r="O106" s="104"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
+      <c r="M106" s="105"/>
+      <c r="N106" s="105"/>
+      <c r="O106" s="105"/>
+      <c r="P106" s="105"/>
+      <c r="Q106" s="105"/>
     </row>
     <row r="107" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="55">
         <v>89</v>
       </c>
-      <c r="B107" s="105" t="s">
+      <c r="B107" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="106"/>
-      <c r="D107" s="105" t="s">
+      <c r="C107" s="107"/>
+      <c r="D107" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="106"/>
-      <c r="F107" s="105" t="s">
+      <c r="E107" s="107"/>
+      <c r="F107" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="106"/>
-      <c r="H107" s="106"/>
-      <c r="I107" s="106"/>
-      <c r="J107" s="105" t="s">
+      <c r="G107" s="107"/>
+      <c r="H107" s="107"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="106"/>
-      <c r="L107" s="106"/>
-      <c r="M107" s="106"/>
-      <c r="N107" s="105" t="s">
+      <c r="K107" s="107"/>
+      <c r="L107" s="107"/>
+      <c r="M107" s="107"/>
+      <c r="N107" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="O107" s="106"/>
-      <c r="P107" s="106"/>
-      <c r="Q107" s="106"/>
+      <c r="O107" s="107"/>
+      <c r="P107" s="107"/>
+      <c r="Q107" s="107"/>
       <c r="R107" s="56" t="s">
         <v>18</v>
       </c>
@@ -6921,32 +6929,32 @@
       <c r="A108" s="55">
         <v>90</v>
       </c>
-      <c r="B108" s="105" t="s">
+      <c r="B108" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="106"/>
-      <c r="D108" s="105" t="s">
+      <c r="C108" s="107"/>
+      <c r="D108" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="106"/>
-      <c r="F108" s="105" t="s">
+      <c r="E108" s="107"/>
+      <c r="F108" s="106" t="s">
         <v>305</v>
       </c>
-      <c r="G108" s="106"/>
-      <c r="H108" s="106"/>
-      <c r="I108" s="106"/>
-      <c r="J108" s="105" t="s">
+      <c r="G108" s="107"/>
+      <c r="H108" s="107"/>
+      <c r="I108" s="107"/>
+      <c r="J108" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="K108" s="106"/>
-      <c r="L108" s="106"/>
-      <c r="M108" s="106"/>
-      <c r="N108" s="105" t="s">
+      <c r="K108" s="107"/>
+      <c r="L108" s="107"/>
+      <c r="M108" s="107"/>
+      <c r="N108" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="O108" s="106"/>
-      <c r="P108" s="106"/>
-      <c r="Q108" s="106"/>
+      <c r="O108" s="107"/>
+      <c r="P108" s="107"/>
+      <c r="Q108" s="107"/>
       <c r="R108" s="56" t="s">
         <v>18</v>
       </c>
@@ -6956,32 +6964,32 @@
       <c r="A109" s="55">
         <v>91</v>
       </c>
-      <c r="B109" s="105" t="s">
+      <c r="B109" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="106"/>
-      <c r="D109" s="105" t="s">
+      <c r="C109" s="107"/>
+      <c r="D109" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="106"/>
-      <c r="F109" s="105" t="s">
+      <c r="E109" s="107"/>
+      <c r="F109" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="G109" s="106"/>
-      <c r="H109" s="106"/>
-      <c r="I109" s="106"/>
-      <c r="J109" s="105" t="s">
+      <c r="G109" s="107"/>
+      <c r="H109" s="107"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="106" t="s">
         <v>303</v>
       </c>
-      <c r="K109" s="106"/>
-      <c r="L109" s="106"/>
-      <c r="M109" s="106"/>
-      <c r="N109" s="105" t="s">
+      <c r="K109" s="107"/>
+      <c r="L109" s="107"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="O109" s="106"/>
-      <c r="P109" s="106"/>
-      <c r="Q109" s="106"/>
+      <c r="O109" s="107"/>
+      <c r="P109" s="107"/>
+      <c r="Q109" s="107"/>
       <c r="R109" s="56" t="s">
         <v>18</v>
       </c>
@@ -6991,32 +6999,32 @@
       <c r="A110" s="55">
         <v>92</v>
       </c>
-      <c r="B110" s="105" t="s">
+      <c r="B110" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="106"/>
-      <c r="D110" s="105" t="s">
+      <c r="C110" s="107"/>
+      <c r="D110" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="106"/>
-      <c r="F110" s="105" t="s">
+      <c r="E110" s="107"/>
+      <c r="F110" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="G110" s="106"/>
-      <c r="H110" s="106"/>
-      <c r="I110" s="106"/>
-      <c r="J110" s="105" t="s">
+      <c r="G110" s="107"/>
+      <c r="H110" s="107"/>
+      <c r="I110" s="107"/>
+      <c r="J110" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="K110" s="106"/>
-      <c r="L110" s="106"/>
-      <c r="M110" s="106"/>
-      <c r="N110" s="105" t="s">
+      <c r="K110" s="107"/>
+      <c r="L110" s="107"/>
+      <c r="M110" s="107"/>
+      <c r="N110" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="O110" s="106"/>
-      <c r="P110" s="106"/>
-      <c r="Q110" s="106"/>
+      <c r="O110" s="107"/>
+      <c r="P110" s="107"/>
+      <c r="Q110" s="107"/>
       <c r="R110" s="56" t="s">
         <v>18</v>
       </c>
@@ -7026,32 +7034,32 @@
       <c r="A111" s="55">
         <v>93</v>
       </c>
-      <c r="B111" s="105" t="s">
+      <c r="B111" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="106"/>
-      <c r="D111" s="105" t="s">
+      <c r="C111" s="107"/>
+      <c r="D111" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="106"/>
-      <c r="F111" s="105" t="s">
+      <c r="E111" s="107"/>
+      <c r="F111" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="106"/>
-      <c r="H111" s="106"/>
-      <c r="I111" s="106"/>
-      <c r="J111" s="105" t="s">
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="106"/>
-      <c r="L111" s="106"/>
-      <c r="M111" s="106"/>
-      <c r="N111" s="105" t="s">
+      <c r="K111" s="107"/>
+      <c r="L111" s="107"/>
+      <c r="M111" s="107"/>
+      <c r="N111" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="O111" s="106"/>
-      <c r="P111" s="106"/>
-      <c r="Q111" s="106"/>
+      <c r="O111" s="107"/>
+      <c r="P111" s="107"/>
+      <c r="Q111" s="107"/>
       <c r="R111" s="56" t="s">
         <v>18</v>
       </c>
@@ -7061,32 +7069,32 @@
       <c r="A112" s="55">
         <v>94</v>
       </c>
-      <c r="B112" s="105" t="s">
+      <c r="B112" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="106"/>
-      <c r="D112" s="105" t="s">
+      <c r="C112" s="107"/>
+      <c r="D112" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="106"/>
-      <c r="F112" s="105" t="s">
+      <c r="E112" s="107"/>
+      <c r="F112" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="G112" s="106"/>
-      <c r="H112" s="106"/>
-      <c r="I112" s="106"/>
-      <c r="J112" s="105" t="s">
+      <c r="G112" s="107"/>
+      <c r="H112" s="107"/>
+      <c r="I112" s="107"/>
+      <c r="J112" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="K112" s="106"/>
-      <c r="L112" s="106"/>
-      <c r="M112" s="106"/>
-      <c r="N112" s="105" t="s">
+      <c r="K112" s="107"/>
+      <c r="L112" s="107"/>
+      <c r="M112" s="107"/>
+      <c r="N112" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="O112" s="106"/>
-      <c r="P112" s="106"/>
-      <c r="Q112" s="106"/>
+      <c r="O112" s="107"/>
+      <c r="P112" s="107"/>
+      <c r="Q112" s="107"/>
       <c r="R112" s="56" t="s">
         <v>18</v>
       </c>
@@ -7096,201 +7104,876 @@
       <c r="A113" s="55">
         <v>95</v>
       </c>
-      <c r="B113" s="105" t="s">
+      <c r="B113" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="106"/>
-      <c r="D113" s="105" t="s">
+      <c r="C113" s="107"/>
+      <c r="D113" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="106"/>
-      <c r="F113" s="105" t="s">
+      <c r="E113" s="107"/>
+      <c r="F113" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="G113" s="106"/>
-      <c r="H113" s="106"/>
-      <c r="I113" s="106"/>
-      <c r="J113" s="105" t="s">
+      <c r="G113" s="107"/>
+      <c r="H113" s="107"/>
+      <c r="I113" s="107"/>
+      <c r="J113" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="K113" s="106"/>
-      <c r="L113" s="106"/>
-      <c r="M113" s="106"/>
-      <c r="N113" s="105" t="s">
+      <c r="K113" s="107"/>
+      <c r="L113" s="107"/>
+      <c r="M113" s="107"/>
+      <c r="N113" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="O113" s="106"/>
-      <c r="P113" s="106"/>
-      <c r="Q113" s="106"/>
+      <c r="O113" s="107"/>
+      <c r="P113" s="107"/>
+      <c r="Q113" s="107"/>
       <c r="R113" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S113" s="55"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="104"/>
-      <c r="F114" s="104"/>
-      <c r="G114" s="104"/>
-      <c r="H114" s="104"/>
-      <c r="I114" s="104"/>
-      <c r="J114" s="104"/>
-      <c r="K114" s="104"/>
-      <c r="L114" s="104"/>
-      <c r="M114" s="104"/>
-      <c r="N114" s="104"/>
-      <c r="O114" s="104"/>
-      <c r="P114" s="104"/>
-      <c r="Q114" s="104"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="105"/>
+      <c r="I114" s="105"/>
+      <c r="J114" s="105"/>
+      <c r="K114" s="105"/>
+      <c r="L114" s="105"/>
+      <c r="M114" s="105"/>
+      <c r="N114" s="105"/>
+      <c r="O114" s="105"/>
+      <c r="P114" s="105"/>
+      <c r="Q114" s="105"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B115" s="104"/>
-      <c r="C115" s="104"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="104"/>
-      <c r="F115" s="104"/>
-      <c r="G115" s="104"/>
-      <c r="H115" s="104"/>
-      <c r="I115" s="104"/>
-      <c r="J115" s="104"/>
-      <c r="K115" s="104"/>
-      <c r="L115" s="104"/>
-      <c r="M115" s="104"/>
-      <c r="N115" s="104"/>
-      <c r="O115" s="104"/>
-      <c r="P115" s="104"/>
-      <c r="Q115" s="104"/>
+      <c r="B115" s="105"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="105"/>
+      <c r="I115" s="105"/>
+      <c r="J115" s="105"/>
+      <c r="K115" s="105"/>
+      <c r="L115" s="105"/>
+      <c r="M115" s="105"/>
+      <c r="N115" s="105"/>
+      <c r="O115" s="105"/>
+      <c r="P115" s="105"/>
+      <c r="Q115" s="105"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="104"/>
-      <c r="C116" s="104"/>
-      <c r="D116" s="104"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="104"/>
-      <c r="G116" s="104"/>
-      <c r="H116" s="104"/>
-      <c r="I116" s="104"/>
-      <c r="J116" s="104"/>
-      <c r="K116" s="104"/>
-      <c r="L116" s="104"/>
-      <c r="M116" s="104"/>
-      <c r="N116" s="104"/>
-      <c r="O116" s="104"/>
-      <c r="P116" s="104"/>
-      <c r="Q116" s="104"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="105"/>
+      <c r="I116" s="105"/>
+      <c r="J116" s="105"/>
+      <c r="K116" s="105"/>
+      <c r="L116" s="105"/>
+      <c r="M116" s="105"/>
+      <c r="N116" s="105"/>
+      <c r="O116" s="105"/>
+      <c r="P116" s="105"/>
+      <c r="Q116" s="105"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="104"/>
-      <c r="C117" s="104"/>
-      <c r="D117" s="104"/>
-      <c r="E117" s="104"/>
-      <c r="F117" s="104"/>
-      <c r="G117" s="104"/>
-      <c r="H117" s="104"/>
-      <c r="I117" s="104"/>
-      <c r="J117" s="104"/>
-      <c r="K117" s="104"/>
-      <c r="L117" s="104"/>
-      <c r="M117" s="104"/>
-      <c r="N117" s="104"/>
-      <c r="O117" s="104"/>
-      <c r="P117" s="104"/>
-      <c r="Q117" s="104"/>
+      <c r="B117" s="105"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="105"/>
+      <c r="I117" s="105"/>
+      <c r="J117" s="105"/>
+      <c r="K117" s="105"/>
+      <c r="L117" s="105"/>
+      <c r="M117" s="105"/>
+      <c r="N117" s="105"/>
+      <c r="O117" s="105"/>
+      <c r="P117" s="105"/>
+      <c r="Q117" s="105"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="104"/>
-      <c r="C118" s="104"/>
-      <c r="D118" s="104"/>
-      <c r="E118" s="104"/>
-      <c r="F118" s="104"/>
-      <c r="G118" s="104"/>
-      <c r="H118" s="104"/>
-      <c r="I118" s="104"/>
-      <c r="J118" s="104"/>
-      <c r="K118" s="104"/>
-      <c r="L118" s="104"/>
-      <c r="M118" s="104"/>
-      <c r="N118" s="104"/>
-      <c r="O118" s="104"/>
-      <c r="P118" s="104"/>
-      <c r="Q118" s="104"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="105"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="105"/>
+      <c r="M118" s="105"/>
+      <c r="N118" s="105"/>
+      <c r="O118" s="105"/>
+      <c r="P118" s="105"/>
+      <c r="Q118" s="105"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="104"/>
-      <c r="C119" s="104"/>
-      <c r="D119" s="104"/>
-      <c r="E119" s="104"/>
-      <c r="F119" s="104"/>
-      <c r="G119" s="104"/>
-      <c r="H119" s="104"/>
-      <c r="I119" s="104"/>
-      <c r="J119" s="104"/>
-      <c r="K119" s="104"/>
-      <c r="L119" s="104"/>
-      <c r="M119" s="104"/>
-      <c r="N119" s="104"/>
-      <c r="O119" s="104"/>
-      <c r="P119" s="104"/>
-      <c r="Q119" s="104"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="105"/>
+      <c r="J119" s="105"/>
+      <c r="K119" s="105"/>
+      <c r="L119" s="105"/>
+      <c r="M119" s="105"/>
+      <c r="N119" s="105"/>
+      <c r="O119" s="105"/>
+      <c r="P119" s="105"/>
+      <c r="Q119" s="105"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B120" s="104"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
-      <c r="F120" s="104"/>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104"/>
-      <c r="I120" s="104"/>
-      <c r="J120" s="104"/>
-      <c r="K120" s="104"/>
-      <c r="L120" s="104"/>
-      <c r="M120" s="104"/>
-      <c r="N120" s="104"/>
-      <c r="O120" s="104"/>
-      <c r="P120" s="104"/>
-      <c r="Q120" s="104"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="105"/>
+      <c r="J120" s="105"/>
+      <c r="K120" s="105"/>
+      <c r="L120" s="105"/>
+      <c r="M120" s="105"/>
+      <c r="N120" s="105"/>
+      <c r="O120" s="105"/>
+      <c r="P120" s="105"/>
+      <c r="Q120" s="105"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B121" s="104"/>
-      <c r="C121" s="104"/>
-      <c r="D121" s="104"/>
-      <c r="E121" s="104"/>
-      <c r="F121" s="104"/>
-      <c r="G121" s="104"/>
-      <c r="H121" s="104"/>
-      <c r="I121" s="104"/>
-      <c r="J121" s="104"/>
-      <c r="K121" s="104"/>
-      <c r="L121" s="104"/>
-      <c r="M121" s="104"/>
-      <c r="N121" s="104"/>
-      <c r="O121" s="104"/>
-      <c r="P121" s="104"/>
-      <c r="Q121" s="104"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="105"/>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="105"/>
+      <c r="I121" s="105"/>
+      <c r="J121" s="105"/>
+      <c r="K121" s="105"/>
+      <c r="L121" s="105"/>
+      <c r="M121" s="105"/>
+      <c r="N121" s="105"/>
+      <c r="O121" s="105"/>
+      <c r="P121" s="105"/>
+      <c r="Q121" s="105"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B122" s="104"/>
-      <c r="C122" s="104"/>
-      <c r="D122" s="104"/>
-      <c r="E122" s="104"/>
-      <c r="F122" s="104"/>
-      <c r="G122" s="104"/>
-      <c r="H122" s="104"/>
-      <c r="I122" s="104"/>
-      <c r="J122" s="104"/>
-      <c r="K122" s="104"/>
-      <c r="L122" s="104"/>
-      <c r="M122" s="104"/>
-      <c r="N122" s="104"/>
-      <c r="O122" s="104"/>
-      <c r="P122" s="104"/>
-      <c r="Q122" s="104"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="105"/>
+      <c r="K122" s="105"/>
+      <c r="L122" s="105"/>
+      <c r="M122" s="105"/>
+      <c r="N122" s="105"/>
+      <c r="O122" s="105"/>
+      <c r="P122" s="105"/>
+      <c r="Q122" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="699">
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A3:S4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:I70"/>
@@ -7315,681 +7998,6 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="J72:M72"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A3:S4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8006,7 +8014,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8035,12 +8043,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8072,12 +8080,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -8089,19 +8097,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8113,19 +8121,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8137,19 +8145,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8168,12 +8176,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="99" t="s">
+      <c r="H10" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8185,12 +8193,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8203,12 +8211,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8220,12 +8228,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="99" t="s">
+      <c r="H13" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8237,12 +8245,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="101" t="s">
+      <c r="H14" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8254,12 +8262,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8271,12 +8279,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8286,12 +8294,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
       <c r="L17" s="72" t="s">
         <v>22</v>
       </c>
@@ -8303,12 +8311,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
       <c r="L18" s="74" t="s">
         <v>34</v>
       </c>
@@ -8337,12 +8345,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8387,12 +8395,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8419,12 +8427,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8436,12 +8444,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8453,12 +8461,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8468,12 +8476,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8485,12 +8493,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="95" t="s">
+      <c r="H29" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8507,12 +8515,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="82" t="s">
+      <c r="H32" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8524,12 +8532,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
       <c r="L33" s="72" t="s">
         <v>33</v>
       </c>
@@ -8541,12 +8549,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8558,12 +8566,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8575,12 +8583,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8592,12 +8600,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -8609,12 +8617,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8626,12 +8634,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8641,12 +8649,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8658,12 +8666,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8673,12 +8681,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8690,12 +8698,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8712,12 +8720,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -8729,12 +8737,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="82" t="s">
+      <c r="H47" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
       <c r="L47" s="72" t="s">
         <v>33</v>
       </c>
@@ -8746,12 +8754,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8761,12 +8769,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8778,12 +8786,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="83" t="s">
+      <c r="H50" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8793,12 +8801,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="81" t="s">
+      <c r="H51" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8810,12 +8818,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8828,6 +8836,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
@@ -8840,38 +8880,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11880" windowHeight="9450" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11880" windowHeight="9450" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="Sheet1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Classify" guid="{5D21309E-F946-4F4C-8709-AAB8612F09E9}" includeHiddenRowCol="0" maximized="1" windowWidth="1276" windowHeight="821" activeSheetId="4"/>
   </customWorkbookViews>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1126,7 +1125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,6 +1177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,7 +1593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1807,75 +1812,75 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1885,6 +1890,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1903,12 +1932,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1918,22 +1941,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2249,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -2270,12 +2278,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2307,12 +2315,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2324,19 +2332,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2348,19 +2356,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="83"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2372,19 +2380,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="83"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2403,12 +2411,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2420,12 +2428,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2438,12 +2446,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2455,12 +2463,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2472,12 +2480,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2489,12 +2497,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2506,12 +2514,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2521,12 +2529,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2538,12 +2546,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2572,12 +2580,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2590,12 +2598,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2605,12 +2613,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2622,12 +2630,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2639,12 +2647,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2654,12 +2662,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2671,12 +2679,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2688,12 +2696,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2703,12 +2711,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2720,12 +2728,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2742,12 +2750,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2759,12 +2767,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2776,12 +2784,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2793,12 +2801,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="85" t="s">
+      <c r="H35" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2810,12 +2818,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2827,12 +2835,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2844,12 +2852,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="94" t="s">
+      <c r="H38" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2861,12 +2869,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2876,12 +2884,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="96" t="s">
+      <c r="H40" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2893,12 +2901,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="95" t="s">
+      <c r="H41" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2908,12 +2916,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="96" t="s">
+      <c r="H42" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2925,12 +2933,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="85" t="s">
+      <c r="H43" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2947,12 +2955,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="84" t="s">
+      <c r="H46" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2964,12 +2972,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="84" t="s">
+      <c r="H47" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2981,12 +2989,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -2996,12 +3004,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="96" t="s">
+      <c r="H49" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3013,12 +3021,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="95" t="s">
+      <c r="H50" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3028,12 +3036,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3045,12 +3053,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="85" t="s">
+      <c r="H52" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3063,19 +3071,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3092,21 +3102,19 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3125,8 +3133,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M15" workbookViewId="0">
-      <selection activeCell="S19" activeCellId="1" sqref="S20 S19"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="T112" sqref="T112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3178,48 +3186,48 @@
       <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="110"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="118"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="113"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="121"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="105"/>
@@ -3243,34 +3251,34 @@
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119" t="s">
+      <c r="E6" s="114"/>
+      <c r="F6" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119" t="s">
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119" t="s">
+      <c r="O6" s="114"/>
+      <c r="P6" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="120"/>
+      <c r="Q6" s="115"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3557,27 +3565,27 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="107"/>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="107"/>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="113" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="107"/>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="113" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="107"/>
       <c r="L15" s="107"/>
       <c r="M15" s="107"/>
-      <c r="N15" s="114" t="s">
+      <c r="N15" s="113" t="s">
         <v>178</v>
       </c>
       <c r="O15" s="107"/>
@@ -3594,27 +3602,27 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="107"/>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="107"/>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="113" t="s">
         <v>184</v>
       </c>
       <c r="G16" s="107"/>
       <c r="H16" s="107"/>
       <c r="I16" s="107"/>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="113" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
-      <c r="N16" s="114" t="s">
+      <c r="N16" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O16" s="107"/>
@@ -3631,27 +3639,27 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="107"/>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="107"/>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="113" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="107"/>
       <c r="H17" s="107"/>
       <c r="I17" s="107"/>
-      <c r="J17" s="114" t="s">
+      <c r="J17" s="113" t="s">
         <v>188</v>
       </c>
       <c r="K17" s="107"/>
       <c r="L17" s="107"/>
       <c r="M17" s="107"/>
-      <c r="N17" s="114" t="s">
+      <c r="N17" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O17" s="107"/>
@@ -3668,27 +3676,27 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="107"/>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="107"/>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="113" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="107"/>
       <c r="H18" s="107"/>
       <c r="I18" s="107"/>
-      <c r="J18" s="114" t="s">
+      <c r="J18" s="113" t="s">
         <v>190</v>
       </c>
       <c r="K18" s="107"/>
       <c r="L18" s="107"/>
       <c r="M18" s="107"/>
-      <c r="N18" s="114" t="s">
+      <c r="N18" s="113" t="s">
         <v>169</v>
       </c>
       <c r="O18" s="107"/>
@@ -3703,27 +3711,27 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="107"/>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="107"/>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="113" t="s">
         <v>191</v>
       </c>
       <c r="G19" s="107"/>
       <c r="H19" s="107"/>
       <c r="I19" s="107"/>
-      <c r="J19" s="114" t="s">
+      <c r="J19" s="113" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="107"/>
       <c r="L19" s="107"/>
       <c r="M19" s="107"/>
-      <c r="N19" s="114" t="s">
+      <c r="N19" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O19" s="107"/>
@@ -3740,27 +3748,27 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="107"/>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="107"/>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="113" t="s">
         <v>193</v>
       </c>
       <c r="G20" s="107"/>
       <c r="H20" s="107"/>
       <c r="I20" s="107"/>
-      <c r="J20" s="114" t="s">
+      <c r="J20" s="113" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="107"/>
       <c r="L20" s="107"/>
       <c r="M20" s="107"/>
-      <c r="N20" s="114" t="s">
+      <c r="N20" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O20" s="107"/>
@@ -3777,27 +3785,27 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="107"/>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="107"/>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="113" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="107"/>
       <c r="H21" s="107"/>
       <c r="I21" s="107"/>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="113" t="s">
         <v>196</v>
       </c>
       <c r="K21" s="107"/>
       <c r="L21" s="107"/>
       <c r="M21" s="107"/>
-      <c r="N21" s="114" t="s">
+      <c r="N21" s="113" t="s">
         <v>197</v>
       </c>
       <c r="O21" s="107"/>
@@ -3814,27 +3822,27 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="107"/>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="107"/>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="113" t="s">
         <v>198</v>
       </c>
       <c r="G22" s="107"/>
       <c r="H22" s="107"/>
       <c r="I22" s="107"/>
-      <c r="J22" s="114" t="s">
+      <c r="J22" s="113" t="s">
         <v>199</v>
       </c>
       <c r="K22" s="107"/>
       <c r="L22" s="107"/>
       <c r="M22" s="107"/>
-      <c r="N22" s="114" t="s">
+      <c r="N22" s="113" t="s">
         <v>286</v>
       </c>
       <c r="O22" s="107"/>
@@ -3849,27 +3857,27 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="107"/>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="107"/>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="113" t="s">
         <v>200</v>
       </c>
       <c r="G23" s="107"/>
       <c r="H23" s="107"/>
       <c r="I23" s="107"/>
-      <c r="J23" s="114" t="s">
+      <c r="J23" s="113" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="107"/>
       <c r="L23" s="107"/>
       <c r="M23" s="107"/>
-      <c r="N23" s="114" t="s">
+      <c r="N23" s="113" t="s">
         <v>202</v>
       </c>
       <c r="O23" s="107"/>
@@ -3884,27 +3892,27 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="107"/>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="107"/>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="113" t="s">
         <v>255</v>
       </c>
       <c r="G24" s="107"/>
       <c r="H24" s="107"/>
       <c r="I24" s="107"/>
-      <c r="J24" s="114" t="s">
+      <c r="J24" s="113" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="107"/>
       <c r="L24" s="107"/>
       <c r="M24" s="107"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="113" t="s">
         <v>204</v>
       </c>
       <c r="O24" s="107"/>
@@ -3921,27 +3929,27 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="107"/>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="107"/>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="113" t="s">
         <v>205</v>
       </c>
       <c r="G25" s="107"/>
       <c r="H25" s="107"/>
       <c r="I25" s="107"/>
-      <c r="J25" s="114" t="s">
+      <c r="J25" s="113" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="107"/>
       <c r="L25" s="107"/>
       <c r="M25" s="107"/>
-      <c r="N25" s="114" t="s">
+      <c r="N25" s="113" t="s">
         <v>204</v>
       </c>
       <c r="O25" s="107"/>
@@ -3956,27 +3964,27 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="107"/>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="107"/>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="113" t="s">
         <v>207</v>
       </c>
       <c r="G26" s="107"/>
       <c r="H26" s="107"/>
       <c r="I26" s="107"/>
-      <c r="J26" s="114" t="s">
+      <c r="J26" s="113" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="107"/>
       <c r="L26" s="107"/>
       <c r="M26" s="107"/>
-      <c r="N26" s="114" t="s">
+      <c r="N26" s="113" t="s">
         <v>209</v>
       </c>
       <c r="O26" s="107"/>
@@ -3991,11 +3999,11 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="107"/>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="107"/>
@@ -4028,27 +4036,27 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="107"/>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="107"/>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="113" t="s">
         <v>227</v>
       </c>
       <c r="G28" s="107"/>
       <c r="H28" s="107"/>
       <c r="I28" s="107"/>
-      <c r="J28" s="114" t="s">
+      <c r="J28" s="113" t="s">
         <v>226</v>
       </c>
       <c r="K28" s="107"/>
       <c r="L28" s="107"/>
       <c r="M28" s="107"/>
-      <c r="N28" s="114" t="s">
+      <c r="N28" s="113" t="s">
         <v>212</v>
       </c>
       <c r="O28" s="107"/>
@@ -4063,27 +4071,27 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="107"/>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="107"/>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="113" t="s">
         <v>213</v>
       </c>
       <c r="G29" s="107"/>
       <c r="H29" s="107"/>
       <c r="I29" s="107"/>
-      <c r="J29" s="114" t="s">
+      <c r="J29" s="113" t="s">
         <v>214</v>
       </c>
       <c r="K29" s="107"/>
       <c r="L29" s="107"/>
       <c r="M29" s="107"/>
-      <c r="N29" s="114" t="s">
+      <c r="N29" s="113" t="s">
         <v>212</v>
       </c>
       <c r="O29" s="107"/>
@@ -4098,27 +4106,27 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="107"/>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="107"/>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="113" t="s">
         <v>215</v>
       </c>
       <c r="G30" s="107"/>
       <c r="H30" s="107"/>
       <c r="I30" s="107"/>
-      <c r="J30" s="114" t="s">
+      <c r="J30" s="113" t="s">
         <v>216</v>
       </c>
       <c r="K30" s="107"/>
       <c r="L30" s="107"/>
       <c r="M30" s="107"/>
-      <c r="N30" s="114" t="s">
+      <c r="N30" s="113" t="s">
         <v>186</v>
       </c>
       <c r="O30" s="107"/>
@@ -4133,27 +4141,27 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="107"/>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="107"/>
-      <c r="F31" s="114" t="s">
+      <c r="F31" s="113" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="107"/>
       <c r="H31" s="107"/>
       <c r="I31" s="107"/>
-      <c r="J31" s="114" t="s">
+      <c r="J31" s="113" t="s">
         <v>218</v>
       </c>
       <c r="K31" s="107"/>
       <c r="L31" s="107"/>
       <c r="M31" s="107"/>
-      <c r="N31" s="114" t="s">
+      <c r="N31" s="113" t="s">
         <v>219</v>
       </c>
       <c r="O31" s="107"/>
@@ -4170,27 +4178,27 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="107"/>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="107"/>
-      <c r="F32" s="114" t="s">
+      <c r="F32" s="113" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="107"/>
       <c r="H32" s="107"/>
       <c r="I32" s="107"/>
-      <c r="J32" s="114" t="s">
+      <c r="J32" s="113" t="s">
         <v>221</v>
       </c>
       <c r="K32" s="107"/>
       <c r="L32" s="107"/>
       <c r="M32" s="107"/>
-      <c r="N32" s="114" t="s">
+      <c r="N32" s="113" t="s">
         <v>222</v>
       </c>
       <c r="O32" s="107"/>
@@ -4207,27 +4215,27 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="107"/>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="107"/>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="113" t="s">
         <v>223</v>
       </c>
       <c r="G33" s="107"/>
       <c r="H33" s="107"/>
       <c r="I33" s="107"/>
-      <c r="J33" s="114" t="s">
+      <c r="J33" s="113" t="s">
         <v>224</v>
       </c>
       <c r="K33" s="107"/>
       <c r="L33" s="107"/>
       <c r="M33" s="107"/>
-      <c r="N33" s="114" t="s">
+      <c r="N33" s="113" t="s">
         <v>212</v>
       </c>
       <c r="O33" s="107"/>
@@ -4242,27 +4250,27 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="107"/>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="107"/>
-      <c r="F34" s="114" t="s">
+      <c r="F34" s="113" t="s">
         <v>225</v>
       </c>
       <c r="G34" s="107"/>
       <c r="H34" s="107"/>
       <c r="I34" s="107"/>
-      <c r="J34" s="114" t="s">
+      <c r="J34" s="113" t="s">
         <v>228</v>
       </c>
       <c r="K34" s="107"/>
       <c r="L34" s="107"/>
       <c r="M34" s="107"/>
-      <c r="N34" s="114" t="s">
+      <c r="N34" s="113" t="s">
         <v>229</v>
       </c>
       <c r="O34" s="107"/>
@@ -4277,27 +4285,27 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="107"/>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="107"/>
-      <c r="F35" s="114" t="s">
+      <c r="F35" s="113" t="s">
         <v>258</v>
       </c>
       <c r="G35" s="107"/>
       <c r="H35" s="107"/>
       <c r="I35" s="107"/>
-      <c r="J35" s="114" t="s">
+      <c r="J35" s="113" t="s">
         <v>230</v>
       </c>
       <c r="K35" s="107"/>
       <c r="L35" s="107"/>
       <c r="M35" s="107"/>
-      <c r="N35" s="114" t="s">
+      <c r="N35" s="113" t="s">
         <v>229</v>
       </c>
       <c r="O35" s="107"/>
@@ -4312,21 +4320,21 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="107"/>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="107"/>
-      <c r="F36" s="114" t="s">
+      <c r="F36" s="113" t="s">
         <v>248</v>
       </c>
       <c r="G36" s="107"/>
       <c r="H36" s="107"/>
       <c r="I36" s="107"/>
-      <c r="J36" s="114" t="s">
+      <c r="J36" s="113" t="s">
         <v>249</v>
       </c>
       <c r="K36" s="107"/>
@@ -4345,27 +4353,27 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="107"/>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="107"/>
-      <c r="F37" s="114" t="s">
+      <c r="F37" s="113" t="s">
         <v>231</v>
       </c>
       <c r="G37" s="107"/>
       <c r="H37" s="107"/>
       <c r="I37" s="107"/>
-      <c r="J37" s="114" t="s">
+      <c r="J37" s="113" t="s">
         <v>232</v>
       </c>
       <c r="K37" s="107"/>
       <c r="L37" s="107"/>
       <c r="M37" s="107"/>
-      <c r="N37" s="114" t="s">
+      <c r="N37" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O37" s="107"/>
@@ -4382,27 +4390,27 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="107"/>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="107"/>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="113" t="s">
         <v>233</v>
       </c>
       <c r="G38" s="107"/>
       <c r="H38" s="107"/>
       <c r="I38" s="107"/>
-      <c r="J38" s="114" t="s">
+      <c r="J38" s="113" t="s">
         <v>234</v>
       </c>
       <c r="K38" s="107"/>
       <c r="L38" s="107"/>
       <c r="M38" s="107"/>
-      <c r="N38" s="114" t="s">
+      <c r="N38" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O38" s="107"/>
@@ -4417,27 +4425,27 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="107"/>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="107"/>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="113" t="s">
         <v>236</v>
       </c>
       <c r="G39" s="107"/>
       <c r="H39" s="107"/>
       <c r="I39" s="107"/>
-      <c r="J39" s="114" t="s">
+      <c r="J39" s="113" t="s">
         <v>235</v>
       </c>
       <c r="K39" s="107"/>
       <c r="L39" s="107"/>
       <c r="M39" s="107"/>
-      <c r="N39" s="114" t="s">
+      <c r="N39" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O39" s="107"/>
@@ -4452,27 +4460,27 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="107"/>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="107"/>
-      <c r="F40" s="114" t="s">
+      <c r="F40" s="113" t="s">
         <v>237</v>
       </c>
       <c r="G40" s="107"/>
       <c r="H40" s="107"/>
       <c r="I40" s="107"/>
-      <c r="J40" s="114" t="s">
+      <c r="J40" s="113" t="s">
         <v>238</v>
       </c>
       <c r="K40" s="107"/>
       <c r="L40" s="107"/>
       <c r="M40" s="107"/>
-      <c r="N40" s="114" t="s">
+      <c r="N40" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O40" s="107"/>
@@ -4487,27 +4495,27 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="107"/>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="107"/>
-      <c r="F41" s="114" t="s">
+      <c r="F41" s="113" t="s">
         <v>239</v>
       </c>
       <c r="G41" s="107"/>
       <c r="H41" s="107"/>
       <c r="I41" s="107"/>
-      <c r="J41" s="114" t="s">
+      <c r="J41" s="113" t="s">
         <v>240</v>
       </c>
       <c r="K41" s="107"/>
       <c r="L41" s="107"/>
       <c r="M41" s="107"/>
-      <c r="N41" s="114" t="s">
+      <c r="N41" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O41" s="107"/>
@@ -4522,27 +4530,27 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="107"/>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="107"/>
-      <c r="F42" s="114" t="s">
+      <c r="F42" s="113" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="107"/>
       <c r="H42" s="107"/>
       <c r="I42" s="107"/>
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="113" t="s">
         <v>242</v>
       </c>
       <c r="K42" s="107"/>
       <c r="L42" s="107"/>
       <c r="M42" s="107"/>
-      <c r="N42" s="114" t="s">
+      <c r="N42" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O42" s="107"/>
@@ -4557,27 +4565,27 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="107"/>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="107"/>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="113" t="s">
         <v>243</v>
       </c>
       <c r="G43" s="107"/>
       <c r="H43" s="107"/>
       <c r="I43" s="107"/>
-      <c r="J43" s="114" t="s">
+      <c r="J43" s="113" t="s">
         <v>244</v>
       </c>
       <c r="K43" s="107"/>
       <c r="L43" s="107"/>
       <c r="M43" s="107"/>
-      <c r="N43" s="114" t="s">
+      <c r="N43" s="113" t="s">
         <v>172</v>
       </c>
       <c r="O43" s="107"/>
@@ -4592,11 +4600,11 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="107"/>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="107"/>
@@ -4606,13 +4614,13 @@
       <c r="G44" s="107"/>
       <c r="H44" s="107"/>
       <c r="I44" s="107"/>
-      <c r="J44" s="114" t="s">
+      <c r="J44" s="113" t="s">
         <v>245</v>
       </c>
       <c r="K44" s="107"/>
       <c r="L44" s="107"/>
       <c r="M44" s="107"/>
-      <c r="N44" s="114" t="s">
+      <c r="N44" s="113" t="s">
         <v>164</v>
       </c>
       <c r="O44" s="107"/>
@@ -4629,27 +4637,27 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="107"/>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="107"/>
-      <c r="F45" s="114" t="s">
+      <c r="F45" s="113" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="107"/>
       <c r="H45" s="107"/>
       <c r="I45" s="107"/>
-      <c r="J45" s="114" t="s">
+      <c r="J45" s="113" t="s">
         <v>247</v>
       </c>
       <c r="K45" s="107"/>
       <c r="L45" s="107"/>
       <c r="M45" s="107"/>
-      <c r="N45" s="114" t="s">
+      <c r="N45" s="113" t="s">
         <v>164</v>
       </c>
       <c r="O45" s="107"/>
@@ -4664,27 +4672,27 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="107"/>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="107"/>
-      <c r="F46" s="114" t="s">
+      <c r="F46" s="113" t="s">
         <v>250</v>
       </c>
       <c r="G46" s="107"/>
       <c r="H46" s="107"/>
       <c r="I46" s="107"/>
-      <c r="J46" s="114" t="s">
+      <c r="J46" s="113" t="s">
         <v>251</v>
       </c>
       <c r="K46" s="107"/>
       <c r="L46" s="107"/>
       <c r="M46" s="107"/>
-      <c r="N46" s="114" t="s">
+      <c r="N46" s="113" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="107"/>
@@ -4701,27 +4709,27 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="107"/>
-      <c r="D47" s="114" t="s">
+      <c r="D47" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="107"/>
-      <c r="F47" s="114" t="s">
+      <c r="F47" s="113" t="s">
         <v>253</v>
       </c>
       <c r="G47" s="107"/>
       <c r="H47" s="107"/>
       <c r="I47" s="107"/>
-      <c r="J47" s="114" t="s">
+      <c r="J47" s="113" t="s">
         <v>279</v>
       </c>
       <c r="K47" s="107"/>
       <c r="L47" s="107"/>
       <c r="M47" s="107"/>
-      <c r="N47" s="114" t="s">
+      <c r="N47" s="113" t="s">
         <v>254</v>
       </c>
       <c r="O47" s="107"/>
@@ -4738,31 +4746,31 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="107"/>
-      <c r="D48" s="114" t="s">
+      <c r="D48" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="107"/>
-      <c r="F48" s="114" t="s">
+      <c r="F48" s="113" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="107"/>
       <c r="H48" s="107"/>
       <c r="I48" s="107"/>
-      <c r="J48" s="114" t="s">
+      <c r="J48" s="113" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="107"/>
       <c r="L48" s="107"/>
       <c r="M48" s="107"/>
-      <c r="N48" s="114" t="s">
+      <c r="N48" s="113" t="s">
         <v>11</v>
       </c>
       <c r="O48" s="107"/>
-      <c r="P48" s="114"/>
+      <c r="P48" s="113"/>
       <c r="Q48" s="107"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
@@ -4776,28 +4784,28 @@
       <c r="B49" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114" t="s">
+      <c r="C49" s="113"/>
+      <c r="D49" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114" t="s">
+      <c r="E49" s="113"/>
+      <c r="F49" s="113" t="s">
         <v>282</v>
       </c>
       <c r="G49" s="107"/>
       <c r="H49" s="107"/>
       <c r="I49" s="107"/>
-      <c r="J49" s="114" t="s">
+      <c r="J49" s="113" t="s">
         <v>283</v>
       </c>
       <c r="K49" s="107"/>
       <c r="L49" s="107"/>
       <c r="M49" s="107"/>
-      <c r="N49" s="114" t="s">
+      <c r="N49" s="113" t="s">
         <v>11</v>
       </c>
       <c r="O49" s="107"/>
-      <c r="P49" s="114"/>
+      <c r="P49" s="113"/>
       <c r="Q49" s="107"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
@@ -4812,27 +4820,27 @@
         <v>133</v>
       </c>
       <c r="C50" s="107"/>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="107"/>
-      <c r="F50" s="114" t="s">
+      <c r="F50" s="113" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="107"/>
       <c r="H50" s="107"/>
       <c r="I50" s="107"/>
-      <c r="J50" s="114" t="s">
+      <c r="J50" s="113" t="s">
         <v>110</v>
       </c>
       <c r="K50" s="107"/>
       <c r="L50" s="107"/>
       <c r="M50" s="107"/>
-      <c r="N50" s="114" t="s">
+      <c r="N50" s="113" t="s">
         <v>111</v>
       </c>
       <c r="O50" s="107"/>
-      <c r="P50" s="114"/>
+      <c r="P50" s="113"/>
       <c r="Q50" s="107"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
@@ -4847,27 +4855,27 @@
         <v>9</v>
       </c>
       <c r="C51" s="107"/>
-      <c r="D51" s="114" t="s">
+      <c r="D51" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="107"/>
-      <c r="F51" s="114" t="s">
+      <c r="F51" s="113" t="s">
         <v>109</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="107"/>
       <c r="I51" s="107"/>
-      <c r="J51" s="114" t="s">
+      <c r="J51" s="113" t="s">
         <v>110</v>
       </c>
       <c r="K51" s="107"/>
       <c r="L51" s="107"/>
       <c r="M51" s="107"/>
-      <c r="N51" s="114" t="s">
+      <c r="N51" s="113" t="s">
         <v>114</v>
       </c>
       <c r="O51" s="107"/>
-      <c r="P51" s="114"/>
+      <c r="P51" s="113"/>
       <c r="Q51" s="107"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
@@ -4882,27 +4890,27 @@
         <v>9</v>
       </c>
       <c r="C52" s="107"/>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="107"/>
-      <c r="F52" s="114" t="s">
+      <c r="F52" s="113" t="s">
         <v>116</v>
       </c>
       <c r="G52" s="107"/>
       <c r="H52" s="107"/>
       <c r="I52" s="107"/>
-      <c r="J52" s="114" t="s">
+      <c r="J52" s="113" t="s">
         <v>117</v>
       </c>
       <c r="K52" s="107"/>
       <c r="L52" s="107"/>
       <c r="M52" s="107"/>
-      <c r="N52" s="114" t="s">
+      <c r="N52" s="113" t="s">
         <v>103</v>
       </c>
       <c r="O52" s="107"/>
-      <c r="P52" s="114"/>
+      <c r="P52" s="113"/>
       <c r="Q52" s="107"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
@@ -4917,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="107"/>
-      <c r="D53" s="114" t="s">
+      <c r="D53" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E53" s="107"/>
@@ -5119,31 +5127,31 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="107"/>
-      <c r="D59" s="114" t="s">
+      <c r="D59" s="113" t="s">
         <v>146</v>
       </c>
       <c r="E59" s="107"/>
-      <c r="F59" s="114" t="s">
+      <c r="F59" s="113" t="s">
         <v>288</v>
       </c>
       <c r="G59" s="107"/>
       <c r="H59" s="107"/>
       <c r="I59" s="107"/>
-      <c r="J59" s="114" t="s">
+      <c r="J59" s="113" t="s">
         <v>289</v>
       </c>
       <c r="K59" s="107"/>
       <c r="L59" s="107"/>
       <c r="M59" s="107"/>
-      <c r="N59" s="114" t="s">
+      <c r="N59" s="113" t="s">
         <v>129</v>
       </c>
       <c r="O59" s="107"/>
-      <c r="P59" s="114"/>
+      <c r="P59" s="113"/>
       <c r="Q59" s="107"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
@@ -5154,31 +5162,31 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="107"/>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="107"/>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="113" t="s">
         <v>147</v>
       </c>
       <c r="G60" s="107"/>
       <c r="H60" s="107"/>
       <c r="I60" s="107"/>
-      <c r="J60" s="114" t="s">
+      <c r="J60" s="113" t="s">
         <v>148</v>
       </c>
       <c r="K60" s="107"/>
       <c r="L60" s="107"/>
       <c r="M60" s="107"/>
-      <c r="N60" s="114" t="s">
+      <c r="N60" s="113" t="s">
         <v>129</v>
       </c>
       <c r="O60" s="107"/>
-      <c r="P60" s="114"/>
+      <c r="P60" s="113"/>
       <c r="Q60" s="107"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
@@ -5189,31 +5197,31 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="107"/>
-      <c r="D61" s="114" t="s">
+      <c r="D61" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="107"/>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="113" t="s">
         <v>290</v>
       </c>
       <c r="G61" s="107"/>
       <c r="H61" s="107"/>
       <c r="I61" s="107"/>
-      <c r="J61" s="114" t="s">
+      <c r="J61" s="113" t="s">
         <v>291</v>
       </c>
       <c r="K61" s="107"/>
       <c r="L61" s="107"/>
       <c r="M61" s="107"/>
-      <c r="N61" s="114" t="s">
+      <c r="N61" s="113" t="s">
         <v>149</v>
       </c>
       <c r="O61" s="107"/>
-      <c r="P61" s="114"/>
+      <c r="P61" s="113"/>
       <c r="Q61" s="107"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
@@ -5224,31 +5232,31 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="114" t="s">
+      <c r="B62" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C62" s="107"/>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="107"/>
-      <c r="F62" s="114" t="s">
+      <c r="F62" s="113" t="s">
         <v>150</v>
       </c>
       <c r="G62" s="107"/>
       <c r="H62" s="107"/>
       <c r="I62" s="107"/>
-      <c r="J62" s="114" t="s">
+      <c r="J62" s="113" t="s">
         <v>151</v>
       </c>
       <c r="K62" s="107"/>
       <c r="L62" s="107"/>
       <c r="M62" s="107"/>
-      <c r="N62" s="114" t="s">
+      <c r="N62" s="113" t="s">
         <v>149</v>
       </c>
       <c r="O62" s="107"/>
-      <c r="P62" s="114"/>
+      <c r="P62" s="113"/>
       <c r="Q62" s="107"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
@@ -5261,31 +5269,31 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="114" t="s">
+      <c r="B63" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="107"/>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="107"/>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="113" t="s">
         <v>153</v>
       </c>
       <c r="G63" s="107"/>
       <c r="H63" s="107"/>
       <c r="I63" s="107"/>
-      <c r="J63" s="114" t="s">
+      <c r="J63" s="113" t="s">
         <v>152</v>
       </c>
       <c r="K63" s="107"/>
       <c r="L63" s="107"/>
       <c r="M63" s="107"/>
-      <c r="N63" s="114" t="s">
+      <c r="N63" s="113" t="s">
         <v>149</v>
       </c>
       <c r="O63" s="107"/>
-      <c r="P63" s="114"/>
+      <c r="P63" s="113"/>
       <c r="Q63" s="107"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
@@ -5296,31 +5304,31 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="107"/>
-      <c r="D64" s="114" t="s">
+      <c r="D64" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="107"/>
-      <c r="F64" s="114" t="s">
+      <c r="F64" s="113" t="s">
         <v>155</v>
       </c>
       <c r="G64" s="107"/>
       <c r="H64" s="107"/>
       <c r="I64" s="107"/>
-      <c r="J64" s="114" t="s">
+      <c r="J64" s="113" t="s">
         <v>156</v>
       </c>
       <c r="K64" s="107"/>
       <c r="L64" s="107"/>
       <c r="M64" s="107"/>
-      <c r="N64" s="114" t="s">
+      <c r="N64" s="113" t="s">
         <v>157</v>
       </c>
       <c r="O64" s="107"/>
-      <c r="P64" s="114"/>
+      <c r="P64" s="113"/>
       <c r="Q64" s="107"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
@@ -5331,31 +5339,31 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="114" t="s">
+      <c r="B65" s="113" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="107"/>
-      <c r="D65" s="114" t="s">
+      <c r="D65" s="113" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="107"/>
-      <c r="F65" s="114" t="s">
+      <c r="F65" s="113" t="s">
         <v>293</v>
       </c>
       <c r="G65" s="107"/>
       <c r="H65" s="107"/>
       <c r="I65" s="107"/>
-      <c r="J65" s="114" t="s">
+      <c r="J65" s="113" t="s">
         <v>294</v>
       </c>
       <c r="K65" s="107"/>
       <c r="L65" s="107"/>
       <c r="M65" s="107"/>
-      <c r="N65" s="114" t="s">
+      <c r="N65" s="113" t="s">
         <v>160</v>
       </c>
       <c r="O65" s="107"/>
-      <c r="P65" s="114"/>
+      <c r="P65" s="113"/>
       <c r="Q65" s="107"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
@@ -5366,11 +5374,11 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="113" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="107"/>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="107"/>
@@ -5386,11 +5394,11 @@
       <c r="K66" s="107"/>
       <c r="L66" s="107"/>
       <c r="M66" s="107"/>
-      <c r="N66" s="114" t="s">
+      <c r="N66" s="113" t="s">
         <v>16</v>
       </c>
       <c r="O66" s="107"/>
-      <c r="P66" s="114"/>
+      <c r="P66" s="113"/>
       <c r="Q66" s="107"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
@@ -5405,27 +5413,27 @@
         <v>133</v>
       </c>
       <c r="C67" s="107"/>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="107"/>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="113" t="s">
         <v>102</v>
       </c>
       <c r="G67" s="107"/>
       <c r="H67" s="107"/>
       <c r="I67" s="107"/>
-      <c r="J67" s="114" t="s">
+      <c r="J67" s="113" t="s">
         <v>101</v>
       </c>
       <c r="K67" s="107"/>
       <c r="L67" s="107"/>
       <c r="M67" s="107"/>
-      <c r="N67" s="114" t="s">
+      <c r="N67" s="113" t="s">
         <v>103</v>
       </c>
       <c r="O67" s="107"/>
-      <c r="P67" s="114"/>
+      <c r="P67" s="113"/>
       <c r="Q67" s="107"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
@@ -5440,7 +5448,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="107"/>
-      <c r="D68" s="114" t="s">
+      <c r="D68" s="113" t="s">
         <v>104</v>
       </c>
       <c r="E68" s="107"/>
@@ -5450,17 +5458,17 @@
       <c r="G68" s="107"/>
       <c r="H68" s="107"/>
       <c r="I68" s="107"/>
-      <c r="J68" s="114" t="s">
+      <c r="J68" s="113" t="s">
         <v>108</v>
       </c>
       <c r="K68" s="107"/>
       <c r="L68" s="107"/>
       <c r="M68" s="107"/>
-      <c r="N68" s="114" t="s">
+      <c r="N68" s="113" t="s">
         <v>105</v>
       </c>
       <c r="O68" s="107"/>
-      <c r="P68" s="114"/>
+      <c r="P68" s="113"/>
       <c r="Q68" s="107"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
@@ -5477,7 +5485,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="107"/>
-      <c r="D69" s="114" t="s">
+      <c r="D69" s="113" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="107"/>
@@ -5493,11 +5501,11 @@
       <c r="K69" s="107"/>
       <c r="L69" s="107"/>
       <c r="M69" s="107"/>
-      <c r="N69" s="114" t="s">
+      <c r="N69" s="113" t="s">
         <v>115</v>
       </c>
       <c r="O69" s="107"/>
-      <c r="P69" s="114"/>
+      <c r="P69" s="113"/>
       <c r="Q69" s="107"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
@@ -5562,48 +5570,48 @@
       <c r="Q72" s="105"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="116" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="109"/>
-      <c r="L73" s="109"/>
-      <c r="M73" s="109"/>
-      <c r="N73" s="109"/>
-      <c r="O73" s="109"/>
-      <c r="P73" s="109"/>
-      <c r="Q73" s="109"/>
-      <c r="R73" s="109"/>
-      <c r="S73" s="110"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="118"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="112"/>
-      <c r="J74" s="112"/>
-      <c r="K74" s="112"/>
-      <c r="L74" s="112"/>
-      <c r="M74" s="112"/>
-      <c r="N74" s="112"/>
-      <c r="O74" s="112"/>
-      <c r="P74" s="112"/>
-      <c r="Q74" s="112"/>
-      <c r="R74" s="112"/>
-      <c r="S74" s="113"/>
+      <c r="A74" s="119"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="120"/>
+      <c r="H74" s="120"/>
+      <c r="I74" s="120"/>
+      <c r="J74" s="120"/>
+      <c r="K74" s="120"/>
+      <c r="L74" s="120"/>
+      <c r="M74" s="120"/>
+      <c r="N74" s="120"/>
+      <c r="O74" s="120"/>
+      <c r="P74" s="120"/>
+      <c r="Q74" s="120"/>
+      <c r="R74" s="120"/>
+      <c r="S74" s="121"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B75" s="105"/>
@@ -5627,32 +5635,32 @@
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="115" t="s">
+      <c r="B76" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115" t="s">
+      <c r="C76" s="110"/>
+      <c r="D76" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115" t="s">
+      <c r="E76" s="110"/>
+      <c r="F76" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115" t="s">
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
-      <c r="M76" s="115"/>
-      <c r="N76" s="115" t="s">
+      <c r="K76" s="110"/>
+      <c r="L76" s="110"/>
+      <c r="M76" s="110"/>
+      <c r="N76" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="115"/>
-      <c r="P76" s="115"/>
-      <c r="Q76" s="115"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5664,32 +5672,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="115" t="s">
+      <c r="B77" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115" t="s">
+      <c r="C77" s="110"/>
+      <c r="D77" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115" t="s">
+      <c r="E77" s="110"/>
+      <c r="F77" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115" t="s">
+      <c r="G77" s="110"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115" t="s">
+      <c r="K77" s="110"/>
+      <c r="L77" s="110"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="115"/>
-      <c r="P77" s="115"/>
-      <c r="Q77" s="115"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5701,32 +5709,32 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115" t="s">
+      <c r="C78" s="110"/>
+      <c r="D78" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115" t="s">
+      <c r="E78" s="110"/>
+      <c r="F78" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="115"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="115" t="s">
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="115"/>
-      <c r="L78" s="115"/>
-      <c r="M78" s="115"/>
-      <c r="N78" s="115" t="s">
+      <c r="K78" s="110"/>
+      <c r="L78" s="110"/>
+      <c r="M78" s="110"/>
+      <c r="N78" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="115"/>
-      <c r="P78" s="115"/>
-      <c r="Q78" s="115"/>
+      <c r="O78" s="110"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="110"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
@@ -5736,32 +5744,32 @@
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="115" t="s">
+      <c r="B79" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115" t="s">
+      <c r="C79" s="110"/>
+      <c r="D79" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115" t="s">
+      <c r="E79" s="110"/>
+      <c r="F79" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115" t="s">
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="115"/>
-      <c r="N79" s="115" t="s">
+      <c r="K79" s="110"/>
+      <c r="L79" s="110"/>
+      <c r="M79" s="110"/>
+      <c r="N79" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="115"/>
-      <c r="P79" s="115"/>
-      <c r="Q79" s="115"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
@@ -5771,32 +5779,32 @@
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="115" t="s">
+      <c r="B80" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115" t="s">
+      <c r="C80" s="110"/>
+      <c r="D80" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="115"/>
-      <c r="F80" s="115" t="s">
+      <c r="E80" s="110"/>
+      <c r="F80" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="115"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="115"/>
-      <c r="J80" s="115" t="s">
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="115"/>
-      <c r="L80" s="115"/>
-      <c r="M80" s="115"/>
-      <c r="N80" s="115" t="s">
+      <c r="K80" s="110"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="115"/>
-      <c r="P80" s="115"/>
-      <c r="Q80" s="115"/>
+      <c r="O80" s="110"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="110"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5806,32 +5814,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="115" t="s">
+      <c r="B81" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115" t="s">
+      <c r="C81" s="110"/>
+      <c r="D81" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115" t="s">
+      <c r="E81" s="110"/>
+      <c r="F81" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="115" t="s">
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="115"/>
-      <c r="L81" s="115"/>
-      <c r="M81" s="115"/>
-      <c r="N81" s="115" t="s">
+      <c r="K81" s="110"/>
+      <c r="L81" s="110"/>
+      <c r="M81" s="110"/>
+      <c r="N81" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="115"/>
-      <c r="P81" s="115"/>
-      <c r="Q81" s="115"/>
+      <c r="O81" s="110"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5841,32 +5849,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="115" t="s">
+      <c r="B82" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115" t="s">
+      <c r="C82" s="110"/>
+      <c r="D82" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115" t="s">
+      <c r="E82" s="110"/>
+      <c r="F82" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115" t="s">
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="115"/>
-      <c r="N82" s="115" t="s">
+      <c r="K82" s="110"/>
+      <c r="L82" s="110"/>
+      <c r="M82" s="110"/>
+      <c r="N82" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="115"/>
-      <c r="P82" s="115"/>
-      <c r="Q82" s="115"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5876,32 +5884,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="115" t="s">
+      <c r="B83" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115" t="s">
+      <c r="C83" s="110"/>
+      <c r="D83" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="115"/>
-      <c r="F83" s="116" t="s">
+      <c r="E83" s="110"/>
+      <c r="F83" s="122" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="116" t="s">
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="123"/>
+      <c r="J83" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118"/>
-      <c r="M83" s="117"/>
-      <c r="N83" s="116" t="s">
+      <c r="K83" s="124"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="123"/>
+      <c r="N83" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="117"/>
-      <c r="P83" s="115"/>
-      <c r="Q83" s="115"/>
+      <c r="O83" s="123"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5913,32 +5921,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115" t="s">
+      <c r="C84" s="110"/>
+      <c r="D84" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="115"/>
-      <c r="F84" s="115" t="s">
+      <c r="E84" s="110"/>
+      <c r="F84" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="115"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="115"/>
-      <c r="J84" s="115" t="s">
+      <c r="G84" s="110"/>
+      <c r="H84" s="110"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
-      <c r="M84" s="115"/>
-      <c r="N84" s="115" t="s">
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="110"/>
+      <c r="N84" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="115"/>
-      <c r="P84" s="115"/>
-      <c r="Q84" s="115"/>
+      <c r="O84" s="110"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5948,32 +5956,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="115" t="s">
+      <c r="B85" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115" t="s">
+      <c r="C85" s="110"/>
+      <c r="D85" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115" t="s">
+      <c r="E85" s="110"/>
+      <c r="F85" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="115"/>
-      <c r="H85" s="115"/>
-      <c r="I85" s="115"/>
-      <c r="J85" s="115" t="s">
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="110"/>
+      <c r="J85" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="115"/>
-      <c r="L85" s="115"/>
-      <c r="M85" s="115"/>
-      <c r="N85" s="115" t="s">
+      <c r="K85" s="110"/>
+      <c r="L85" s="110"/>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="115"/>
-      <c r="P85" s="115"/>
-      <c r="Q85" s="115"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5983,32 +5991,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="115" t="s">
+      <c r="B86" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115" t="s">
+      <c r="C86" s="110"/>
+      <c r="D86" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115" t="s">
+      <c r="E86" s="110"/>
+      <c r="F86" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="115" t="s">
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
+      <c r="J86" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="115"/>
-      <c r="L86" s="115"/>
-      <c r="M86" s="115"/>
-      <c r="N86" s="115" t="s">
+      <c r="K86" s="110"/>
+      <c r="L86" s="110"/>
+      <c r="M86" s="110"/>
+      <c r="N86" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="115"/>
-      <c r="P86" s="115"/>
-      <c r="Q86" s="115"/>
+      <c r="O86" s="110"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -6018,32 +6026,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="115" t="s">
+      <c r="B87" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="115"/>
-      <c r="D87" s="115" t="s">
+      <c r="C87" s="110"/>
+      <c r="D87" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="115"/>
-      <c r="F87" s="115" t="s">
+      <c r="E87" s="110"/>
+      <c r="F87" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="115"/>
-      <c r="H87" s="115"/>
-      <c r="I87" s="115"/>
-      <c r="J87" s="115" t="s">
+      <c r="G87" s="110"/>
+      <c r="H87" s="110"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="115"/>
-      <c r="L87" s="115"/>
-      <c r="M87" s="115"/>
-      <c r="N87" s="115" t="s">
+      <c r="K87" s="110"/>
+      <c r="L87" s="110"/>
+      <c r="M87" s="110"/>
+      <c r="N87" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="115"/>
-      <c r="P87" s="115"/>
-      <c r="Q87" s="115"/>
+      <c r="O87" s="110"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="110"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6053,32 +6061,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="115" t="s">
+      <c r="B88" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="115"/>
-      <c r="D88" s="115" t="s">
+      <c r="C88" s="110"/>
+      <c r="D88" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="115"/>
-      <c r="F88" s="115" t="s">
+      <c r="E88" s="110"/>
+      <c r="F88" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="115"/>
-      <c r="H88" s="115"/>
-      <c r="I88" s="115"/>
-      <c r="J88" s="115" t="s">
+      <c r="G88" s="110"/>
+      <c r="H88" s="110"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="115"/>
-      <c r="L88" s="115"/>
-      <c r="M88" s="115"/>
-      <c r="N88" s="115" t="s">
+      <c r="K88" s="110"/>
+      <c r="L88" s="110"/>
+      <c r="M88" s="110"/>
+      <c r="N88" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="115"/>
-      <c r="P88" s="115"/>
-      <c r="Q88" s="115"/>
+      <c r="O88" s="110"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6088,32 +6096,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="115" t="s">
+      <c r="B89" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115" t="s">
+      <c r="C89" s="110"/>
+      <c r="D89" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="115"/>
-      <c r="F89" s="115" t="s">
+      <c r="E89" s="110"/>
+      <c r="F89" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="115"/>
-      <c r="H89" s="115"/>
-      <c r="I89" s="115"/>
-      <c r="J89" s="115" t="s">
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="110"/>
+      <c r="J89" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="115"/>
-      <c r="L89" s="115"/>
-      <c r="M89" s="115"/>
-      <c r="N89" s="115" t="s">
+      <c r="K89" s="110"/>
+      <c r="L89" s="110"/>
+      <c r="M89" s="110"/>
+      <c r="N89" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="115"/>
-      <c r="P89" s="115"/>
-      <c r="Q89" s="115"/>
+      <c r="O89" s="110"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6125,32 +6133,32 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="121" t="s">
+      <c r="B90" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="122"/>
-      <c r="D90" s="121" t="s">
+      <c r="C90" s="112"/>
+      <c r="D90" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="122"/>
-      <c r="F90" s="121" t="s">
+      <c r="E90" s="112"/>
+      <c r="F90" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="122"/>
-      <c r="H90" s="122"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="121" t="s">
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="122"/>
-      <c r="L90" s="122"/>
-      <c r="M90" s="122"/>
-      <c r="N90" s="121" t="s">
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
+      <c r="M90" s="112"/>
+      <c r="N90" s="111" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="122"/>
-      <c r="P90" s="122"/>
-      <c r="Q90" s="122"/>
+      <c r="O90" s="112"/>
+      <c r="P90" s="112"/>
+      <c r="Q90" s="112"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
@@ -6321,32 +6329,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="123" t="s">
+      <c r="B92" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="124"/>
-      <c r="D92" s="123" t="s">
+      <c r="C92" s="109"/>
+      <c r="D92" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="124"/>
-      <c r="F92" s="123" t="s">
+      <c r="E92" s="109"/>
+      <c r="F92" s="108" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="124"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="123" t="s">
+      <c r="G92" s="109"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="124"/>
-      <c r="L92" s="124"/>
-      <c r="M92" s="124"/>
-      <c r="N92" s="123" t="s">
+      <c r="K92" s="109"/>
+      <c r="L92" s="109"/>
+      <c r="M92" s="109"/>
+      <c r="N92" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="124"/>
-      <c r="P92" s="124"/>
-      <c r="Q92" s="124"/>
+      <c r="O92" s="109"/>
+      <c r="P92" s="109"/>
+      <c r="Q92" s="109"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6829,48 +6837,48 @@
       <c r="Q103" s="105"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="108" t="s">
+      <c r="A104" s="116" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="109"/>
-      <c r="H104" s="109"/>
-      <c r="I104" s="109"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="109"/>
-      <c r="L104" s="109"/>
-      <c r="M104" s="109"/>
-      <c r="N104" s="109"/>
-      <c r="O104" s="109"/>
-      <c r="P104" s="109"/>
-      <c r="Q104" s="109"/>
-      <c r="R104" s="109"/>
-      <c r="S104" s="110"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="117"/>
+      <c r="H104" s="117"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="117"/>
+      <c r="K104" s="117"/>
+      <c r="L104" s="117"/>
+      <c r="M104" s="117"/>
+      <c r="N104" s="117"/>
+      <c r="O104" s="117"/>
+      <c r="P104" s="117"/>
+      <c r="Q104" s="117"/>
+      <c r="R104" s="117"/>
+      <c r="S104" s="118"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="111"/>
-      <c r="B105" s="112"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="112"/>
-      <c r="G105" s="112"/>
-      <c r="H105" s="112"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="112"/>
-      <c r="K105" s="112"/>
-      <c r="L105" s="112"/>
-      <c r="M105" s="112"/>
-      <c r="N105" s="112"/>
-      <c r="O105" s="112"/>
-      <c r="P105" s="112"/>
-      <c r="Q105" s="112"/>
-      <c r="R105" s="112"/>
-      <c r="S105" s="113"/>
+      <c r="A105" s="119"/>
+      <c r="B105" s="120"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="120"/>
+      <c r="L105" s="120"/>
+      <c r="M105" s="120"/>
+      <c r="N105" s="120"/>
+      <c r="O105" s="120"/>
+      <c r="P105" s="120"/>
+      <c r="Q105" s="120"/>
+      <c r="R105" s="120"/>
+      <c r="S105" s="121"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B106" s="105"/>
@@ -6923,7 +6931,9 @@
       <c r="R107" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S107" s="55"/>
+      <c r="S107" s="125" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="108" spans="1:19" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="55">
@@ -7028,7 +7038,9 @@
       <c r="R110" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S110" s="55"/>
+      <c r="S110" s="125" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="55">
@@ -7063,7 +7075,9 @@
       <c r="R111" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S111" s="55"/>
+      <c r="S111" s="125" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="112" spans="1:19" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="55">
@@ -7299,489 +7313,198 @@
     </row>
   </sheetData>
   <mergeCells count="699">
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A104:S105"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:I64"/>
@@ -7806,198 +7529,489 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="J112:M112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A104:S105"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8014,7 +8028,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8043,12 +8057,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8080,12 +8094,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -8097,19 +8111,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8121,19 +8135,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="83"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8145,19 +8159,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="83"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8176,12 +8190,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8193,12 +8207,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8211,12 +8225,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8228,12 +8242,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8245,12 +8259,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8262,12 +8276,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8279,12 +8293,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8294,12 +8308,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="72" t="s">
         <v>22</v>
       </c>
@@ -8311,12 +8325,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
       <c r="L18" s="74" t="s">
         <v>34</v>
       </c>
@@ -8345,12 +8359,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8363,12 +8377,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -8378,12 +8392,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -8395,12 +8409,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8412,12 +8426,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -8427,12 +8441,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8444,12 +8458,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8461,12 +8475,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8476,12 +8490,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8493,12 +8507,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8515,12 +8529,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8532,12 +8546,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="72" t="s">
         <v>33</v>
       </c>
@@ -8549,12 +8563,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8566,12 +8580,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="85" t="s">
+      <c r="H35" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8583,12 +8597,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8600,12 +8614,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -8617,12 +8631,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="94" t="s">
+      <c r="H38" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8634,12 +8648,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8649,12 +8663,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="96" t="s">
+      <c r="H40" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8666,12 +8680,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="95" t="s">
+      <c r="H41" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8681,12 +8695,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="96" t="s">
+      <c r="H42" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8698,12 +8712,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="85" t="s">
+      <c r="H43" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8720,12 +8734,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="84" t="s">
+      <c r="H46" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -8737,12 +8751,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="84" t="s">
+      <c r="H47" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="72" t="s">
         <v>33</v>
       </c>
@@ -8754,12 +8768,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8769,12 +8783,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="96" t="s">
+      <c r="H49" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8786,12 +8800,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="95" t="s">
+      <c r="H50" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8801,12 +8815,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8818,12 +8832,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="85" t="s">
+      <c r="H52" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8836,14 +8850,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H32:K32"/>
@@ -8856,30 +8886,14 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11880" windowHeight="9450" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18180" windowHeight="10245" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="Sheet1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Classify" guid="{5D21309E-F946-4F4C-8709-AAB8612F09E9}" includeHiddenRowCol="0" maximized="1" windowWidth="1276" windowHeight="821" activeSheetId="4"/>
   </customWorkbookViews>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1812,11 +1813,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1824,9 +1861,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1837,26 +1871,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1866,21 +1885,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1890,58 +1894,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2249,7 +2250,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -2278,12 +2279,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2315,12 +2316,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2332,19 +2333,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2356,19 +2357,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="104"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2380,19 +2381,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2411,12 +2412,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2428,12 +2429,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2446,12 +2447,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2463,12 +2464,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2480,12 +2481,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2497,12 +2498,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2514,12 +2515,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2529,12 +2530,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2546,12 +2547,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2580,12 +2581,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2630,12 +2631,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="94" t="s">
+      <c r="H23" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2662,12 +2663,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="92" t="s">
+      <c r="H25" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2679,12 +2680,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2696,12 +2697,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2711,12 +2712,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="82" t="s">
+      <c r="H28" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2728,12 +2729,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2750,12 +2751,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2767,12 +2768,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2784,12 +2785,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2801,12 +2802,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2818,12 +2819,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2835,12 +2836,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="83" t="s">
+      <c r="H37" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2852,12 +2853,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2869,12 +2870,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2884,12 +2885,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="85" t="s">
+      <c r="H40" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2901,12 +2902,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2916,12 +2917,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2933,12 +2934,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="82" t="s">
+      <c r="H43" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2955,12 +2956,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2972,12 +2973,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2989,12 +2990,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -3004,12 +3005,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="85" t="s">
+      <c r="H49" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3021,12 +3022,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3036,12 +3037,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="82" t="s">
+      <c r="H51" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3053,12 +3054,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="82" t="s">
+      <c r="H52" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3071,21 +3072,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3102,19 +3101,21 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3133,8 +3134,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="T112" sqref="T112"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="S91" sqref="S91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3150,135 +3151,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="118"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="121"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="114"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114" t="s">
+      <c r="C6" s="120"/>
+      <c r="D6" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114" t="s">
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114" t="s">
+      <c r="O6" s="120"/>
+      <c r="P6" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="115"/>
+      <c r="Q6" s="121"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3287,53 +3288,53 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="106" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="106" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="106" t="s">
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="106" t="s">
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
       <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
@@ -3345,32 +3346,32 @@
       <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="106" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="106" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="106" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="106" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
       <c r="R9" s="56" t="s">
         <v>18</v>
       </c>
@@ -3382,32 +3383,32 @@
       <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="106" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="106" t="s">
+      <c r="E10" s="108"/>
+      <c r="F10" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="106" t="s">
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="106" t="s">
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
       <c r="R10" s="56" t="s">
         <v>18</v>
       </c>
@@ -3419,32 +3420,32 @@
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="106" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="106" t="s">
+      <c r="E11" s="108"/>
+      <c r="F11" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="106" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="106" t="s">
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
       <c r="R11" s="56" t="s">
         <v>18</v>
       </c>
@@ -3456,32 +3457,32 @@
       <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="106" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="106" t="s">
+      <c r="E12" s="108"/>
+      <c r="F12" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="106" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="106" t="s">
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
       <c r="R12" s="56" t="s">
         <v>18</v>
       </c>
@@ -3491,32 +3492,32 @@
       <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="106" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="106" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="107" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="106" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="106" t="s">
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
       <c r="R13" s="56" t="s">
         <v>18</v>
       </c>
@@ -3528,32 +3529,32 @@
       <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="106" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="106" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="106" t="s">
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="106" t="s">
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
       <c r="R14" s="56" t="s">
         <v>18</v>
       </c>
@@ -3565,32 +3566,32 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="113" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="113" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="113" t="s">
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="113" t="s">
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
       <c r="R15" s="54" t="s">
         <v>18</v>
       </c>
@@ -3602,32 +3603,32 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="113" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="107"/>
-      <c r="F16" s="113" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="113" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="113" t="s">
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
       <c r="R16" s="54" t="s">
         <v>18</v>
       </c>
@@ -3639,32 +3640,32 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="113" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="113" t="s">
+      <c r="E17" s="108"/>
+      <c r="F17" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="113" t="s">
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="113" t="s">
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
       <c r="R17" s="54" t="s">
         <v>18</v>
       </c>
@@ -3676,32 +3677,32 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="113" t="s">
+      <c r="C18" s="108"/>
+      <c r="D18" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="113" t="s">
+      <c r="E18" s="108"/>
+      <c r="F18" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="113" t="s">
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="113" t="s">
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
       <c r="R18" s="54" t="s">
         <v>18</v>
       </c>
@@ -3711,32 +3712,32 @@
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="113" t="s">
+      <c r="C19" s="108"/>
+      <c r="D19" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="113" t="s">
+      <c r="E19" s="108"/>
+      <c r="F19" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="113" t="s">
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="113" t="s">
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
       <c r="R19" s="54" t="s">
         <v>18</v>
       </c>
@@ -3748,32 +3749,32 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="113" t="s">
+      <c r="C20" s="108"/>
+      <c r="D20" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="113" t="s">
+      <c r="E20" s="108"/>
+      <c r="F20" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="113" t="s">
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="113" t="s">
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
       <c r="R20" s="54" t="s">
         <v>18</v>
       </c>
@@ -3785,32 +3786,32 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="113" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="113" t="s">
+      <c r="E21" s="108"/>
+      <c r="F21" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="113" t="s">
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="113" t="s">
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
       <c r="R21" s="54" t="s">
         <v>18</v>
       </c>
@@ -3822,32 +3823,32 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="113" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="113" t="s">
+      <c r="E22" s="108"/>
+      <c r="F22" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="113" t="s">
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="113" t="s">
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
       <c r="R22" s="54" t="s">
         <v>18</v>
       </c>
@@ -3857,67 +3858,69 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="113" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="113" t="s">
+      <c r="E23" s="108"/>
+      <c r="F23" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="113" t="s">
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="113" t="s">
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
       <c r="R23" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S23" s="55"/>
+      <c r="S23" s="71" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="113" t="s">
+      <c r="C24" s="108"/>
+      <c r="D24" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="113" t="s">
+      <c r="E24" s="108"/>
+      <c r="F24" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="113" t="s">
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="113" t="s">
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
       <c r="R24" s="54" t="s">
         <v>18</v>
       </c>
@@ -3929,32 +3932,32 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="113" t="s">
+      <c r="C25" s="108"/>
+      <c r="D25" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="113" t="s">
+      <c r="E25" s="108"/>
+      <c r="F25" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="113" t="s">
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="113" t="s">
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
       <c r="R25" s="54" t="s">
         <v>18</v>
       </c>
@@ -3964,32 +3967,32 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="113" t="s">
+      <c r="C26" s="108"/>
+      <c r="D26" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="107"/>
-      <c r="F26" s="113" t="s">
+      <c r="E26" s="108"/>
+      <c r="F26" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="113" t="s">
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="113" t="s">
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
       <c r="R26" s="54" t="s">
         <v>18</v>
       </c>
@@ -3999,32 +4002,32 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="113" t="s">
+      <c r="C27" s="108"/>
+      <c r="D27" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="106" t="s">
+      <c r="E27" s="108"/>
+      <c r="F27" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="106" t="s">
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="106" t="s">
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
       <c r="R27" s="56" t="s">
         <v>18</v>
       </c>
@@ -4036,32 +4039,32 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="113" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="113" t="s">
+      <c r="E28" s="108"/>
+      <c r="F28" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="113" t="s">
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="113" t="s">
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
       <c r="R28" s="54" t="s">
         <v>18</v>
       </c>
@@ -4071,32 +4074,32 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="113" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="113" t="s">
+      <c r="E29" s="108"/>
+      <c r="F29" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="113" t="s">
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="113" t="s">
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
       <c r="R29" s="54" t="s">
         <v>18</v>
       </c>
@@ -4106,32 +4109,32 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="113" t="s">
+      <c r="C30" s="108"/>
+      <c r="D30" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="113" t="s">
+      <c r="E30" s="108"/>
+      <c r="F30" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="113" t="s">
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="113" t="s">
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
       <c r="R30" s="54" t="s">
         <v>18</v>
       </c>
@@ -4141,32 +4144,32 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="113" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="107"/>
-      <c r="F31" s="113" t="s">
+      <c r="E31" s="108"/>
+      <c r="F31" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="113" t="s">
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="113" t="s">
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
       <c r="R31" s="54" t="s">
         <v>18</v>
       </c>
@@ -4178,32 +4181,32 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="113" t="s">
+      <c r="C32" s="108"/>
+      <c r="D32" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="113" t="s">
+      <c r="E32" s="108"/>
+      <c r="F32" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="113" t="s">
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="113" t="s">
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
       <c r="R32" s="54" t="s">
         <v>18</v>
       </c>
@@ -4215,32 +4218,32 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="113" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="113" t="s">
+      <c r="E33" s="108"/>
+      <c r="F33" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="113" t="s">
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="113" t="s">
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
       <c r="R33" s="54" t="s">
         <v>97</v>
       </c>
@@ -4250,32 +4253,32 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="113" t="s">
+      <c r="C34" s="108"/>
+      <c r="D34" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="113" t="s">
+      <c r="E34" s="108"/>
+      <c r="F34" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="113" t="s">
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="113" t="s">
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
       <c r="R34" s="54" t="s">
         <v>18</v>
       </c>
@@ -4285,32 +4288,32 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="113" t="s">
+      <c r="C35" s="108"/>
+      <c r="D35" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="113" t="s">
+      <c r="E35" s="108"/>
+      <c r="F35" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="113" t="s">
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="113" t="s">
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
       <c r="R35" s="54" t="s">
         <v>18</v>
       </c>
@@ -4320,30 +4323,30 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="113" t="s">
+      <c r="C36" s="108"/>
+      <c r="D36" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="107"/>
-      <c r="F36" s="113" t="s">
+      <c r="E36" s="108"/>
+      <c r="F36" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="113" t="s">
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
       <c r="R36" s="54" t="s">
         <v>18</v>
       </c>
@@ -4353,32 +4356,32 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="113" t="s">
+      <c r="C37" s="108"/>
+      <c r="D37" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="113" t="s">
+      <c r="E37" s="108"/>
+      <c r="F37" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="113" t="s">
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="113" t="s">
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
       <c r="R37" s="54" t="s">
         <v>18</v>
       </c>
@@ -4390,32 +4393,32 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="113" t="s">
+      <c r="C38" s="108"/>
+      <c r="D38" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="113" t="s">
+      <c r="E38" s="108"/>
+      <c r="F38" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="113" t="s">
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="113" t="s">
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
       <c r="R38" s="54" t="s">
         <v>18</v>
       </c>
@@ -4425,32 +4428,32 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="113" t="s">
+      <c r="C39" s="108"/>
+      <c r="D39" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="107"/>
-      <c r="F39" s="113" t="s">
+      <c r="E39" s="108"/>
+      <c r="F39" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="113" t="s">
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="113" t="s">
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
       <c r="R39" s="54" t="s">
         <v>18</v>
       </c>
@@ -4460,32 +4463,32 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="113" t="s">
+      <c r="C40" s="108"/>
+      <c r="D40" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="113" t="s">
+      <c r="E40" s="108"/>
+      <c r="F40" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="113" t="s">
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="113" t="s">
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
       <c r="R40" s="54" t="s">
         <v>18</v>
       </c>
@@ -4495,32 +4498,32 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="113" t="s">
+      <c r="C41" s="108"/>
+      <c r="D41" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="113" t="s">
+      <c r="E41" s="108"/>
+      <c r="F41" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="113" t="s">
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="113" t="s">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O41" s="107"/>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="107"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
       <c r="R41" s="54" t="s">
         <v>18</v>
       </c>
@@ -4530,32 +4533,32 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="113" t="s">
+      <c r="C42" s="108"/>
+      <c r="D42" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="113" t="s">
+      <c r="E42" s="108"/>
+      <c r="F42" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="113" t="s">
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="113" t="s">
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
       <c r="R42" s="54" t="s">
         <v>18</v>
       </c>
@@ -4565,32 +4568,32 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="113" t="s">
+      <c r="C43" s="108"/>
+      <c r="D43" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="113" t="s">
+      <c r="E43" s="108"/>
+      <c r="F43" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="113" t="s">
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="113" t="s">
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
       <c r="R43" s="54" t="s">
         <v>18</v>
       </c>
@@ -4600,32 +4603,32 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="113" t="s">
+      <c r="C44" s="108"/>
+      <c r="D44" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="106" t="s">
+      <c r="E44" s="108"/>
+      <c r="F44" s="107" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="113" t="s">
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="113" t="s">
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="O44" s="107"/>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="107"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
       <c r="R44" s="54" t="s">
         <v>18</v>
       </c>
@@ -4637,32 +4640,32 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="113" t="s">
+      <c r="C45" s="108"/>
+      <c r="D45" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="113" t="s">
+      <c r="E45" s="108"/>
+      <c r="F45" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="113" t="s">
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="113" t="s">
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="O45" s="107"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="107"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
       <c r="R45" s="54" t="s">
         <v>18</v>
       </c>
@@ -4672,32 +4675,32 @@
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="113" t="s">
+      <c r="C46" s="108"/>
+      <c r="D46" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="113" t="s">
+      <c r="E46" s="108"/>
+      <c r="F46" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="113" t="s">
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="113" t="s">
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="O46" s="107"/>
-      <c r="P46" s="107"/>
-      <c r="Q46" s="107"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
       <c r="R46" s="54" t="s">
         <v>18</v>
       </c>
@@ -4709,32 +4712,32 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="113" t="s">
+      <c r="C47" s="108"/>
+      <c r="D47" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="113" t="s">
+      <c r="E47" s="108"/>
+      <c r="F47" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="113" t="s">
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="113" t="s">
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
       <c r="R47" s="54" t="s">
         <v>18</v>
       </c>
@@ -4746,32 +4749,32 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="113" t="s">
+      <c r="C48" s="108"/>
+      <c r="D48" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="113" t="s">
+      <c r="E48" s="108"/>
+      <c r="F48" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="113" t="s">
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="113" t="s">
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="107"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="107"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="108"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
       </c>
@@ -4781,32 +4784,32 @@
       <c r="A49" s="55">
         <v>42</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113" t="s">
+      <c r="C49" s="115"/>
+      <c r="D49" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113" t="s">
+      <c r="E49" s="115"/>
+      <c r="F49" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="113" t="s">
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="113" t="s">
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="107"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="107"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="108"/>
       <c r="R49" s="54" t="s">
         <v>18</v>
       </c>
@@ -4816,32 +4819,32 @@
       <c r="A50" s="55">
         <v>43</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="113" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="107"/>
-      <c r="F50" s="113" t="s">
+      <c r="E50" s="108"/>
+      <c r="F50" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="113" t="s">
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="107"/>
-      <c r="N50" s="113" t="s">
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="107"/>
-      <c r="P50" s="113"/>
-      <c r="Q50" s="107"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="108"/>
       <c r="R50" s="54" t="s">
         <v>97</v>
       </c>
@@ -4851,32 +4854,32 @@
       <c r="A51" s="55">
         <v>44</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="107"/>
-      <c r="D51" s="113" t="s">
+      <c r="C51" s="108"/>
+      <c r="D51" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="113" t="s">
+      <c r="E51" s="108"/>
+      <c r="F51" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="113" t="s">
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="113" t="s">
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="O51" s="107"/>
-      <c r="P51" s="113"/>
-      <c r="Q51" s="107"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="108"/>
       <c r="R51" s="54" t="s">
         <v>97</v>
       </c>
@@ -4886,32 +4889,32 @@
       <c r="A52" s="55">
         <v>45</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="113" t="s">
+      <c r="C52" s="108"/>
+      <c r="D52" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="113" t="s">
+      <c r="E52" s="108"/>
+      <c r="F52" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="113" t="s">
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="113" t="s">
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="O52" s="107"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="107"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="108"/>
       <c r="R52" s="54" t="s">
         <v>97</v>
       </c>
@@ -4921,32 +4924,32 @@
       <c r="A53" s="55">
         <v>46</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="113" t="s">
+      <c r="C53" s="108"/>
+      <c r="D53" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="106" t="s">
+      <c r="E53" s="108"/>
+      <c r="F53" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="106" t="s">
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="106" t="s">
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
+      <c r="N53" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="107"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="107"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="108"/>
       <c r="R53" s="56" t="s">
         <v>97</v>
       </c>
@@ -4956,30 +4959,30 @@
       <c r="A54" s="55">
         <v>47</v>
       </c>
-      <c r="B54" s="106" t="s">
+      <c r="B54" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="107"/>
-      <c r="D54" s="106" t="s">
+      <c r="C54" s="108"/>
+      <c r="D54" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="106" t="s">
+      <c r="E54" s="108"/>
+      <c r="F54" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="106" t="s">
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="107"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="107"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="107"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="107"/>
+      <c r="Q54" s="108"/>
       <c r="R54" s="56" t="s">
         <v>97</v>
       </c>
@@ -4989,30 +4992,30 @@
       <c r="A55" s="55">
         <v>48</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="106" t="s">
+      <c r="C55" s="108"/>
+      <c r="D55" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="107"/>
-      <c r="F55" s="106" t="s">
+      <c r="E55" s="108"/>
+      <c r="F55" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="106" t="s">
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="107"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="108"/>
       <c r="R55" s="56" t="s">
         <v>97</v>
       </c>
@@ -5022,32 +5025,32 @@
       <c r="A56" s="55">
         <v>49</v>
       </c>
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="107"/>
-      <c r="D56" s="106" t="s">
+      <c r="C56" s="108"/>
+      <c r="D56" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="107"/>
-      <c r="F56" s="106" t="s">
+      <c r="E56" s="108"/>
+      <c r="F56" s="107" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="106" t="s">
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="K56" s="107"/>
-      <c r="L56" s="107"/>
-      <c r="M56" s="107"/>
-      <c r="N56" s="106" t="s">
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="O56" s="107"/>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="107"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="108"/>
       <c r="R56" s="56" t="s">
         <v>97</v>
       </c>
@@ -5057,32 +5060,32 @@
       <c r="A57" s="55">
         <v>50</v>
       </c>
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="107"/>
-      <c r="D57" s="106" t="s">
+      <c r="C57" s="108"/>
+      <c r="D57" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="107"/>
-      <c r="F57" s="106" t="s">
+      <c r="E57" s="108"/>
+      <c r="F57" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="106" t="s">
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="106" t="s">
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="O57" s="107"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="107"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="108"/>
       <c r="R57" s="56" t="s">
         <v>97</v>
       </c>
@@ -5092,32 +5095,32 @@
       <c r="A58" s="55">
         <v>51</v>
       </c>
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="107"/>
-      <c r="D58" s="106" t="s">
+      <c r="C58" s="108"/>
+      <c r="D58" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="107"/>
-      <c r="F58" s="106" t="s">
+      <c r="E58" s="108"/>
+      <c r="F58" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="106" t="s">
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="106" t="s">
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="O58" s="107"/>
-      <c r="P58" s="107"/>
-      <c r="Q58" s="107"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
       <c r="R58" s="56" t="s">
         <v>18</v>
       </c>
@@ -5127,32 +5130,32 @@
       <c r="A59" s="55">
         <v>52</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="113" t="s">
+      <c r="C59" s="108"/>
+      <c r="D59" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="107"/>
-      <c r="F59" s="113" t="s">
+      <c r="E59" s="108"/>
+      <c r="F59" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="113" t="s">
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="K59" s="107"/>
-      <c r="L59" s="107"/>
-      <c r="M59" s="107"/>
-      <c r="N59" s="113" t="s">
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="O59" s="107"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="107"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="108"/>
       <c r="R59" s="54" t="s">
         <v>18</v>
       </c>
@@ -5162,32 +5165,32 @@
       <c r="A60" s="55">
         <v>53</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="107"/>
-      <c r="D60" s="113" t="s">
+      <c r="C60" s="108"/>
+      <c r="D60" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="107"/>
-      <c r="F60" s="113" t="s">
+      <c r="E60" s="108"/>
+      <c r="F60" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="113" t="s">
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="107"/>
-      <c r="L60" s="107"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="113" t="s">
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="O60" s="107"/>
-      <c r="P60" s="113"/>
-      <c r="Q60" s="107"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="108"/>
       <c r="R60" s="54" t="s">
         <v>97</v>
       </c>
@@ -5197,32 +5200,32 @@
       <c r="A61" s="55">
         <v>54</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="113" t="s">
+      <c r="C61" s="108"/>
+      <c r="D61" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="107"/>
-      <c r="F61" s="113" t="s">
+      <c r="E61" s="108"/>
+      <c r="F61" s="115" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="113" t="s">
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="115" t="s">
         <v>291</v>
       </c>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="113" t="s">
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="O61" s="107"/>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="107"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="108"/>
       <c r="R61" s="54" t="s">
         <v>97</v>
       </c>
@@ -5232,32 +5235,32 @@
       <c r="A62" s="55">
         <v>55</v>
       </c>
-      <c r="B62" s="113" t="s">
+      <c r="B62" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="107"/>
-      <c r="D62" s="113" t="s">
+      <c r="C62" s="108"/>
+      <c r="D62" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="107"/>
-      <c r="F62" s="113" t="s">
+      <c r="E62" s="108"/>
+      <c r="F62" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="113" t="s">
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="K62" s="107"/>
-      <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="113" t="s">
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="O62" s="107"/>
-      <c r="P62" s="113"/>
-      <c r="Q62" s="107"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="108"/>
       <c r="R62" s="54" t="s">
         <v>97</v>
       </c>
@@ -5269,32 +5272,32 @@
       <c r="A63" s="55">
         <v>56</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="107"/>
-      <c r="D63" s="113" t="s">
+      <c r="C63" s="108"/>
+      <c r="D63" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="107"/>
-      <c r="F63" s="113" t="s">
+      <c r="E63" s="108"/>
+      <c r="F63" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="113" t="s">
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="113" t="s">
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="107"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="107"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="115"/>
+      <c r="Q63" s="108"/>
       <c r="R63" s="54" t="s">
         <v>97</v>
       </c>
@@ -5304,32 +5307,32 @@
       <c r="A64" s="55">
         <v>57</v>
       </c>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="107"/>
-      <c r="D64" s="113" t="s">
+      <c r="C64" s="108"/>
+      <c r="D64" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="107"/>
-      <c r="F64" s="113" t="s">
+      <c r="E64" s="108"/>
+      <c r="F64" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="113" t="s">
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="113" t="s">
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="O64" s="107"/>
-      <c r="P64" s="113"/>
-      <c r="Q64" s="107"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="115"/>
+      <c r="Q64" s="108"/>
       <c r="R64" s="54" t="s">
         <v>97</v>
       </c>
@@ -5339,32 +5342,32 @@
       <c r="A65" s="55">
         <v>58</v>
       </c>
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="107"/>
-      <c r="D65" s="113" t="s">
+      <c r="C65" s="108"/>
+      <c r="D65" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="107"/>
-      <c r="F65" s="113" t="s">
+      <c r="E65" s="108"/>
+      <c r="F65" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="113" t="s">
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="113" t="s">
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="O65" s="107"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="107"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="108"/>
       <c r="R65" s="54" t="s">
         <v>97</v>
       </c>
@@ -5374,32 +5377,32 @@
       <c r="A66" s="55">
         <v>59</v>
       </c>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="107"/>
-      <c r="D66" s="113" t="s">
+      <c r="C66" s="108"/>
+      <c r="D66" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="107"/>
-      <c r="F66" s="106" t="s">
+      <c r="E66" s="108"/>
+      <c r="F66" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="106" t="s">
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="107"/>
-      <c r="L66" s="107"/>
-      <c r="M66" s="107"/>
-      <c r="N66" s="113" t="s">
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="108"/>
+      <c r="N66" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="107"/>
-      <c r="P66" s="113"/>
-      <c r="Q66" s="107"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="108"/>
       <c r="R66" s="54" t="s">
         <v>97</v>
       </c>
@@ -5409,32 +5412,32 @@
       <c r="A67" s="55">
         <v>60</v>
       </c>
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="107"/>
-      <c r="D67" s="113" t="s">
+      <c r="C67" s="108"/>
+      <c r="D67" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="107"/>
-      <c r="F67" s="113" t="s">
+      <c r="E67" s="108"/>
+      <c r="F67" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="113" t="s">
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="107"/>
-      <c r="L67" s="107"/>
-      <c r="M67" s="107"/>
-      <c r="N67" s="113" t="s">
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="O67" s="107"/>
-      <c r="P67" s="113"/>
-      <c r="Q67" s="107"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="108"/>
       <c r="R67" s="54" t="s">
         <v>97</v>
       </c>
@@ -5444,32 +5447,32 @@
       <c r="A68" s="55">
         <v>61</v>
       </c>
-      <c r="B68" s="106" t="s">
+      <c r="B68" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="113" t="s">
+      <c r="C68" s="108"/>
+      <c r="D68" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="107"/>
-      <c r="F68" s="106" t="s">
+      <c r="E68" s="108"/>
+      <c r="F68" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="113" t="s">
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="113" t="s">
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="O68" s="107"/>
-      <c r="P68" s="113"/>
-      <c r="Q68" s="107"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="115"/>
+      <c r="Q68" s="108"/>
       <c r="R68" s="54" t="s">
         <v>18</v>
       </c>
@@ -5481,32 +5484,32 @@
       <c r="A69" s="55">
         <v>62</v>
       </c>
-      <c r="B69" s="106" t="s">
+      <c r="B69" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="107"/>
-      <c r="D69" s="113" t="s">
+      <c r="C69" s="108"/>
+      <c r="D69" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="107"/>
-      <c r="F69" s="106" t="s">
+      <c r="E69" s="108"/>
+      <c r="F69" s="107" t="s">
         <v>299</v>
       </c>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="106" t="s">
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="113" t="s">
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="O69" s="107"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="107"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="108"/>
       <c r="R69" s="54" t="s">
         <v>97</v>
       </c>
@@ -5516,151 +5519,151 @@
       <c r="V69" s="22"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="105"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
-      <c r="N70" s="105"/>
-      <c r="O70" s="105"/>
-      <c r="P70" s="105"/>
-      <c r="Q70" s="105"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="106"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="105"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="105"/>
-      <c r="O71" s="105"/>
-      <c r="P71" s="105"/>
-      <c r="Q71" s="105"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
+      <c r="I71" s="106"/>
+      <c r="J71" s="106"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="106"/>
+      <c r="M71" s="106"/>
+      <c r="N71" s="106"/>
+      <c r="O71" s="106"/>
+      <c r="P71" s="106"/>
+      <c r="Q71" s="106"/>
     </row>
     <row r="72" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="105"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="105"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="105"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="105"/>
-      <c r="O72" s="105"/>
-      <c r="P72" s="105"/>
-      <c r="Q72" s="105"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="106"/>
+      <c r="I72" s="106"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="106"/>
+      <c r="M72" s="106"/>
+      <c r="N72" s="106"/>
+      <c r="O72" s="106"/>
+      <c r="P72" s="106"/>
+      <c r="Q72" s="106"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="116" t="s">
+      <c r="A73" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="117"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="117"/>
-      <c r="S73" s="118"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="110"/>
+      <c r="M73" s="110"/>
+      <c r="N73" s="110"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
+      <c r="R73" s="110"/>
+      <c r="S73" s="111"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
-      <c r="B74" s="120"/>
-      <c r="C74" s="120"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="120"/>
-      <c r="I74" s="120"/>
-      <c r="J74" s="120"/>
-      <c r="K74" s="120"/>
-      <c r="L74" s="120"/>
-      <c r="M74" s="120"/>
-      <c r="N74" s="120"/>
-      <c r="O74" s="120"/>
-      <c r="P74" s="120"/>
-      <c r="Q74" s="120"/>
-      <c r="R74" s="120"/>
-      <c r="S74" s="121"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="113"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="113"/>
+      <c r="O74" s="113"/>
+      <c r="P74" s="113"/>
+      <c r="Q74" s="113"/>
+      <c r="R74" s="113"/>
+      <c r="S74" s="114"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="105"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="105"/>
-      <c r="N75" s="105"/>
-      <c r="O75" s="105"/>
-      <c r="P75" s="105"/>
-      <c r="Q75" s="105"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="106"/>
+      <c r="N75" s="106"/>
+      <c r="O75" s="106"/>
+      <c r="P75" s="106"/>
+      <c r="Q75" s="106"/>
     </row>
     <row r="76" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="62">
         <v>63</v>
       </c>
-      <c r="B76" s="110" t="s">
+      <c r="B76" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110" t="s">
+      <c r="C76" s="116"/>
+      <c r="D76" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="110"/>
-      <c r="F76" s="110" t="s">
+      <c r="E76" s="116"/>
+      <c r="F76" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="G76" s="110"/>
-      <c r="H76" s="110"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="110" t="s">
+      <c r="G76" s="116"/>
+      <c r="H76" s="116"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="K76" s="110"/>
-      <c r="L76" s="110"/>
-      <c r="M76" s="110"/>
-      <c r="N76" s="110" t="s">
+      <c r="K76" s="116"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="116"/>
+      <c r="N76" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="O76" s="110"/>
-      <c r="P76" s="110"/>
-      <c r="Q76" s="110"/>
+      <c r="O76" s="116"/>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
       <c r="R76" s="62" t="s">
         <v>18</v>
       </c>
@@ -5672,32 +5675,32 @@
       <c r="A77" s="62">
         <v>64</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110" t="s">
+      <c r="C77" s="116"/>
+      <c r="D77" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="110"/>
-      <c r="F77" s="110" t="s">
+      <c r="E77" s="116"/>
+      <c r="F77" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="G77" s="110"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="110" t="s">
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="116" t="s">
         <v>264</v>
       </c>
-      <c r="K77" s="110"/>
-      <c r="L77" s="110"/>
-      <c r="M77" s="110"/>
-      <c r="N77" s="110" t="s">
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
+      <c r="M77" s="116"/>
+      <c r="N77" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="110"/>
-      <c r="P77" s="110"/>
-      <c r="Q77" s="110"/>
+      <c r="O77" s="116"/>
+      <c r="P77" s="116"/>
+      <c r="Q77" s="116"/>
       <c r="R77" s="62" t="s">
         <v>18</v>
       </c>
@@ -5709,102 +5712,106 @@
       <c r="A78" s="62">
         <v>65</v>
       </c>
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="110"/>
-      <c r="D78" s="110" t="s">
+      <c r="C78" s="116"/>
+      <c r="D78" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="110"/>
-      <c r="F78" s="110" t="s">
+      <c r="E78" s="116"/>
+      <c r="F78" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="110"/>
-      <c r="H78" s="110"/>
-      <c r="I78" s="110"/>
-      <c r="J78" s="110" t="s">
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="K78" s="110"/>
-      <c r="L78" s="110"/>
-      <c r="M78" s="110"/>
-      <c r="N78" s="110" t="s">
+      <c r="K78" s="116"/>
+      <c r="L78" s="116"/>
+      <c r="M78" s="116"/>
+      <c r="N78" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="O78" s="110"/>
-      <c r="P78" s="110"/>
-      <c r="Q78" s="110"/>
+      <c r="O78" s="116"/>
+      <c r="P78" s="116"/>
+      <c r="Q78" s="116"/>
       <c r="R78" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S78" s="62"/>
+      <c r="S78" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="79" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="62">
         <v>66</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="110"/>
-      <c r="D79" s="110" t="s">
+      <c r="C79" s="116"/>
+      <c r="D79" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="110"/>
-      <c r="F79" s="110" t="s">
+      <c r="E79" s="116"/>
+      <c r="F79" s="116" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="110"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="110"/>
-      <c r="J79" s="110" t="s">
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116" t="s">
         <v>269</v>
       </c>
-      <c r="K79" s="110"/>
-      <c r="L79" s="110"/>
-      <c r="M79" s="110"/>
-      <c r="N79" s="110" t="s">
+      <c r="K79" s="116"/>
+      <c r="L79" s="116"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="O79" s="110"/>
-      <c r="P79" s="110"/>
-      <c r="Q79" s="110"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116"/>
+      <c r="Q79" s="116"/>
       <c r="R79" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S79" s="62"/>
+      <c r="S79" s="79" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="80" spans="1:22" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="62">
         <v>67</v>
       </c>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="110"/>
-      <c r="D80" s="110" t="s">
+      <c r="C80" s="116"/>
+      <c r="D80" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110" t="s">
+      <c r="E80" s="116"/>
+      <c r="F80" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="110"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="110" t="s">
+      <c r="G80" s="116"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="110"/>
-      <c r="L80" s="110"/>
-      <c r="M80" s="110"/>
-      <c r="N80" s="110" t="s">
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="110"/>
-      <c r="P80" s="110"/>
-      <c r="Q80" s="110"/>
+      <c r="O80" s="116"/>
+      <c r="P80" s="116"/>
+      <c r="Q80" s="116"/>
       <c r="R80" s="62" t="s">
         <v>18</v>
       </c>
@@ -5814,32 +5821,32 @@
       <c r="A81" s="62">
         <v>68</v>
       </c>
-      <c r="B81" s="110" t="s">
+      <c r="B81" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="110"/>
-      <c r="D81" s="110" t="s">
+      <c r="C81" s="116"/>
+      <c r="D81" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="110"/>
-      <c r="F81" s="110" t="s">
+      <c r="E81" s="116"/>
+      <c r="F81" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="110"/>
-      <c r="H81" s="110"/>
-      <c r="I81" s="110"/>
-      <c r="J81" s="110" t="s">
+      <c r="G81" s="116"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="116"/>
+      <c r="J81" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="K81" s="110"/>
-      <c r="L81" s="110"/>
-      <c r="M81" s="110"/>
-      <c r="N81" s="110" t="s">
+      <c r="K81" s="116"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="116"/>
+      <c r="N81" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="O81" s="110"/>
-      <c r="P81" s="110"/>
-      <c r="Q81" s="110"/>
+      <c r="O81" s="116"/>
+      <c r="P81" s="116"/>
+      <c r="Q81" s="116"/>
       <c r="R81" s="62" t="s">
         <v>18</v>
       </c>
@@ -5849,32 +5856,32 @@
       <c r="A82" s="62">
         <v>69</v>
       </c>
-      <c r="B82" s="110" t="s">
+      <c r="B82" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110" t="s">
+      <c r="C82" s="116"/>
+      <c r="D82" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="110"/>
-      <c r="F82" s="110" t="s">
+      <c r="E82" s="116"/>
+      <c r="F82" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="110"/>
-      <c r="J82" s="110" t="s">
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="K82" s="110"/>
-      <c r="L82" s="110"/>
-      <c r="M82" s="110"/>
-      <c r="N82" s="110" t="s">
+      <c r="K82" s="116"/>
+      <c r="L82" s="116"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="O82" s="110"/>
-      <c r="P82" s="110"/>
-      <c r="Q82" s="110"/>
+      <c r="O82" s="116"/>
+      <c r="P82" s="116"/>
+      <c r="Q82" s="116"/>
       <c r="R82" s="62" t="s">
         <v>18</v>
       </c>
@@ -5884,32 +5891,32 @@
       <c r="A83" s="62">
         <v>70</v>
       </c>
-      <c r="B83" s="110" t="s">
+      <c r="B83" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110" t="s">
+      <c r="C83" s="116"/>
+      <c r="D83" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="110"/>
-      <c r="F83" s="122" t="s">
+      <c r="E83" s="116"/>
+      <c r="F83" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="124"/>
-      <c r="H83" s="124"/>
-      <c r="I83" s="123"/>
-      <c r="J83" s="122" t="s">
+      <c r="G83" s="119"/>
+      <c r="H83" s="119"/>
+      <c r="I83" s="118"/>
+      <c r="J83" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="K83" s="124"/>
-      <c r="L83" s="124"/>
-      <c r="M83" s="123"/>
-      <c r="N83" s="122" t="s">
+      <c r="K83" s="119"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="118"/>
+      <c r="N83" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="123"/>
-      <c r="P83" s="110"/>
-      <c r="Q83" s="110"/>
+      <c r="O83" s="118"/>
+      <c r="P83" s="116"/>
+      <c r="Q83" s="116"/>
       <c r="R83" s="62" t="s">
         <v>97</v>
       </c>
@@ -5921,32 +5928,32 @@
       <c r="A84" s="62">
         <v>71</v>
       </c>
-      <c r="B84" s="110" t="s">
+      <c r="B84" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="110"/>
-      <c r="D84" s="110" t="s">
+      <c r="C84" s="116"/>
+      <c r="D84" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="110"/>
-      <c r="F84" s="110" t="s">
+      <c r="E84" s="116"/>
+      <c r="F84" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="110"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="110"/>
-      <c r="J84" s="110" t="s">
+      <c r="G84" s="116"/>
+      <c r="H84" s="116"/>
+      <c r="I84" s="116"/>
+      <c r="J84" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="110"/>
-      <c r="L84" s="110"/>
-      <c r="M84" s="110"/>
-      <c r="N84" s="110" t="s">
+      <c r="K84" s="116"/>
+      <c r="L84" s="116"/>
+      <c r="M84" s="116"/>
+      <c r="N84" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="O84" s="110"/>
-      <c r="P84" s="110"/>
-      <c r="Q84" s="110"/>
+      <c r="O84" s="116"/>
+      <c r="P84" s="116"/>
+      <c r="Q84" s="116"/>
       <c r="R84" s="62" t="s">
         <v>97</v>
       </c>
@@ -5956,32 +5963,32 @@
       <c r="A85" s="62">
         <v>72</v>
       </c>
-      <c r="B85" s="110" t="s">
+      <c r="B85" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="110"/>
-      <c r="D85" s="110" t="s">
+      <c r="C85" s="116"/>
+      <c r="D85" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="110"/>
-      <c r="F85" s="110" t="s">
+      <c r="E85" s="116"/>
+      <c r="F85" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="G85" s="110"/>
-      <c r="H85" s="110"/>
-      <c r="I85" s="110"/>
-      <c r="J85" s="110" t="s">
+      <c r="G85" s="116"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="K85" s="110"/>
-      <c r="L85" s="110"/>
-      <c r="M85" s="110"/>
-      <c r="N85" s="110" t="s">
+      <c r="K85" s="116"/>
+      <c r="L85" s="116"/>
+      <c r="M85" s="116"/>
+      <c r="N85" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="O85" s="110"/>
-      <c r="P85" s="110"/>
-      <c r="Q85" s="110"/>
+      <c r="O85" s="116"/>
+      <c r="P85" s="116"/>
+      <c r="Q85" s="116"/>
       <c r="R85" s="62" t="s">
         <v>97</v>
       </c>
@@ -5991,32 +5998,32 @@
       <c r="A86" s="62">
         <v>73</v>
       </c>
-      <c r="B86" s="110" t="s">
+      <c r="B86" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110" t="s">
+      <c r="C86" s="116"/>
+      <c r="D86" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110" t="s">
+      <c r="E86" s="116"/>
+      <c r="F86" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="G86" s="110"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="110"/>
-      <c r="J86" s="110" t="s">
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="K86" s="110"/>
-      <c r="L86" s="110"/>
-      <c r="M86" s="110"/>
-      <c r="N86" s="110" t="s">
+      <c r="K86" s="116"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="116"/>
+      <c r="N86" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="O86" s="110"/>
-      <c r="P86" s="110"/>
-      <c r="Q86" s="110"/>
+      <c r="O86" s="116"/>
+      <c r="P86" s="116"/>
+      <c r="Q86" s="116"/>
       <c r="R86" s="62" t="s">
         <v>97</v>
       </c>
@@ -6026,32 +6033,32 @@
       <c r="A87" s="62">
         <v>74</v>
       </c>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110" t="s">
+      <c r="C87" s="116"/>
+      <c r="D87" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="110"/>
-      <c r="F87" s="110" t="s">
+      <c r="E87" s="116"/>
+      <c r="F87" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="G87" s="110"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="110" t="s">
+      <c r="G87" s="116"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="116"/>
+      <c r="J87" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="110"/>
-      <c r="L87" s="110"/>
-      <c r="M87" s="110"/>
-      <c r="N87" s="110" t="s">
+      <c r="K87" s="116"/>
+      <c r="L87" s="116"/>
+      <c r="M87" s="116"/>
+      <c r="N87" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="O87" s="110"/>
-      <c r="P87" s="110"/>
-      <c r="Q87" s="110"/>
+      <c r="O87" s="116"/>
+      <c r="P87" s="116"/>
+      <c r="Q87" s="116"/>
       <c r="R87" s="62" t="s">
         <v>97</v>
       </c>
@@ -6061,32 +6068,32 @@
       <c r="A88" s="62">
         <v>75</v>
       </c>
-      <c r="B88" s="110" t="s">
+      <c r="B88" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="110"/>
-      <c r="D88" s="110" t="s">
+      <c r="C88" s="116"/>
+      <c r="D88" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="110"/>
-      <c r="F88" s="110" t="s">
+      <c r="E88" s="116"/>
+      <c r="F88" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="110"/>
-      <c r="H88" s="110"/>
-      <c r="I88" s="110"/>
-      <c r="J88" s="110" t="s">
+      <c r="G88" s="116"/>
+      <c r="H88" s="116"/>
+      <c r="I88" s="116"/>
+      <c r="J88" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="K88" s="110"/>
-      <c r="L88" s="110"/>
-      <c r="M88" s="110"/>
-      <c r="N88" s="110" t="s">
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="116"/>
+      <c r="N88" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="O88" s="110"/>
-      <c r="P88" s="110"/>
-      <c r="Q88" s="110"/>
+      <c r="O88" s="116"/>
+      <c r="P88" s="116"/>
+      <c r="Q88" s="116"/>
       <c r="R88" s="62" t="s">
         <v>97</v>
       </c>
@@ -6096,32 +6103,32 @@
       <c r="A89" s="62">
         <v>76</v>
       </c>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="110"/>
-      <c r="D89" s="110" t="s">
+      <c r="C89" s="116"/>
+      <c r="D89" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="110"/>
-      <c r="F89" s="110" t="s">
+      <c r="E89" s="116"/>
+      <c r="F89" s="116" t="s">
         <v>296</v>
       </c>
-      <c r="G89" s="110"/>
-      <c r="H89" s="110"/>
-      <c r="I89" s="110"/>
-      <c r="J89" s="110" t="s">
+      <c r="G89" s="116"/>
+      <c r="H89" s="116"/>
+      <c r="I89" s="116"/>
+      <c r="J89" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="K89" s="110"/>
-      <c r="L89" s="110"/>
-      <c r="M89" s="110"/>
-      <c r="N89" s="110" t="s">
+      <c r="K89" s="116"/>
+      <c r="L89" s="116"/>
+      <c r="M89" s="116"/>
+      <c r="N89" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="O89" s="110"/>
-      <c r="P89" s="110"/>
-      <c r="Q89" s="110"/>
+      <c r="O89" s="116"/>
+      <c r="P89" s="116"/>
+      <c r="Q89" s="116"/>
       <c r="R89" s="62" t="s">
         <v>18</v>
       </c>
@@ -6133,32 +6140,32 @@
       <c r="A90" s="65">
         <v>77</v>
       </c>
-      <c r="B90" s="111" t="s">
+      <c r="B90" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="112"/>
-      <c r="D90" s="111" t="s">
+      <c r="C90" s="123"/>
+      <c r="D90" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="112"/>
-      <c r="F90" s="111" t="s">
+      <c r="E90" s="123"/>
+      <c r="F90" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="112"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="112"/>
-      <c r="J90" s="111" t="s">
+      <c r="G90" s="123"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="K90" s="112"/>
-      <c r="L90" s="112"/>
-      <c r="M90" s="112"/>
-      <c r="N90" s="111" t="s">
+      <c r="K90" s="123"/>
+      <c r="L90" s="123"/>
+      <c r="M90" s="123"/>
+      <c r="N90" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="O90" s="112"/>
-      <c r="P90" s="112"/>
-      <c r="Q90" s="112"/>
+      <c r="O90" s="123"/>
+      <c r="P90" s="123"/>
+      <c r="Q90" s="123"/>
       <c r="R90" s="66" t="s">
         <v>18</v>
       </c>
@@ -6170,34 +6177,37 @@
       <c r="A91" s="55">
         <v>78</v>
       </c>
-      <c r="B91" s="106" t="s">
+      <c r="B91" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="107"/>
-      <c r="D91" s="106" t="s">
+      <c r="C91" s="108"/>
+      <c r="D91" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="107"/>
-      <c r="F91" s="106" t="s">
+      <c r="E91" s="108"/>
+      <c r="F91" s="107" t="s">
         <v>342</v>
       </c>
-      <c r="G91" s="107"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="106" t="s">
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="K91" s="107"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="107"/>
-      <c r="N91" s="106" t="s">
+      <c r="K91" s="108"/>
+      <c r="L91" s="108"/>
+      <c r="M91" s="108"/>
+      <c r="N91" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="O91" s="107"/>
-      <c r="P91" s="107"/>
-      <c r="Q91" s="107"/>
+      <c r="O91" s="108"/>
+      <c r="P91" s="108"/>
+      <c r="Q91" s="108"/>
       <c r="R91" s="56" t="s">
         <v>18</v>
+      </c>
+      <c r="S91" s="71" t="s">
+        <v>345</v>
       </c>
       <c r="T91" s="60"/>
       <c r="U91" s="60"/>
@@ -6329,32 +6339,32 @@
       <c r="A92" s="67">
         <v>79</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="109"/>
-      <c r="D92" s="108" t="s">
+      <c r="C92" s="125"/>
+      <c r="D92" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="109"/>
-      <c r="F92" s="108" t="s">
+      <c r="E92" s="125"/>
+      <c r="F92" s="124" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="108" t="s">
+      <c r="G92" s="125"/>
+      <c r="H92" s="125"/>
+      <c r="I92" s="125"/>
+      <c r="J92" s="124" t="s">
         <v>309</v>
       </c>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
-      <c r="M92" s="109"/>
-      <c r="N92" s="108" t="s">
+      <c r="K92" s="125"/>
+      <c r="L92" s="125"/>
+      <c r="M92" s="125"/>
+      <c r="N92" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="109"/>
-      <c r="P92" s="109"/>
-      <c r="Q92" s="109"/>
+      <c r="O92" s="125"/>
+      <c r="P92" s="125"/>
+      <c r="Q92" s="125"/>
       <c r="R92" s="68" t="s">
         <v>18</v>
       </c>
@@ -6489,32 +6499,32 @@
       <c r="A93" s="55">
         <v>80</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="107"/>
-      <c r="D93" s="106" t="s">
+      <c r="C93" s="108"/>
+      <c r="D93" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="107"/>
-      <c r="F93" s="106" t="s">
+      <c r="E93" s="108"/>
+      <c r="F93" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="107"/>
-      <c r="H93" s="107"/>
-      <c r="I93" s="107"/>
-      <c r="J93" s="106" t="s">
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="K93" s="107"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="107"/>
-      <c r="N93" s="106" t="s">
+      <c r="K93" s="108"/>
+      <c r="L93" s="108"/>
+      <c r="M93" s="108"/>
+      <c r="N93" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="O93" s="107"/>
-      <c r="P93" s="107"/>
-      <c r="Q93" s="107"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="108"/>
+      <c r="Q93" s="108"/>
       <c r="R93" s="56" t="s">
         <v>18</v>
       </c>
@@ -6524,32 +6534,32 @@
       <c r="A94" s="55">
         <v>81</v>
       </c>
-      <c r="B94" s="106" t="s">
+      <c r="B94" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="107"/>
-      <c r="D94" s="106" t="s">
+      <c r="C94" s="108"/>
+      <c r="D94" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="107"/>
-      <c r="F94" s="106" t="s">
+      <c r="E94" s="108"/>
+      <c r="F94" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="107"/>
-      <c r="H94" s="107"/>
-      <c r="I94" s="107"/>
-      <c r="J94" s="106" t="s">
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="107"/>
-      <c r="L94" s="107"/>
-      <c r="M94" s="107"/>
-      <c r="N94" s="106" t="s">
+      <c r="K94" s="108"/>
+      <c r="L94" s="108"/>
+      <c r="M94" s="108"/>
+      <c r="N94" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="O94" s="107"/>
-      <c r="P94" s="107"/>
-      <c r="Q94" s="107"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="108"/>
+      <c r="Q94" s="108"/>
       <c r="R94" s="56" t="s">
         <v>18</v>
       </c>
@@ -6559,32 +6569,32 @@
       <c r="A95" s="55">
         <v>82</v>
       </c>
-      <c r="B95" s="106" t="s">
+      <c r="B95" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="107"/>
-      <c r="D95" s="106" t="s">
+      <c r="C95" s="108"/>
+      <c r="D95" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="107"/>
-      <c r="F95" s="106" t="s">
+      <c r="E95" s="108"/>
+      <c r="F95" s="107" t="s">
         <v>315</v>
       </c>
-      <c r="G95" s="107"/>
-      <c r="H95" s="107"/>
-      <c r="I95" s="107"/>
-      <c r="J95" s="106" t="s">
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
+      <c r="J95" s="107" t="s">
         <v>316</v>
       </c>
-      <c r="K95" s="107"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="107"/>
-      <c r="N95" s="106" t="s">
+      <c r="K95" s="108"/>
+      <c r="L95" s="108"/>
+      <c r="M95" s="108"/>
+      <c r="N95" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="O95" s="107"/>
-      <c r="P95" s="107"/>
-      <c r="Q95" s="107"/>
+      <c r="O95" s="108"/>
+      <c r="P95" s="108"/>
+      <c r="Q95" s="108"/>
       <c r="R95" s="56" t="s">
         <v>18</v>
       </c>
@@ -6594,32 +6604,32 @@
       <c r="A96" s="55">
         <v>83</v>
       </c>
-      <c r="B96" s="106" t="s">
+      <c r="B96" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="107"/>
-      <c r="D96" s="106" t="s">
+      <c r="C96" s="108"/>
+      <c r="D96" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="107"/>
-      <c r="F96" s="106" t="s">
+      <c r="E96" s="108"/>
+      <c r="F96" s="107" t="s">
         <v>317</v>
       </c>
-      <c r="G96" s="107"/>
-      <c r="H96" s="107"/>
-      <c r="I96" s="107"/>
-      <c r="J96" s="106" t="s">
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="107" t="s">
         <v>318</v>
       </c>
-      <c r="K96" s="107"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="107"/>
-      <c r="N96" s="106" t="s">
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="108"/>
+      <c r="N96" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="O96" s="107"/>
-      <c r="P96" s="107"/>
-      <c r="Q96" s="107"/>
+      <c r="O96" s="108"/>
+      <c r="P96" s="108"/>
+      <c r="Q96" s="108"/>
       <c r="R96" s="56" t="s">
         <v>18</v>
       </c>
@@ -6629,32 +6639,32 @@
       <c r="A97" s="55">
         <v>84</v>
       </c>
-      <c r="B97" s="106" t="s">
+      <c r="B97" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="107"/>
-      <c r="D97" s="106" t="s">
+      <c r="C97" s="108"/>
+      <c r="D97" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="107"/>
-      <c r="F97" s="106" t="s">
+      <c r="E97" s="108"/>
+      <c r="F97" s="107" t="s">
         <v>320</v>
       </c>
-      <c r="G97" s="107"/>
-      <c r="H97" s="107"/>
-      <c r="I97" s="107"/>
-      <c r="J97" s="106" t="s">
+      <c r="G97" s="108"/>
+      <c r="H97" s="108"/>
+      <c r="I97" s="108"/>
+      <c r="J97" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="K97" s="107"/>
-      <c r="L97" s="107"/>
-      <c r="M97" s="107"/>
-      <c r="N97" s="106" t="s">
+      <c r="K97" s="108"/>
+      <c r="L97" s="108"/>
+      <c r="M97" s="108"/>
+      <c r="N97" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="O97" s="107"/>
-      <c r="P97" s="107"/>
-      <c r="Q97" s="107"/>
+      <c r="O97" s="108"/>
+      <c r="P97" s="108"/>
+      <c r="Q97" s="108"/>
       <c r="R97" s="56" t="s">
         <v>18</v>
       </c>
@@ -6664,32 +6674,32 @@
       <c r="A98" s="55">
         <v>85</v>
       </c>
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C98" s="107"/>
-      <c r="D98" s="106" t="s">
+      <c r="C98" s="108"/>
+      <c r="D98" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="107"/>
-      <c r="F98" s="106" t="s">
+      <c r="E98" s="108"/>
+      <c r="F98" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="107"/>
-      <c r="H98" s="107"/>
-      <c r="I98" s="107"/>
-      <c r="J98" s="106" t="s">
+      <c r="G98" s="108"/>
+      <c r="H98" s="108"/>
+      <c r="I98" s="108"/>
+      <c r="J98" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="K98" s="107"/>
-      <c r="L98" s="107"/>
-      <c r="M98" s="107"/>
-      <c r="N98" s="106" t="s">
+      <c r="K98" s="108"/>
+      <c r="L98" s="108"/>
+      <c r="M98" s="108"/>
+      <c r="N98" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="O98" s="107"/>
-      <c r="P98" s="107"/>
-      <c r="Q98" s="107"/>
+      <c r="O98" s="108"/>
+      <c r="P98" s="108"/>
+      <c r="Q98" s="108"/>
       <c r="R98" s="56" t="s">
         <v>18</v>
       </c>
@@ -6699,32 +6709,32 @@
       <c r="A99" s="55">
         <v>86</v>
       </c>
-      <c r="B99" s="106" t="s">
+      <c r="B99" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="107"/>
-      <c r="D99" s="106" t="s">
+      <c r="C99" s="108"/>
+      <c r="D99" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="107"/>
-      <c r="F99" s="106" t="s">
+      <c r="E99" s="108"/>
+      <c r="F99" s="107" t="s">
         <v>326</v>
       </c>
-      <c r="G99" s="107"/>
-      <c r="H99" s="107"/>
-      <c r="I99" s="107"/>
-      <c r="J99" s="106" t="s">
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="107" t="s">
         <v>327</v>
       </c>
-      <c r="K99" s="107"/>
-      <c r="L99" s="107"/>
-      <c r="M99" s="107"/>
-      <c r="N99" s="106" t="s">
+      <c r="K99" s="108"/>
+      <c r="L99" s="108"/>
+      <c r="M99" s="108"/>
+      <c r="N99" s="107" t="s">
         <v>328</v>
       </c>
-      <c r="O99" s="107"/>
-      <c r="P99" s="107"/>
-      <c r="Q99" s="107"/>
+      <c r="O99" s="108"/>
+      <c r="P99" s="108"/>
+      <c r="Q99" s="108"/>
       <c r="R99" s="56" t="s">
         <v>18</v>
       </c>
@@ -6734,32 +6744,32 @@
       <c r="A100" s="55">
         <v>87</v>
       </c>
-      <c r="B100" s="106" t="s">
+      <c r="B100" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="107"/>
-      <c r="D100" s="106" t="s">
+      <c r="C100" s="108"/>
+      <c r="D100" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="107"/>
-      <c r="F100" s="106" t="s">
+      <c r="E100" s="108"/>
+      <c r="F100" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="107"/>
-      <c r="J100" s="106" t="s">
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="K100" s="107"/>
-      <c r="L100" s="107"/>
-      <c r="M100" s="107"/>
-      <c r="N100" s="106" t="s">
+      <c r="K100" s="108"/>
+      <c r="L100" s="108"/>
+      <c r="M100" s="108"/>
+      <c r="N100" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="O100" s="107"/>
-      <c r="P100" s="107"/>
-      <c r="Q100" s="107"/>
+      <c r="O100" s="108"/>
+      <c r="P100" s="108"/>
+      <c r="Q100" s="108"/>
       <c r="R100" s="56" t="s">
         <v>18</v>
       </c>
@@ -6769,169 +6779,169 @@
       <c r="A101" s="55">
         <v>88</v>
       </c>
-      <c r="B101" s="106" t="s">
+      <c r="B101" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="107"/>
-      <c r="D101" s="106" t="s">
+      <c r="C101" s="108"/>
+      <c r="D101" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="107"/>
-      <c r="F101" s="106" t="s">
+      <c r="E101" s="108"/>
+      <c r="F101" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="G101" s="107"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="107"/>
-      <c r="J101" s="106" t="s">
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="K101" s="107"/>
-      <c r="L101" s="107"/>
-      <c r="M101" s="107"/>
-      <c r="N101" s="106" t="s">
+      <c r="K101" s="108"/>
+      <c r="L101" s="108"/>
+      <c r="M101" s="108"/>
+      <c r="N101" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="O101" s="107"/>
-      <c r="P101" s="107"/>
-      <c r="Q101" s="107"/>
+      <c r="O101" s="108"/>
+      <c r="P101" s="108"/>
+      <c r="Q101" s="108"/>
       <c r="R101" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S101" s="55"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B102" s="105"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="105"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="105"/>
-      <c r="I102" s="105"/>
-      <c r="J102" s="105"/>
-      <c r="K102" s="105"/>
-      <c r="L102" s="105"/>
-      <c r="M102" s="105"/>
-      <c r="N102" s="105"/>
-      <c r="O102" s="105"/>
-      <c r="P102" s="105"/>
-      <c r="Q102" s="105"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="106"/>
+      <c r="J102" s="106"/>
+      <c r="K102" s="106"/>
+      <c r="L102" s="106"/>
+      <c r="M102" s="106"/>
+      <c r="N102" s="106"/>
+      <c r="O102" s="106"/>
+      <c r="P102" s="106"/>
+      <c r="Q102" s="106"/>
     </row>
     <row r="103" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="105"/>
-      <c r="M103" s="105"/>
-      <c r="N103" s="105"/>
-      <c r="O103" s="105"/>
-      <c r="P103" s="105"/>
-      <c r="Q103" s="105"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="106"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="106"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="106"/>
+      <c r="K103" s="106"/>
+      <c r="L103" s="106"/>
+      <c r="M103" s="106"/>
+      <c r="N103" s="106"/>
+      <c r="O103" s="106"/>
+      <c r="P103" s="106"/>
+      <c r="Q103" s="106"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="116" t="s">
+      <c r="A104" s="109" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="117"/>
-      <c r="C104" s="117"/>
-      <c r="D104" s="117"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="117"/>
-      <c r="H104" s="117"/>
-      <c r="I104" s="117"/>
-      <c r="J104" s="117"/>
-      <c r="K104" s="117"/>
-      <c r="L104" s="117"/>
-      <c r="M104" s="117"/>
-      <c r="N104" s="117"/>
-      <c r="O104" s="117"/>
-      <c r="P104" s="117"/>
-      <c r="Q104" s="117"/>
-      <c r="R104" s="117"/>
-      <c r="S104" s="118"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="110"/>
+      <c r="K104" s="110"/>
+      <c r="L104" s="110"/>
+      <c r="M104" s="110"/>
+      <c r="N104" s="110"/>
+      <c r="O104" s="110"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="110"/>
+      <c r="R104" s="110"/>
+      <c r="S104" s="111"/>
     </row>
     <row r="105" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="119"/>
-      <c r="B105" s="120"/>
-      <c r="C105" s="120"/>
-      <c r="D105" s="120"/>
-      <c r="E105" s="120"/>
-      <c r="F105" s="120"/>
-      <c r="G105" s="120"/>
-      <c r="H105" s="120"/>
-      <c r="I105" s="120"/>
-      <c r="J105" s="120"/>
-      <c r="K105" s="120"/>
-      <c r="L105" s="120"/>
-      <c r="M105" s="120"/>
-      <c r="N105" s="120"/>
-      <c r="O105" s="120"/>
-      <c r="P105" s="120"/>
-      <c r="Q105" s="120"/>
-      <c r="R105" s="120"/>
-      <c r="S105" s="121"/>
+      <c r="A105" s="112"/>
+      <c r="B105" s="113"/>
+      <c r="C105" s="113"/>
+      <c r="D105" s="113"/>
+      <c r="E105" s="113"/>
+      <c r="F105" s="113"/>
+      <c r="G105" s="113"/>
+      <c r="H105" s="113"/>
+      <c r="I105" s="113"/>
+      <c r="J105" s="113"/>
+      <c r="K105" s="113"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="113"/>
+      <c r="N105" s="113"/>
+      <c r="O105" s="113"/>
+      <c r="P105" s="113"/>
+      <c r="Q105" s="113"/>
+      <c r="R105" s="113"/>
+      <c r="S105" s="114"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B106" s="105"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
-      <c r="M106" s="105"/>
-      <c r="N106" s="105"/>
-      <c r="O106" s="105"/>
-      <c r="P106" s="105"/>
-      <c r="Q106" s="105"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="106"/>
+      <c r="I106" s="106"/>
+      <c r="J106" s="106"/>
+      <c r="K106" s="106"/>
+      <c r="L106" s="106"/>
+      <c r="M106" s="106"/>
+      <c r="N106" s="106"/>
+      <c r="O106" s="106"/>
+      <c r="P106" s="106"/>
+      <c r="Q106" s="106"/>
     </row>
     <row r="107" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="55">
         <v>89</v>
       </c>
-      <c r="B107" s="106" t="s">
+      <c r="B107" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="107"/>
-      <c r="D107" s="106" t="s">
+      <c r="C107" s="108"/>
+      <c r="D107" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="107"/>
-      <c r="F107" s="106" t="s">
+      <c r="E107" s="108"/>
+      <c r="F107" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="G107" s="107"/>
-      <c r="H107" s="107"/>
-      <c r="I107" s="107"/>
-      <c r="J107" s="106" t="s">
+      <c r="G107" s="108"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="107"/>
-      <c r="L107" s="107"/>
-      <c r="M107" s="107"/>
-      <c r="N107" s="106" t="s">
+      <c r="K107" s="108"/>
+      <c r="L107" s="108"/>
+      <c r="M107" s="108"/>
+      <c r="N107" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="O107" s="107"/>
-      <c r="P107" s="107"/>
-      <c r="Q107" s="107"/>
+      <c r="O107" s="108"/>
+      <c r="P107" s="108"/>
+      <c r="Q107" s="108"/>
       <c r="R107" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S107" s="125" t="s">
+      <c r="S107" s="82" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6939,32 +6949,32 @@
       <c r="A108" s="55">
         <v>90</v>
       </c>
-      <c r="B108" s="106" t="s">
+      <c r="B108" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="107"/>
-      <c r="D108" s="106" t="s">
+      <c r="C108" s="108"/>
+      <c r="D108" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="107"/>
-      <c r="F108" s="106" t="s">
+      <c r="E108" s="108"/>
+      <c r="F108" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="G108" s="107"/>
-      <c r="H108" s="107"/>
-      <c r="I108" s="107"/>
-      <c r="J108" s="106" t="s">
+      <c r="G108" s="108"/>
+      <c r="H108" s="108"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="K108" s="107"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="107"/>
-      <c r="N108" s="106" t="s">
+      <c r="K108" s="108"/>
+      <c r="L108" s="108"/>
+      <c r="M108" s="108"/>
+      <c r="N108" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="O108" s="107"/>
-      <c r="P108" s="107"/>
-      <c r="Q108" s="107"/>
+      <c r="O108" s="108"/>
+      <c r="P108" s="108"/>
+      <c r="Q108" s="108"/>
       <c r="R108" s="56" t="s">
         <v>18</v>
       </c>
@@ -6974,32 +6984,32 @@
       <c r="A109" s="55">
         <v>91</v>
       </c>
-      <c r="B109" s="106" t="s">
+      <c r="B109" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="107"/>
-      <c r="D109" s="106" t="s">
+      <c r="C109" s="108"/>
+      <c r="D109" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="107"/>
-      <c r="F109" s="106" t="s">
+      <c r="E109" s="108"/>
+      <c r="F109" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="G109" s="107"/>
-      <c r="H109" s="107"/>
-      <c r="I109" s="107"/>
-      <c r="J109" s="106" t="s">
+      <c r="G109" s="108"/>
+      <c r="H109" s="108"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="107" t="s">
         <v>303</v>
       </c>
-      <c r="K109" s="107"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="107"/>
-      <c r="N109" s="106" t="s">
+      <c r="K109" s="108"/>
+      <c r="L109" s="108"/>
+      <c r="M109" s="108"/>
+      <c r="N109" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="O109" s="107"/>
-      <c r="P109" s="107"/>
-      <c r="Q109" s="107"/>
+      <c r="O109" s="108"/>
+      <c r="P109" s="108"/>
+      <c r="Q109" s="108"/>
       <c r="R109" s="56" t="s">
         <v>18</v>
       </c>
@@ -7009,36 +7019,36 @@
       <c r="A110" s="55">
         <v>92</v>
       </c>
-      <c r="B110" s="106" t="s">
+      <c r="B110" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="107"/>
-      <c r="D110" s="106" t="s">
+      <c r="C110" s="108"/>
+      <c r="D110" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="107"/>
-      <c r="F110" s="106" t="s">
+      <c r="E110" s="108"/>
+      <c r="F110" s="107" t="s">
         <v>338</v>
       </c>
-      <c r="G110" s="107"/>
-      <c r="H110" s="107"/>
-      <c r="I110" s="107"/>
-      <c r="J110" s="106" t="s">
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="K110" s="107"/>
-      <c r="L110" s="107"/>
-      <c r="M110" s="107"/>
-      <c r="N110" s="106" t="s">
+      <c r="K110" s="108"/>
+      <c r="L110" s="108"/>
+      <c r="M110" s="108"/>
+      <c r="N110" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="O110" s="107"/>
-      <c r="P110" s="107"/>
-      <c r="Q110" s="107"/>
+      <c r="O110" s="108"/>
+      <c r="P110" s="108"/>
+      <c r="Q110" s="108"/>
       <c r="R110" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S110" s="125" t="s">
+      <c r="S110" s="82" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7046,36 +7056,36 @@
       <c r="A111" s="55">
         <v>93</v>
       </c>
-      <c r="B111" s="106" t="s">
+      <c r="B111" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="107"/>
-      <c r="D111" s="106" t="s">
+      <c r="C111" s="108"/>
+      <c r="D111" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="107"/>
-      <c r="F111" s="106" t="s">
+      <c r="E111" s="108"/>
+      <c r="F111" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="G111" s="107"/>
-      <c r="H111" s="107"/>
-      <c r="I111" s="107"/>
-      <c r="J111" s="106" t="s">
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="107"/>
-      <c r="L111" s="107"/>
-      <c r="M111" s="107"/>
-      <c r="N111" s="106" t="s">
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="107" t="s">
         <v>328</v>
       </c>
-      <c r="O111" s="107"/>
-      <c r="P111" s="107"/>
-      <c r="Q111" s="107"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="108"/>
+      <c r="Q111" s="108"/>
       <c r="R111" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S111" s="125" t="s">
+      <c r="S111" s="82" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7083,32 +7093,32 @@
       <c r="A112" s="55">
         <v>94</v>
       </c>
-      <c r="B112" s="106" t="s">
+      <c r="B112" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="107"/>
-      <c r="D112" s="106" t="s">
+      <c r="C112" s="108"/>
+      <c r="D112" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="107"/>
-      <c r="F112" s="106" t="s">
+      <c r="E112" s="108"/>
+      <c r="F112" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="G112" s="107"/>
-      <c r="H112" s="107"/>
-      <c r="I112" s="107"/>
-      <c r="J112" s="106" t="s">
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="108"/>
+      <c r="J112" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="K112" s="107"/>
-      <c r="L112" s="107"/>
-      <c r="M112" s="107"/>
-      <c r="N112" s="106" t="s">
+      <c r="K112" s="108"/>
+      <c r="L112" s="108"/>
+      <c r="M112" s="108"/>
+      <c r="N112" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="O112" s="107"/>
-      <c r="P112" s="107"/>
-      <c r="Q112" s="107"/>
+      <c r="O112" s="108"/>
+      <c r="P112" s="108"/>
+      <c r="Q112" s="108"/>
       <c r="R112" s="56" t="s">
         <v>18</v>
       </c>
@@ -7118,201 +7128,876 @@
       <c r="A113" s="55">
         <v>95</v>
       </c>
-      <c r="B113" s="106" t="s">
+      <c r="B113" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="107"/>
-      <c r="D113" s="106" t="s">
+      <c r="C113" s="108"/>
+      <c r="D113" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="107"/>
-      <c r="F113" s="106" t="s">
+      <c r="E113" s="108"/>
+      <c r="F113" s="107" t="s">
         <v>342</v>
       </c>
-      <c r="G113" s="107"/>
-      <c r="H113" s="107"/>
-      <c r="I113" s="107"/>
-      <c r="J113" s="106" t="s">
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="108"/>
+      <c r="J113" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="K113" s="107"/>
-      <c r="L113" s="107"/>
-      <c r="M113" s="107"/>
-      <c r="N113" s="106" t="s">
+      <c r="K113" s="108"/>
+      <c r="L113" s="108"/>
+      <c r="M113" s="108"/>
+      <c r="N113" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="O113" s="107"/>
-      <c r="P113" s="107"/>
-      <c r="Q113" s="107"/>
+      <c r="O113" s="108"/>
+      <c r="P113" s="108"/>
+      <c r="Q113" s="108"/>
       <c r="R113" s="56" t="s">
         <v>18</v>
       </c>
       <c r="S113" s="55"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="105"/>
-      <c r="C114" s="105"/>
-      <c r="D114" s="105"/>
-      <c r="E114" s="105"/>
-      <c r="F114" s="105"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="105"/>
-      <c r="I114" s="105"/>
-      <c r="J114" s="105"/>
-      <c r="K114" s="105"/>
-      <c r="L114" s="105"/>
-      <c r="M114" s="105"/>
-      <c r="N114" s="105"/>
-      <c r="O114" s="105"/>
-      <c r="P114" s="105"/>
-      <c r="Q114" s="105"/>
+      <c r="B114" s="106"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="106"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="106"/>
+      <c r="I114" s="106"/>
+      <c r="J114" s="106"/>
+      <c r="K114" s="106"/>
+      <c r="L114" s="106"/>
+      <c r="M114" s="106"/>
+      <c r="N114" s="106"/>
+      <c r="O114" s="106"/>
+      <c r="P114" s="106"/>
+      <c r="Q114" s="106"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B115" s="105"/>
-      <c r="C115" s="105"/>
-      <c r="D115" s="105"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="105"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="105"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="105"/>
-      <c r="M115" s="105"/>
-      <c r="N115" s="105"/>
-      <c r="O115" s="105"/>
-      <c r="P115" s="105"/>
-      <c r="Q115" s="105"/>
+      <c r="B115" s="106"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="106"/>
+      <c r="G115" s="106"/>
+      <c r="H115" s="106"/>
+      <c r="I115" s="106"/>
+      <c r="J115" s="106"/>
+      <c r="K115" s="106"/>
+      <c r="L115" s="106"/>
+      <c r="M115" s="106"/>
+      <c r="N115" s="106"/>
+      <c r="O115" s="106"/>
+      <c r="P115" s="106"/>
+      <c r="Q115" s="106"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="105"/>
-      <c r="C116" s="105"/>
-      <c r="D116" s="105"/>
-      <c r="E116" s="105"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="105"/>
-      <c r="I116" s="105"/>
-      <c r="J116" s="105"/>
-      <c r="K116" s="105"/>
-      <c r="L116" s="105"/>
-      <c r="M116" s="105"/>
-      <c r="N116" s="105"/>
-      <c r="O116" s="105"/>
-      <c r="P116" s="105"/>
-      <c r="Q116" s="105"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="106"/>
+      <c r="G116" s="106"/>
+      <c r="H116" s="106"/>
+      <c r="I116" s="106"/>
+      <c r="J116" s="106"/>
+      <c r="K116" s="106"/>
+      <c r="L116" s="106"/>
+      <c r="M116" s="106"/>
+      <c r="N116" s="106"/>
+      <c r="O116" s="106"/>
+      <c r="P116" s="106"/>
+      <c r="Q116" s="106"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="105"/>
-      <c r="C117" s="105"/>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="105"/>
-      <c r="I117" s="105"/>
-      <c r="J117" s="105"/>
-      <c r="K117" s="105"/>
-      <c r="L117" s="105"/>
-      <c r="M117" s="105"/>
-      <c r="N117" s="105"/>
-      <c r="O117" s="105"/>
-      <c r="P117" s="105"/>
-      <c r="Q117" s="105"/>
+      <c r="B117" s="106"/>
+      <c r="C117" s="106"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="106"/>
+      <c r="G117" s="106"/>
+      <c r="H117" s="106"/>
+      <c r="I117" s="106"/>
+      <c r="J117" s="106"/>
+      <c r="K117" s="106"/>
+      <c r="L117" s="106"/>
+      <c r="M117" s="106"/>
+      <c r="N117" s="106"/>
+      <c r="O117" s="106"/>
+      <c r="P117" s="106"/>
+      <c r="Q117" s="106"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="105"/>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="105"/>
-      <c r="I118" s="105"/>
-      <c r="J118" s="105"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="105"/>
-      <c r="M118" s="105"/>
-      <c r="N118" s="105"/>
-      <c r="O118" s="105"/>
-      <c r="P118" s="105"/>
-      <c r="Q118" s="105"/>
+      <c r="B118" s="106"/>
+      <c r="C118" s="106"/>
+      <c r="D118" s="106"/>
+      <c r="E118" s="106"/>
+      <c r="F118" s="106"/>
+      <c r="G118" s="106"/>
+      <c r="H118" s="106"/>
+      <c r="I118" s="106"/>
+      <c r="J118" s="106"/>
+      <c r="K118" s="106"/>
+      <c r="L118" s="106"/>
+      <c r="M118" s="106"/>
+      <c r="N118" s="106"/>
+      <c r="O118" s="106"/>
+      <c r="P118" s="106"/>
+      <c r="Q118" s="106"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="105"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="105"/>
-      <c r="M119" s="105"/>
-      <c r="N119" s="105"/>
-      <c r="O119" s="105"/>
-      <c r="P119" s="105"/>
-      <c r="Q119" s="105"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="106"/>
+      <c r="G119" s="106"/>
+      <c r="H119" s="106"/>
+      <c r="I119" s="106"/>
+      <c r="J119" s="106"/>
+      <c r="K119" s="106"/>
+      <c r="L119" s="106"/>
+      <c r="M119" s="106"/>
+      <c r="N119" s="106"/>
+      <c r="O119" s="106"/>
+      <c r="P119" s="106"/>
+      <c r="Q119" s="106"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B120" s="105"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="105"/>
-      <c r="N120" s="105"/>
-      <c r="O120" s="105"/>
-      <c r="P120" s="105"/>
-      <c r="Q120" s="105"/>
+      <c r="B120" s="106"/>
+      <c r="C120" s="106"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="106"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="106"/>
+      <c r="I120" s="106"/>
+      <c r="J120" s="106"/>
+      <c r="K120" s="106"/>
+      <c r="L120" s="106"/>
+      <c r="M120" s="106"/>
+      <c r="N120" s="106"/>
+      <c r="O120" s="106"/>
+      <c r="P120" s="106"/>
+      <c r="Q120" s="106"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B121" s="105"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="105"/>
-      <c r="M121" s="105"/>
-      <c r="N121" s="105"/>
-      <c r="O121" s="105"/>
-      <c r="P121" s="105"/>
-      <c r="Q121" s="105"/>
+      <c r="B121" s="106"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="106"/>
+      <c r="E121" s="106"/>
+      <c r="F121" s="106"/>
+      <c r="G121" s="106"/>
+      <c r="H121" s="106"/>
+      <c r="I121" s="106"/>
+      <c r="J121" s="106"/>
+      <c r="K121" s="106"/>
+      <c r="L121" s="106"/>
+      <c r="M121" s="106"/>
+      <c r="N121" s="106"/>
+      <c r="O121" s="106"/>
+      <c r="P121" s="106"/>
+      <c r="Q121" s="106"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="105"/>
-      <c r="M122" s="105"/>
-      <c r="N122" s="105"/>
-      <c r="O122" s="105"/>
-      <c r="P122" s="105"/>
-      <c r="Q122" s="105"/>
+      <c r="B122" s="106"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="106"/>
+      <c r="F122" s="106"/>
+      <c r="G122" s="106"/>
+      <c r="H122" s="106"/>
+      <c r="I122" s="106"/>
+      <c r="J122" s="106"/>
+      <c r="K122" s="106"/>
+      <c r="L122" s="106"/>
+      <c r="M122" s="106"/>
+      <c r="N122" s="106"/>
+      <c r="O122" s="106"/>
+      <c r="P122" s="106"/>
+      <c r="Q122" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="699">
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="J121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="J118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="J115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="J107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="J101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A3:S4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A73:S74"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:O71"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:I70"/>
@@ -7337,681 +8022,6 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="J72:M72"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A73:S74"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A3:S4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="J95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="J101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="J107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:M111"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="J115:M115"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="J118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="J121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P122:Q122"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8028,7 +8038,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:O52"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8057,12 +8067,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8094,12 +8104,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -8111,19 +8121,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="72" t="s">
         <v>22</v>
       </c>
@@ -8135,19 +8145,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="104"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
       <c r="L8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8159,19 +8169,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -8190,12 +8200,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -8207,12 +8217,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
       <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
@@ -8225,12 +8235,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
       <c r="L12" s="72" t="s">
         <v>22</v>
       </c>
@@ -8242,12 +8252,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="74" t="s">
         <v>33</v>
       </c>
@@ -8259,12 +8269,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
       <c r="L14" s="72" t="s">
         <v>32</v>
       </c>
@@ -8276,12 +8286,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="72" t="s">
         <v>32</v>
       </c>
@@ -8293,12 +8303,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="73" t="s">
         <v>22</v>
       </c>
@@ -8308,12 +8318,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="72" t="s">
         <v>22</v>
       </c>
@@ -8325,12 +8335,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
       <c r="L18" s="74" t="s">
         <v>34</v>
       </c>
@@ -8359,12 +8369,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="73" t="s">
         <v>32</v>
       </c>
@@ -8409,12 +8419,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="94" t="s">
+      <c r="H23" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -8441,12 +8451,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="92" t="s">
+      <c r="H25" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -8458,12 +8468,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -8475,12 +8485,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -8490,12 +8500,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="82" t="s">
+      <c r="H28" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
       <c r="L28" s="72" t="s">
         <v>22</v>
       </c>
@@ -8507,12 +8517,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -8529,12 +8539,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -8546,12 +8556,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="72" t="s">
         <v>33</v>
       </c>
@@ -8563,12 +8573,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
       <c r="L34" s="72" t="s">
         <v>22</v>
       </c>
@@ -8580,12 +8590,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="72" t="s">
         <v>22</v>
       </c>
@@ -8597,12 +8607,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -8614,12 +8624,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="83" t="s">
+      <c r="H37" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -8631,12 +8641,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -8648,12 +8658,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -8663,12 +8673,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="85" t="s">
+      <c r="H40" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -8680,12 +8690,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -8695,12 +8705,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
       <c r="L42" s="72" t="s">
         <v>22</v>
       </c>
@@ -8712,12 +8722,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="82" t="s">
+      <c r="H43" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -8734,12 +8744,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -8751,12 +8761,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="72" t="s">
         <v>33</v>
       </c>
@@ -8768,12 +8778,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -8783,12 +8793,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="85" t="s">
+      <c r="H49" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -8800,12 +8810,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -8815,12 +8825,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="82" t="s">
+      <c r="H51" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
       <c r="L51" s="72" t="s">
         <v>22</v>
       </c>
@@ -8832,12 +8842,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="82" t="s">
+      <c r="H52" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -8850,6 +8860,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
@@ -8862,38 +8904,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -3134,8 +3134,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="S91" sqref="S91"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3852,7 +3852,9 @@
       <c r="R22" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S22" s="55"/>
+      <c r="S22" s="71" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="55">
@@ -3996,7 +3998,9 @@
       <c r="R26" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="55"/>
+      <c r="S26" s="71" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="55">

--- a/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
+++ b/src/com/accenture/tmt/Quality_Tracker/TMT_Defect_List & Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="18180" windowHeight="10245" tabRatio="575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13635" windowHeight="5850" tabRatio="575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="346">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1126,7 +1126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,6 +1184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1816,75 +1822,75 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1894,6 +1900,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,12 +1942,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1927,22 +1951,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2279,12 +2291,12 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="13" t="s">
         <v>19</v>
       </c>
@@ -2316,12 +2328,12 @@
       <c r="F6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
       <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
@@ -2333,19 +2345,19 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2357,19 +2369,19 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="36"/>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2381,19 +2393,19 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="49" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2412,12 +2424,12 @@
       <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
       <c r="L10" s="32" t="s">
         <v>22</v>
       </c>
@@ -2429,12 +2441,12 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2447,12 +2459,12 @@
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2464,12 +2476,12 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
@@ -2481,12 +2493,12 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2498,12 +2510,12 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
       <c r="L15" s="44" t="s">
         <v>32</v>
       </c>
@@ -2515,12 +2527,12 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="45" t="s">
         <v>22</v>
       </c>
@@ -2530,12 +2542,12 @@
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
       <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
@@ -2547,12 +2559,12 @@
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
       <c r="L18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2581,12 +2593,12 @@
       </c>
     </row>
     <row r="20" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="104" t="s">
+      <c r="H20" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
       <c r="L20" s="45" t="s">
         <v>32</v>
       </c>
@@ -2599,12 +2611,12 @@
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="90" t="s">
+      <c r="H21" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
       <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
@@ -2614,12 +2626,12 @@
       </c>
     </row>
     <row r="22" spans="8:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="H22" s="90" t="s">
+      <c r="H22" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="41">
         <v>42011</v>
       </c>
@@ -2631,12 +2643,12 @@
       </c>
     </row>
     <row r="23" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
       <c r="L23" s="12">
         <v>42011</v>
       </c>
@@ -2648,12 +2660,12 @@
       </c>
     </row>
     <row r="24" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H24" s="90" t="s">
+      <c r="H24" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
       <c r="L24" s="41">
         <v>42011</v>
       </c>
@@ -2663,12 +2675,12 @@
       </c>
     </row>
     <row r="25" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="101" t="s">
+      <c r="H25" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
       <c r="L25" s="41">
         <v>42011</v>
       </c>
@@ -2680,12 +2692,12 @@
       </c>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="12">
         <v>42070</v>
       </c>
@@ -2697,12 +2709,12 @@
       </c>
     </row>
     <row r="27" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="87" t="s">
+      <c r="H27" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="12">
         <v>42070</v>
       </c>
@@ -2712,12 +2724,12 @@
       </c>
     </row>
     <row r="28" spans="8:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2729,12 +2741,12 @@
       </c>
     </row>
     <row r="29" spans="8:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="87" t="s">
+      <c r="H29" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="34" t="s">
         <v>21</v>
       </c>
@@ -2751,12 +2763,12 @@
       </c>
     </row>
     <row r="32" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H32" s="85" t="s">
+      <c r="H32" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
       <c r="L32" s="32" t="s">
         <v>86</v>
       </c>
@@ -2768,12 +2780,12 @@
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
       <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2785,12 +2797,12 @@
       </c>
     </row>
     <row r="34" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="95" t="s">
+      <c r="H34" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
       <c r="L34" s="4" t="s">
         <v>22</v>
       </c>
@@ -2802,12 +2814,12 @@
       </c>
     </row>
     <row r="35" spans="8:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2819,12 +2831,12 @@
       </c>
     </row>
     <row r="36" spans="8:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="95" t="s">
+      <c r="H36" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
       <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
@@ -2836,12 +2848,12 @@
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H37" s="85" t="s">
+      <c r="H37" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
       <c r="L37" s="12" t="s">
         <v>33</v>
       </c>
@@ -2853,12 +2865,12 @@
       </c>
     </row>
     <row r="38" spans="8:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="95" t="s">
+      <c r="H38" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
       <c r="L38" s="12" t="s">
         <v>33</v>
       </c>
@@ -2870,12 +2882,12 @@
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H39" s="96" t="s">
+      <c r="H39" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="41">
         <v>42011</v>
       </c>
@@ -2885,12 +2897,12 @@
       </c>
     </row>
     <row r="40" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H40" s="97" t="s">
+      <c r="H40" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
       <c r="L40" s="12">
         <v>42070</v>
       </c>
@@ -2902,12 +2914,12 @@
       </c>
     </row>
     <row r="41" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H41" s="96" t="s">
+      <c r="H41" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
       <c r="L41" s="41">
         <v>42070</v>
       </c>
@@ -2917,12 +2929,12 @@
       </c>
     </row>
     <row r="42" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H42" s="97" t="s">
+      <c r="H42" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
       <c r="L42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2934,12 +2946,12 @@
       </c>
     </row>
     <row r="43" spans="8:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="86" t="s">
+      <c r="H43" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="34" t="s">
         <v>21</v>
       </c>
@@ -2956,12 +2968,12 @@
       </c>
     </row>
     <row r="46" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H46" s="85" t="s">
+      <c r="H46" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
       <c r="L46" s="32" t="s">
         <v>86</v>
       </c>
@@ -2973,12 +2985,12 @@
       </c>
     </row>
     <row r="47" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H47" s="85" t="s">
+      <c r="H47" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
       <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2990,12 +3002,12 @@
       </c>
     </row>
     <row r="48" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H48" s="96" t="s">
+      <c r="H48" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
       <c r="L48" s="41">
         <v>42011</v>
       </c>
@@ -3005,12 +3017,12 @@
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H49" s="97" t="s">
+      <c r="H49" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
       <c r="L49" s="12">
         <v>42070</v>
       </c>
@@ -3022,12 +3034,12 @@
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H50" s="96" t="s">
+      <c r="H50" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
       <c r="L50" s="41">
         <v>42070</v>
       </c>
@@ -3037,12 +3049,12 @@
       </c>
     </row>
     <row r="51" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="86" t="s">
+      <c r="H51" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
       <c r="L51" s="4" t="s">
         <v>22</v>
       </c>
@@ -3054,12 +3066,12 @@
       </c>
     </row>
     <row r="52" spans="8:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="86" t="s">
+      <c r="H52" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
       <c r="L52" s="32" t="s">
         <v>22</v>
       </c>
@@ -3072,19 +3084,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H32:K32"/>
@@ -3101,21 +3115,19 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3134,8 +3146,8 @@
   </sheetPr>
   <dimension ref="A1:EN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80:I80"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3187,48 +3199,48 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="111"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="119"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="114"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="106"/>
@@ -3252,34 +3264,34 @@
       <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120" t="s">
+      <c r="E6" s="115"/>
+      <c r="F6" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120" t="s">
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120" t="s">
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120" t="s">
+      <c r="O6" s="115"/>
+      <c r="P6" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="121"/>
+      <c r="Q6" s="116"/>
       <c r="R6" s="57" t="s">
         <v>17</v>
       </c>
@@ -3566,27 +3578,27 @@
       <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="108"/>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="108"/>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="114" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
       <c r="I15" s="108"/>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="114" t="s">
         <v>183</v>
       </c>
       <c r="K15" s="108"/>
       <c r="L15" s="108"/>
       <c r="M15" s="108"/>
-      <c r="N15" s="115" t="s">
+      <c r="N15" s="114" t="s">
         <v>178</v>
       </c>
       <c r="O15" s="108"/>
@@ -3603,27 +3615,27 @@
       <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="108"/>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="108"/>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="114" t="s">
         <v>184</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="108"/>
       <c r="I16" s="108"/>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="114" t="s">
         <v>185</v>
       </c>
       <c r="K16" s="108"/>
       <c r="L16" s="108"/>
       <c r="M16" s="108"/>
-      <c r="N16" s="115" t="s">
+      <c r="N16" s="114" t="s">
         <v>186</v>
       </c>
       <c r="O16" s="108"/>
@@ -3640,27 +3652,27 @@
       <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="108"/>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="108"/>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="114" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="108"/>
       <c r="I17" s="108"/>
-      <c r="J17" s="115" t="s">
+      <c r="J17" s="114" t="s">
         <v>188</v>
       </c>
       <c r="K17" s="108"/>
       <c r="L17" s="108"/>
       <c r="M17" s="108"/>
-      <c r="N17" s="115" t="s">
+      <c r="N17" s="114" t="s">
         <v>186</v>
       </c>
       <c r="O17" s="108"/>
@@ -3677,27 +3689,27 @@
       <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="108"/>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="108"/>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="114" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
       <c r="I18" s="108"/>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="114" t="s">
         <v>190</v>
       </c>
       <c r="K18" s="108"/>
       <c r="L18" s="108"/>
       <c r="M18" s="108"/>
-      <c r="N18" s="115" t="s">
+      <c r="N18" s="114" t="s">
         <v>169</v>
       </c>
       <c r="O18" s="108"/>
@@ -3706,33 +3718,35 @@
       <c r="R18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="55"/>
+      <c r="S18" s="126" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="108"/>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="114" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="108"/>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="114" t="s">
         <v>191</v>
       </c>
       <c r="G19" s="108"/>
       <c r="H19" s="108"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="114" t="s">
         <v>192</v>
       </c>
       <c r="K19" s="108"/>
       <c r="L19" s="108"/>
       <c r="M19" s="108"/>
-      <c r="N19" s="115" t="s">
+      <c r="N19" s="114" t="s">
         <v>186</v>
       </c>
       <c r="O19" s="108"/>
@@ -3749,27 +3763,27 @@
       <c r="A20" s="55">
         <v>13</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="108"/>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="114" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="108"/>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="114" t="s">
         <v>193</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
       <c r="I20" s="108"/>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="114" t="s">
         <v>194</v>
       </c>
       <c r="K20" s="108"/>
       <c r="L20" s="108"/>
       <c r="M20" s="108"/>
-      <c r="N20" s="115" t="s">
+      <c r="N20" s="114" t="s">
         <v>186</v>
       </c>
       <c r="O20" s="108"/>
@@ -3786,27 +3800,27 @@
       <c r="A21" s="55">
         <v>14</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="108"/>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="108"/>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="114" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
       <c r="I21" s="108"/>
-      <c r="J21" s="115" t="s">
+      <c r="J21" s="114" t="s">
         <v>196</v>
       </c>
       <c r="K21" s="108"/>
       <c r="L21" s="108"/>
       <c r="M21" s="108"/>
-      <c r="N21" s="115" t="s">
+      <c r="N21" s="114" t="s">
         <v>197</v>
       </c>
       <c r="O21" s="108"/>
@@ -3823,27 +3837,27 @@
       <c r="A22" s="55">
         <v>15</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="108"/>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="108"/>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="114" t="s">
         <v>198</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="108"/>
       <c r="I22" s="108"/>
-      <c r="J22" s="115" t="s">
+      <c r="J22" s="114" t="s">
         <v>199</v>
       </c>
       <c r="K22" s="108"/>
       <c r="L22" s="108"/>
       <c r="M22" s="108"/>
-      <c r="N22" s="115" t="s">
+      <c r="N22" s="114" t="s">
         <v>286</v>
       </c>
       <c r="O22" s="108"/>
@@ -3860,27 +3874,27 @@
       <c r="A23" s="55">
         <v>16</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="108"/>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="108"/>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="114" t="s">
         <v>200</v>
       </c>
       <c r="G23" s="108"/>
       <c r="H23" s="108"/>
       <c r="I23" s="108"/>
-      <c r="J23" s="115" t="s">
+      <c r="J23" s="114" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="108"/>
       <c r="L23" s="108"/>
       <c r="M23" s="108"/>
-      <c r="N23" s="115" t="s">
+      <c r="N23" s="114" t="s">
         <v>202</v>
       </c>
       <c r="O23" s="108"/>
@@ -3897,27 +3911,27 @@
       <c r="A24" s="55">
         <v>17</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="108"/>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="108"/>
-      <c r="F24" s="115" t="s">
+      <c r="F24" s="114" t="s">
         <v>255</v>
       </c>
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
       <c r="I24" s="108"/>
-      <c r="J24" s="115" t="s">
+      <c r="J24" s="114" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="108"/>
       <c r="L24" s="108"/>
       <c r="M24" s="108"/>
-      <c r="N24" s="115" t="s">
+      <c r="N24" s="114" t="s">
         <v>204</v>
       </c>
       <c r="O24" s="108"/>
@@ -3934,27 +3948,27 @@
       <c r="A25" s="55">
         <v>18</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="108"/>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="114" t="s">
         <v>205</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
       <c r="I25" s="108"/>
-      <c r="J25" s="115" t="s">
+      <c r="J25" s="114" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="108"/>
       <c r="L25" s="108"/>
       <c r="M25" s="108"/>
-      <c r="N25" s="115" t="s">
+      <c r="N25" s="114" t="s">
         <v>204</v>
       </c>
       <c r="O25" s="108"/>
@@ -3969,27 +3983,27 @@
       <c r="A26" s="55">
         <v>19</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="108"/>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="108"/>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="114" t="s">
         <v>207</v>
       </c>
       <c r="G26" s="108"/>
       <c r="H26" s="108"/>
       <c r="I26" s="108"/>
-      <c r="J26" s="115" t="s">
+      <c r="J26" s="114" t="s">
         <v>208</v>
       </c>
       <c r="K26" s="108"/>
       <c r="L26" s="108"/>
       <c r="M26" s="108"/>
-      <c r="N26" s="115" t="s">
+      <c r="N26" s="114" t="s">
         <v>209</v>
       </c>
       <c r="O26" s="108"/>
@@ -4006,11 +4020,11 @@
       <c r="A27" s="55">
         <v>20</v>
       </c>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="108"/>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="108"/>
@@ -4043,27 +4057,27 @@
       <c r="A28" s="55">
         <v>21</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="108"/>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="108"/>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="114" t="s">
         <v>227</v>
       </c>
       <c r="G28" s="108"/>
       <c r="H28" s="108"/>
       <c r="I28" s="108"/>
-      <c r="J28" s="115" t="s">
+      <c r="J28" s="114" t="s">
         <v>226</v>
       </c>
       <c r="K28" s="108"/>
       <c r="L28" s="108"/>
       <c r="M28" s="108"/>
-      <c r="N28" s="115" t="s">
+      <c r="N28" s="114" t="s">
         <v>212</v>
       </c>
       <c r="O28" s="108"/>
@@ -4078,27 +4092,27 @@
       <c r="A29" s="55">
         <v>22</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="108"/>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="108"/>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="114" t="s">
         <v>213</v>
       </c>
       <c r="G29" s="108"/>
       <c r="H29" s="108"/>
       <c r="I29" s="108"/>
-      <c r="J29" s="115" t="s">
+      <c r="J29" s="114" t="s">
         <v>214</v>
       </c>
       <c r="K29" s="108"/>
       <c r="L29" s="108"/>
       <c r="M29" s="108"/>
-      <c r="N29" s="115" t="s">
+      <c r="N29" s="114" t="s">
         <v>212</v>
       </c>
       <c r="O29" s="108"/>
@@ -4113,27 +4127,27 @@
       <c r="A30" s="55">
         <v>23</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="108"/>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="114" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="108"/>
-      <c r="F30" s="115" t="s">
+      <c r="F30" s="114" t="s">
         <v>215</v>
       </c>
       <c r="G30" s="108"/>
       <c r="H30" s="108"/>
       <c r="I30" s="108"/>
-      <c r="J30" s="115" t="s">
+      <c r="J30" s="114" t="s">
         <v>216</v>
       </c>
       <c r="K30" s="108"/>
       <c r="L30" s="108"/>
       <c r="M30" s="108"/>
-      <c r="N30" s="115" t="s">
+      <c r="N30" s="114" t="s">
         <v>186</v>
       </c>
       <c r="O30" s="108"/>
@@ -4148,27 +4162,27 @@
       <c r="A31" s="55">
         <v>24</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="108"/>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="108"/>
-      <c r="F31" s="115" t="s">
+      <c r="F31" s="114" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="108"/>
       <c r="H31" s="108"/>
       <c r="I31" s="108"/>
-      <c r="J31" s="115" t="s">
+      <c r="J31" s="114" t="s">
         <v>218</v>
       </c>
       <c r="K31" s="108"/>
       <c r="L31" s="108"/>
       <c r="M31" s="108"/>
-      <c r="N31" s="115" t="s">
+      <c r="N31" s="114" t="s">
         <v>219</v>
       </c>
       <c r="O31" s="108"/>
@@ -4185,27 +4199,27 @@
       <c r="A32" s="55">
         <v>25</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="108"/>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="108"/>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="114" t="s">
         <v>220</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="108"/>
       <c r="I32" s="108"/>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="114" t="s">
         <v>221</v>
       </c>
       <c r="K32" s="108"/>
       <c r="L32" s="108"/>
       <c r="M32" s="108"/>
-      <c r="N32" s="115" t="s">
+      <c r="N32" s="114" t="s">
         <v>222</v>
       </c>
       <c r="O32" s="108"/>
@@ -4222,27 +4236,27 @@
       <c r="A33" s="55">
         <v>26</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="108"/>
-      <c r="D33" s="115" t="s">
+      <c r="D33" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="108"/>
-      <c r="F33" s="115" t="s">
+      <c r="F33" s="114" t="s">
         <v>223</v>
       </c>
       <c r="G33" s="108"/>
       <c r="H33" s="108"/>
       <c r="I33" s="108"/>
-      <c r="J33" s="115" t="s">
+      <c r="J33" s="114" t="s">
         <v>224</v>
       </c>
       <c r="K33" s="108"/>
       <c r="L33" s="108"/>
       <c r="M33" s="108"/>
-      <c r="N33" s="115" t="s">
+      <c r="N33" s="114" t="s">
         <v>212</v>
       </c>
       <c r="O33" s="108"/>
@@ -4257,27 +4271,27 @@
       <c r="A34" s="55">
         <v>27</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="108"/>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="108"/>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="114" t="s">
         <v>225</v>
       </c>
       <c r="G34" s="108"/>
       <c r="H34" s="108"/>
       <c r="I34" s="108"/>
-      <c r="J34" s="115" t="s">
+      <c r="J34" s="114" t="s">
         <v>228</v>
       </c>
       <c r="K34" s="108"/>
       <c r="L34" s="108"/>
       <c r="M34" s="108"/>
-      <c r="N34" s="115" t="s">
+      <c r="N34" s="114" t="s">
         <v>229</v>
       </c>
       <c r="O34" s="108"/>
@@ -4292,27 +4306,27 @@
       <c r="A35" s="55">
         <v>28</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="108"/>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="108"/>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="114" t="s">
         <v>258</v>
       </c>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
       <c r="I35" s="108"/>
-      <c r="J35" s="115" t="s">
+      <c r="J35" s="114" t="s">
         <v>230</v>
       </c>
       <c r="K35" s="108"/>
       <c r="L35" s="108"/>
       <c r="M35" s="108"/>
-      <c r="N35" s="115" t="s">
+      <c r="N35" s="114" t="s">
         <v>229</v>
       </c>
       <c r="O35" s="108"/>
@@ -4327,21 +4341,21 @@
       <c r="A36" s="55">
         <v>29</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="108"/>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="108"/>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="114" t="s">
         <v>248</v>
       </c>
       <c r="G36" s="108"/>
       <c r="H36" s="108"/>
       <c r="I36" s="108"/>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="114" t="s">
         <v>249</v>
       </c>
       <c r="K36" s="108"/>
@@ -4360,27 +4374,27 @@
       <c r="A37" s="55">
         <v>30</v>
       </c>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="108"/>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="108"/>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="114" t="s">
         <v>231</v>
       </c>
       <c r="G37" s="108"/>
       <c r="H37" s="108"/>
       <c r="I37" s="108"/>
-      <c r="J37" s="115" t="s">
+      <c r="J37" s="114" t="s">
         <v>232</v>
       </c>
       <c r="K37" s="108"/>
       <c r="L37" s="108"/>
       <c r="M37" s="108"/>
-      <c r="N37" s="115" t="s">
+      <c r="N37" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O37" s="108"/>
@@ -4397,27 +4411,27 @@
       <c r="A38" s="55">
         <v>31</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="108"/>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="108"/>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="114" t="s">
         <v>233</v>
       </c>
       <c r="G38" s="108"/>
       <c r="H38" s="108"/>
       <c r="I38" s="108"/>
-      <c r="J38" s="115" t="s">
+      <c r="J38" s="114" t="s">
         <v>234</v>
       </c>
       <c r="K38" s="108"/>
       <c r="L38" s="108"/>
       <c r="M38" s="108"/>
-      <c r="N38" s="115" t="s">
+      <c r="N38" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O38" s="108"/>
@@ -4432,27 +4446,27 @@
       <c r="A39" s="55">
         <v>32</v>
       </c>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="108"/>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="108"/>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="114" t="s">
         <v>236</v>
       </c>
       <c r="G39" s="108"/>
       <c r="H39" s="108"/>
       <c r="I39" s="108"/>
-      <c r="J39" s="115" t="s">
+      <c r="J39" s="114" t="s">
         <v>235</v>
       </c>
       <c r="K39" s="108"/>
       <c r="L39" s="108"/>
       <c r="M39" s="108"/>
-      <c r="N39" s="115" t="s">
+      <c r="N39" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O39" s="108"/>
@@ -4467,27 +4481,27 @@
       <c r="A40" s="55">
         <v>33</v>
       </c>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="108"/>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="108"/>
-      <c r="F40" s="115" t="s">
+      <c r="F40" s="114" t="s">
         <v>237</v>
       </c>
       <c r="G40" s="108"/>
       <c r="H40" s="108"/>
       <c r="I40" s="108"/>
-      <c r="J40" s="115" t="s">
+      <c r="J40" s="114" t="s">
         <v>238</v>
       </c>
       <c r="K40" s="108"/>
       <c r="L40" s="108"/>
       <c r="M40" s="108"/>
-      <c r="N40" s="115" t="s">
+      <c r="N40" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O40" s="108"/>
@@ -4502,27 +4516,27 @@
       <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="108"/>
-      <c r="D41" s="115" t="s">
+      <c r="D41" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="108"/>
-      <c r="F41" s="115" t="s">
+      <c r="F41" s="114" t="s">
         <v>239</v>
       </c>
       <c r="G41" s="108"/>
       <c r="H41" s="108"/>
       <c r="I41" s="108"/>
-      <c r="J41" s="115" t="s">
+      <c r="J41" s="114" t="s">
         <v>240</v>
       </c>
       <c r="K41" s="108"/>
       <c r="L41" s="108"/>
       <c r="M41" s="108"/>
-      <c r="N41" s="115" t="s">
+      <c r="N41" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O41" s="108"/>
@@ -4537,27 +4551,27 @@
       <c r="A42" s="55">
         <v>35</v>
       </c>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="108"/>
-      <c r="D42" s="115" t="s">
+      <c r="D42" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="108"/>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="114" t="s">
         <v>241</v>
       </c>
       <c r="G42" s="108"/>
       <c r="H42" s="108"/>
       <c r="I42" s="108"/>
-      <c r="J42" s="115" t="s">
+      <c r="J42" s="114" t="s">
         <v>242</v>
       </c>
       <c r="K42" s="108"/>
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
-      <c r="N42" s="115" t="s">
+      <c r="N42" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O42" s="108"/>
@@ -4572,27 +4586,27 @@
       <c r="A43" s="55">
         <v>36</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="108"/>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="108"/>
-      <c r="F43" s="115" t="s">
+      <c r="F43" s="114" t="s">
         <v>243</v>
       </c>
       <c r="G43" s="108"/>
       <c r="H43" s="108"/>
       <c r="I43" s="108"/>
-      <c r="J43" s="115" t="s">
+      <c r="J43" s="114" t="s">
         <v>244</v>
       </c>
       <c r="K43" s="108"/>
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
-      <c r="N43" s="115" t="s">
+      <c r="N43" s="114" t="s">
         <v>172</v>
       </c>
       <c r="O43" s="108"/>
@@ -4607,11 +4621,11 @@
       <c r="A44" s="55">
         <v>37</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="108"/>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="114" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="108"/>
@@ -4621,13 +4635,13 @@
       <c r="G44" s="108"/>
       <c r="H44" s="108"/>
       <c r="I44" s="108"/>
-      <c r="J44" s="115" t="s">
+      <c r="J44" s="114" t="s">
         <v>245</v>
       </c>
       <c r="K44" s="108"/>
       <c r="L44" s="108"/>
       <c r="M44" s="108"/>
-      <c r="N44" s="115" t="s">
+      <c r="N44" s="114" t="s">
         <v>164</v>
       </c>
       <c r="O44" s="108"/>
@@ -4644,27 +4658,27 @@
       <c r="A45" s="55">
         <v>38</v>
       </c>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="108"/>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="114" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="108"/>
-      <c r="F45" s="115" t="s">
+      <c r="F45" s="114" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="108"/>
       <c r="H45" s="108"/>
       <c r="I45" s="108"/>
-      <c r="J45" s="115" t="s">
+      <c r="J45" s="114" t="s">
         <v>247</v>
       </c>
       <c r="K45" s="108"/>
       <c r="L45" s="108"/>
       <c r="M45" s="108"/>
-      <c r="N45" s="115" t="s">
+      <c r="N45" s="114" t="s">
         <v>164</v>
       </c>
       <c r="O45" s="108"/>
@@ -4673,33 +4687,35 @@
       <c r="R45" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S45" s="55"/>
+      <c r="S45" s="126" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="55">
         <v>39</v>
       </c>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="108"/>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="108"/>
-      <c r="F46" s="115" t="s">
+      <c r="F46" s="114" t="s">
         <v>250</v>
       </c>
       <c r="G46" s="108"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
-      <c r="J46" s="115" t="s">
+      <c r="J46" s="114" t="s">
         <v>251</v>
       </c>
       <c r="K46" s="108"/>
       <c r="L46" s="108"/>
       <c r="M46" s="108"/>
-      <c r="N46" s="115" t="s">
+      <c r="N46" s="114" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="108"/>
@@ -4716,27 +4732,27 @@
       <c r="A47" s="55">
         <v>40</v>
       </c>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="108"/>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="108"/>
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="114" t="s">
         <v>253</v>
       </c>
       <c r="G47" s="108"/>
       <c r="H47" s="108"/>
       <c r="I47" s="108"/>
-      <c r="J47" s="115" t="s">
+      <c r="J47" s="114" t="s">
         <v>279</v>
       </c>
       <c r="K47" s="108"/>
       <c r="L47" s="108"/>
       <c r="M47" s="108"/>
-      <c r="N47" s="115" t="s">
+      <c r="N47" s="114" t="s">
         <v>254</v>
       </c>
       <c r="O47" s="108"/>
@@ -4753,31 +4769,31 @@
       <c r="A48" s="55">
         <v>41</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="114" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="108"/>
-      <c r="D48" s="115" t="s">
+      <c r="D48" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="108"/>
-      <c r="F48" s="115" t="s">
+      <c r="F48" s="114" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="108"/>
       <c r="H48" s="108"/>
       <c r="I48" s="108"/>
-      <c r="J48" s="115" t="s">
+      <c r="J48" s="114" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="108"/>
       <c r="L48" s="108"/>
       <c r="M48" s="108"/>
-      <c r="N48" s="115" t="s">
+      <c r="N48" s="114" t="s">
         <v>11</v>
       </c>
       <c r="O48" s="108"/>
-      <c r="P48" s="115"/>
+      <c r="P48" s="114"/>
       <c r="Q48" s="108"/>
       <c r="R48" s="54" t="s">
         <v>97</v>
@@ -4791,28 +4807,28 @@
       <c r="B49" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115" t="s">
+      <c r="E49" s="114"/>
+      <c r="F49" s="114" t="s">
         <v>282</v>
       </c>
       <c r="G49" s="108"/>
       <c r="H49" s="108"/>
       <c r="I49" s="108"/>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="114" t="s">
         <v>283</v>
       </c>
       <c r="K49" s="108"/>
       <c r="L49" s="108"/>
       <c r="M49" s="108"/>
-      <c r="N49" s="115" t="s">
+      <c r="N49" s="114" t="s">
         <v>11</v>
       </c>
       <c r="O49" s="108"/>
-      <c r="P49" s="115"/>
+   